--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F32FF2D-B19E-4FA5-AC7E-4394C3DA864C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB9BE5-945A-41B0-9036-86A6AEA35D0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,12 +1167,14 @@
   <dimension ref="A1:CG201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.44140625" style="1" customWidth="1"/>
@@ -18894,7 +18896,7 @@
       <formula1>"A品,B品,C品,D品"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H201" xr:uid="{AABF1CA7-D4B5-4E6D-BA4F-1C322677D249}">
-      <formula1>"品采,辅采,OEM,服纺,鞋品"</formula1>
+      <formula1>"品采部,辅采部,OEM部,服纺部,鞋品部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K201" xr:uid="{EC65B751-B351-4BF0-90C0-50420D4C4C32}">
       <formula1>"管理,不管理"</formula1>
@@ -18905,7 +18907,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N201" xr:uid="{80CA3046-3071-4FE3-8DB1-69F3828C3CE0}">
       <formula1>"配送,直送,全部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201" xr:uid="{C05C06D7-B16E-4A91-8E2B-7799CD50C806}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W201 T3:T201 R3:R201" xr:uid="{C05C06D7-B16E-4A91-8E2B-7799CD50C806}">
       <formula1>"否,是"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201" xr:uid="{6109EF84-C943-4F54-B465-F0340303FA8E}">

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB9BE5-945A-41B0-9036-86A6AEA35D0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB1F56-0F3E-4F13-9A4C-60927C60E449}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +881,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1169,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CG201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CE17" sqref="CE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1317,7 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1560,7 +1563,7 @@
       <c r="CF2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="CG2" s="12" t="s">
+      <c r="CG2" s="21" t="s">
         <v>91</v>
       </c>
     </row>
@@ -18888,7 +18891,7 @@
     <mergeCell ref="BY1:CC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201" xr:uid="{DDA78480-1D99-4F04-B172-C7FF93B270C4}">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
@@ -18922,6 +18925,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO201" xr:uid="{D43B3A5D-6899-43A5-AC9C-E06D66D361B8}">
       <formula1>"配送,直送"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ3:BZ1048576 CA3:CA1048576 CB3:CB1048576 CC3:CC1048576 BY3:BY1048576" xr:uid="{9BB53F67-6828-48D0-99F3-E37567D4CB27}">
+      <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB1F56-0F3E-4F13-9A4C-60927C60E449}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF49791-5313-4A39-A54E-C78C6D604D9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{6AE13FE0-C9CD-4B8E-9E8F-242960B9B314}">
+    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{6AE13FE0-C9CD-4B8E-9E8F-242960B9B314}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="0" shapeId="0" xr:uid="{279382E6-4988-4865-A8A1-3864FCE56611}">
+    <comment ref="BM2" authorId="0" shapeId="0" xr:uid="{279382E6-4988-4865-A8A1-3864FCE56611}">
       <text>
         <r>
           <rPr>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,14 +433,6 @@
   </si>
   <si>
     <t>销售单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售基商品含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售拆零系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -859,6 +851,9 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,9 +876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CG201"/>
+  <dimension ref="A1:CE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CE17" sqref="CE17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC10" sqref="BC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1193,124 +1185,120 @@
     <col min="49" max="49" width="13.77734375" style="1" customWidth="1"/>
     <col min="50" max="50" width="16.21875" style="1" customWidth="1"/>
     <col min="51" max="52" width="13.77734375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="16.77734375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.21875" style="1" customWidth="1"/>
     <col min="54" max="54" width="13.77734375" style="1" customWidth="1"/>
-    <col min="55" max="55" width="15.21875" style="1" customWidth="1"/>
-    <col min="56" max="56" width="13.77734375" style="1" customWidth="1"/>
-    <col min="57" max="61" width="18" style="1" customWidth="1"/>
-    <col min="62" max="66" width="15.6640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="22.77734375" style="1" customWidth="1"/>
-    <col min="68" max="76" width="14" style="1" customWidth="1"/>
-    <col min="77" max="81" width="12.5546875" style="1" customWidth="1"/>
-    <col min="82" max="84" width="15.44140625" style="1" customWidth="1"/>
-    <col min="85" max="85" width="19.77734375" style="1" customWidth="1"/>
-    <col min="86" max="16384" width="8.77734375" style="1"/>
+    <col min="55" max="59" width="18" style="1" customWidth="1"/>
+    <col min="60" max="64" width="15.6640625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="22.77734375" style="1" customWidth="1"/>
+    <col min="66" max="74" width="14" style="1" customWidth="1"/>
+    <col min="75" max="79" width="12.5546875" style="1" customWidth="1"/>
+    <col min="80" max="82" width="15.44140625" style="1" customWidth="1"/>
+    <col min="83" max="83" width="19.77734375" style="1" customWidth="1"/>
+    <col min="84" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="4" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:83" s="4" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="15" t="s">
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="17" t="s">
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="18" t="s">
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="19" t="s">
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BQ1" s="19"/>
-      <c r="BR1" s="19"/>
-      <c r="BS1" s="19"/>
-      <c r="BT1" s="19"/>
-      <c r="BU1" s="19"/>
-      <c r="BV1" s="19"/>
-      <c r="BW1" s="19"/>
-      <c r="BX1" s="19"/>
-      <c r="BY1" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="BZ1" s="20"/>
-      <c r="CA1" s="20"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:85" s="5" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:83" s="5" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1396,19 +1384,19 @@
         <v>28</v>
       </c>
       <c r="AC2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AG2" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>29</v>
@@ -1420,19 +1408,19 @@
         <v>31</v>
       </c>
       <c r="AK2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AN2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AO2" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="AP2" s="10" t="s">
         <v>32</v>
@@ -1459,7 +1447,7 @@
         <v>39</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY2" s="10" t="s">
         <v>40</v>
@@ -1473,11 +1461,11 @@
       <c r="BB2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="BC2" s="10" t="s">
-        <v>44</v>
+      <c r="BC2" s="12" t="s">
+        <v>55</v>
       </c>
-      <c r="BD2" s="10" t="s">
-        <v>45</v>
+      <c r="BD2" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="BE2" s="12" t="s">
         <v>57</v>
@@ -1488,28 +1476,28 @@
       <c r="BG2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BH2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" s="12" t="s">
+      <c r="BI2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BJ2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BN2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="BO2" s="6" t="s">
+      <c r="BO2" s="10" t="s">
         <v>65</v>
       </c>
       <c r="BP2" s="10" t="s">
@@ -1533,10 +1521,10 @@
       <c r="BV2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BW2" s="10" t="s">
+      <c r="BW2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BX2" s="10" t="s">
+      <c r="BX2" s="12" t="s">
         <v>74</v>
       </c>
       <c r="BY2" s="12" t="s">
@@ -1548,26 +1536,20 @@
       <c r="CA2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="CB2" s="12" t="s">
+      <c r="CB2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="CC2" s="12" t="s">
+      <c r="CC2" s="11" t="s">
         <v>79</v>
       </c>
       <c r="CD2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="CE2" s="11" t="s">
-        <v>81</v>
+      <c r="CE2" s="13" t="s">
+        <v>89</v>
       </c>
-      <c r="CF2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG2" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1651,10 +1633,8 @@
       <c r="CC3" s="2"/>
       <c r="CD3" s="2"/>
       <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-    </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1738,10 +1718,8 @@
       <c r="CC4" s="2"/>
       <c r="CD4" s="2"/>
       <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
-    </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1825,10 +1803,8 @@
       <c r="CC5" s="2"/>
       <c r="CD5" s="2"/>
       <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
-    </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1912,10 +1888,8 @@
       <c r="CC6" s="2"/>
       <c r="CD6" s="2"/>
       <c r="CE6" s="2"/>
-      <c r="CF6" s="2"/>
-      <c r="CG6" s="2"/>
-    </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1999,10 +1973,8 @@
       <c r="CC7" s="2"/>
       <c r="CD7" s="2"/>
       <c r="CE7" s="2"/>
-      <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
-    </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2086,10 +2058,8 @@
       <c r="CC8" s="2"/>
       <c r="CD8" s="2"/>
       <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-    </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2173,10 +2143,8 @@
       <c r="CC9" s="2"/>
       <c r="CD9" s="2"/>
       <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-    </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2260,10 +2228,8 @@
       <c r="CC10" s="2"/>
       <c r="CD10" s="2"/>
       <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-    </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2347,10 +2313,8 @@
       <c r="CC11" s="2"/>
       <c r="CD11" s="2"/>
       <c r="CE11" s="2"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
-    </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2434,10 +2398,8 @@
       <c r="CC12" s="2"/>
       <c r="CD12" s="2"/>
       <c r="CE12" s="2"/>
-      <c r="CF12" s="2"/>
-      <c r="CG12" s="2"/>
-    </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2521,10 +2483,8 @@
       <c r="CC13" s="2"/>
       <c r="CD13" s="2"/>
       <c r="CE13" s="2"/>
-      <c r="CF13" s="2"/>
-      <c r="CG13" s="2"/>
-    </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2608,10 +2568,8 @@
       <c r="CC14" s="2"/>
       <c r="CD14" s="2"/>
       <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="2"/>
-    </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2695,10 +2653,8 @@
       <c r="CC15" s="2"/>
       <c r="CD15" s="2"/>
       <c r="CE15" s="2"/>
-      <c r="CF15" s="2"/>
-      <c r="CG15" s="2"/>
-    </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2782,10 +2738,8 @@
       <c r="CC16" s="2"/>
       <c r="CD16" s="2"/>
       <c r="CE16" s="2"/>
-      <c r="CF16" s="2"/>
-      <c r="CG16" s="2"/>
-    </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2869,10 +2823,8 @@
       <c r="CC17" s="2"/>
       <c r="CD17" s="2"/>
       <c r="CE17" s="2"/>
-      <c r="CF17" s="2"/>
-      <c r="CG17" s="2"/>
-    </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2956,10 +2908,8 @@
       <c r="CC18" s="2"/>
       <c r="CD18" s="2"/>
       <c r="CE18" s="2"/>
-      <c r="CF18" s="2"/>
-      <c r="CG18" s="2"/>
-    </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3043,10 +2993,8 @@
       <c r="CC19" s="2"/>
       <c r="CD19" s="2"/>
       <c r="CE19" s="2"/>
-      <c r="CF19" s="2"/>
-      <c r="CG19" s="2"/>
-    </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3130,10 +3078,8 @@
       <c r="CC20" s="2"/>
       <c r="CD20" s="2"/>
       <c r="CE20" s="2"/>
-      <c r="CF20" s="2"/>
-      <c r="CG20" s="2"/>
-    </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3217,10 +3163,8 @@
       <c r="CC21" s="2"/>
       <c r="CD21" s="2"/>
       <c r="CE21" s="2"/>
-      <c r="CF21" s="2"/>
-      <c r="CG21" s="2"/>
-    </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3304,10 +3248,8 @@
       <c r="CC22" s="2"/>
       <c r="CD22" s="2"/>
       <c r="CE22" s="2"/>
-      <c r="CF22" s="2"/>
-      <c r="CG22" s="2"/>
-    </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3391,10 +3333,8 @@
       <c r="CC23" s="2"/>
       <c r="CD23" s="2"/>
       <c r="CE23" s="2"/>
-      <c r="CF23" s="2"/>
-      <c r="CG23" s="2"/>
-    </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3478,10 +3418,8 @@
       <c r="CC24" s="2"/>
       <c r="CD24" s="2"/>
       <c r="CE24" s="2"/>
-      <c r="CF24" s="2"/>
-      <c r="CG24" s="2"/>
-    </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3565,10 +3503,8 @@
       <c r="CC25" s="2"/>
       <c r="CD25" s="2"/>
       <c r="CE25" s="2"/>
-      <c r="CF25" s="2"/>
-      <c r="CG25" s="2"/>
-    </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3652,10 +3588,8 @@
       <c r="CC26" s="2"/>
       <c r="CD26" s="2"/>
       <c r="CE26" s="2"/>
-      <c r="CF26" s="2"/>
-      <c r="CG26" s="2"/>
-    </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3739,10 +3673,8 @@
       <c r="CC27" s="2"/>
       <c r="CD27" s="2"/>
       <c r="CE27" s="2"/>
-      <c r="CF27" s="2"/>
-      <c r="CG27" s="2"/>
-    </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3826,10 +3758,8 @@
       <c r="CC28" s="2"/>
       <c r="CD28" s="2"/>
       <c r="CE28" s="2"/>
-      <c r="CF28" s="2"/>
-      <c r="CG28" s="2"/>
-    </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3913,10 +3843,8 @@
       <c r="CC29" s="2"/>
       <c r="CD29" s="2"/>
       <c r="CE29" s="2"/>
-      <c r="CF29" s="2"/>
-      <c r="CG29" s="2"/>
-    </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4000,10 +3928,8 @@
       <c r="CC30" s="2"/>
       <c r="CD30" s="2"/>
       <c r="CE30" s="2"/>
-      <c r="CF30" s="2"/>
-      <c r="CG30" s="2"/>
-    </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4087,10 +4013,8 @@
       <c r="CC31" s="2"/>
       <c r="CD31" s="2"/>
       <c r="CE31" s="2"/>
-      <c r="CF31" s="2"/>
-      <c r="CG31" s="2"/>
-    </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4174,10 +4098,8 @@
       <c r="CC32" s="2"/>
       <c r="CD32" s="2"/>
       <c r="CE32" s="2"/>
-      <c r="CF32" s="2"/>
-      <c r="CG32" s="2"/>
-    </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4261,10 +4183,8 @@
       <c r="CC33" s="2"/>
       <c r="CD33" s="2"/>
       <c r="CE33" s="2"/>
-      <c r="CF33" s="2"/>
-      <c r="CG33" s="2"/>
-    </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4348,10 +4268,8 @@
       <c r="CC34" s="2"/>
       <c r="CD34" s="2"/>
       <c r="CE34" s="2"/>
-      <c r="CF34" s="2"/>
-      <c r="CG34" s="2"/>
-    </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4435,10 +4353,8 @@
       <c r="CC35" s="2"/>
       <c r="CD35" s="2"/>
       <c r="CE35" s="2"/>
-      <c r="CF35" s="2"/>
-      <c r="CG35" s="2"/>
-    </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4522,10 +4438,8 @@
       <c r="CC36" s="2"/>
       <c r="CD36" s="2"/>
       <c r="CE36" s="2"/>
-      <c r="CF36" s="2"/>
-      <c r="CG36" s="2"/>
-    </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4609,10 +4523,8 @@
       <c r="CC37" s="2"/>
       <c r="CD37" s="2"/>
       <c r="CE37" s="2"/>
-      <c r="CF37" s="2"/>
-      <c r="CG37" s="2"/>
-    </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4696,10 +4608,8 @@
       <c r="CC38" s="2"/>
       <c r="CD38" s="2"/>
       <c r="CE38" s="2"/>
-      <c r="CF38" s="2"/>
-      <c r="CG38" s="2"/>
-    </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4783,10 +4693,8 @@
       <c r="CC39" s="2"/>
       <c r="CD39" s="2"/>
       <c r="CE39" s="2"/>
-      <c r="CF39" s="2"/>
-      <c r="CG39" s="2"/>
-    </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4870,10 +4778,8 @@
       <c r="CC40" s="2"/>
       <c r="CD40" s="2"/>
       <c r="CE40" s="2"/>
-      <c r="CF40" s="2"/>
-      <c r="CG40" s="2"/>
-    </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4957,10 +4863,8 @@
       <c r="CC41" s="2"/>
       <c r="CD41" s="2"/>
       <c r="CE41" s="2"/>
-      <c r="CF41" s="2"/>
-      <c r="CG41" s="2"/>
-    </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5044,10 +4948,8 @@
       <c r="CC42" s="2"/>
       <c r="CD42" s="2"/>
       <c r="CE42" s="2"/>
-      <c r="CF42" s="2"/>
-      <c r="CG42" s="2"/>
-    </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5131,10 +5033,8 @@
       <c r="CC43" s="2"/>
       <c r="CD43" s="2"/>
       <c r="CE43" s="2"/>
-      <c r="CF43" s="2"/>
-      <c r="CG43" s="2"/>
-    </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5218,10 +5118,8 @@
       <c r="CC44" s="2"/>
       <c r="CD44" s="2"/>
       <c r="CE44" s="2"/>
-      <c r="CF44" s="2"/>
-      <c r="CG44" s="2"/>
-    </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5305,10 +5203,8 @@
       <c r="CC45" s="2"/>
       <c r="CD45" s="2"/>
       <c r="CE45" s="2"/>
-      <c r="CF45" s="2"/>
-      <c r="CG45" s="2"/>
-    </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5392,10 +5288,8 @@
       <c r="CC46" s="2"/>
       <c r="CD46" s="2"/>
       <c r="CE46" s="2"/>
-      <c r="CF46" s="2"/>
-      <c r="CG46" s="2"/>
-    </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5479,10 +5373,8 @@
       <c r="CC47" s="2"/>
       <c r="CD47" s="2"/>
       <c r="CE47" s="2"/>
-      <c r="CF47" s="2"/>
-      <c r="CG47" s="2"/>
-    </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5566,10 +5458,8 @@
       <c r="CC48" s="2"/>
       <c r="CD48" s="2"/>
       <c r="CE48" s="2"/>
-      <c r="CF48" s="2"/>
-      <c r="CG48" s="2"/>
-    </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5653,10 +5543,8 @@
       <c r="CC49" s="2"/>
       <c r="CD49" s="2"/>
       <c r="CE49" s="2"/>
-      <c r="CF49" s="2"/>
-      <c r="CG49" s="2"/>
-    </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5740,10 +5628,8 @@
       <c r="CC50" s="2"/>
       <c r="CD50" s="2"/>
       <c r="CE50" s="2"/>
-      <c r="CF50" s="2"/>
-      <c r="CG50" s="2"/>
-    </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5827,10 +5713,8 @@
       <c r="CC51" s="2"/>
       <c r="CD51" s="2"/>
       <c r="CE51" s="2"/>
-      <c r="CF51" s="2"/>
-      <c r="CG51" s="2"/>
-    </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5914,10 +5798,8 @@
       <c r="CC52" s="2"/>
       <c r="CD52" s="2"/>
       <c r="CE52" s="2"/>
-      <c r="CF52" s="2"/>
-      <c r="CG52" s="2"/>
-    </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -6001,10 +5883,8 @@
       <c r="CC53" s="2"/>
       <c r="CD53" s="2"/>
       <c r="CE53" s="2"/>
-      <c r="CF53" s="2"/>
-      <c r="CG53" s="2"/>
-    </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -6088,10 +5968,8 @@
       <c r="CC54" s="2"/>
       <c r="CD54" s="2"/>
       <c r="CE54" s="2"/>
-      <c r="CF54" s="2"/>
-      <c r="CG54" s="2"/>
-    </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6175,10 +6053,8 @@
       <c r="CC55" s="2"/>
       <c r="CD55" s="2"/>
       <c r="CE55" s="2"/>
-      <c r="CF55" s="2"/>
-      <c r="CG55" s="2"/>
-    </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6262,10 +6138,8 @@
       <c r="CC56" s="2"/>
       <c r="CD56" s="2"/>
       <c r="CE56" s="2"/>
-      <c r="CF56" s="2"/>
-      <c r="CG56" s="2"/>
-    </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6349,10 +6223,8 @@
       <c r="CC57" s="2"/>
       <c r="CD57" s="2"/>
       <c r="CE57" s="2"/>
-      <c r="CF57" s="2"/>
-      <c r="CG57" s="2"/>
-    </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6436,10 +6308,8 @@
       <c r="CC58" s="2"/>
       <c r="CD58" s="2"/>
       <c r="CE58" s="2"/>
-      <c r="CF58" s="2"/>
-      <c r="CG58" s="2"/>
-    </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6523,10 +6393,8 @@
       <c r="CC59" s="2"/>
       <c r="CD59" s="2"/>
       <c r="CE59" s="2"/>
-      <c r="CF59" s="2"/>
-      <c r="CG59" s="2"/>
-    </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6610,10 +6478,8 @@
       <c r="CC60" s="2"/>
       <c r="CD60" s="2"/>
       <c r="CE60" s="2"/>
-      <c r="CF60" s="2"/>
-      <c r="CG60" s="2"/>
-    </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6697,10 +6563,8 @@
       <c r="CC61" s="2"/>
       <c r="CD61" s="2"/>
       <c r="CE61" s="2"/>
-      <c r="CF61" s="2"/>
-      <c r="CG61" s="2"/>
-    </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6784,10 +6648,8 @@
       <c r="CC62" s="2"/>
       <c r="CD62" s="2"/>
       <c r="CE62" s="2"/>
-      <c r="CF62" s="2"/>
-      <c r="CG62" s="2"/>
-    </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6871,10 +6733,8 @@
       <c r="CC63" s="2"/>
       <c r="CD63" s="2"/>
       <c r="CE63" s="2"/>
-      <c r="CF63" s="2"/>
-      <c r="CG63" s="2"/>
-    </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6958,10 +6818,8 @@
       <c r="CC64" s="2"/>
       <c r="CD64" s="2"/>
       <c r="CE64" s="2"/>
-      <c r="CF64" s="2"/>
-      <c r="CG64" s="2"/>
-    </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -7045,10 +6903,8 @@
       <c r="CC65" s="2"/>
       <c r="CD65" s="2"/>
       <c r="CE65" s="2"/>
-      <c r="CF65" s="2"/>
-      <c r="CG65" s="2"/>
-    </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -7132,10 +6988,8 @@
       <c r="CC66" s="2"/>
       <c r="CD66" s="2"/>
       <c r="CE66" s="2"/>
-      <c r="CF66" s="2"/>
-      <c r="CG66" s="2"/>
-    </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7219,10 +7073,8 @@
       <c r="CC67" s="2"/>
       <c r="CD67" s="2"/>
       <c r="CE67" s="2"/>
-      <c r="CF67" s="2"/>
-      <c r="CG67" s="2"/>
-    </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -7306,10 +7158,8 @@
       <c r="CC68" s="2"/>
       <c r="CD68" s="2"/>
       <c r="CE68" s="2"/>
-      <c r="CF68" s="2"/>
-      <c r="CG68" s="2"/>
-    </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7393,10 +7243,8 @@
       <c r="CC69" s="2"/>
       <c r="CD69" s="2"/>
       <c r="CE69" s="2"/>
-      <c r="CF69" s="2"/>
-      <c r="CG69" s="2"/>
-    </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -7480,10 +7328,8 @@
       <c r="CC70" s="2"/>
       <c r="CD70" s="2"/>
       <c r="CE70" s="2"/>
-      <c r="CF70" s="2"/>
-      <c r="CG70" s="2"/>
-    </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7567,10 +7413,8 @@
       <c r="CC71" s="2"/>
       <c r="CD71" s="2"/>
       <c r="CE71" s="2"/>
-      <c r="CF71" s="2"/>
-      <c r="CG71" s="2"/>
-    </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7654,10 +7498,8 @@
       <c r="CC72" s="2"/>
       <c r="CD72" s="2"/>
       <c r="CE72" s="2"/>
-      <c r="CF72" s="2"/>
-      <c r="CG72" s="2"/>
-    </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7741,10 +7583,8 @@
       <c r="CC73" s="2"/>
       <c r="CD73" s="2"/>
       <c r="CE73" s="2"/>
-      <c r="CF73" s="2"/>
-      <c r="CG73" s="2"/>
-    </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7828,10 +7668,8 @@
       <c r="CC74" s="2"/>
       <c r="CD74" s="2"/>
       <c r="CE74" s="2"/>
-      <c r="CF74" s="2"/>
-      <c r="CG74" s="2"/>
-    </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7915,10 +7753,8 @@
       <c r="CC75" s="2"/>
       <c r="CD75" s="2"/>
       <c r="CE75" s="2"/>
-      <c r="CF75" s="2"/>
-      <c r="CG75" s="2"/>
-    </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -8002,10 +7838,8 @@
       <c r="CC76" s="2"/>
       <c r="CD76" s="2"/>
       <c r="CE76" s="2"/>
-      <c r="CF76" s="2"/>
-      <c r="CG76" s="2"/>
-    </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -8089,10 +7923,8 @@
       <c r="CC77" s="2"/>
       <c r="CD77" s="2"/>
       <c r="CE77" s="2"/>
-      <c r="CF77" s="2"/>
-      <c r="CG77" s="2"/>
-    </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -8176,10 +8008,8 @@
       <c r="CC78" s="2"/>
       <c r="CD78" s="2"/>
       <c r="CE78" s="2"/>
-      <c r="CF78" s="2"/>
-      <c r="CG78" s="2"/>
-    </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -8263,10 +8093,8 @@
       <c r="CC79" s="2"/>
       <c r="CD79" s="2"/>
       <c r="CE79" s="2"/>
-      <c r="CF79" s="2"/>
-      <c r="CG79" s="2"/>
-    </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -8350,10 +8178,8 @@
       <c r="CC80" s="2"/>
       <c r="CD80" s="2"/>
       <c r="CE80" s="2"/>
-      <c r="CF80" s="2"/>
-      <c r="CG80" s="2"/>
-    </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -8437,10 +8263,8 @@
       <c r="CC81" s="2"/>
       <c r="CD81" s="2"/>
       <c r="CE81" s="2"/>
-      <c r="CF81" s="2"/>
-      <c r="CG81" s="2"/>
-    </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -8524,10 +8348,8 @@
       <c r="CC82" s="2"/>
       <c r="CD82" s="2"/>
       <c r="CE82" s="2"/>
-      <c r="CF82" s="2"/>
-      <c r="CG82" s="2"/>
-    </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8611,10 +8433,8 @@
       <c r="CC83" s="2"/>
       <c r="CD83" s="2"/>
       <c r="CE83" s="2"/>
-      <c r="CF83" s="2"/>
-      <c r="CG83" s="2"/>
-    </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8698,10 +8518,8 @@
       <c r="CC84" s="2"/>
       <c r="CD84" s="2"/>
       <c r="CE84" s="2"/>
-      <c r="CF84" s="2"/>
-      <c r="CG84" s="2"/>
-    </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -8785,10 +8603,8 @@
       <c r="CC85" s="2"/>
       <c r="CD85" s="2"/>
       <c r="CE85" s="2"/>
-      <c r="CF85" s="2"/>
-      <c r="CG85" s="2"/>
-    </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8872,10 +8688,8 @@
       <c r="CC86" s="2"/>
       <c r="CD86" s="2"/>
       <c r="CE86" s="2"/>
-      <c r="CF86" s="2"/>
-      <c r="CG86" s="2"/>
-    </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8959,10 +8773,8 @@
       <c r="CC87" s="2"/>
       <c r="CD87" s="2"/>
       <c r="CE87" s="2"/>
-      <c r="CF87" s="2"/>
-      <c r="CG87" s="2"/>
-    </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -9046,10 +8858,8 @@
       <c r="CC88" s="2"/>
       <c r="CD88" s="2"/>
       <c r="CE88" s="2"/>
-      <c r="CF88" s="2"/>
-      <c r="CG88" s="2"/>
-    </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -9133,10 +8943,8 @@
       <c r="CC89" s="2"/>
       <c r="CD89" s="2"/>
       <c r="CE89" s="2"/>
-      <c r="CF89" s="2"/>
-      <c r="CG89" s="2"/>
-    </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -9220,10 +9028,8 @@
       <c r="CC90" s="2"/>
       <c r="CD90" s="2"/>
       <c r="CE90" s="2"/>
-      <c r="CF90" s="2"/>
-      <c r="CG90" s="2"/>
-    </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9307,10 +9113,8 @@
       <c r="CC91" s="2"/>
       <c r="CD91" s="2"/>
       <c r="CE91" s="2"/>
-      <c r="CF91" s="2"/>
-      <c r="CG91" s="2"/>
-    </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9394,10 +9198,8 @@
       <c r="CC92" s="2"/>
       <c r="CD92" s="2"/>
       <c r="CE92" s="2"/>
-      <c r="CF92" s="2"/>
-      <c r="CG92" s="2"/>
-    </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9481,10 +9283,8 @@
       <c r="CC93" s="2"/>
       <c r="CD93" s="2"/>
       <c r="CE93" s="2"/>
-      <c r="CF93" s="2"/>
-      <c r="CG93" s="2"/>
-    </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9568,10 +9368,8 @@
       <c r="CC94" s="2"/>
       <c r="CD94" s="2"/>
       <c r="CE94" s="2"/>
-      <c r="CF94" s="2"/>
-      <c r="CG94" s="2"/>
-    </row>
-    <row r="95" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -9655,10 +9453,8 @@
       <c r="CC95" s="2"/>
       <c r="CD95" s="2"/>
       <c r="CE95" s="2"/>
-      <c r="CF95" s="2"/>
-      <c r="CG95" s="2"/>
-    </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -9742,10 +9538,8 @@
       <c r="CC96" s="2"/>
       <c r="CD96" s="2"/>
       <c r="CE96" s="2"/>
-      <c r="CF96" s="2"/>
-      <c r="CG96" s="2"/>
-    </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -9829,10 +9623,8 @@
       <c r="CC97" s="2"/>
       <c r="CD97" s="2"/>
       <c r="CE97" s="2"/>
-      <c r="CF97" s="2"/>
-      <c r="CG97" s="2"/>
-    </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -9916,10 +9708,8 @@
       <c r="CC98" s="2"/>
       <c r="CD98" s="2"/>
       <c r="CE98" s="2"/>
-      <c r="CF98" s="2"/>
-      <c r="CG98" s="2"/>
-    </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10003,10 +9793,8 @@
       <c r="CC99" s="2"/>
       <c r="CD99" s="2"/>
       <c r="CE99" s="2"/>
-      <c r="CF99" s="2"/>
-      <c r="CG99" s="2"/>
-    </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10090,10 +9878,8 @@
       <c r="CC100" s="2"/>
       <c r="CD100" s="2"/>
       <c r="CE100" s="2"/>
-      <c r="CF100" s="2"/>
-      <c r="CG100" s="2"/>
-    </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10177,10 +9963,8 @@
       <c r="CC101" s="2"/>
       <c r="CD101" s="2"/>
       <c r="CE101" s="2"/>
-      <c r="CF101" s="2"/>
-      <c r="CG101" s="2"/>
-    </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10264,10 +10048,8 @@
       <c r="CC102" s="2"/>
       <c r="CD102" s="2"/>
       <c r="CE102" s="2"/>
-      <c r="CF102" s="2"/>
-      <c r="CG102" s="2"/>
-    </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10351,10 +10133,8 @@
       <c r="CC103" s="2"/>
       <c r="CD103" s="2"/>
       <c r="CE103" s="2"/>
-      <c r="CF103" s="2"/>
-      <c r="CG103" s="2"/>
-    </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10438,10 +10218,8 @@
       <c r="CC104" s="2"/>
       <c r="CD104" s="2"/>
       <c r="CE104" s="2"/>
-      <c r="CF104" s="2"/>
-      <c r="CG104" s="2"/>
-    </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10525,10 +10303,8 @@
       <c r="CC105" s="2"/>
       <c r="CD105" s="2"/>
       <c r="CE105" s="2"/>
-      <c r="CF105" s="2"/>
-      <c r="CG105" s="2"/>
-    </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10612,10 +10388,8 @@
       <c r="CC106" s="2"/>
       <c r="CD106" s="2"/>
       <c r="CE106" s="2"/>
-      <c r="CF106" s="2"/>
-      <c r="CG106" s="2"/>
-    </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10699,10 +10473,8 @@
       <c r="CC107" s="2"/>
       <c r="CD107" s="2"/>
       <c r="CE107" s="2"/>
-      <c r="CF107" s="2"/>
-      <c r="CG107" s="2"/>
-    </row>
-    <row r="108" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10786,10 +10558,8 @@
       <c r="CC108" s="2"/>
       <c r="CD108" s="2"/>
       <c r="CE108" s="2"/>
-      <c r="CF108" s="2"/>
-      <c r="CG108" s="2"/>
-    </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10873,10 +10643,8 @@
       <c r="CC109" s="2"/>
       <c r="CD109" s="2"/>
       <c r="CE109" s="2"/>
-      <c r="CF109" s="2"/>
-      <c r="CG109" s="2"/>
-    </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10960,10 +10728,8 @@
       <c r="CC110" s="2"/>
       <c r="CD110" s="2"/>
       <c r="CE110" s="2"/>
-      <c r="CF110" s="2"/>
-      <c r="CG110" s="2"/>
-    </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11047,10 +10813,8 @@
       <c r="CC111" s="2"/>
       <c r="CD111" s="2"/>
       <c r="CE111" s="2"/>
-      <c r="CF111" s="2"/>
-      <c r="CG111" s="2"/>
-    </row>
-    <row r="112" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11134,10 +10898,8 @@
       <c r="CC112" s="2"/>
       <c r="CD112" s="2"/>
       <c r="CE112" s="2"/>
-      <c r="CF112" s="2"/>
-      <c r="CG112" s="2"/>
-    </row>
-    <row r="113" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11221,10 +10983,8 @@
       <c r="CC113" s="2"/>
       <c r="CD113" s="2"/>
       <c r="CE113" s="2"/>
-      <c r="CF113" s="2"/>
-      <c r="CG113" s="2"/>
-    </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11308,10 +11068,8 @@
       <c r="CC114" s="2"/>
       <c r="CD114" s="2"/>
       <c r="CE114" s="2"/>
-      <c r="CF114" s="2"/>
-      <c r="CG114" s="2"/>
-    </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11395,10 +11153,8 @@
       <c r="CC115" s="2"/>
       <c r="CD115" s="2"/>
       <c r="CE115" s="2"/>
-      <c r="CF115" s="2"/>
-      <c r="CG115" s="2"/>
-    </row>
-    <row r="116" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11482,10 +11238,8 @@
       <c r="CC116" s="2"/>
       <c r="CD116" s="2"/>
       <c r="CE116" s="2"/>
-      <c r="CF116" s="2"/>
-      <c r="CG116" s="2"/>
-    </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -11569,10 +11323,8 @@
       <c r="CC117" s="2"/>
       <c r="CD117" s="2"/>
       <c r="CE117" s="2"/>
-      <c r="CF117" s="2"/>
-      <c r="CG117" s="2"/>
-    </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -11656,10 +11408,8 @@
       <c r="CC118" s="2"/>
       <c r="CD118" s="2"/>
       <c r="CE118" s="2"/>
-      <c r="CF118" s="2"/>
-      <c r="CG118" s="2"/>
-    </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -11743,10 +11493,8 @@
       <c r="CC119" s="2"/>
       <c r="CD119" s="2"/>
       <c r="CE119" s="2"/>
-      <c r="CF119" s="2"/>
-      <c r="CG119" s="2"/>
-    </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11830,10 +11578,8 @@
       <c r="CC120" s="2"/>
       <c r="CD120" s="2"/>
       <c r="CE120" s="2"/>
-      <c r="CF120" s="2"/>
-      <c r="CG120" s="2"/>
-    </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11917,10 +11663,8 @@
       <c r="CC121" s="2"/>
       <c r="CD121" s="2"/>
       <c r="CE121" s="2"/>
-      <c r="CF121" s="2"/>
-      <c r="CG121" s="2"/>
-    </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -12004,10 +11748,8 @@
       <c r="CC122" s="2"/>
       <c r="CD122" s="2"/>
       <c r="CE122" s="2"/>
-      <c r="CF122" s="2"/>
-      <c r="CG122" s="2"/>
-    </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -12091,10 +11833,8 @@
       <c r="CC123" s="2"/>
       <c r="CD123" s="2"/>
       <c r="CE123" s="2"/>
-      <c r="CF123" s="2"/>
-      <c r="CG123" s="2"/>
-    </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -12178,10 +11918,8 @@
       <c r="CC124" s="2"/>
       <c r="CD124" s="2"/>
       <c r="CE124" s="2"/>
-      <c r="CF124" s="2"/>
-      <c r="CG124" s="2"/>
-    </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -12265,10 +12003,8 @@
       <c r="CC125" s="2"/>
       <c r="CD125" s="2"/>
       <c r="CE125" s="2"/>
-      <c r="CF125" s="2"/>
-      <c r="CG125" s="2"/>
-    </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -12352,10 +12088,8 @@
       <c r="CC126" s="2"/>
       <c r="CD126" s="2"/>
       <c r="CE126" s="2"/>
-      <c r="CF126" s="2"/>
-      <c r="CG126" s="2"/>
-    </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -12439,10 +12173,8 @@
       <c r="CC127" s="2"/>
       <c r="CD127" s="2"/>
       <c r="CE127" s="2"/>
-      <c r="CF127" s="2"/>
-      <c r="CG127" s="2"/>
-    </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -12526,10 +12258,8 @@
       <c r="CC128" s="2"/>
       <c r="CD128" s="2"/>
       <c r="CE128" s="2"/>
-      <c r="CF128" s="2"/>
-      <c r="CG128" s="2"/>
-    </row>
-    <row r="129" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -12613,10 +12343,8 @@
       <c r="CC129" s="2"/>
       <c r="CD129" s="2"/>
       <c r="CE129" s="2"/>
-      <c r="CF129" s="2"/>
-      <c r="CG129" s="2"/>
-    </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -12700,10 +12428,8 @@
       <c r="CC130" s="2"/>
       <c r="CD130" s="2"/>
       <c r="CE130" s="2"/>
-      <c r="CF130" s="2"/>
-      <c r="CG130" s="2"/>
-    </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -12787,10 +12513,8 @@
       <c r="CC131" s="2"/>
       <c r="CD131" s="2"/>
       <c r="CE131" s="2"/>
-      <c r="CF131" s="2"/>
-      <c r="CG131" s="2"/>
-    </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -12874,10 +12598,8 @@
       <c r="CC132" s="2"/>
       <c r="CD132" s="2"/>
       <c r="CE132" s="2"/>
-      <c r="CF132" s="2"/>
-      <c r="CG132" s="2"/>
-    </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -12961,10 +12683,8 @@
       <c r="CC133" s="2"/>
       <c r="CD133" s="2"/>
       <c r="CE133" s="2"/>
-      <c r="CF133" s="2"/>
-      <c r="CG133" s="2"/>
-    </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -13048,10 +12768,8 @@
       <c r="CC134" s="2"/>
       <c r="CD134" s="2"/>
       <c r="CE134" s="2"/>
-      <c r="CF134" s="2"/>
-      <c r="CG134" s="2"/>
-    </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -13135,10 +12853,8 @@
       <c r="CC135" s="2"/>
       <c r="CD135" s="2"/>
       <c r="CE135" s="2"/>
-      <c r="CF135" s="2"/>
-      <c r="CG135" s="2"/>
-    </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -13222,10 +12938,8 @@
       <c r="CC136" s="2"/>
       <c r="CD136" s="2"/>
       <c r="CE136" s="2"/>
-      <c r="CF136" s="2"/>
-      <c r="CG136" s="2"/>
-    </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -13309,10 +13023,8 @@
       <c r="CC137" s="2"/>
       <c r="CD137" s="2"/>
       <c r="CE137" s="2"/>
-      <c r="CF137" s="2"/>
-      <c r="CG137" s="2"/>
-    </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -13396,10 +13108,8 @@
       <c r="CC138" s="2"/>
       <c r="CD138" s="2"/>
       <c r="CE138" s="2"/>
-      <c r="CF138" s="2"/>
-      <c r="CG138" s="2"/>
-    </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -13483,10 +13193,8 @@
       <c r="CC139" s="2"/>
       <c r="CD139" s="2"/>
       <c r="CE139" s="2"/>
-      <c r="CF139" s="2"/>
-      <c r="CG139" s="2"/>
-    </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -13570,10 +13278,8 @@
       <c r="CC140" s="2"/>
       <c r="CD140" s="2"/>
       <c r="CE140" s="2"/>
-      <c r="CF140" s="2"/>
-      <c r="CG140" s="2"/>
-    </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -13657,10 +13363,8 @@
       <c r="CC141" s="2"/>
       <c r="CD141" s="2"/>
       <c r="CE141" s="2"/>
-      <c r="CF141" s="2"/>
-      <c r="CG141" s="2"/>
-    </row>
-    <row r="142" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -13744,10 +13448,8 @@
       <c r="CC142" s="2"/>
       <c r="CD142" s="2"/>
       <c r="CE142" s="2"/>
-      <c r="CF142" s="2"/>
-      <c r="CG142" s="2"/>
-    </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -13831,10 +13533,8 @@
       <c r="CC143" s="2"/>
       <c r="CD143" s="2"/>
       <c r="CE143" s="2"/>
-      <c r="CF143" s="2"/>
-      <c r="CG143" s="2"/>
-    </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -13918,10 +13618,8 @@
       <c r="CC144" s="2"/>
       <c r="CD144" s="2"/>
       <c r="CE144" s="2"/>
-      <c r="CF144" s="2"/>
-      <c r="CG144" s="2"/>
-    </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -14005,10 +13703,8 @@
       <c r="CC145" s="2"/>
       <c r="CD145" s="2"/>
       <c r="CE145" s="2"/>
-      <c r="CF145" s="2"/>
-      <c r="CG145" s="2"/>
-    </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -14092,10 +13788,8 @@
       <c r="CC146" s="2"/>
       <c r="CD146" s="2"/>
       <c r="CE146" s="2"/>
-      <c r="CF146" s="2"/>
-      <c r="CG146" s="2"/>
-    </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -14179,10 +13873,8 @@
       <c r="CC147" s="2"/>
       <c r="CD147" s="2"/>
       <c r="CE147" s="2"/>
-      <c r="CF147" s="2"/>
-      <c r="CG147" s="2"/>
-    </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -14266,10 +13958,8 @@
       <c r="CC148" s="2"/>
       <c r="CD148" s="2"/>
       <c r="CE148" s="2"/>
-      <c r="CF148" s="2"/>
-      <c r="CG148" s="2"/>
-    </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -14353,10 +14043,8 @@
       <c r="CC149" s="2"/>
       <c r="CD149" s="2"/>
       <c r="CE149" s="2"/>
-      <c r="CF149" s="2"/>
-      <c r="CG149" s="2"/>
-    </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -14440,10 +14128,8 @@
       <c r="CC150" s="2"/>
       <c r="CD150" s="2"/>
       <c r="CE150" s="2"/>
-      <c r="CF150" s="2"/>
-      <c r="CG150" s="2"/>
-    </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -14527,10 +14213,8 @@
       <c r="CC151" s="2"/>
       <c r="CD151" s="2"/>
       <c r="CE151" s="2"/>
-      <c r="CF151" s="2"/>
-      <c r="CG151" s="2"/>
-    </row>
-    <row r="152" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -14614,10 +14298,8 @@
       <c r="CC152" s="2"/>
       <c r="CD152" s="2"/>
       <c r="CE152" s="2"/>
-      <c r="CF152" s="2"/>
-      <c r="CG152" s="2"/>
-    </row>
-    <row r="153" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -14701,10 +14383,8 @@
       <c r="CC153" s="2"/>
       <c r="CD153" s="2"/>
       <c r="CE153" s="2"/>
-      <c r="CF153" s="2"/>
-      <c r="CG153" s="2"/>
-    </row>
-    <row r="154" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -14788,10 +14468,8 @@
       <c r="CC154" s="2"/>
       <c r="CD154" s="2"/>
       <c r="CE154" s="2"/>
-      <c r="CF154" s="2"/>
-      <c r="CG154" s="2"/>
-    </row>
-    <row r="155" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -14875,10 +14553,8 @@
       <c r="CC155" s="2"/>
       <c r="CD155" s="2"/>
       <c r="CE155" s="2"/>
-      <c r="CF155" s="2"/>
-      <c r="CG155" s="2"/>
-    </row>
-    <row r="156" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -14962,10 +14638,8 @@
       <c r="CC156" s="2"/>
       <c r="CD156" s="2"/>
       <c r="CE156" s="2"/>
-      <c r="CF156" s="2"/>
-      <c r="CG156" s="2"/>
-    </row>
-    <row r="157" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -15049,10 +14723,8 @@
       <c r="CC157" s="2"/>
       <c r="CD157" s="2"/>
       <c r="CE157" s="2"/>
-      <c r="CF157" s="2"/>
-      <c r="CG157" s="2"/>
-    </row>
-    <row r="158" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -15136,10 +14808,8 @@
       <c r="CC158" s="2"/>
       <c r="CD158" s="2"/>
       <c r="CE158" s="2"/>
-      <c r="CF158" s="2"/>
-      <c r="CG158" s="2"/>
-    </row>
-    <row r="159" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -15223,10 +14893,8 @@
       <c r="CC159" s="2"/>
       <c r="CD159" s="2"/>
       <c r="CE159" s="2"/>
-      <c r="CF159" s="2"/>
-      <c r="CG159" s="2"/>
-    </row>
-    <row r="160" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -15310,10 +14978,8 @@
       <c r="CC160" s="2"/>
       <c r="CD160" s="2"/>
       <c r="CE160" s="2"/>
-      <c r="CF160" s="2"/>
-      <c r="CG160" s="2"/>
-    </row>
-    <row r="161" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -15397,10 +15063,8 @@
       <c r="CC161" s="2"/>
       <c r="CD161" s="2"/>
       <c r="CE161" s="2"/>
-      <c r="CF161" s="2"/>
-      <c r="CG161" s="2"/>
-    </row>
-    <row r="162" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -15484,10 +15148,8 @@
       <c r="CC162" s="2"/>
       <c r="CD162" s="2"/>
       <c r="CE162" s="2"/>
-      <c r="CF162" s="2"/>
-      <c r="CG162" s="2"/>
-    </row>
-    <row r="163" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -15571,10 +15233,8 @@
       <c r="CC163" s="2"/>
       <c r="CD163" s="2"/>
       <c r="CE163" s="2"/>
-      <c r="CF163" s="2"/>
-      <c r="CG163" s="2"/>
-    </row>
-    <row r="164" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -15658,10 +15318,8 @@
       <c r="CC164" s="2"/>
       <c r="CD164" s="2"/>
       <c r="CE164" s="2"/>
-      <c r="CF164" s="2"/>
-      <c r="CG164" s="2"/>
-    </row>
-    <row r="165" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -15745,10 +15403,8 @@
       <c r="CC165" s="2"/>
       <c r="CD165" s="2"/>
       <c r="CE165" s="2"/>
-      <c r="CF165" s="2"/>
-      <c r="CG165" s="2"/>
-    </row>
-    <row r="166" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -15832,10 +15488,8 @@
       <c r="CC166" s="2"/>
       <c r="CD166" s="2"/>
       <c r="CE166" s="2"/>
-      <c r="CF166" s="2"/>
-      <c r="CG166" s="2"/>
-    </row>
-    <row r="167" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -15919,10 +15573,8 @@
       <c r="CC167" s="2"/>
       <c r="CD167" s="2"/>
       <c r="CE167" s="2"/>
-      <c r="CF167" s="2"/>
-      <c r="CG167" s="2"/>
-    </row>
-    <row r="168" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -16006,10 +15658,8 @@
       <c r="CC168" s="2"/>
       <c r="CD168" s="2"/>
       <c r="CE168" s="2"/>
-      <c r="CF168" s="2"/>
-      <c r="CG168" s="2"/>
-    </row>
-    <row r="169" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -16093,10 +15743,8 @@
       <c r="CC169" s="2"/>
       <c r="CD169" s="2"/>
       <c r="CE169" s="2"/>
-      <c r="CF169" s="2"/>
-      <c r="CG169" s="2"/>
-    </row>
-    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -16180,10 +15828,8 @@
       <c r="CC170" s="2"/>
       <c r="CD170" s="2"/>
       <c r="CE170" s="2"/>
-      <c r="CF170" s="2"/>
-      <c r="CG170" s="2"/>
-    </row>
-    <row r="171" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -16267,10 +15913,8 @@
       <c r="CC171" s="2"/>
       <c r="CD171" s="2"/>
       <c r="CE171" s="2"/>
-      <c r="CF171" s="2"/>
-      <c r="CG171" s="2"/>
-    </row>
-    <row r="172" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -16354,10 +15998,8 @@
       <c r="CC172" s="2"/>
       <c r="CD172" s="2"/>
       <c r="CE172" s="2"/>
-      <c r="CF172" s="2"/>
-      <c r="CG172" s="2"/>
-    </row>
-    <row r="173" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -16441,10 +16083,8 @@
       <c r="CC173" s="2"/>
       <c r="CD173" s="2"/>
       <c r="CE173" s="2"/>
-      <c r="CF173" s="2"/>
-      <c r="CG173" s="2"/>
-    </row>
-    <row r="174" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -16528,10 +16168,8 @@
       <c r="CC174" s="2"/>
       <c r="CD174" s="2"/>
       <c r="CE174" s="2"/>
-      <c r="CF174" s="2"/>
-      <c r="CG174" s="2"/>
-    </row>
-    <row r="175" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -16615,10 +16253,8 @@
       <c r="CC175" s="2"/>
       <c r="CD175" s="2"/>
       <c r="CE175" s="2"/>
-      <c r="CF175" s="2"/>
-      <c r="CG175" s="2"/>
-    </row>
-    <row r="176" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -16702,10 +16338,8 @@
       <c r="CC176" s="2"/>
       <c r="CD176" s="2"/>
       <c r="CE176" s="2"/>
-      <c r="CF176" s="2"/>
-      <c r="CG176" s="2"/>
-    </row>
-    <row r="177" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -16789,10 +16423,8 @@
       <c r="CC177" s="2"/>
       <c r="CD177" s="2"/>
       <c r="CE177" s="2"/>
-      <c r="CF177" s="2"/>
-      <c r="CG177" s="2"/>
-    </row>
-    <row r="178" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -16876,10 +16508,8 @@
       <c r="CC178" s="2"/>
       <c r="CD178" s="2"/>
       <c r="CE178" s="2"/>
-      <c r="CF178" s="2"/>
-      <c r="CG178" s="2"/>
-    </row>
-    <row r="179" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -16963,10 +16593,8 @@
       <c r="CC179" s="2"/>
       <c r="CD179" s="2"/>
       <c r="CE179" s="2"/>
-      <c r="CF179" s="2"/>
-      <c r="CG179" s="2"/>
-    </row>
-    <row r="180" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -17050,10 +16678,8 @@
       <c r="CC180" s="2"/>
       <c r="CD180" s="2"/>
       <c r="CE180" s="2"/>
-      <c r="CF180" s="2"/>
-      <c r="CG180" s="2"/>
-    </row>
-    <row r="181" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -17137,10 +16763,8 @@
       <c r="CC181" s="2"/>
       <c r="CD181" s="2"/>
       <c r="CE181" s="2"/>
-      <c r="CF181" s="2"/>
-      <c r="CG181" s="2"/>
-    </row>
-    <row r="182" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -17224,10 +16848,8 @@
       <c r="CC182" s="2"/>
       <c r="CD182" s="2"/>
       <c r="CE182" s="2"/>
-      <c r="CF182" s="2"/>
-      <c r="CG182" s="2"/>
-    </row>
-    <row r="183" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -17311,10 +16933,8 @@
       <c r="CC183" s="2"/>
       <c r="CD183" s="2"/>
       <c r="CE183" s="2"/>
-      <c r="CF183" s="2"/>
-      <c r="CG183" s="2"/>
-    </row>
-    <row r="184" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -17398,10 +17018,8 @@
       <c r="CC184" s="2"/>
       <c r="CD184" s="2"/>
       <c r="CE184" s="2"/>
-      <c r="CF184" s="2"/>
-      <c r="CG184" s="2"/>
-    </row>
-    <row r="185" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -17485,10 +17103,8 @@
       <c r="CC185" s="2"/>
       <c r="CD185" s="2"/>
       <c r="CE185" s="2"/>
-      <c r="CF185" s="2"/>
-      <c r="CG185" s="2"/>
-    </row>
-    <row r="186" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -17572,10 +17188,8 @@
       <c r="CC186" s="2"/>
       <c r="CD186" s="2"/>
       <c r="CE186" s="2"/>
-      <c r="CF186" s="2"/>
-      <c r="CG186" s="2"/>
-    </row>
-    <row r="187" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -17659,10 +17273,8 @@
       <c r="CC187" s="2"/>
       <c r="CD187" s="2"/>
       <c r="CE187" s="2"/>
-      <c r="CF187" s="2"/>
-      <c r="CG187" s="2"/>
-    </row>
-    <row r="188" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -17746,10 +17358,8 @@
       <c r="CC188" s="2"/>
       <c r="CD188" s="2"/>
       <c r="CE188" s="2"/>
-      <c r="CF188" s="2"/>
-      <c r="CG188" s="2"/>
-    </row>
-    <row r="189" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -17833,10 +17443,8 @@
       <c r="CC189" s="2"/>
       <c r="CD189" s="2"/>
       <c r="CE189" s="2"/>
-      <c r="CF189" s="2"/>
-      <c r="CG189" s="2"/>
-    </row>
-    <row r="190" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -17920,10 +17528,8 @@
       <c r="CC190" s="2"/>
       <c r="CD190" s="2"/>
       <c r="CE190" s="2"/>
-      <c r="CF190" s="2"/>
-      <c r="CG190" s="2"/>
-    </row>
-    <row r="191" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -18007,10 +17613,8 @@
       <c r="CC191" s="2"/>
       <c r="CD191" s="2"/>
       <c r="CE191" s="2"/>
-      <c r="CF191" s="2"/>
-      <c r="CG191" s="2"/>
-    </row>
-    <row r="192" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -18094,10 +17698,8 @@
       <c r="CC192" s="2"/>
       <c r="CD192" s="2"/>
       <c r="CE192" s="2"/>
-      <c r="CF192" s="2"/>
-      <c r="CG192" s="2"/>
-    </row>
-    <row r="193" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -18181,10 +17783,8 @@
       <c r="CC193" s="2"/>
       <c r="CD193" s="2"/>
       <c r="CE193" s="2"/>
-      <c r="CF193" s="2"/>
-      <c r="CG193" s="2"/>
-    </row>
-    <row r="194" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -18268,10 +17868,8 @@
       <c r="CC194" s="2"/>
       <c r="CD194" s="2"/>
       <c r="CE194" s="2"/>
-      <c r="CF194" s="2"/>
-      <c r="CG194" s="2"/>
-    </row>
-    <row r="195" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -18355,10 +17953,8 @@
       <c r="CC195" s="2"/>
       <c r="CD195" s="2"/>
       <c r="CE195" s="2"/>
-      <c r="CF195" s="2"/>
-      <c r="CG195" s="2"/>
-    </row>
-    <row r="196" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -18442,10 +18038,8 @@
       <c r="CC196" s="2"/>
       <c r="CD196" s="2"/>
       <c r="CE196" s="2"/>
-      <c r="CF196" s="2"/>
-      <c r="CG196" s="2"/>
-    </row>
-    <row r="197" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -18529,10 +18123,8 @@
       <c r="CC197" s="2"/>
       <c r="CD197" s="2"/>
       <c r="CE197" s="2"/>
-      <c r="CF197" s="2"/>
-      <c r="CG197" s="2"/>
-    </row>
-    <row r="198" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -18616,10 +18208,8 @@
       <c r="CC198" s="2"/>
       <c r="CD198" s="2"/>
       <c r="CE198" s="2"/>
-      <c r="CF198" s="2"/>
-      <c r="CG198" s="2"/>
-    </row>
-    <row r="199" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -18703,10 +18293,8 @@
       <c r="CC199" s="2"/>
       <c r="CD199" s="2"/>
       <c r="CE199" s="2"/>
-      <c r="CF199" s="2"/>
-      <c r="CG199" s="2"/>
-    </row>
-    <row r="200" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -18790,10 +18378,8 @@
       <c r="CC200" s="2"/>
       <c r="CD200" s="2"/>
       <c r="CE200" s="2"/>
-      <c r="CF200" s="2"/>
-      <c r="CG200" s="2"/>
-    </row>
-    <row r="201" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -18877,18 +18463,16 @@
       <c r="CC201" s="2"/>
       <c r="CD201" s="2"/>
       <c r="CE201" s="2"/>
-      <c r="CF201" s="2"/>
-      <c r="CG201" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CB1:CD1"/>
     <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="AA1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="AA1:BB1"/>
+    <mergeCell ref="BC1:BG1"/>
+    <mergeCell ref="BH1:BM1"/>
+    <mergeCell ref="BN1:BV1"/>
+    <mergeCell ref="BW1:CA1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
@@ -18919,13 +18503,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V201" xr:uid="{FF1D1B6E-E871-4B99-A0CF-98C499C39272}">
       <formula1>"有库存销售,无库存销售"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE3:BE201" xr:uid="{9B719581-70BC-4BF0-B5CE-BF33D8D0B884}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC3:BC201" xr:uid="{9B719581-70BC-4BF0-B5CE-BF33D8D0B884}">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO201" xr:uid="{D43B3A5D-6899-43A5-AC9C-E06D66D361B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM3:BM201" xr:uid="{D43B3A5D-6899-43A5-AC9C-E06D66D361B8}">
       <formula1>"配送,直送"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BZ3:BZ1048576 CA3:CA1048576 CB3:CB1048576 CC3:CC1048576 BY3:BY1048576" xr:uid="{9BB53F67-6828-48D0-99F3-E37567D4CB27}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BX3:BX1048576 BY3:BY1048576 BZ3:BZ1048576 CA3:CA1048576 BW3:BW1048576" xr:uid="{9BB53F67-6828-48D0-99F3-E37567D4CB27}">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF49791-5313-4A39-A54E-C78C6D604D9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5DEF2C-BE2E-4CF7-A095-04A4A6484897}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,8 +1161,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC10" sqref="BC10"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BZ10" sqref="BZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5DEF2C-BE2E-4CF7-A095-04A4A6484897}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8E179-E0AC-4A11-8935-DA4D492DA5FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>LeslieNicole</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0607D0AB-2BD4-41D0-BB1C-9655CAB310C9}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{BABE85B1-1146-4F0D-B473-1FDC9FDEE9A6}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{EA3DD24B-9946-4957-874A-A28F9861391C}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{A3034EDA-FC88-4C9A-832B-F3F3F833EA50}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{7F02AE5E-4FFE-4A05-B087-7CC726FC54B6}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3A167B18-A8AD-4D98-A24B-C2F934438007}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{936532A2-7793-43B8-9944-730665339AB7}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{3FEAC8DA-CFED-4BBE-8F6B-C39C2F3642EC}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{E3F909B9-B989-4FC7-A4CB-715C5F33BC5C}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{9D38030B-56AE-41CF-B02E-A0A1901B44E8}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{5A10D59E-0938-49E1-8420-48F52B0125A4}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{A19295F2-689A-4867-8D55-24694E238140}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{024759A9-3899-4F5F-8C62-5753DD710593}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{8197A78B-B481-42E6-8B9A-369254206315}">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{7F517CD0-D78A-4011-8266-FECD0D124345}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{A2BD3F2F-FD3B-422F-A0E4-E81C7B4A6D85}">
       <text>
         <r>
           <rPr>
@@ -142,49 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{4FD6181D-B109-40C8-B568-B465489476CB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{D15DCF21-986B-4C8B-89C3-485459187046}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{25293045-53BE-455A-9000-2A7F2194FCB7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{B926CAD5-1063-4DA0-B7E3-A86A8A8C350B}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{8AC5E59C-EC52-4B39-9696-4F82F4EE0047}">
       <text>
         <r>
           <rPr>
@@ -209,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{AB3BD238-7780-408A-80C7-6A980ABFCC10}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{4B7A4C69-734E-442E-814D-3C951B06D1AB}">
       <text>
         <r>
           <rPr>
@@ -234,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{6AE13FE0-C9CD-4B8E-9E8F-242960B9B314}">
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{A258DCBB-BC4F-4255-AFD4-E4BB11A29031}">
       <text>
         <r>
           <rPr>
@@ -248,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM2" authorId="0" shapeId="0" xr:uid="{279382E6-4988-4865-A8A1-3864FCE56611}">
+    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{9F2AE4AA-4995-4F7A-BC97-48479D0562A9}">
       <text>
         <r>
           <rPr>
@@ -267,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,14 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否管理保质期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供货渠道类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一码管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存条形码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,42 +339,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购基商品含量</t>
-  </si>
-  <si>
-    <t>采购拆零系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购条形码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销基商品含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销拆零系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分销条形码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -548,18 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱亲售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萌贝树售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红马售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华北仓状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,12 +522,31 @@
     <t>图片文件夹编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>商品介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单位含量</t>
+  </si>
+  <si>
+    <t>分销交易倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +596,30 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -741,12 +679,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,8 +689,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -809,19 +747,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -830,13 +789,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,16 +807,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,10 +828,37 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,295 +1142,286 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CE201"/>
+  <dimension ref="A1:BT201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BZ10" sqref="BZ10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.21875" style="1" customWidth="1"/>
-    <col min="11" max="15" width="16.109375" style="1" customWidth="1"/>
-    <col min="16" max="20" width="18" style="1" customWidth="1"/>
-    <col min="21" max="26" width="19.77734375" style="1" customWidth="1"/>
-    <col min="27" max="41" width="13.77734375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.5546875" style="1" customWidth="1"/>
-    <col min="44" max="46" width="13.77734375" style="1" customWidth="1"/>
-    <col min="47" max="48" width="16.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="13.77734375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="16.21875" style="1" customWidth="1"/>
-    <col min="51" max="52" width="13.77734375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.21875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="16.109375" style="1" customWidth="1"/>
+    <col min="14" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="21" width="19.77734375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="23.109375" style="1" customWidth="1"/>
+    <col min="24" max="25" width="18" style="1" customWidth="1"/>
+    <col min="26" max="33" width="14" style="1" customWidth="1"/>
+    <col min="34" max="37" width="15.6640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.77734375" style="1" customWidth="1"/>
+    <col min="39" max="52" width="13.77734375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="17.109375" style="1" customWidth="1"/>
     <col min="54" max="54" width="13.77734375" style="1" customWidth="1"/>
-    <col min="55" max="59" width="18" style="1" customWidth="1"/>
-    <col min="60" max="64" width="15.6640625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="22.77734375" style="1" customWidth="1"/>
-    <col min="66" max="74" width="14" style="1" customWidth="1"/>
-    <col min="75" max="79" width="12.5546875" style="1" customWidth="1"/>
-    <col min="80" max="82" width="15.44140625" style="1" customWidth="1"/>
-    <col min="83" max="83" width="19.77734375" style="1" customWidth="1"/>
-    <col min="84" max="16384" width="8.77734375" style="1"/>
+    <col min="55" max="55" width="16.77734375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="16.109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="15.21875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="13.77734375" style="1" customWidth="1"/>
+    <col min="59" max="63" width="18" style="1" customWidth="1"/>
+    <col min="64" max="68" width="12.44140625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="20.88671875" style="1" customWidth="1"/>
+    <col min="70" max="71" width="15.44140625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="19.77734375" style="1" customWidth="1"/>
+    <col min="73" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="4" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>82</v>
+    <row r="1" spans="1:72" s="3" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>66</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="16" t="s">
-        <v>83</v>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22" t="s">
+        <v>70</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="AI1" s="17"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="18" t="s">
-        <v>84</v>
+      <c r="AM1" s="14" t="s">
+        <v>67</v>
       </c>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="19" t="s">
-        <v>85</v>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="19"/>
-      <c r="BL1" s="19"/>
-      <c r="BM1" s="19"/>
-      <c r="BN1" s="20" t="s">
-        <v>86</v>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="20"/>
-      <c r="BV1" s="20"/>
-      <c r="BW1" s="21" t="s">
-        <v>87</v>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="13" t="s">
+        <v>62</v>
       </c>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="14" t="s">
-        <v>78</v>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="12" t="s">
+        <v>72</v>
       </c>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:83" s="5" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:72" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>10</v>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>14</v>
+      <c r="Y2" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>15</v>
+      <c r="Z2" s="9" t="s">
+        <v>51</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>16</v>
+      <c r="AA2" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>17</v>
+      <c r="AB2" s="9" t="s">
+        <v>53</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>18</v>
+      <c r="AC2" s="9" t="s">
+        <v>54</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>19</v>
+      <c r="AD2" s="9" t="s">
+        <v>55</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>21</v>
+      <c r="AL2" s="5" t="s">
+        <v>50</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="AM2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AN2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AO2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="AX2" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="AY2" s="10" t="s">
         <v>40</v>
@@ -1455,101 +1429,68 @@
       <c r="AZ2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BA2" s="10" t="s">
+      <c r="BA2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="BH2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="BC2" s="12" t="s">
-        <v>55</v>
+      <c r="BI2" s="11" t="s">
+        <v>44</v>
       </c>
-      <c r="BD2" s="12" t="s">
-        <v>56</v>
+      <c r="BJ2" s="27" t="s">
+        <v>45</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BK2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BM2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BN2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BO2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BP2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BQ2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BR2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BN2" s="10" t="s">
+      <c r="BS2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BO2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW2" s="12" t="s">
+      <c r="BT2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BX2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE2" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1622,19 +1563,8 @@
       <c r="BR3" s="2"/>
       <c r="BS3" s="2"/>
       <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-    </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1707,19 +1637,8 @@
       <c r="BR4" s="2"/>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-    </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1792,19 +1711,8 @@
       <c r="BR5" s="2"/>
       <c r="BS5" s="2"/>
       <c r="BT5" s="2"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
-    </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1877,19 +1785,8 @@
       <c r="BR6" s="2"/>
       <c r="BS6" s="2"/>
       <c r="BT6" s="2"/>
-      <c r="BU6" s="2"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
-      <c r="BY6" s="2"/>
-      <c r="BZ6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="2"/>
-      <c r="CE6" s="2"/>
-    </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1962,19 +1859,8 @@
       <c r="BR7" s="2"/>
       <c r="BS7" s="2"/>
       <c r="BT7" s="2"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
-      <c r="BY7" s="2"/>
-      <c r="BZ7" s="2"/>
-      <c r="CA7" s="2"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="2"/>
-    </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2047,19 +1933,8 @@
       <c r="BR8" s="2"/>
       <c r="BS8" s="2"/>
       <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-    </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2132,19 +2007,8 @@
       <c r="BR9" s="2"/>
       <c r="BS9" s="2"/>
       <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-    </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2217,19 +2081,8 @@
       <c r="BR10" s="2"/>
       <c r="BS10" s="2"/>
       <c r="BT10" s="2"/>
-      <c r="BU10" s="2"/>
-      <c r="BV10" s="2"/>
-      <c r="BW10" s="2"/>
-      <c r="BX10" s="2"/>
-      <c r="BY10" s="2"/>
-      <c r="BZ10" s="2"/>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="2"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-    </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2302,19 +2155,8 @@
       <c r="BR11" s="2"/>
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="2"/>
-      <c r="BW11" s="2"/>
-      <c r="BX11" s="2"/>
-      <c r="BY11" s="2"/>
-      <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
-      <c r="CB11" s="2"/>
-      <c r="CC11" s="2"/>
-      <c r="CD11" s="2"/>
-      <c r="CE11" s="2"/>
-    </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2387,19 +2229,8 @@
       <c r="BR12" s="2"/>
       <c r="BS12" s="2"/>
       <c r="BT12" s="2"/>
-      <c r="BU12" s="2"/>
-      <c r="BV12" s="2"/>
-      <c r="BW12" s="2"/>
-      <c r="BX12" s="2"/>
-      <c r="BY12" s="2"/>
-      <c r="BZ12" s="2"/>
-      <c r="CA12" s="2"/>
-      <c r="CB12" s="2"/>
-      <c r="CC12" s="2"/>
-      <c r="CD12" s="2"/>
-      <c r="CE12" s="2"/>
-    </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2472,19 +2303,8 @@
       <c r="BR13" s="2"/>
       <c r="BS13" s="2"/>
       <c r="BT13" s="2"/>
-      <c r="BU13" s="2"/>
-      <c r="BV13" s="2"/>
-      <c r="BW13" s="2"/>
-      <c r="BX13" s="2"/>
-      <c r="BY13" s="2"/>
-      <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
-      <c r="CB13" s="2"/>
-      <c r="CC13" s="2"/>
-      <c r="CD13" s="2"/>
-      <c r="CE13" s="2"/>
-    </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2557,19 +2377,8 @@
       <c r="BR14" s="2"/>
       <c r="BS14" s="2"/>
       <c r="BT14" s="2"/>
-      <c r="BU14" s="2"/>
-      <c r="BV14" s="2"/>
-      <c r="BW14" s="2"/>
-      <c r="BX14" s="2"/>
-      <c r="BY14" s="2"/>
-      <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
-      <c r="CB14" s="2"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-    </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2642,19 +2451,8 @@
       <c r="BR15" s="2"/>
       <c r="BS15" s="2"/>
       <c r="BT15" s="2"/>
-      <c r="BU15" s="2"/>
-      <c r="BV15" s="2"/>
-      <c r="BW15" s="2"/>
-      <c r="BX15" s="2"/>
-      <c r="BY15" s="2"/>
-      <c r="BZ15" s="2"/>
-      <c r="CA15" s="2"/>
-      <c r="CB15" s="2"/>
-      <c r="CC15" s="2"/>
-      <c r="CD15" s="2"/>
-      <c r="CE15" s="2"/>
-    </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2727,19 +2525,8 @@
       <c r="BR16" s="2"/>
       <c r="BS16" s="2"/>
       <c r="BT16" s="2"/>
-      <c r="BU16" s="2"/>
-      <c r="BV16" s="2"/>
-      <c r="BW16" s="2"/>
-      <c r="BX16" s="2"/>
-      <c r="BY16" s="2"/>
-      <c r="BZ16" s="2"/>
-      <c r="CA16" s="2"/>
-      <c r="CB16" s="2"/>
-      <c r="CC16" s="2"/>
-      <c r="CD16" s="2"/>
-      <c r="CE16" s="2"/>
-    </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2812,19 +2599,8 @@
       <c r="BR17" s="2"/>
       <c r="BS17" s="2"/>
       <c r="BT17" s="2"/>
-      <c r="BU17" s="2"/>
-      <c r="BV17" s="2"/>
-      <c r="BW17" s="2"/>
-      <c r="BX17" s="2"/>
-      <c r="BY17" s="2"/>
-      <c r="BZ17" s="2"/>
-      <c r="CA17" s="2"/>
-      <c r="CB17" s="2"/>
-      <c r="CC17" s="2"/>
-      <c r="CD17" s="2"/>
-      <c r="CE17" s="2"/>
-    </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2897,19 +2673,8 @@
       <c r="BR18" s="2"/>
       <c r="BS18" s="2"/>
       <c r="BT18" s="2"/>
-      <c r="BU18" s="2"/>
-      <c r="BV18" s="2"/>
-      <c r="BW18" s="2"/>
-      <c r="BX18" s="2"/>
-      <c r="BY18" s="2"/>
-      <c r="BZ18" s="2"/>
-      <c r="CA18" s="2"/>
-      <c r="CB18" s="2"/>
-      <c r="CC18" s="2"/>
-      <c r="CD18" s="2"/>
-      <c r="CE18" s="2"/>
-    </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2982,19 +2747,8 @@
       <c r="BR19" s="2"/>
       <c r="BS19" s="2"/>
       <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
-      <c r="CE19" s="2"/>
-    </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3067,19 +2821,8 @@
       <c r="BR20" s="2"/>
       <c r="BS20" s="2"/>
       <c r="BT20" s="2"/>
-      <c r="BU20" s="2"/>
-      <c r="BV20" s="2"/>
-      <c r="BW20" s="2"/>
-      <c r="BX20" s="2"/>
-      <c r="BY20" s="2"/>
-      <c r="BZ20" s="2"/>
-      <c r="CA20" s="2"/>
-      <c r="CB20" s="2"/>
-      <c r="CC20" s="2"/>
-      <c r="CD20" s="2"/>
-      <c r="CE20" s="2"/>
-    </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3152,19 +2895,8 @@
       <c r="BR21" s="2"/>
       <c r="BS21" s="2"/>
       <c r="BT21" s="2"/>
-      <c r="BU21" s="2"/>
-      <c r="BV21" s="2"/>
-      <c r="BW21" s="2"/>
-      <c r="BX21" s="2"/>
-      <c r="BY21" s="2"/>
-      <c r="BZ21" s="2"/>
-      <c r="CA21" s="2"/>
-      <c r="CB21" s="2"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
-      <c r="CE21" s="2"/>
-    </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3237,19 +2969,8 @@
       <c r="BR22" s="2"/>
       <c r="BS22" s="2"/>
       <c r="BT22" s="2"/>
-      <c r="BU22" s="2"/>
-      <c r="BV22" s="2"/>
-      <c r="BW22" s="2"/>
-      <c r="BX22" s="2"/>
-      <c r="BY22" s="2"/>
-      <c r="BZ22" s="2"/>
-      <c r="CA22" s="2"/>
-      <c r="CB22" s="2"/>
-      <c r="CC22" s="2"/>
-      <c r="CD22" s="2"/>
-      <c r="CE22" s="2"/>
-    </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3322,19 +3043,8 @@
       <c r="BR23" s="2"/>
       <c r="BS23" s="2"/>
       <c r="BT23" s="2"/>
-      <c r="BU23" s="2"/>
-      <c r="BV23" s="2"/>
-      <c r="BW23" s="2"/>
-      <c r="BX23" s="2"/>
-      <c r="BY23" s="2"/>
-      <c r="BZ23" s="2"/>
-      <c r="CA23" s="2"/>
-      <c r="CB23" s="2"/>
-      <c r="CC23" s="2"/>
-      <c r="CD23" s="2"/>
-      <c r="CE23" s="2"/>
-    </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3407,19 +3117,8 @@
       <c r="BR24" s="2"/>
       <c r="BS24" s="2"/>
       <c r="BT24" s="2"/>
-      <c r="BU24" s="2"/>
-      <c r="BV24" s="2"/>
-      <c r="BW24" s="2"/>
-      <c r="BX24" s="2"/>
-      <c r="BY24" s="2"/>
-      <c r="BZ24" s="2"/>
-      <c r="CA24" s="2"/>
-      <c r="CB24" s="2"/>
-      <c r="CC24" s="2"/>
-      <c r="CD24" s="2"/>
-      <c r="CE24" s="2"/>
-    </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3492,19 +3191,8 @@
       <c r="BR25" s="2"/>
       <c r="BS25" s="2"/>
       <c r="BT25" s="2"/>
-      <c r="BU25" s="2"/>
-      <c r="BV25" s="2"/>
-      <c r="BW25" s="2"/>
-      <c r="BX25" s="2"/>
-      <c r="BY25" s="2"/>
-      <c r="BZ25" s="2"/>
-      <c r="CA25" s="2"/>
-      <c r="CB25" s="2"/>
-      <c r="CC25" s="2"/>
-      <c r="CD25" s="2"/>
-      <c r="CE25" s="2"/>
-    </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3577,19 +3265,8 @@
       <c r="BR26" s="2"/>
       <c r="BS26" s="2"/>
       <c r="BT26" s="2"/>
-      <c r="BU26" s="2"/>
-      <c r="BV26" s="2"/>
-      <c r="BW26" s="2"/>
-      <c r="BX26" s="2"/>
-      <c r="BY26" s="2"/>
-      <c r="BZ26" s="2"/>
-      <c r="CA26" s="2"/>
-      <c r="CB26" s="2"/>
-      <c r="CC26" s="2"/>
-      <c r="CD26" s="2"/>
-      <c r="CE26" s="2"/>
-    </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3662,19 +3339,8 @@
       <c r="BR27" s="2"/>
       <c r="BS27" s="2"/>
       <c r="BT27" s="2"/>
-      <c r="BU27" s="2"/>
-      <c r="BV27" s="2"/>
-      <c r="BW27" s="2"/>
-      <c r="BX27" s="2"/>
-      <c r="BY27" s="2"/>
-      <c r="BZ27" s="2"/>
-      <c r="CA27" s="2"/>
-      <c r="CB27" s="2"/>
-      <c r="CC27" s="2"/>
-      <c r="CD27" s="2"/>
-      <c r="CE27" s="2"/>
-    </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3747,19 +3413,8 @@
       <c r="BR28" s="2"/>
       <c r="BS28" s="2"/>
       <c r="BT28" s="2"/>
-      <c r="BU28" s="2"/>
-      <c r="BV28" s="2"/>
-      <c r="BW28" s="2"/>
-      <c r="BX28" s="2"/>
-      <c r="BY28" s="2"/>
-      <c r="BZ28" s="2"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="2"/>
-      <c r="CC28" s="2"/>
-      <c r="CD28" s="2"/>
-      <c r="CE28" s="2"/>
-    </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3832,19 +3487,8 @@
       <c r="BR29" s="2"/>
       <c r="BS29" s="2"/>
       <c r="BT29" s="2"/>
-      <c r="BU29" s="2"/>
-      <c r="BV29" s="2"/>
-      <c r="BW29" s="2"/>
-      <c r="BX29" s="2"/>
-      <c r="BY29" s="2"/>
-      <c r="BZ29" s="2"/>
-      <c r="CA29" s="2"/>
-      <c r="CB29" s="2"/>
-      <c r="CC29" s="2"/>
-      <c r="CD29" s="2"/>
-      <c r="CE29" s="2"/>
-    </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3917,19 +3561,8 @@
       <c r="BR30" s="2"/>
       <c r="BS30" s="2"/>
       <c r="BT30" s="2"/>
-      <c r="BU30" s="2"/>
-      <c r="BV30" s="2"/>
-      <c r="BW30" s="2"/>
-      <c r="BX30" s="2"/>
-      <c r="BY30" s="2"/>
-      <c r="BZ30" s="2"/>
-      <c r="CA30" s="2"/>
-      <c r="CB30" s="2"/>
-      <c r="CC30" s="2"/>
-      <c r="CD30" s="2"/>
-      <c r="CE30" s="2"/>
-    </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4002,19 +3635,8 @@
       <c r="BR31" s="2"/>
       <c r="BS31" s="2"/>
       <c r="BT31" s="2"/>
-      <c r="BU31" s="2"/>
-      <c r="BV31" s="2"/>
-      <c r="BW31" s="2"/>
-      <c r="BX31" s="2"/>
-      <c r="BY31" s="2"/>
-      <c r="BZ31" s="2"/>
-      <c r="CA31" s="2"/>
-      <c r="CB31" s="2"/>
-      <c r="CC31" s="2"/>
-      <c r="CD31" s="2"/>
-      <c r="CE31" s="2"/>
-    </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4087,19 +3709,8 @@
       <c r="BR32" s="2"/>
       <c r="BS32" s="2"/>
       <c r="BT32" s="2"/>
-      <c r="BU32" s="2"/>
-      <c r="BV32" s="2"/>
-      <c r="BW32" s="2"/>
-      <c r="BX32" s="2"/>
-      <c r="BY32" s="2"/>
-      <c r="BZ32" s="2"/>
-      <c r="CA32" s="2"/>
-      <c r="CB32" s="2"/>
-      <c r="CC32" s="2"/>
-      <c r="CD32" s="2"/>
-      <c r="CE32" s="2"/>
-    </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4172,19 +3783,8 @@
       <c r="BR33" s="2"/>
       <c r="BS33" s="2"/>
       <c r="BT33" s="2"/>
-      <c r="BU33" s="2"/>
-      <c r="BV33" s="2"/>
-      <c r="BW33" s="2"/>
-      <c r="BX33" s="2"/>
-      <c r="BY33" s="2"/>
-      <c r="BZ33" s="2"/>
-      <c r="CA33" s="2"/>
-      <c r="CB33" s="2"/>
-      <c r="CC33" s="2"/>
-      <c r="CD33" s="2"/>
-      <c r="CE33" s="2"/>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4257,19 +3857,8 @@
       <c r="BR34" s="2"/>
       <c r="BS34" s="2"/>
       <c r="BT34" s="2"/>
-      <c r="BU34" s="2"/>
-      <c r="BV34" s="2"/>
-      <c r="BW34" s="2"/>
-      <c r="BX34" s="2"/>
-      <c r="BY34" s="2"/>
-      <c r="BZ34" s="2"/>
-      <c r="CA34" s="2"/>
-      <c r="CB34" s="2"/>
-      <c r="CC34" s="2"/>
-      <c r="CD34" s="2"/>
-      <c r="CE34" s="2"/>
-    </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4342,19 +3931,8 @@
       <c r="BR35" s="2"/>
       <c r="BS35" s="2"/>
       <c r="BT35" s="2"/>
-      <c r="BU35" s="2"/>
-      <c r="BV35" s="2"/>
-      <c r="BW35" s="2"/>
-      <c r="BX35" s="2"/>
-      <c r="BY35" s="2"/>
-      <c r="BZ35" s="2"/>
-      <c r="CA35" s="2"/>
-      <c r="CB35" s="2"/>
-      <c r="CC35" s="2"/>
-      <c r="CD35" s="2"/>
-      <c r="CE35" s="2"/>
-    </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4427,19 +4005,8 @@
       <c r="BR36" s="2"/>
       <c r="BS36" s="2"/>
       <c r="BT36" s="2"/>
-      <c r="BU36" s="2"/>
-      <c r="BV36" s="2"/>
-      <c r="BW36" s="2"/>
-      <c r="BX36" s="2"/>
-      <c r="BY36" s="2"/>
-      <c r="BZ36" s="2"/>
-      <c r="CA36" s="2"/>
-      <c r="CB36" s="2"/>
-      <c r="CC36" s="2"/>
-      <c r="CD36" s="2"/>
-      <c r="CE36" s="2"/>
-    </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4512,19 +4079,8 @@
       <c r="BR37" s="2"/>
       <c r="BS37" s="2"/>
       <c r="BT37" s="2"/>
-      <c r="BU37" s="2"/>
-      <c r="BV37" s="2"/>
-      <c r="BW37" s="2"/>
-      <c r="BX37" s="2"/>
-      <c r="BY37" s="2"/>
-      <c r="BZ37" s="2"/>
-      <c r="CA37" s="2"/>
-      <c r="CB37" s="2"/>
-      <c r="CC37" s="2"/>
-      <c r="CD37" s="2"/>
-      <c r="CE37" s="2"/>
-    </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4597,19 +4153,8 @@
       <c r="BR38" s="2"/>
       <c r="BS38" s="2"/>
       <c r="BT38" s="2"/>
-      <c r="BU38" s="2"/>
-      <c r="BV38" s="2"/>
-      <c r="BW38" s="2"/>
-      <c r="BX38" s="2"/>
-      <c r="BY38" s="2"/>
-      <c r="BZ38" s="2"/>
-      <c r="CA38" s="2"/>
-      <c r="CB38" s="2"/>
-      <c r="CC38" s="2"/>
-      <c r="CD38" s="2"/>
-      <c r="CE38" s="2"/>
-    </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4682,19 +4227,8 @@
       <c r="BR39" s="2"/>
       <c r="BS39" s="2"/>
       <c r="BT39" s="2"/>
-      <c r="BU39" s="2"/>
-      <c r="BV39" s="2"/>
-      <c r="BW39" s="2"/>
-      <c r="BX39" s="2"/>
-      <c r="BY39" s="2"/>
-      <c r="BZ39" s="2"/>
-      <c r="CA39" s="2"/>
-      <c r="CB39" s="2"/>
-      <c r="CC39" s="2"/>
-      <c r="CD39" s="2"/>
-      <c r="CE39" s="2"/>
-    </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4767,19 +4301,8 @@
       <c r="BR40" s="2"/>
       <c r="BS40" s="2"/>
       <c r="BT40" s="2"/>
-      <c r="BU40" s="2"/>
-      <c r="BV40" s="2"/>
-      <c r="BW40" s="2"/>
-      <c r="BX40" s="2"/>
-      <c r="BY40" s="2"/>
-      <c r="BZ40" s="2"/>
-      <c r="CA40" s="2"/>
-      <c r="CB40" s="2"/>
-      <c r="CC40" s="2"/>
-      <c r="CD40" s="2"/>
-      <c r="CE40" s="2"/>
-    </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4852,19 +4375,8 @@
       <c r="BR41" s="2"/>
       <c r="BS41" s="2"/>
       <c r="BT41" s="2"/>
-      <c r="BU41" s="2"/>
-      <c r="BV41" s="2"/>
-      <c r="BW41" s="2"/>
-      <c r="BX41" s="2"/>
-      <c r="BY41" s="2"/>
-      <c r="BZ41" s="2"/>
-      <c r="CA41" s="2"/>
-      <c r="CB41" s="2"/>
-      <c r="CC41" s="2"/>
-      <c r="CD41" s="2"/>
-      <c r="CE41" s="2"/>
-    </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4937,19 +4449,8 @@
       <c r="BR42" s="2"/>
       <c r="BS42" s="2"/>
       <c r="BT42" s="2"/>
-      <c r="BU42" s="2"/>
-      <c r="BV42" s="2"/>
-      <c r="BW42" s="2"/>
-      <c r="BX42" s="2"/>
-      <c r="BY42" s="2"/>
-      <c r="BZ42" s="2"/>
-      <c r="CA42" s="2"/>
-      <c r="CB42" s="2"/>
-      <c r="CC42" s="2"/>
-      <c r="CD42" s="2"/>
-      <c r="CE42" s="2"/>
-    </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5022,19 +4523,8 @@
       <c r="BR43" s="2"/>
       <c r="BS43" s="2"/>
       <c r="BT43" s="2"/>
-      <c r="BU43" s="2"/>
-      <c r="BV43" s="2"/>
-      <c r="BW43" s="2"/>
-      <c r="BX43" s="2"/>
-      <c r="BY43" s="2"/>
-      <c r="BZ43" s="2"/>
-      <c r="CA43" s="2"/>
-      <c r="CB43" s="2"/>
-      <c r="CC43" s="2"/>
-      <c r="CD43" s="2"/>
-      <c r="CE43" s="2"/>
-    </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5107,19 +4597,8 @@
       <c r="BR44" s="2"/>
       <c r="BS44" s="2"/>
       <c r="BT44" s="2"/>
-      <c r="BU44" s="2"/>
-      <c r="BV44" s="2"/>
-      <c r="BW44" s="2"/>
-      <c r="BX44" s="2"/>
-      <c r="BY44" s="2"/>
-      <c r="BZ44" s="2"/>
-      <c r="CA44" s="2"/>
-      <c r="CB44" s="2"/>
-      <c r="CC44" s="2"/>
-      <c r="CD44" s="2"/>
-      <c r="CE44" s="2"/>
-    </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5192,19 +4671,8 @@
       <c r="BR45" s="2"/>
       <c r="BS45" s="2"/>
       <c r="BT45" s="2"/>
-      <c r="BU45" s="2"/>
-      <c r="BV45" s="2"/>
-      <c r="BW45" s="2"/>
-      <c r="BX45" s="2"/>
-      <c r="BY45" s="2"/>
-      <c r="BZ45" s="2"/>
-      <c r="CA45" s="2"/>
-      <c r="CB45" s="2"/>
-      <c r="CC45" s="2"/>
-      <c r="CD45" s="2"/>
-      <c r="CE45" s="2"/>
-    </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5277,19 +4745,8 @@
       <c r="BR46" s="2"/>
       <c r="BS46" s="2"/>
       <c r="BT46" s="2"/>
-      <c r="BU46" s="2"/>
-      <c r="BV46" s="2"/>
-      <c r="BW46" s="2"/>
-      <c r="BX46" s="2"/>
-      <c r="BY46" s="2"/>
-      <c r="BZ46" s="2"/>
-      <c r="CA46" s="2"/>
-      <c r="CB46" s="2"/>
-      <c r="CC46" s="2"/>
-      <c r="CD46" s="2"/>
-      <c r="CE46" s="2"/>
-    </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5362,19 +4819,8 @@
       <c r="BR47" s="2"/>
       <c r="BS47" s="2"/>
       <c r="BT47" s="2"/>
-      <c r="BU47" s="2"/>
-      <c r="BV47" s="2"/>
-      <c r="BW47" s="2"/>
-      <c r="BX47" s="2"/>
-      <c r="BY47" s="2"/>
-      <c r="BZ47" s="2"/>
-      <c r="CA47" s="2"/>
-      <c r="CB47" s="2"/>
-      <c r="CC47" s="2"/>
-      <c r="CD47" s="2"/>
-      <c r="CE47" s="2"/>
-    </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5447,19 +4893,8 @@
       <c r="BR48" s="2"/>
       <c r="BS48" s="2"/>
       <c r="BT48" s="2"/>
-      <c r="BU48" s="2"/>
-      <c r="BV48" s="2"/>
-      <c r="BW48" s="2"/>
-      <c r="BX48" s="2"/>
-      <c r="BY48" s="2"/>
-      <c r="BZ48" s="2"/>
-      <c r="CA48" s="2"/>
-      <c r="CB48" s="2"/>
-      <c r="CC48" s="2"/>
-      <c r="CD48" s="2"/>
-      <c r="CE48" s="2"/>
-    </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5532,19 +4967,8 @@
       <c r="BR49" s="2"/>
       <c r="BS49" s="2"/>
       <c r="BT49" s="2"/>
-      <c r="BU49" s="2"/>
-      <c r="BV49" s="2"/>
-      <c r="BW49" s="2"/>
-      <c r="BX49" s="2"/>
-      <c r="BY49" s="2"/>
-      <c r="BZ49" s="2"/>
-      <c r="CA49" s="2"/>
-      <c r="CB49" s="2"/>
-      <c r="CC49" s="2"/>
-      <c r="CD49" s="2"/>
-      <c r="CE49" s="2"/>
-    </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5617,19 +5041,8 @@
       <c r="BR50" s="2"/>
       <c r="BS50" s="2"/>
       <c r="BT50" s="2"/>
-      <c r="BU50" s="2"/>
-      <c r="BV50" s="2"/>
-      <c r="BW50" s="2"/>
-      <c r="BX50" s="2"/>
-      <c r="BY50" s="2"/>
-      <c r="BZ50" s="2"/>
-      <c r="CA50" s="2"/>
-      <c r="CB50" s="2"/>
-      <c r="CC50" s="2"/>
-      <c r="CD50" s="2"/>
-      <c r="CE50" s="2"/>
-    </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5702,19 +5115,8 @@
       <c r="BR51" s="2"/>
       <c r="BS51" s="2"/>
       <c r="BT51" s="2"/>
-      <c r="BU51" s="2"/>
-      <c r="BV51" s="2"/>
-      <c r="BW51" s="2"/>
-      <c r="BX51" s="2"/>
-      <c r="BY51" s="2"/>
-      <c r="BZ51" s="2"/>
-      <c r="CA51" s="2"/>
-      <c r="CB51" s="2"/>
-      <c r="CC51" s="2"/>
-      <c r="CD51" s="2"/>
-      <c r="CE51" s="2"/>
-    </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5787,19 +5189,8 @@
       <c r="BR52" s="2"/>
       <c r="BS52" s="2"/>
       <c r="BT52" s="2"/>
-      <c r="BU52" s="2"/>
-      <c r="BV52" s="2"/>
-      <c r="BW52" s="2"/>
-      <c r="BX52" s="2"/>
-      <c r="BY52" s="2"/>
-      <c r="BZ52" s="2"/>
-      <c r="CA52" s="2"/>
-      <c r="CB52" s="2"/>
-      <c r="CC52" s="2"/>
-      <c r="CD52" s="2"/>
-      <c r="CE52" s="2"/>
-    </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5872,19 +5263,8 @@
       <c r="BR53" s="2"/>
       <c r="BS53" s="2"/>
       <c r="BT53" s="2"/>
-      <c r="BU53" s="2"/>
-      <c r="BV53" s="2"/>
-      <c r="BW53" s="2"/>
-      <c r="BX53" s="2"/>
-      <c r="BY53" s="2"/>
-      <c r="BZ53" s="2"/>
-      <c r="CA53" s="2"/>
-      <c r="CB53" s="2"/>
-      <c r="CC53" s="2"/>
-      <c r="CD53" s="2"/>
-      <c r="CE53" s="2"/>
-    </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5957,19 +5337,8 @@
       <c r="BR54" s="2"/>
       <c r="BS54" s="2"/>
       <c r="BT54" s="2"/>
-      <c r="BU54" s="2"/>
-      <c r="BV54" s="2"/>
-      <c r="BW54" s="2"/>
-      <c r="BX54" s="2"/>
-      <c r="BY54" s="2"/>
-      <c r="BZ54" s="2"/>
-      <c r="CA54" s="2"/>
-      <c r="CB54" s="2"/>
-      <c r="CC54" s="2"/>
-      <c r="CD54" s="2"/>
-      <c r="CE54" s="2"/>
-    </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6042,19 +5411,8 @@
       <c r="BR55" s="2"/>
       <c r="BS55" s="2"/>
       <c r="BT55" s="2"/>
-      <c r="BU55" s="2"/>
-      <c r="BV55" s="2"/>
-      <c r="BW55" s="2"/>
-      <c r="BX55" s="2"/>
-      <c r="BY55" s="2"/>
-      <c r="BZ55" s="2"/>
-      <c r="CA55" s="2"/>
-      <c r="CB55" s="2"/>
-      <c r="CC55" s="2"/>
-      <c r="CD55" s="2"/>
-      <c r="CE55" s="2"/>
-    </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6127,19 +5485,8 @@
       <c r="BR56" s="2"/>
       <c r="BS56" s="2"/>
       <c r="BT56" s="2"/>
-      <c r="BU56" s="2"/>
-      <c r="BV56" s="2"/>
-      <c r="BW56" s="2"/>
-      <c r="BX56" s="2"/>
-      <c r="BY56" s="2"/>
-      <c r="BZ56" s="2"/>
-      <c r="CA56" s="2"/>
-      <c r="CB56" s="2"/>
-      <c r="CC56" s="2"/>
-      <c r="CD56" s="2"/>
-      <c r="CE56" s="2"/>
-    </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6212,19 +5559,8 @@
       <c r="BR57" s="2"/>
       <c r="BS57" s="2"/>
       <c r="BT57" s="2"/>
-      <c r="BU57" s="2"/>
-      <c r="BV57" s="2"/>
-      <c r="BW57" s="2"/>
-      <c r="BX57" s="2"/>
-      <c r="BY57" s="2"/>
-      <c r="BZ57" s="2"/>
-      <c r="CA57" s="2"/>
-      <c r="CB57" s="2"/>
-      <c r="CC57" s="2"/>
-      <c r="CD57" s="2"/>
-      <c r="CE57" s="2"/>
-    </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6297,19 +5633,8 @@
       <c r="BR58" s="2"/>
       <c r="BS58" s="2"/>
       <c r="BT58" s="2"/>
-      <c r="BU58" s="2"/>
-      <c r="BV58" s="2"/>
-      <c r="BW58" s="2"/>
-      <c r="BX58" s="2"/>
-      <c r="BY58" s="2"/>
-      <c r="BZ58" s="2"/>
-      <c r="CA58" s="2"/>
-      <c r="CB58" s="2"/>
-      <c r="CC58" s="2"/>
-      <c r="CD58" s="2"/>
-      <c r="CE58" s="2"/>
-    </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6382,19 +5707,8 @@
       <c r="BR59" s="2"/>
       <c r="BS59" s="2"/>
       <c r="BT59" s="2"/>
-      <c r="BU59" s="2"/>
-      <c r="BV59" s="2"/>
-      <c r="BW59" s="2"/>
-      <c r="BX59" s="2"/>
-      <c r="BY59" s="2"/>
-      <c r="BZ59" s="2"/>
-      <c r="CA59" s="2"/>
-      <c r="CB59" s="2"/>
-      <c r="CC59" s="2"/>
-      <c r="CD59" s="2"/>
-      <c r="CE59" s="2"/>
-    </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6467,19 +5781,8 @@
       <c r="BR60" s="2"/>
       <c r="BS60" s="2"/>
       <c r="BT60" s="2"/>
-      <c r="BU60" s="2"/>
-      <c r="BV60" s="2"/>
-      <c r="BW60" s="2"/>
-      <c r="BX60" s="2"/>
-      <c r="BY60" s="2"/>
-      <c r="BZ60" s="2"/>
-      <c r="CA60" s="2"/>
-      <c r="CB60" s="2"/>
-      <c r="CC60" s="2"/>
-      <c r="CD60" s="2"/>
-      <c r="CE60" s="2"/>
-    </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6552,19 +5855,8 @@
       <c r="BR61" s="2"/>
       <c r="BS61" s="2"/>
       <c r="BT61" s="2"/>
-      <c r="BU61" s="2"/>
-      <c r="BV61" s="2"/>
-      <c r="BW61" s="2"/>
-      <c r="BX61" s="2"/>
-      <c r="BY61" s="2"/>
-      <c r="BZ61" s="2"/>
-      <c r="CA61" s="2"/>
-      <c r="CB61" s="2"/>
-      <c r="CC61" s="2"/>
-      <c r="CD61" s="2"/>
-      <c r="CE61" s="2"/>
-    </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6637,19 +5929,8 @@
       <c r="BR62" s="2"/>
       <c r="BS62" s="2"/>
       <c r="BT62" s="2"/>
-      <c r="BU62" s="2"/>
-      <c r="BV62" s="2"/>
-      <c r="BW62" s="2"/>
-      <c r="BX62" s="2"/>
-      <c r="BY62" s="2"/>
-      <c r="BZ62" s="2"/>
-      <c r="CA62" s="2"/>
-      <c r="CB62" s="2"/>
-      <c r="CC62" s="2"/>
-      <c r="CD62" s="2"/>
-      <c r="CE62" s="2"/>
-    </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6722,19 +6003,8 @@
       <c r="BR63" s="2"/>
       <c r="BS63" s="2"/>
       <c r="BT63" s="2"/>
-      <c r="BU63" s="2"/>
-      <c r="BV63" s="2"/>
-      <c r="BW63" s="2"/>
-      <c r="BX63" s="2"/>
-      <c r="BY63" s="2"/>
-      <c r="BZ63" s="2"/>
-      <c r="CA63" s="2"/>
-      <c r="CB63" s="2"/>
-      <c r="CC63" s="2"/>
-      <c r="CD63" s="2"/>
-      <c r="CE63" s="2"/>
-    </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6807,19 +6077,8 @@
       <c r="BR64" s="2"/>
       <c r="BS64" s="2"/>
       <c r="BT64" s="2"/>
-      <c r="BU64" s="2"/>
-      <c r="BV64" s="2"/>
-      <c r="BW64" s="2"/>
-      <c r="BX64" s="2"/>
-      <c r="BY64" s="2"/>
-      <c r="BZ64" s="2"/>
-      <c r="CA64" s="2"/>
-      <c r="CB64" s="2"/>
-      <c r="CC64" s="2"/>
-      <c r="CD64" s="2"/>
-      <c r="CE64" s="2"/>
-    </row>
-    <row r="65" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6892,19 +6151,8 @@
       <c r="BR65" s="2"/>
       <c r="BS65" s="2"/>
       <c r="BT65" s="2"/>
-      <c r="BU65" s="2"/>
-      <c r="BV65" s="2"/>
-      <c r="BW65" s="2"/>
-      <c r="BX65" s="2"/>
-      <c r="BY65" s="2"/>
-      <c r="BZ65" s="2"/>
-      <c r="CA65" s="2"/>
-      <c r="CB65" s="2"/>
-      <c r="CC65" s="2"/>
-      <c r="CD65" s="2"/>
-      <c r="CE65" s="2"/>
-    </row>
-    <row r="66" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6977,19 +6225,8 @@
       <c r="BR66" s="2"/>
       <c r="BS66" s="2"/>
       <c r="BT66" s="2"/>
-      <c r="BU66" s="2"/>
-      <c r="BV66" s="2"/>
-      <c r="BW66" s="2"/>
-      <c r="BX66" s="2"/>
-      <c r="BY66" s="2"/>
-      <c r="BZ66" s="2"/>
-      <c r="CA66" s="2"/>
-      <c r="CB66" s="2"/>
-      <c r="CC66" s="2"/>
-      <c r="CD66" s="2"/>
-      <c r="CE66" s="2"/>
-    </row>
-    <row r="67" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7062,19 +6299,8 @@
       <c r="BR67" s="2"/>
       <c r="BS67" s="2"/>
       <c r="BT67" s="2"/>
-      <c r="BU67" s="2"/>
-      <c r="BV67" s="2"/>
-      <c r="BW67" s="2"/>
-      <c r="BX67" s="2"/>
-      <c r="BY67" s="2"/>
-      <c r="BZ67" s="2"/>
-      <c r="CA67" s="2"/>
-      <c r="CB67" s="2"/>
-      <c r="CC67" s="2"/>
-      <c r="CD67" s="2"/>
-      <c r="CE67" s="2"/>
-    </row>
-    <row r="68" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -7147,19 +6373,8 @@
       <c r="BR68" s="2"/>
       <c r="BS68" s="2"/>
       <c r="BT68" s="2"/>
-      <c r="BU68" s="2"/>
-      <c r="BV68" s="2"/>
-      <c r="BW68" s="2"/>
-      <c r="BX68" s="2"/>
-      <c r="BY68" s="2"/>
-      <c r="BZ68" s="2"/>
-      <c r="CA68" s="2"/>
-      <c r="CB68" s="2"/>
-      <c r="CC68" s="2"/>
-      <c r="CD68" s="2"/>
-      <c r="CE68" s="2"/>
-    </row>
-    <row r="69" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7232,19 +6447,8 @@
       <c r="BR69" s="2"/>
       <c r="BS69" s="2"/>
       <c r="BT69" s="2"/>
-      <c r="BU69" s="2"/>
-      <c r="BV69" s="2"/>
-      <c r="BW69" s="2"/>
-      <c r="BX69" s="2"/>
-      <c r="BY69" s="2"/>
-      <c r="BZ69" s="2"/>
-      <c r="CA69" s="2"/>
-      <c r="CB69" s="2"/>
-      <c r="CC69" s="2"/>
-      <c r="CD69" s="2"/>
-      <c r="CE69" s="2"/>
-    </row>
-    <row r="70" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -7317,19 +6521,8 @@
       <c r="BR70" s="2"/>
       <c r="BS70" s="2"/>
       <c r="BT70" s="2"/>
-      <c r="BU70" s="2"/>
-      <c r="BV70" s="2"/>
-      <c r="BW70" s="2"/>
-      <c r="BX70" s="2"/>
-      <c r="BY70" s="2"/>
-      <c r="BZ70" s="2"/>
-      <c r="CA70" s="2"/>
-      <c r="CB70" s="2"/>
-      <c r="CC70" s="2"/>
-      <c r="CD70" s="2"/>
-      <c r="CE70" s="2"/>
-    </row>
-    <row r="71" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7402,19 +6595,8 @@
       <c r="BR71" s="2"/>
       <c r="BS71" s="2"/>
       <c r="BT71" s="2"/>
-      <c r="BU71" s="2"/>
-      <c r="BV71" s="2"/>
-      <c r="BW71" s="2"/>
-      <c r="BX71" s="2"/>
-      <c r="BY71" s="2"/>
-      <c r="BZ71" s="2"/>
-      <c r="CA71" s="2"/>
-      <c r="CB71" s="2"/>
-      <c r="CC71" s="2"/>
-      <c r="CD71" s="2"/>
-      <c r="CE71" s="2"/>
-    </row>
-    <row r="72" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7487,19 +6669,8 @@
       <c r="BR72" s="2"/>
       <c r="BS72" s="2"/>
       <c r="BT72" s="2"/>
-      <c r="BU72" s="2"/>
-      <c r="BV72" s="2"/>
-      <c r="BW72" s="2"/>
-      <c r="BX72" s="2"/>
-      <c r="BY72" s="2"/>
-      <c r="BZ72" s="2"/>
-      <c r="CA72" s="2"/>
-      <c r="CB72" s="2"/>
-      <c r="CC72" s="2"/>
-      <c r="CD72" s="2"/>
-      <c r="CE72" s="2"/>
-    </row>
-    <row r="73" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7572,19 +6743,8 @@
       <c r="BR73" s="2"/>
       <c r="BS73" s="2"/>
       <c r="BT73" s="2"/>
-      <c r="BU73" s="2"/>
-      <c r="BV73" s="2"/>
-      <c r="BW73" s="2"/>
-      <c r="BX73" s="2"/>
-      <c r="BY73" s="2"/>
-      <c r="BZ73" s="2"/>
-      <c r="CA73" s="2"/>
-      <c r="CB73" s="2"/>
-      <c r="CC73" s="2"/>
-      <c r="CD73" s="2"/>
-      <c r="CE73" s="2"/>
-    </row>
-    <row r="74" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7657,19 +6817,8 @@
       <c r="BR74" s="2"/>
       <c r="BS74" s="2"/>
       <c r="BT74" s="2"/>
-      <c r="BU74" s="2"/>
-      <c r="BV74" s="2"/>
-      <c r="BW74" s="2"/>
-      <c r="BX74" s="2"/>
-      <c r="BY74" s="2"/>
-      <c r="BZ74" s="2"/>
-      <c r="CA74" s="2"/>
-      <c r="CB74" s="2"/>
-      <c r="CC74" s="2"/>
-      <c r="CD74" s="2"/>
-      <c r="CE74" s="2"/>
-    </row>
-    <row r="75" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7742,19 +6891,8 @@
       <c r="BR75" s="2"/>
       <c r="BS75" s="2"/>
       <c r="BT75" s="2"/>
-      <c r="BU75" s="2"/>
-      <c r="BV75" s="2"/>
-      <c r="BW75" s="2"/>
-      <c r="BX75" s="2"/>
-      <c r="BY75" s="2"/>
-      <c r="BZ75" s="2"/>
-      <c r="CA75" s="2"/>
-      <c r="CB75" s="2"/>
-      <c r="CC75" s="2"/>
-      <c r="CD75" s="2"/>
-      <c r="CE75" s="2"/>
-    </row>
-    <row r="76" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7827,19 +6965,8 @@
       <c r="BR76" s="2"/>
       <c r="BS76" s="2"/>
       <c r="BT76" s="2"/>
-      <c r="BU76" s="2"/>
-      <c r="BV76" s="2"/>
-      <c r="BW76" s="2"/>
-      <c r="BX76" s="2"/>
-      <c r="BY76" s="2"/>
-      <c r="BZ76" s="2"/>
-      <c r="CA76" s="2"/>
-      <c r="CB76" s="2"/>
-      <c r="CC76" s="2"/>
-      <c r="CD76" s="2"/>
-      <c r="CE76" s="2"/>
-    </row>
-    <row r="77" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7912,19 +7039,8 @@
       <c r="BR77" s="2"/>
       <c r="BS77" s="2"/>
       <c r="BT77" s="2"/>
-      <c r="BU77" s="2"/>
-      <c r="BV77" s="2"/>
-      <c r="BW77" s="2"/>
-      <c r="BX77" s="2"/>
-      <c r="BY77" s="2"/>
-      <c r="BZ77" s="2"/>
-      <c r="CA77" s="2"/>
-      <c r="CB77" s="2"/>
-      <c r="CC77" s="2"/>
-      <c r="CD77" s="2"/>
-      <c r="CE77" s="2"/>
-    </row>
-    <row r="78" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7997,19 +7113,8 @@
       <c r="BR78" s="2"/>
       <c r="BS78" s="2"/>
       <c r="BT78" s="2"/>
-      <c r="BU78" s="2"/>
-      <c r="BV78" s="2"/>
-      <c r="BW78" s="2"/>
-      <c r="BX78" s="2"/>
-      <c r="BY78" s="2"/>
-      <c r="BZ78" s="2"/>
-      <c r="CA78" s="2"/>
-      <c r="CB78" s="2"/>
-      <c r="CC78" s="2"/>
-      <c r="CD78" s="2"/>
-      <c r="CE78" s="2"/>
-    </row>
-    <row r="79" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -8082,19 +7187,8 @@
       <c r="BR79" s="2"/>
       <c r="BS79" s="2"/>
       <c r="BT79" s="2"/>
-      <c r="BU79" s="2"/>
-      <c r="BV79" s="2"/>
-      <c r="BW79" s="2"/>
-      <c r="BX79" s="2"/>
-      <c r="BY79" s="2"/>
-      <c r="BZ79" s="2"/>
-      <c r="CA79" s="2"/>
-      <c r="CB79" s="2"/>
-      <c r="CC79" s="2"/>
-      <c r="CD79" s="2"/>
-      <c r="CE79" s="2"/>
-    </row>
-    <row r="80" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -8167,19 +7261,8 @@
       <c r="BR80" s="2"/>
       <c r="BS80" s="2"/>
       <c r="BT80" s="2"/>
-      <c r="BU80" s="2"/>
-      <c r="BV80" s="2"/>
-      <c r="BW80" s="2"/>
-      <c r="BX80" s="2"/>
-      <c r="BY80" s="2"/>
-      <c r="BZ80" s="2"/>
-      <c r="CA80" s="2"/>
-      <c r="CB80" s="2"/>
-      <c r="CC80" s="2"/>
-      <c r="CD80" s="2"/>
-      <c r="CE80" s="2"/>
-    </row>
-    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -8252,19 +7335,8 @@
       <c r="BR81" s="2"/>
       <c r="BS81" s="2"/>
       <c r="BT81" s="2"/>
-      <c r="BU81" s="2"/>
-      <c r="BV81" s="2"/>
-      <c r="BW81" s="2"/>
-      <c r="BX81" s="2"/>
-      <c r="BY81" s="2"/>
-      <c r="BZ81" s="2"/>
-      <c r="CA81" s="2"/>
-      <c r="CB81" s="2"/>
-      <c r="CC81" s="2"/>
-      <c r="CD81" s="2"/>
-      <c r="CE81" s="2"/>
-    </row>
-    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -8337,19 +7409,8 @@
       <c r="BR82" s="2"/>
       <c r="BS82" s="2"/>
       <c r="BT82" s="2"/>
-      <c r="BU82" s="2"/>
-      <c r="BV82" s="2"/>
-      <c r="BW82" s="2"/>
-      <c r="BX82" s="2"/>
-      <c r="BY82" s="2"/>
-      <c r="BZ82" s="2"/>
-      <c r="CA82" s="2"/>
-      <c r="CB82" s="2"/>
-      <c r="CC82" s="2"/>
-      <c r="CD82" s="2"/>
-      <c r="CE82" s="2"/>
-    </row>
-    <row r="83" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8422,19 +7483,8 @@
       <c r="BR83" s="2"/>
       <c r="BS83" s="2"/>
       <c r="BT83" s="2"/>
-      <c r="BU83" s="2"/>
-      <c r="BV83" s="2"/>
-      <c r="BW83" s="2"/>
-      <c r="BX83" s="2"/>
-      <c r="BY83" s="2"/>
-      <c r="BZ83" s="2"/>
-      <c r="CA83" s="2"/>
-      <c r="CB83" s="2"/>
-      <c r="CC83" s="2"/>
-      <c r="CD83" s="2"/>
-      <c r="CE83" s="2"/>
-    </row>
-    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8507,19 +7557,8 @@
       <c r="BR84" s="2"/>
       <c r="BS84" s="2"/>
       <c r="BT84" s="2"/>
-      <c r="BU84" s="2"/>
-      <c r="BV84" s="2"/>
-      <c r="BW84" s="2"/>
-      <c r="BX84" s="2"/>
-      <c r="BY84" s="2"/>
-      <c r="BZ84" s="2"/>
-      <c r="CA84" s="2"/>
-      <c r="CB84" s="2"/>
-      <c r="CC84" s="2"/>
-      <c r="CD84" s="2"/>
-      <c r="CE84" s="2"/>
-    </row>
-    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -8592,19 +7631,8 @@
       <c r="BR85" s="2"/>
       <c r="BS85" s="2"/>
       <c r="BT85" s="2"/>
-      <c r="BU85" s="2"/>
-      <c r="BV85" s="2"/>
-      <c r="BW85" s="2"/>
-      <c r="BX85" s="2"/>
-      <c r="BY85" s="2"/>
-      <c r="BZ85" s="2"/>
-      <c r="CA85" s="2"/>
-      <c r="CB85" s="2"/>
-      <c r="CC85" s="2"/>
-      <c r="CD85" s="2"/>
-      <c r="CE85" s="2"/>
-    </row>
-    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8677,19 +7705,8 @@
       <c r="BR86" s="2"/>
       <c r="BS86" s="2"/>
       <c r="BT86" s="2"/>
-      <c r="BU86" s="2"/>
-      <c r="BV86" s="2"/>
-      <c r="BW86" s="2"/>
-      <c r="BX86" s="2"/>
-      <c r="BY86" s="2"/>
-      <c r="BZ86" s="2"/>
-      <c r="CA86" s="2"/>
-      <c r="CB86" s="2"/>
-      <c r="CC86" s="2"/>
-      <c r="CD86" s="2"/>
-      <c r="CE86" s="2"/>
-    </row>
-    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8762,19 +7779,8 @@
       <c r="BR87" s="2"/>
       <c r="BS87" s="2"/>
       <c r="BT87" s="2"/>
-      <c r="BU87" s="2"/>
-      <c r="BV87" s="2"/>
-      <c r="BW87" s="2"/>
-      <c r="BX87" s="2"/>
-      <c r="BY87" s="2"/>
-      <c r="BZ87" s="2"/>
-      <c r="CA87" s="2"/>
-      <c r="CB87" s="2"/>
-      <c r="CC87" s="2"/>
-      <c r="CD87" s="2"/>
-      <c r="CE87" s="2"/>
-    </row>
-    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8847,19 +7853,8 @@
       <c r="BR88" s="2"/>
       <c r="BS88" s="2"/>
       <c r="BT88" s="2"/>
-      <c r="BU88" s="2"/>
-      <c r="BV88" s="2"/>
-      <c r="BW88" s="2"/>
-      <c r="BX88" s="2"/>
-      <c r="BY88" s="2"/>
-      <c r="BZ88" s="2"/>
-      <c r="CA88" s="2"/>
-      <c r="CB88" s="2"/>
-      <c r="CC88" s="2"/>
-      <c r="CD88" s="2"/>
-      <c r="CE88" s="2"/>
-    </row>
-    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8932,19 +7927,8 @@
       <c r="BR89" s="2"/>
       <c r="BS89" s="2"/>
       <c r="BT89" s="2"/>
-      <c r="BU89" s="2"/>
-      <c r="BV89" s="2"/>
-      <c r="BW89" s="2"/>
-      <c r="BX89" s="2"/>
-      <c r="BY89" s="2"/>
-      <c r="BZ89" s="2"/>
-      <c r="CA89" s="2"/>
-      <c r="CB89" s="2"/>
-      <c r="CC89" s="2"/>
-      <c r="CD89" s="2"/>
-      <c r="CE89" s="2"/>
-    </row>
-    <row r="90" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -9017,19 +8001,8 @@
       <c r="BR90" s="2"/>
       <c r="BS90" s="2"/>
       <c r="BT90" s="2"/>
-      <c r="BU90" s="2"/>
-      <c r="BV90" s="2"/>
-      <c r="BW90" s="2"/>
-      <c r="BX90" s="2"/>
-      <c r="BY90" s="2"/>
-      <c r="BZ90" s="2"/>
-      <c r="CA90" s="2"/>
-      <c r="CB90" s="2"/>
-      <c r="CC90" s="2"/>
-      <c r="CD90" s="2"/>
-      <c r="CE90" s="2"/>
-    </row>
-    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9102,19 +8075,8 @@
       <c r="BR91" s="2"/>
       <c r="BS91" s="2"/>
       <c r="BT91" s="2"/>
-      <c r="BU91" s="2"/>
-      <c r="BV91" s="2"/>
-      <c r="BW91" s="2"/>
-      <c r="BX91" s="2"/>
-      <c r="BY91" s="2"/>
-      <c r="BZ91" s="2"/>
-      <c r="CA91" s="2"/>
-      <c r="CB91" s="2"/>
-      <c r="CC91" s="2"/>
-      <c r="CD91" s="2"/>
-      <c r="CE91" s="2"/>
-    </row>
-    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9187,19 +8149,8 @@
       <c r="BR92" s="2"/>
       <c r="BS92" s="2"/>
       <c r="BT92" s="2"/>
-      <c r="BU92" s="2"/>
-      <c r="BV92" s="2"/>
-      <c r="BW92" s="2"/>
-      <c r="BX92" s="2"/>
-      <c r="BY92" s="2"/>
-      <c r="BZ92" s="2"/>
-      <c r="CA92" s="2"/>
-      <c r="CB92" s="2"/>
-      <c r="CC92" s="2"/>
-      <c r="CD92" s="2"/>
-      <c r="CE92" s="2"/>
-    </row>
-    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9272,19 +8223,8 @@
       <c r="BR93" s="2"/>
       <c r="BS93" s="2"/>
       <c r="BT93" s="2"/>
-      <c r="BU93" s="2"/>
-      <c r="BV93" s="2"/>
-      <c r="BW93" s="2"/>
-      <c r="BX93" s="2"/>
-      <c r="BY93" s="2"/>
-      <c r="BZ93" s="2"/>
-      <c r="CA93" s="2"/>
-      <c r="CB93" s="2"/>
-      <c r="CC93" s="2"/>
-      <c r="CD93" s="2"/>
-      <c r="CE93" s="2"/>
-    </row>
-    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9357,19 +8297,8 @@
       <c r="BR94" s="2"/>
       <c r="BS94" s="2"/>
       <c r="BT94" s="2"/>
-      <c r="BU94" s="2"/>
-      <c r="BV94" s="2"/>
-      <c r="BW94" s="2"/>
-      <c r="BX94" s="2"/>
-      <c r="BY94" s="2"/>
-      <c r="BZ94" s="2"/>
-      <c r="CA94" s="2"/>
-      <c r="CB94" s="2"/>
-      <c r="CC94" s="2"/>
-      <c r="CD94" s="2"/>
-      <c r="CE94" s="2"/>
-    </row>
-    <row r="95" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -9442,19 +8371,8 @@
       <c r="BR95" s="2"/>
       <c r="BS95" s="2"/>
       <c r="BT95" s="2"/>
-      <c r="BU95" s="2"/>
-      <c r="BV95" s="2"/>
-      <c r="BW95" s="2"/>
-      <c r="BX95" s="2"/>
-      <c r="BY95" s="2"/>
-      <c r="BZ95" s="2"/>
-      <c r="CA95" s="2"/>
-      <c r="CB95" s="2"/>
-      <c r="CC95" s="2"/>
-      <c r="CD95" s="2"/>
-      <c r="CE95" s="2"/>
-    </row>
-    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -9527,19 +8445,8 @@
       <c r="BR96" s="2"/>
       <c r="BS96" s="2"/>
       <c r="BT96" s="2"/>
-      <c r="BU96" s="2"/>
-      <c r="BV96" s="2"/>
-      <c r="BW96" s="2"/>
-      <c r="BX96" s="2"/>
-      <c r="BY96" s="2"/>
-      <c r="BZ96" s="2"/>
-      <c r="CA96" s="2"/>
-      <c r="CB96" s="2"/>
-      <c r="CC96" s="2"/>
-      <c r="CD96" s="2"/>
-      <c r="CE96" s="2"/>
-    </row>
-    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -9612,19 +8519,8 @@
       <c r="BR97" s="2"/>
       <c r="BS97" s="2"/>
       <c r="BT97" s="2"/>
-      <c r="BU97" s="2"/>
-      <c r="BV97" s="2"/>
-      <c r="BW97" s="2"/>
-      <c r="BX97" s="2"/>
-      <c r="BY97" s="2"/>
-      <c r="BZ97" s="2"/>
-      <c r="CA97" s="2"/>
-      <c r="CB97" s="2"/>
-      <c r="CC97" s="2"/>
-      <c r="CD97" s="2"/>
-      <c r="CE97" s="2"/>
-    </row>
-    <row r="98" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -9697,19 +8593,8 @@
       <c r="BR98" s="2"/>
       <c r="BS98" s="2"/>
       <c r="BT98" s="2"/>
-      <c r="BU98" s="2"/>
-      <c r="BV98" s="2"/>
-      <c r="BW98" s="2"/>
-      <c r="BX98" s="2"/>
-      <c r="BY98" s="2"/>
-      <c r="BZ98" s="2"/>
-      <c r="CA98" s="2"/>
-      <c r="CB98" s="2"/>
-      <c r="CC98" s="2"/>
-      <c r="CD98" s="2"/>
-      <c r="CE98" s="2"/>
-    </row>
-    <row r="99" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -9782,19 +8667,8 @@
       <c r="BR99" s="2"/>
       <c r="BS99" s="2"/>
       <c r="BT99" s="2"/>
-      <c r="BU99" s="2"/>
-      <c r="BV99" s="2"/>
-      <c r="BW99" s="2"/>
-      <c r="BX99" s="2"/>
-      <c r="BY99" s="2"/>
-      <c r="BZ99" s="2"/>
-      <c r="CA99" s="2"/>
-      <c r="CB99" s="2"/>
-      <c r="CC99" s="2"/>
-      <c r="CD99" s="2"/>
-      <c r="CE99" s="2"/>
-    </row>
-    <row r="100" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -9867,19 +8741,8 @@
       <c r="BR100" s="2"/>
       <c r="BS100" s="2"/>
       <c r="BT100" s="2"/>
-      <c r="BU100" s="2"/>
-      <c r="BV100" s="2"/>
-      <c r="BW100" s="2"/>
-      <c r="BX100" s="2"/>
-      <c r="BY100" s="2"/>
-      <c r="BZ100" s="2"/>
-      <c r="CA100" s="2"/>
-      <c r="CB100" s="2"/>
-      <c r="CC100" s="2"/>
-      <c r="CD100" s="2"/>
-      <c r="CE100" s="2"/>
-    </row>
-    <row r="101" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -9952,19 +8815,8 @@
       <c r="BR101" s="2"/>
       <c r="BS101" s="2"/>
       <c r="BT101" s="2"/>
-      <c r="BU101" s="2"/>
-      <c r="BV101" s="2"/>
-      <c r="BW101" s="2"/>
-      <c r="BX101" s="2"/>
-      <c r="BY101" s="2"/>
-      <c r="BZ101" s="2"/>
-      <c r="CA101" s="2"/>
-      <c r="CB101" s="2"/>
-      <c r="CC101" s="2"/>
-      <c r="CD101" s="2"/>
-      <c r="CE101" s="2"/>
-    </row>
-    <row r="102" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10037,19 +8889,8 @@
       <c r="BR102" s="2"/>
       <c r="BS102" s="2"/>
       <c r="BT102" s="2"/>
-      <c r="BU102" s="2"/>
-      <c r="BV102" s="2"/>
-      <c r="BW102" s="2"/>
-      <c r="BX102" s="2"/>
-      <c r="BY102" s="2"/>
-      <c r="BZ102" s="2"/>
-      <c r="CA102" s="2"/>
-      <c r="CB102" s="2"/>
-      <c r="CC102" s="2"/>
-      <c r="CD102" s="2"/>
-      <c r="CE102" s="2"/>
-    </row>
-    <row r="103" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10122,19 +8963,8 @@
       <c r="BR103" s="2"/>
       <c r="BS103" s="2"/>
       <c r="BT103" s="2"/>
-      <c r="BU103" s="2"/>
-      <c r="BV103" s="2"/>
-      <c r="BW103" s="2"/>
-      <c r="BX103" s="2"/>
-      <c r="BY103" s="2"/>
-      <c r="BZ103" s="2"/>
-      <c r="CA103" s="2"/>
-      <c r="CB103" s="2"/>
-      <c r="CC103" s="2"/>
-      <c r="CD103" s="2"/>
-      <c r="CE103" s="2"/>
-    </row>
-    <row r="104" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10207,19 +9037,8 @@
       <c r="BR104" s="2"/>
       <c r="BS104" s="2"/>
       <c r="BT104" s="2"/>
-      <c r="BU104" s="2"/>
-      <c r="BV104" s="2"/>
-      <c r="BW104" s="2"/>
-      <c r="BX104" s="2"/>
-      <c r="BY104" s="2"/>
-      <c r="BZ104" s="2"/>
-      <c r="CA104" s="2"/>
-      <c r="CB104" s="2"/>
-      <c r="CC104" s="2"/>
-      <c r="CD104" s="2"/>
-      <c r="CE104" s="2"/>
-    </row>
-    <row r="105" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10292,19 +9111,8 @@
       <c r="BR105" s="2"/>
       <c r="BS105" s="2"/>
       <c r="BT105" s="2"/>
-      <c r="BU105" s="2"/>
-      <c r="BV105" s="2"/>
-      <c r="BW105" s="2"/>
-      <c r="BX105" s="2"/>
-      <c r="BY105" s="2"/>
-      <c r="BZ105" s="2"/>
-      <c r="CA105" s="2"/>
-      <c r="CB105" s="2"/>
-      <c r="CC105" s="2"/>
-      <c r="CD105" s="2"/>
-      <c r="CE105" s="2"/>
-    </row>
-    <row r="106" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10377,19 +9185,8 @@
       <c r="BR106" s="2"/>
       <c r="BS106" s="2"/>
       <c r="BT106" s="2"/>
-      <c r="BU106" s="2"/>
-      <c r="BV106" s="2"/>
-      <c r="BW106" s="2"/>
-      <c r="BX106" s="2"/>
-      <c r="BY106" s="2"/>
-      <c r="BZ106" s="2"/>
-      <c r="CA106" s="2"/>
-      <c r="CB106" s="2"/>
-      <c r="CC106" s="2"/>
-      <c r="CD106" s="2"/>
-      <c r="CE106" s="2"/>
-    </row>
-    <row r="107" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10462,19 +9259,8 @@
       <c r="BR107" s="2"/>
       <c r="BS107" s="2"/>
       <c r="BT107" s="2"/>
-      <c r="BU107" s="2"/>
-      <c r="BV107" s="2"/>
-      <c r="BW107" s="2"/>
-      <c r="BX107" s="2"/>
-      <c r="BY107" s="2"/>
-      <c r="BZ107" s="2"/>
-      <c r="CA107" s="2"/>
-      <c r="CB107" s="2"/>
-      <c r="CC107" s="2"/>
-      <c r="CD107" s="2"/>
-      <c r="CE107" s="2"/>
-    </row>
-    <row r="108" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10547,19 +9333,8 @@
       <c r="BR108" s="2"/>
       <c r="BS108" s="2"/>
       <c r="BT108" s="2"/>
-      <c r="BU108" s="2"/>
-      <c r="BV108" s="2"/>
-      <c r="BW108" s="2"/>
-      <c r="BX108" s="2"/>
-      <c r="BY108" s="2"/>
-      <c r="BZ108" s="2"/>
-      <c r="CA108" s="2"/>
-      <c r="CB108" s="2"/>
-      <c r="CC108" s="2"/>
-      <c r="CD108" s="2"/>
-      <c r="CE108" s="2"/>
-    </row>
-    <row r="109" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10632,19 +9407,8 @@
       <c r="BR109" s="2"/>
       <c r="BS109" s="2"/>
       <c r="BT109" s="2"/>
-      <c r="BU109" s="2"/>
-      <c r="BV109" s="2"/>
-      <c r="BW109" s="2"/>
-      <c r="BX109" s="2"/>
-      <c r="BY109" s="2"/>
-      <c r="BZ109" s="2"/>
-      <c r="CA109" s="2"/>
-      <c r="CB109" s="2"/>
-      <c r="CC109" s="2"/>
-      <c r="CD109" s="2"/>
-      <c r="CE109" s="2"/>
-    </row>
-    <row r="110" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10717,19 +9481,8 @@
       <c r="BR110" s="2"/>
       <c r="BS110" s="2"/>
       <c r="BT110" s="2"/>
-      <c r="BU110" s="2"/>
-      <c r="BV110" s="2"/>
-      <c r="BW110" s="2"/>
-      <c r="BX110" s="2"/>
-      <c r="BY110" s="2"/>
-      <c r="BZ110" s="2"/>
-      <c r="CA110" s="2"/>
-      <c r="CB110" s="2"/>
-      <c r="CC110" s="2"/>
-      <c r="CD110" s="2"/>
-      <c r="CE110" s="2"/>
-    </row>
-    <row r="111" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10802,19 +9555,8 @@
       <c r="BR111" s="2"/>
       <c r="BS111" s="2"/>
       <c r="BT111" s="2"/>
-      <c r="BU111" s="2"/>
-      <c r="BV111" s="2"/>
-      <c r="BW111" s="2"/>
-      <c r="BX111" s="2"/>
-      <c r="BY111" s="2"/>
-      <c r="BZ111" s="2"/>
-      <c r="CA111" s="2"/>
-      <c r="CB111" s="2"/>
-      <c r="CC111" s="2"/>
-      <c r="CD111" s="2"/>
-      <c r="CE111" s="2"/>
-    </row>
-    <row r="112" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10887,19 +9629,8 @@
       <c r="BR112" s="2"/>
       <c r="BS112" s="2"/>
       <c r="BT112" s="2"/>
-      <c r="BU112" s="2"/>
-      <c r="BV112" s="2"/>
-      <c r="BW112" s="2"/>
-      <c r="BX112" s="2"/>
-      <c r="BY112" s="2"/>
-      <c r="BZ112" s="2"/>
-      <c r="CA112" s="2"/>
-      <c r="CB112" s="2"/>
-      <c r="CC112" s="2"/>
-      <c r="CD112" s="2"/>
-      <c r="CE112" s="2"/>
-    </row>
-    <row r="113" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10972,19 +9703,8 @@
       <c r="BR113" s="2"/>
       <c r="BS113" s="2"/>
       <c r="BT113" s="2"/>
-      <c r="BU113" s="2"/>
-      <c r="BV113" s="2"/>
-      <c r="BW113" s="2"/>
-      <c r="BX113" s="2"/>
-      <c r="BY113" s="2"/>
-      <c r="BZ113" s="2"/>
-      <c r="CA113" s="2"/>
-      <c r="CB113" s="2"/>
-      <c r="CC113" s="2"/>
-      <c r="CD113" s="2"/>
-      <c r="CE113" s="2"/>
-    </row>
-    <row r="114" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11057,19 +9777,8 @@
       <c r="BR114" s="2"/>
       <c r="BS114" s="2"/>
       <c r="BT114" s="2"/>
-      <c r="BU114" s="2"/>
-      <c r="BV114" s="2"/>
-      <c r="BW114" s="2"/>
-      <c r="BX114" s="2"/>
-      <c r="BY114" s="2"/>
-      <c r="BZ114" s="2"/>
-      <c r="CA114" s="2"/>
-      <c r="CB114" s="2"/>
-      <c r="CC114" s="2"/>
-      <c r="CD114" s="2"/>
-      <c r="CE114" s="2"/>
-    </row>
-    <row r="115" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11142,19 +9851,8 @@
       <c r="BR115" s="2"/>
       <c r="BS115" s="2"/>
       <c r="BT115" s="2"/>
-      <c r="BU115" s="2"/>
-      <c r="BV115" s="2"/>
-      <c r="BW115" s="2"/>
-      <c r="BX115" s="2"/>
-      <c r="BY115" s="2"/>
-      <c r="BZ115" s="2"/>
-      <c r="CA115" s="2"/>
-      <c r="CB115" s="2"/>
-      <c r="CC115" s="2"/>
-      <c r="CD115" s="2"/>
-      <c r="CE115" s="2"/>
-    </row>
-    <row r="116" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11227,19 +9925,8 @@
       <c r="BR116" s="2"/>
       <c r="BS116" s="2"/>
       <c r="BT116" s="2"/>
-      <c r="BU116" s="2"/>
-      <c r="BV116" s="2"/>
-      <c r="BW116" s="2"/>
-      <c r="BX116" s="2"/>
-      <c r="BY116" s="2"/>
-      <c r="BZ116" s="2"/>
-      <c r="CA116" s="2"/>
-      <c r="CB116" s="2"/>
-      <c r="CC116" s="2"/>
-      <c r="CD116" s="2"/>
-      <c r="CE116" s="2"/>
-    </row>
-    <row r="117" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -11312,19 +9999,8 @@
       <c r="BR117" s="2"/>
       <c r="BS117" s="2"/>
       <c r="BT117" s="2"/>
-      <c r="BU117" s="2"/>
-      <c r="BV117" s="2"/>
-      <c r="BW117" s="2"/>
-      <c r="BX117" s="2"/>
-      <c r="BY117" s="2"/>
-      <c r="BZ117" s="2"/>
-      <c r="CA117" s="2"/>
-      <c r="CB117" s="2"/>
-      <c r="CC117" s="2"/>
-      <c r="CD117" s="2"/>
-      <c r="CE117" s="2"/>
-    </row>
-    <row r="118" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -11397,19 +10073,8 @@
       <c r="BR118" s="2"/>
       <c r="BS118" s="2"/>
       <c r="BT118" s="2"/>
-      <c r="BU118" s="2"/>
-      <c r="BV118" s="2"/>
-      <c r="BW118" s="2"/>
-      <c r="BX118" s="2"/>
-      <c r="BY118" s="2"/>
-      <c r="BZ118" s="2"/>
-      <c r="CA118" s="2"/>
-      <c r="CB118" s="2"/>
-      <c r="CC118" s="2"/>
-      <c r="CD118" s="2"/>
-      <c r="CE118" s="2"/>
-    </row>
-    <row r="119" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -11482,19 +10147,8 @@
       <c r="BR119" s="2"/>
       <c r="BS119" s="2"/>
       <c r="BT119" s="2"/>
-      <c r="BU119" s="2"/>
-      <c r="BV119" s="2"/>
-      <c r="BW119" s="2"/>
-      <c r="BX119" s="2"/>
-      <c r="BY119" s="2"/>
-      <c r="BZ119" s="2"/>
-      <c r="CA119" s="2"/>
-      <c r="CB119" s="2"/>
-      <c r="CC119" s="2"/>
-      <c r="CD119" s="2"/>
-      <c r="CE119" s="2"/>
-    </row>
-    <row r="120" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11567,19 +10221,8 @@
       <c r="BR120" s="2"/>
       <c r="BS120" s="2"/>
       <c r="BT120" s="2"/>
-      <c r="BU120" s="2"/>
-      <c r="BV120" s="2"/>
-      <c r="BW120" s="2"/>
-      <c r="BX120" s="2"/>
-      <c r="BY120" s="2"/>
-      <c r="BZ120" s="2"/>
-      <c r="CA120" s="2"/>
-      <c r="CB120" s="2"/>
-      <c r="CC120" s="2"/>
-      <c r="CD120" s="2"/>
-      <c r="CE120" s="2"/>
-    </row>
-    <row r="121" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11652,19 +10295,8 @@
       <c r="BR121" s="2"/>
       <c r="BS121" s="2"/>
       <c r="BT121" s="2"/>
-      <c r="BU121" s="2"/>
-      <c r="BV121" s="2"/>
-      <c r="BW121" s="2"/>
-      <c r="BX121" s="2"/>
-      <c r="BY121" s="2"/>
-      <c r="BZ121" s="2"/>
-      <c r="CA121" s="2"/>
-      <c r="CB121" s="2"/>
-      <c r="CC121" s="2"/>
-      <c r="CD121" s="2"/>
-      <c r="CE121" s="2"/>
-    </row>
-    <row r="122" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11737,19 +10369,8 @@
       <c r="BR122" s="2"/>
       <c r="BS122" s="2"/>
       <c r="BT122" s="2"/>
-      <c r="BU122" s="2"/>
-      <c r="BV122" s="2"/>
-      <c r="BW122" s="2"/>
-      <c r="BX122" s="2"/>
-      <c r="BY122" s="2"/>
-      <c r="BZ122" s="2"/>
-      <c r="CA122" s="2"/>
-      <c r="CB122" s="2"/>
-      <c r="CC122" s="2"/>
-      <c r="CD122" s="2"/>
-      <c r="CE122" s="2"/>
-    </row>
-    <row r="123" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11822,19 +10443,8 @@
       <c r="BR123" s="2"/>
       <c r="BS123" s="2"/>
       <c r="BT123" s="2"/>
-      <c r="BU123" s="2"/>
-      <c r="BV123" s="2"/>
-      <c r="BW123" s="2"/>
-      <c r="BX123" s="2"/>
-      <c r="BY123" s="2"/>
-      <c r="BZ123" s="2"/>
-      <c r="CA123" s="2"/>
-      <c r="CB123" s="2"/>
-      <c r="CC123" s="2"/>
-      <c r="CD123" s="2"/>
-      <c r="CE123" s="2"/>
-    </row>
-    <row r="124" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11907,19 +10517,8 @@
       <c r="BR124" s="2"/>
       <c r="BS124" s="2"/>
       <c r="BT124" s="2"/>
-      <c r="BU124" s="2"/>
-      <c r="BV124" s="2"/>
-      <c r="BW124" s="2"/>
-      <c r="BX124" s="2"/>
-      <c r="BY124" s="2"/>
-      <c r="BZ124" s="2"/>
-      <c r="CA124" s="2"/>
-      <c r="CB124" s="2"/>
-      <c r="CC124" s="2"/>
-      <c r="CD124" s="2"/>
-      <c r="CE124" s="2"/>
-    </row>
-    <row r="125" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11992,19 +10591,8 @@
       <c r="BR125" s="2"/>
       <c r="BS125" s="2"/>
       <c r="BT125" s="2"/>
-      <c r="BU125" s="2"/>
-      <c r="BV125" s="2"/>
-      <c r="BW125" s="2"/>
-      <c r="BX125" s="2"/>
-      <c r="BY125" s="2"/>
-      <c r="BZ125" s="2"/>
-      <c r="CA125" s="2"/>
-      <c r="CB125" s="2"/>
-      <c r="CC125" s="2"/>
-      <c r="CD125" s="2"/>
-      <c r="CE125" s="2"/>
-    </row>
-    <row r="126" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -12077,19 +10665,8 @@
       <c r="BR126" s="2"/>
       <c r="BS126" s="2"/>
       <c r="BT126" s="2"/>
-      <c r="BU126" s="2"/>
-      <c r="BV126" s="2"/>
-      <c r="BW126" s="2"/>
-      <c r="BX126" s="2"/>
-      <c r="BY126" s="2"/>
-      <c r="BZ126" s="2"/>
-      <c r="CA126" s="2"/>
-      <c r="CB126" s="2"/>
-      <c r="CC126" s="2"/>
-      <c r="CD126" s="2"/>
-      <c r="CE126" s="2"/>
-    </row>
-    <row r="127" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -12162,19 +10739,8 @@
       <c r="BR127" s="2"/>
       <c r="BS127" s="2"/>
       <c r="BT127" s="2"/>
-      <c r="BU127" s="2"/>
-      <c r="BV127" s="2"/>
-      <c r="BW127" s="2"/>
-      <c r="BX127" s="2"/>
-      <c r="BY127" s="2"/>
-      <c r="BZ127" s="2"/>
-      <c r="CA127" s="2"/>
-      <c r="CB127" s="2"/>
-      <c r="CC127" s="2"/>
-      <c r="CD127" s="2"/>
-      <c r="CE127" s="2"/>
-    </row>
-    <row r="128" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -12247,19 +10813,8 @@
       <c r="BR128" s="2"/>
       <c r="BS128" s="2"/>
       <c r="BT128" s="2"/>
-      <c r="BU128" s="2"/>
-      <c r="BV128" s="2"/>
-      <c r="BW128" s="2"/>
-      <c r="BX128" s="2"/>
-      <c r="BY128" s="2"/>
-      <c r="BZ128" s="2"/>
-      <c r="CA128" s="2"/>
-      <c r="CB128" s="2"/>
-      <c r="CC128" s="2"/>
-      <c r="CD128" s="2"/>
-      <c r="CE128" s="2"/>
-    </row>
-    <row r="129" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -12332,19 +10887,8 @@
       <c r="BR129" s="2"/>
       <c r="BS129" s="2"/>
       <c r="BT129" s="2"/>
-      <c r="BU129" s="2"/>
-      <c r="BV129" s="2"/>
-      <c r="BW129" s="2"/>
-      <c r="BX129" s="2"/>
-      <c r="BY129" s="2"/>
-      <c r="BZ129" s="2"/>
-      <c r="CA129" s="2"/>
-      <c r="CB129" s="2"/>
-      <c r="CC129" s="2"/>
-      <c r="CD129" s="2"/>
-      <c r="CE129" s="2"/>
-    </row>
-    <row r="130" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -12417,19 +10961,8 @@
       <c r="BR130" s="2"/>
       <c r="BS130" s="2"/>
       <c r="BT130" s="2"/>
-      <c r="BU130" s="2"/>
-      <c r="BV130" s="2"/>
-      <c r="BW130" s="2"/>
-      <c r="BX130" s="2"/>
-      <c r="BY130" s="2"/>
-      <c r="BZ130" s="2"/>
-      <c r="CA130" s="2"/>
-      <c r="CB130" s="2"/>
-      <c r="CC130" s="2"/>
-      <c r="CD130" s="2"/>
-      <c r="CE130" s="2"/>
-    </row>
-    <row r="131" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -12502,19 +11035,8 @@
       <c r="BR131" s="2"/>
       <c r="BS131" s="2"/>
       <c r="BT131" s="2"/>
-      <c r="BU131" s="2"/>
-      <c r="BV131" s="2"/>
-      <c r="BW131" s="2"/>
-      <c r="BX131" s="2"/>
-      <c r="BY131" s="2"/>
-      <c r="BZ131" s="2"/>
-      <c r="CA131" s="2"/>
-      <c r="CB131" s="2"/>
-      <c r="CC131" s="2"/>
-      <c r="CD131" s="2"/>
-      <c r="CE131" s="2"/>
-    </row>
-    <row r="132" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -12587,19 +11109,8 @@
       <c r="BR132" s="2"/>
       <c r="BS132" s="2"/>
       <c r="BT132" s="2"/>
-      <c r="BU132" s="2"/>
-      <c r="BV132" s="2"/>
-      <c r="BW132" s="2"/>
-      <c r="BX132" s="2"/>
-      <c r="BY132" s="2"/>
-      <c r="BZ132" s="2"/>
-      <c r="CA132" s="2"/>
-      <c r="CB132" s="2"/>
-      <c r="CC132" s="2"/>
-      <c r="CD132" s="2"/>
-      <c r="CE132" s="2"/>
-    </row>
-    <row r="133" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -12672,19 +11183,8 @@
       <c r="BR133" s="2"/>
       <c r="BS133" s="2"/>
       <c r="BT133" s="2"/>
-      <c r="BU133" s="2"/>
-      <c r="BV133" s="2"/>
-      <c r="BW133" s="2"/>
-      <c r="BX133" s="2"/>
-      <c r="BY133" s="2"/>
-      <c r="BZ133" s="2"/>
-      <c r="CA133" s="2"/>
-      <c r="CB133" s="2"/>
-      <c r="CC133" s="2"/>
-      <c r="CD133" s="2"/>
-      <c r="CE133" s="2"/>
-    </row>
-    <row r="134" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -12757,19 +11257,8 @@
       <c r="BR134" s="2"/>
       <c r="BS134" s="2"/>
       <c r="BT134" s="2"/>
-      <c r="BU134" s="2"/>
-      <c r="BV134" s="2"/>
-      <c r="BW134" s="2"/>
-      <c r="BX134" s="2"/>
-      <c r="BY134" s="2"/>
-      <c r="BZ134" s="2"/>
-      <c r="CA134" s="2"/>
-      <c r="CB134" s="2"/>
-      <c r="CC134" s="2"/>
-      <c r="CD134" s="2"/>
-      <c r="CE134" s="2"/>
-    </row>
-    <row r="135" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -12842,19 +11331,8 @@
       <c r="BR135" s="2"/>
       <c r="BS135" s="2"/>
       <c r="BT135" s="2"/>
-      <c r="BU135" s="2"/>
-      <c r="BV135" s="2"/>
-      <c r="BW135" s="2"/>
-      <c r="BX135" s="2"/>
-      <c r="BY135" s="2"/>
-      <c r="BZ135" s="2"/>
-      <c r="CA135" s="2"/>
-      <c r="CB135" s="2"/>
-      <c r="CC135" s="2"/>
-      <c r="CD135" s="2"/>
-      <c r="CE135" s="2"/>
-    </row>
-    <row r="136" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -12927,19 +11405,8 @@
       <c r="BR136" s="2"/>
       <c r="BS136" s="2"/>
       <c r="BT136" s="2"/>
-      <c r="BU136" s="2"/>
-      <c r="BV136" s="2"/>
-      <c r="BW136" s="2"/>
-      <c r="BX136" s="2"/>
-      <c r="BY136" s="2"/>
-      <c r="BZ136" s="2"/>
-      <c r="CA136" s="2"/>
-      <c r="CB136" s="2"/>
-      <c r="CC136" s="2"/>
-      <c r="CD136" s="2"/>
-      <c r="CE136" s="2"/>
-    </row>
-    <row r="137" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -13012,19 +11479,8 @@
       <c r="BR137" s="2"/>
       <c r="BS137" s="2"/>
       <c r="BT137" s="2"/>
-      <c r="BU137" s="2"/>
-      <c r="BV137" s="2"/>
-      <c r="BW137" s="2"/>
-      <c r="BX137" s="2"/>
-      <c r="BY137" s="2"/>
-      <c r="BZ137" s="2"/>
-      <c r="CA137" s="2"/>
-      <c r="CB137" s="2"/>
-      <c r="CC137" s="2"/>
-      <c r="CD137" s="2"/>
-      <c r="CE137" s="2"/>
-    </row>
-    <row r="138" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -13097,19 +11553,8 @@
       <c r="BR138" s="2"/>
       <c r="BS138" s="2"/>
       <c r="BT138" s="2"/>
-      <c r="BU138" s="2"/>
-      <c r="BV138" s="2"/>
-      <c r="BW138" s="2"/>
-      <c r="BX138" s="2"/>
-      <c r="BY138" s="2"/>
-      <c r="BZ138" s="2"/>
-      <c r="CA138" s="2"/>
-      <c r="CB138" s="2"/>
-      <c r="CC138" s="2"/>
-      <c r="CD138" s="2"/>
-      <c r="CE138" s="2"/>
-    </row>
-    <row r="139" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -13182,19 +11627,8 @@
       <c r="BR139" s="2"/>
       <c r="BS139" s="2"/>
       <c r="BT139" s="2"/>
-      <c r="BU139" s="2"/>
-      <c r="BV139" s="2"/>
-      <c r="BW139" s="2"/>
-      <c r="BX139" s="2"/>
-      <c r="BY139" s="2"/>
-      <c r="BZ139" s="2"/>
-      <c r="CA139" s="2"/>
-      <c r="CB139" s="2"/>
-      <c r="CC139" s="2"/>
-      <c r="CD139" s="2"/>
-      <c r="CE139" s="2"/>
-    </row>
-    <row r="140" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -13267,19 +11701,8 @@
       <c r="BR140" s="2"/>
       <c r="BS140" s="2"/>
       <c r="BT140" s="2"/>
-      <c r="BU140" s="2"/>
-      <c r="BV140" s="2"/>
-      <c r="BW140" s="2"/>
-      <c r="BX140" s="2"/>
-      <c r="BY140" s="2"/>
-      <c r="BZ140" s="2"/>
-      <c r="CA140" s="2"/>
-      <c r="CB140" s="2"/>
-      <c r="CC140" s="2"/>
-      <c r="CD140" s="2"/>
-      <c r="CE140" s="2"/>
-    </row>
-    <row r="141" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -13352,19 +11775,8 @@
       <c r="BR141" s="2"/>
       <c r="BS141" s="2"/>
       <c r="BT141" s="2"/>
-      <c r="BU141" s="2"/>
-      <c r="BV141" s="2"/>
-      <c r="BW141" s="2"/>
-      <c r="BX141" s="2"/>
-      <c r="BY141" s="2"/>
-      <c r="BZ141" s="2"/>
-      <c r="CA141" s="2"/>
-      <c r="CB141" s="2"/>
-      <c r="CC141" s="2"/>
-      <c r="CD141" s="2"/>
-      <c r="CE141" s="2"/>
-    </row>
-    <row r="142" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -13437,19 +11849,8 @@
       <c r="BR142" s="2"/>
       <c r="BS142" s="2"/>
       <c r="BT142" s="2"/>
-      <c r="BU142" s="2"/>
-      <c r="BV142" s="2"/>
-      <c r="BW142" s="2"/>
-      <c r="BX142" s="2"/>
-      <c r="BY142" s="2"/>
-      <c r="BZ142" s="2"/>
-      <c r="CA142" s="2"/>
-      <c r="CB142" s="2"/>
-      <c r="CC142" s="2"/>
-      <c r="CD142" s="2"/>
-      <c r="CE142" s="2"/>
-    </row>
-    <row r="143" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -13522,19 +11923,8 @@
       <c r="BR143" s="2"/>
       <c r="BS143" s="2"/>
       <c r="BT143" s="2"/>
-      <c r="BU143" s="2"/>
-      <c r="BV143" s="2"/>
-      <c r="BW143" s="2"/>
-      <c r="BX143" s="2"/>
-      <c r="BY143" s="2"/>
-      <c r="BZ143" s="2"/>
-      <c r="CA143" s="2"/>
-      <c r="CB143" s="2"/>
-      <c r="CC143" s="2"/>
-      <c r="CD143" s="2"/>
-      <c r="CE143" s="2"/>
-    </row>
-    <row r="144" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -13607,19 +11997,8 @@
       <c r="BR144" s="2"/>
       <c r="BS144" s="2"/>
       <c r="BT144" s="2"/>
-      <c r="BU144" s="2"/>
-      <c r="BV144" s="2"/>
-      <c r="BW144" s="2"/>
-      <c r="BX144" s="2"/>
-      <c r="BY144" s="2"/>
-      <c r="BZ144" s="2"/>
-      <c r="CA144" s="2"/>
-      <c r="CB144" s="2"/>
-      <c r="CC144" s="2"/>
-      <c r="CD144" s="2"/>
-      <c r="CE144" s="2"/>
-    </row>
-    <row r="145" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -13692,19 +12071,8 @@
       <c r="BR145" s="2"/>
       <c r="BS145" s="2"/>
       <c r="BT145" s="2"/>
-      <c r="BU145" s="2"/>
-      <c r="BV145" s="2"/>
-      <c r="BW145" s="2"/>
-      <c r="BX145" s="2"/>
-      <c r="BY145" s="2"/>
-      <c r="BZ145" s="2"/>
-      <c r="CA145" s="2"/>
-      <c r="CB145" s="2"/>
-      <c r="CC145" s="2"/>
-      <c r="CD145" s="2"/>
-      <c r="CE145" s="2"/>
-    </row>
-    <row r="146" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -13777,19 +12145,8 @@
       <c r="BR146" s="2"/>
       <c r="BS146" s="2"/>
       <c r="BT146" s="2"/>
-      <c r="BU146" s="2"/>
-      <c r="BV146" s="2"/>
-      <c r="BW146" s="2"/>
-      <c r="BX146" s="2"/>
-      <c r="BY146" s="2"/>
-      <c r="BZ146" s="2"/>
-      <c r="CA146" s="2"/>
-      <c r="CB146" s="2"/>
-      <c r="CC146" s="2"/>
-      <c r="CD146" s="2"/>
-      <c r="CE146" s="2"/>
-    </row>
-    <row r="147" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -13862,19 +12219,8 @@
       <c r="BR147" s="2"/>
       <c r="BS147" s="2"/>
       <c r="BT147" s="2"/>
-      <c r="BU147" s="2"/>
-      <c r="BV147" s="2"/>
-      <c r="BW147" s="2"/>
-      <c r="BX147" s="2"/>
-      <c r="BY147" s="2"/>
-      <c r="BZ147" s="2"/>
-      <c r="CA147" s="2"/>
-      <c r="CB147" s="2"/>
-      <c r="CC147" s="2"/>
-      <c r="CD147" s="2"/>
-      <c r="CE147" s="2"/>
-    </row>
-    <row r="148" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -13947,19 +12293,8 @@
       <c r="BR148" s="2"/>
       <c r="BS148" s="2"/>
       <c r="BT148" s="2"/>
-      <c r="BU148" s="2"/>
-      <c r="BV148" s="2"/>
-      <c r="BW148" s="2"/>
-      <c r="BX148" s="2"/>
-      <c r="BY148" s="2"/>
-      <c r="BZ148" s="2"/>
-      <c r="CA148" s="2"/>
-      <c r="CB148" s="2"/>
-      <c r="CC148" s="2"/>
-      <c r="CD148" s="2"/>
-      <c r="CE148" s="2"/>
-    </row>
-    <row r="149" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -14032,19 +12367,8 @@
       <c r="BR149" s="2"/>
       <c r="BS149" s="2"/>
       <c r="BT149" s="2"/>
-      <c r="BU149" s="2"/>
-      <c r="BV149" s="2"/>
-      <c r="BW149" s="2"/>
-      <c r="BX149" s="2"/>
-      <c r="BY149" s="2"/>
-      <c r="BZ149" s="2"/>
-      <c r="CA149" s="2"/>
-      <c r="CB149" s="2"/>
-      <c r="CC149" s="2"/>
-      <c r="CD149" s="2"/>
-      <c r="CE149" s="2"/>
-    </row>
-    <row r="150" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -14117,19 +12441,8 @@
       <c r="BR150" s="2"/>
       <c r="BS150" s="2"/>
       <c r="BT150" s="2"/>
-      <c r="BU150" s="2"/>
-      <c r="BV150" s="2"/>
-      <c r="BW150" s="2"/>
-      <c r="BX150" s="2"/>
-      <c r="BY150" s="2"/>
-      <c r="BZ150" s="2"/>
-      <c r="CA150" s="2"/>
-      <c r="CB150" s="2"/>
-      <c r="CC150" s="2"/>
-      <c r="CD150" s="2"/>
-      <c r="CE150" s="2"/>
-    </row>
-    <row r="151" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -14202,19 +12515,8 @@
       <c r="BR151" s="2"/>
       <c r="BS151" s="2"/>
       <c r="BT151" s="2"/>
-      <c r="BU151" s="2"/>
-      <c r="BV151" s="2"/>
-      <c r="BW151" s="2"/>
-      <c r="BX151" s="2"/>
-      <c r="BY151" s="2"/>
-      <c r="BZ151" s="2"/>
-      <c r="CA151" s="2"/>
-      <c r="CB151" s="2"/>
-      <c r="CC151" s="2"/>
-      <c r="CD151" s="2"/>
-      <c r="CE151" s="2"/>
-    </row>
-    <row r="152" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -14287,19 +12589,8 @@
       <c r="BR152" s="2"/>
       <c r="BS152" s="2"/>
       <c r="BT152" s="2"/>
-      <c r="BU152" s="2"/>
-      <c r="BV152" s="2"/>
-      <c r="BW152" s="2"/>
-      <c r="BX152" s="2"/>
-      <c r="BY152" s="2"/>
-      <c r="BZ152" s="2"/>
-      <c r="CA152" s="2"/>
-      <c r="CB152" s="2"/>
-      <c r="CC152" s="2"/>
-      <c r="CD152" s="2"/>
-      <c r="CE152" s="2"/>
-    </row>
-    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -14372,19 +12663,8 @@
       <c r="BR153" s="2"/>
       <c r="BS153" s="2"/>
       <c r="BT153" s="2"/>
-      <c r="BU153" s="2"/>
-      <c r="BV153" s="2"/>
-      <c r="BW153" s="2"/>
-      <c r="BX153" s="2"/>
-      <c r="BY153" s="2"/>
-      <c r="BZ153" s="2"/>
-      <c r="CA153" s="2"/>
-      <c r="CB153" s="2"/>
-      <c r="CC153" s="2"/>
-      <c r="CD153" s="2"/>
-      <c r="CE153" s="2"/>
-    </row>
-    <row r="154" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -14457,19 +12737,8 @@
       <c r="BR154" s="2"/>
       <c r="BS154" s="2"/>
       <c r="BT154" s="2"/>
-      <c r="BU154" s="2"/>
-      <c r="BV154" s="2"/>
-      <c r="BW154" s="2"/>
-      <c r="BX154" s="2"/>
-      <c r="BY154" s="2"/>
-      <c r="BZ154" s="2"/>
-      <c r="CA154" s="2"/>
-      <c r="CB154" s="2"/>
-      <c r="CC154" s="2"/>
-      <c r="CD154" s="2"/>
-      <c r="CE154" s="2"/>
-    </row>
-    <row r="155" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -14542,19 +12811,8 @@
       <c r="BR155" s="2"/>
       <c r="BS155" s="2"/>
       <c r="BT155" s="2"/>
-      <c r="BU155" s="2"/>
-      <c r="BV155" s="2"/>
-      <c r="BW155" s="2"/>
-      <c r="BX155" s="2"/>
-      <c r="BY155" s="2"/>
-      <c r="BZ155" s="2"/>
-      <c r="CA155" s="2"/>
-      <c r="CB155" s="2"/>
-      <c r="CC155" s="2"/>
-      <c r="CD155" s="2"/>
-      <c r="CE155" s="2"/>
-    </row>
-    <row r="156" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -14627,19 +12885,8 @@
       <c r="BR156" s="2"/>
       <c r="BS156" s="2"/>
       <c r="BT156" s="2"/>
-      <c r="BU156" s="2"/>
-      <c r="BV156" s="2"/>
-      <c r="BW156" s="2"/>
-      <c r="BX156" s="2"/>
-      <c r="BY156" s="2"/>
-      <c r="BZ156" s="2"/>
-      <c r="CA156" s="2"/>
-      <c r="CB156" s="2"/>
-      <c r="CC156" s="2"/>
-      <c r="CD156" s="2"/>
-      <c r="CE156" s="2"/>
-    </row>
-    <row r="157" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -14712,19 +12959,8 @@
       <c r="BR157" s="2"/>
       <c r="BS157" s="2"/>
       <c r="BT157" s="2"/>
-      <c r="BU157" s="2"/>
-      <c r="BV157" s="2"/>
-      <c r="BW157" s="2"/>
-      <c r="BX157" s="2"/>
-      <c r="BY157" s="2"/>
-      <c r="BZ157" s="2"/>
-      <c r="CA157" s="2"/>
-      <c r="CB157" s="2"/>
-      <c r="CC157" s="2"/>
-      <c r="CD157" s="2"/>
-      <c r="CE157" s="2"/>
-    </row>
-    <row r="158" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -14797,19 +13033,8 @@
       <c r="BR158" s="2"/>
       <c r="BS158" s="2"/>
       <c r="BT158" s="2"/>
-      <c r="BU158" s="2"/>
-      <c r="BV158" s="2"/>
-      <c r="BW158" s="2"/>
-      <c r="BX158" s="2"/>
-      <c r="BY158" s="2"/>
-      <c r="BZ158" s="2"/>
-      <c r="CA158" s="2"/>
-      <c r="CB158" s="2"/>
-      <c r="CC158" s="2"/>
-      <c r="CD158" s="2"/>
-      <c r="CE158" s="2"/>
-    </row>
-    <row r="159" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -14882,19 +13107,8 @@
       <c r="BR159" s="2"/>
       <c r="BS159" s="2"/>
       <c r="BT159" s="2"/>
-      <c r="BU159" s="2"/>
-      <c r="BV159" s="2"/>
-      <c r="BW159" s="2"/>
-      <c r="BX159" s="2"/>
-      <c r="BY159" s="2"/>
-      <c r="BZ159" s="2"/>
-      <c r="CA159" s="2"/>
-      <c r="CB159" s="2"/>
-      <c r="CC159" s="2"/>
-      <c r="CD159" s="2"/>
-      <c r="CE159" s="2"/>
-    </row>
-    <row r="160" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -14967,19 +13181,8 @@
       <c r="BR160" s="2"/>
       <c r="BS160" s="2"/>
       <c r="BT160" s="2"/>
-      <c r="BU160" s="2"/>
-      <c r="BV160" s="2"/>
-      <c r="BW160" s="2"/>
-      <c r="BX160" s="2"/>
-      <c r="BY160" s="2"/>
-      <c r="BZ160" s="2"/>
-      <c r="CA160" s="2"/>
-      <c r="CB160" s="2"/>
-      <c r="CC160" s="2"/>
-      <c r="CD160" s="2"/>
-      <c r="CE160" s="2"/>
-    </row>
-    <row r="161" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -15052,19 +13255,8 @@
       <c r="BR161" s="2"/>
       <c r="BS161" s="2"/>
       <c r="BT161" s="2"/>
-      <c r="BU161" s="2"/>
-      <c r="BV161" s="2"/>
-      <c r="BW161" s="2"/>
-      <c r="BX161" s="2"/>
-      <c r="BY161" s="2"/>
-      <c r="BZ161" s="2"/>
-      <c r="CA161" s="2"/>
-      <c r="CB161" s="2"/>
-      <c r="CC161" s="2"/>
-      <c r="CD161" s="2"/>
-      <c r="CE161" s="2"/>
-    </row>
-    <row r="162" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -15137,19 +13329,8 @@
       <c r="BR162" s="2"/>
       <c r="BS162" s="2"/>
       <c r="BT162" s="2"/>
-      <c r="BU162" s="2"/>
-      <c r="BV162" s="2"/>
-      <c r="BW162" s="2"/>
-      <c r="BX162" s="2"/>
-      <c r="BY162" s="2"/>
-      <c r="BZ162" s="2"/>
-      <c r="CA162" s="2"/>
-      <c r="CB162" s="2"/>
-      <c r="CC162" s="2"/>
-      <c r="CD162" s="2"/>
-      <c r="CE162" s="2"/>
-    </row>
-    <row r="163" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -15222,19 +13403,8 @@
       <c r="BR163" s="2"/>
       <c r="BS163" s="2"/>
       <c r="BT163" s="2"/>
-      <c r="BU163" s="2"/>
-      <c r="BV163" s="2"/>
-      <c r="BW163" s="2"/>
-      <c r="BX163" s="2"/>
-      <c r="BY163" s="2"/>
-      <c r="BZ163" s="2"/>
-      <c r="CA163" s="2"/>
-      <c r="CB163" s="2"/>
-      <c r="CC163" s="2"/>
-      <c r="CD163" s="2"/>
-      <c r="CE163" s="2"/>
-    </row>
-    <row r="164" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -15307,19 +13477,8 @@
       <c r="BR164" s="2"/>
       <c r="BS164" s="2"/>
       <c r="BT164" s="2"/>
-      <c r="BU164" s="2"/>
-      <c r="BV164" s="2"/>
-      <c r="BW164" s="2"/>
-      <c r="BX164" s="2"/>
-      <c r="BY164" s="2"/>
-      <c r="BZ164" s="2"/>
-      <c r="CA164" s="2"/>
-      <c r="CB164" s="2"/>
-      <c r="CC164" s="2"/>
-      <c r="CD164" s="2"/>
-      <c r="CE164" s="2"/>
-    </row>
-    <row r="165" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -15392,19 +13551,8 @@
       <c r="BR165" s="2"/>
       <c r="BS165" s="2"/>
       <c r="BT165" s="2"/>
-      <c r="BU165" s="2"/>
-      <c r="BV165" s="2"/>
-      <c r="BW165" s="2"/>
-      <c r="BX165" s="2"/>
-      <c r="BY165" s="2"/>
-      <c r="BZ165" s="2"/>
-      <c r="CA165" s="2"/>
-      <c r="CB165" s="2"/>
-      <c r="CC165" s="2"/>
-      <c r="CD165" s="2"/>
-      <c r="CE165" s="2"/>
-    </row>
-    <row r="166" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -15477,19 +13625,8 @@
       <c r="BR166" s="2"/>
       <c r="BS166" s="2"/>
       <c r="BT166" s="2"/>
-      <c r="BU166" s="2"/>
-      <c r="BV166" s="2"/>
-      <c r="BW166" s="2"/>
-      <c r="BX166" s="2"/>
-      <c r="BY166" s="2"/>
-      <c r="BZ166" s="2"/>
-      <c r="CA166" s="2"/>
-      <c r="CB166" s="2"/>
-      <c r="CC166" s="2"/>
-      <c r="CD166" s="2"/>
-      <c r="CE166" s="2"/>
-    </row>
-    <row r="167" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -15562,19 +13699,8 @@
       <c r="BR167" s="2"/>
       <c r="BS167" s="2"/>
       <c r="BT167" s="2"/>
-      <c r="BU167" s="2"/>
-      <c r="BV167" s="2"/>
-      <c r="BW167" s="2"/>
-      <c r="BX167" s="2"/>
-      <c r="BY167" s="2"/>
-      <c r="BZ167" s="2"/>
-      <c r="CA167" s="2"/>
-      <c r="CB167" s="2"/>
-      <c r="CC167" s="2"/>
-      <c r="CD167" s="2"/>
-      <c r="CE167" s="2"/>
-    </row>
-    <row r="168" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -15647,19 +13773,8 @@
       <c r="BR168" s="2"/>
       <c r="BS168" s="2"/>
       <c r="BT168" s="2"/>
-      <c r="BU168" s="2"/>
-      <c r="BV168" s="2"/>
-      <c r="BW168" s="2"/>
-      <c r="BX168" s="2"/>
-      <c r="BY168" s="2"/>
-      <c r="BZ168" s="2"/>
-      <c r="CA168" s="2"/>
-      <c r="CB168" s="2"/>
-      <c r="CC168" s="2"/>
-      <c r="CD168" s="2"/>
-      <c r="CE168" s="2"/>
-    </row>
-    <row r="169" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -15732,19 +13847,8 @@
       <c r="BR169" s="2"/>
       <c r="BS169" s="2"/>
       <c r="BT169" s="2"/>
-      <c r="BU169" s="2"/>
-      <c r="BV169" s="2"/>
-      <c r="BW169" s="2"/>
-      <c r="BX169" s="2"/>
-      <c r="BY169" s="2"/>
-      <c r="BZ169" s="2"/>
-      <c r="CA169" s="2"/>
-      <c r="CB169" s="2"/>
-      <c r="CC169" s="2"/>
-      <c r="CD169" s="2"/>
-      <c r="CE169" s="2"/>
-    </row>
-    <row r="170" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -15817,19 +13921,8 @@
       <c r="BR170" s="2"/>
       <c r="BS170" s="2"/>
       <c r="BT170" s="2"/>
-      <c r="BU170" s="2"/>
-      <c r="BV170" s="2"/>
-      <c r="BW170" s="2"/>
-      <c r="BX170" s="2"/>
-      <c r="BY170" s="2"/>
-      <c r="BZ170" s="2"/>
-      <c r="CA170" s="2"/>
-      <c r="CB170" s="2"/>
-      <c r="CC170" s="2"/>
-      <c r="CD170" s="2"/>
-      <c r="CE170" s="2"/>
-    </row>
-    <row r="171" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -15902,19 +13995,8 @@
       <c r="BR171" s="2"/>
       <c r="BS171" s="2"/>
       <c r="BT171" s="2"/>
-      <c r="BU171" s="2"/>
-      <c r="BV171" s="2"/>
-      <c r="BW171" s="2"/>
-      <c r="BX171" s="2"/>
-      <c r="BY171" s="2"/>
-      <c r="BZ171" s="2"/>
-      <c r="CA171" s="2"/>
-      <c r="CB171" s="2"/>
-      <c r="CC171" s="2"/>
-      <c r="CD171" s="2"/>
-      <c r="CE171" s="2"/>
-    </row>
-    <row r="172" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -15987,19 +14069,8 @@
       <c r="BR172" s="2"/>
       <c r="BS172" s="2"/>
       <c r="BT172" s="2"/>
-      <c r="BU172" s="2"/>
-      <c r="BV172" s="2"/>
-      <c r="BW172" s="2"/>
-      <c r="BX172" s="2"/>
-      <c r="BY172" s="2"/>
-      <c r="BZ172" s="2"/>
-      <c r="CA172" s="2"/>
-      <c r="CB172" s="2"/>
-      <c r="CC172" s="2"/>
-      <c r="CD172" s="2"/>
-      <c r="CE172" s="2"/>
-    </row>
-    <row r="173" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -16072,19 +14143,8 @@
       <c r="BR173" s="2"/>
       <c r="BS173" s="2"/>
       <c r="BT173" s="2"/>
-      <c r="BU173" s="2"/>
-      <c r="BV173" s="2"/>
-      <c r="BW173" s="2"/>
-      <c r="BX173" s="2"/>
-      <c r="BY173" s="2"/>
-      <c r="BZ173" s="2"/>
-      <c r="CA173" s="2"/>
-      <c r="CB173" s="2"/>
-      <c r="CC173" s="2"/>
-      <c r="CD173" s="2"/>
-      <c r="CE173" s="2"/>
-    </row>
-    <row r="174" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -16157,19 +14217,8 @@
       <c r="BR174" s="2"/>
       <c r="BS174" s="2"/>
       <c r="BT174" s="2"/>
-      <c r="BU174" s="2"/>
-      <c r="BV174" s="2"/>
-      <c r="BW174" s="2"/>
-      <c r="BX174" s="2"/>
-      <c r="BY174" s="2"/>
-      <c r="BZ174" s="2"/>
-      <c r="CA174" s="2"/>
-      <c r="CB174" s="2"/>
-      <c r="CC174" s="2"/>
-      <c r="CD174" s="2"/>
-      <c r="CE174" s="2"/>
-    </row>
-    <row r="175" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -16242,19 +14291,8 @@
       <c r="BR175" s="2"/>
       <c r="BS175" s="2"/>
       <c r="BT175" s="2"/>
-      <c r="BU175" s="2"/>
-      <c r="BV175" s="2"/>
-      <c r="BW175" s="2"/>
-      <c r="BX175" s="2"/>
-      <c r="BY175" s="2"/>
-      <c r="BZ175" s="2"/>
-      <c r="CA175" s="2"/>
-      <c r="CB175" s="2"/>
-      <c r="CC175" s="2"/>
-      <c r="CD175" s="2"/>
-      <c r="CE175" s="2"/>
-    </row>
-    <row r="176" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -16327,19 +14365,8 @@
       <c r="BR176" s="2"/>
       <c r="BS176" s="2"/>
       <c r="BT176" s="2"/>
-      <c r="BU176" s="2"/>
-      <c r="BV176" s="2"/>
-      <c r="BW176" s="2"/>
-      <c r="BX176" s="2"/>
-      <c r="BY176" s="2"/>
-      <c r="BZ176" s="2"/>
-      <c r="CA176" s="2"/>
-      <c r="CB176" s="2"/>
-      <c r="CC176" s="2"/>
-      <c r="CD176" s="2"/>
-      <c r="CE176" s="2"/>
-    </row>
-    <row r="177" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -16412,19 +14439,8 @@
       <c r="BR177" s="2"/>
       <c r="BS177" s="2"/>
       <c r="BT177" s="2"/>
-      <c r="BU177" s="2"/>
-      <c r="BV177" s="2"/>
-      <c r="BW177" s="2"/>
-      <c r="BX177" s="2"/>
-      <c r="BY177" s="2"/>
-      <c r="BZ177" s="2"/>
-      <c r="CA177" s="2"/>
-      <c r="CB177" s="2"/>
-      <c r="CC177" s="2"/>
-      <c r="CD177" s="2"/>
-      <c r="CE177" s="2"/>
-    </row>
-    <row r="178" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -16497,19 +14513,8 @@
       <c r="BR178" s="2"/>
       <c r="BS178" s="2"/>
       <c r="BT178" s="2"/>
-      <c r="BU178" s="2"/>
-      <c r="BV178" s="2"/>
-      <c r="BW178" s="2"/>
-      <c r="BX178" s="2"/>
-      <c r="BY178" s="2"/>
-      <c r="BZ178" s="2"/>
-      <c r="CA178" s="2"/>
-      <c r="CB178" s="2"/>
-      <c r="CC178" s="2"/>
-      <c r="CD178" s="2"/>
-      <c r="CE178" s="2"/>
-    </row>
-    <row r="179" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -16582,19 +14587,8 @@
       <c r="BR179" s="2"/>
       <c r="BS179" s="2"/>
       <c r="BT179" s="2"/>
-      <c r="BU179" s="2"/>
-      <c r="BV179" s="2"/>
-      <c r="BW179" s="2"/>
-      <c r="BX179" s="2"/>
-      <c r="BY179" s="2"/>
-      <c r="BZ179" s="2"/>
-      <c r="CA179" s="2"/>
-      <c r="CB179" s="2"/>
-      <c r="CC179" s="2"/>
-      <c r="CD179" s="2"/>
-      <c r="CE179" s="2"/>
-    </row>
-    <row r="180" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -16667,19 +14661,8 @@
       <c r="BR180" s="2"/>
       <c r="BS180" s="2"/>
       <c r="BT180" s="2"/>
-      <c r="BU180" s="2"/>
-      <c r="BV180" s="2"/>
-      <c r="BW180" s="2"/>
-      <c r="BX180" s="2"/>
-      <c r="BY180" s="2"/>
-      <c r="BZ180" s="2"/>
-      <c r="CA180" s="2"/>
-      <c r="CB180" s="2"/>
-      <c r="CC180" s="2"/>
-      <c r="CD180" s="2"/>
-      <c r="CE180" s="2"/>
-    </row>
-    <row r="181" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -16752,19 +14735,8 @@
       <c r="BR181" s="2"/>
       <c r="BS181" s="2"/>
       <c r="BT181" s="2"/>
-      <c r="BU181" s="2"/>
-      <c r="BV181" s="2"/>
-      <c r="BW181" s="2"/>
-      <c r="BX181" s="2"/>
-      <c r="BY181" s="2"/>
-      <c r="BZ181" s="2"/>
-      <c r="CA181" s="2"/>
-      <c r="CB181" s="2"/>
-      <c r="CC181" s="2"/>
-      <c r="CD181" s="2"/>
-      <c r="CE181" s="2"/>
-    </row>
-    <row r="182" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -16837,19 +14809,8 @@
       <c r="BR182" s="2"/>
       <c r="BS182" s="2"/>
       <c r="BT182" s="2"/>
-      <c r="BU182" s="2"/>
-      <c r="BV182" s="2"/>
-      <c r="BW182" s="2"/>
-      <c r="BX182" s="2"/>
-      <c r="BY182" s="2"/>
-      <c r="BZ182" s="2"/>
-      <c r="CA182" s="2"/>
-      <c r="CB182" s="2"/>
-      <c r="CC182" s="2"/>
-      <c r="CD182" s="2"/>
-      <c r="CE182" s="2"/>
-    </row>
-    <row r="183" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -16922,19 +14883,8 @@
       <c r="BR183" s="2"/>
       <c r="BS183" s="2"/>
       <c r="BT183" s="2"/>
-      <c r="BU183" s="2"/>
-      <c r="BV183" s="2"/>
-      <c r="BW183" s="2"/>
-      <c r="BX183" s="2"/>
-      <c r="BY183" s="2"/>
-      <c r="BZ183" s="2"/>
-      <c r="CA183" s="2"/>
-      <c r="CB183" s="2"/>
-      <c r="CC183" s="2"/>
-      <c r="CD183" s="2"/>
-      <c r="CE183" s="2"/>
-    </row>
-    <row r="184" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -17007,19 +14957,8 @@
       <c r="BR184" s="2"/>
       <c r="BS184" s="2"/>
       <c r="BT184" s="2"/>
-      <c r="BU184" s="2"/>
-      <c r="BV184" s="2"/>
-      <c r="BW184" s="2"/>
-      <c r="BX184" s="2"/>
-      <c r="BY184" s="2"/>
-      <c r="BZ184" s="2"/>
-      <c r="CA184" s="2"/>
-      <c r="CB184" s="2"/>
-      <c r="CC184" s="2"/>
-      <c r="CD184" s="2"/>
-      <c r="CE184" s="2"/>
-    </row>
-    <row r="185" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -17092,19 +15031,8 @@
       <c r="BR185" s="2"/>
       <c r="BS185" s="2"/>
       <c r="BT185" s="2"/>
-      <c r="BU185" s="2"/>
-      <c r="BV185" s="2"/>
-      <c r="BW185" s="2"/>
-      <c r="BX185" s="2"/>
-      <c r="BY185" s="2"/>
-      <c r="BZ185" s="2"/>
-      <c r="CA185" s="2"/>
-      <c r="CB185" s="2"/>
-      <c r="CC185" s="2"/>
-      <c r="CD185" s="2"/>
-      <c r="CE185" s="2"/>
-    </row>
-    <row r="186" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -17177,19 +15105,8 @@
       <c r="BR186" s="2"/>
       <c r="BS186" s="2"/>
       <c r="BT186" s="2"/>
-      <c r="BU186" s="2"/>
-      <c r="BV186" s="2"/>
-      <c r="BW186" s="2"/>
-      <c r="BX186" s="2"/>
-      <c r="BY186" s="2"/>
-      <c r="BZ186" s="2"/>
-      <c r="CA186" s="2"/>
-      <c r="CB186" s="2"/>
-      <c r="CC186" s="2"/>
-      <c r="CD186" s="2"/>
-      <c r="CE186" s="2"/>
-    </row>
-    <row r="187" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -17262,19 +15179,8 @@
       <c r="BR187" s="2"/>
       <c r="BS187" s="2"/>
       <c r="BT187" s="2"/>
-      <c r="BU187" s="2"/>
-      <c r="BV187" s="2"/>
-      <c r="BW187" s="2"/>
-      <c r="BX187" s="2"/>
-      <c r="BY187" s="2"/>
-      <c r="BZ187" s="2"/>
-      <c r="CA187" s="2"/>
-      <c r="CB187" s="2"/>
-      <c r="CC187" s="2"/>
-      <c r="CD187" s="2"/>
-      <c r="CE187" s="2"/>
-    </row>
-    <row r="188" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -17347,19 +15253,8 @@
       <c r="BR188" s="2"/>
       <c r="BS188" s="2"/>
       <c r="BT188" s="2"/>
-      <c r="BU188" s="2"/>
-      <c r="BV188" s="2"/>
-      <c r="BW188" s="2"/>
-      <c r="BX188" s="2"/>
-      <c r="BY188" s="2"/>
-      <c r="BZ188" s="2"/>
-      <c r="CA188" s="2"/>
-      <c r="CB188" s="2"/>
-      <c r="CC188" s="2"/>
-      <c r="CD188" s="2"/>
-      <c r="CE188" s="2"/>
-    </row>
-    <row r="189" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -17432,19 +15327,8 @@
       <c r="BR189" s="2"/>
       <c r="BS189" s="2"/>
       <c r="BT189" s="2"/>
-      <c r="BU189" s="2"/>
-      <c r="BV189" s="2"/>
-      <c r="BW189" s="2"/>
-      <c r="BX189" s="2"/>
-      <c r="BY189" s="2"/>
-      <c r="BZ189" s="2"/>
-      <c r="CA189" s="2"/>
-      <c r="CB189" s="2"/>
-      <c r="CC189" s="2"/>
-      <c r="CD189" s="2"/>
-      <c r="CE189" s="2"/>
-    </row>
-    <row r="190" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -17517,19 +15401,8 @@
       <c r="BR190" s="2"/>
       <c r="BS190" s="2"/>
       <c r="BT190" s="2"/>
-      <c r="BU190" s="2"/>
-      <c r="BV190" s="2"/>
-      <c r="BW190" s="2"/>
-      <c r="BX190" s="2"/>
-      <c r="BY190" s="2"/>
-      <c r="BZ190" s="2"/>
-      <c r="CA190" s="2"/>
-      <c r="CB190" s="2"/>
-      <c r="CC190" s="2"/>
-      <c r="CD190" s="2"/>
-      <c r="CE190" s="2"/>
-    </row>
-    <row r="191" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -17602,19 +15475,8 @@
       <c r="BR191" s="2"/>
       <c r="BS191" s="2"/>
       <c r="BT191" s="2"/>
-      <c r="BU191" s="2"/>
-      <c r="BV191" s="2"/>
-      <c r="BW191" s="2"/>
-      <c r="BX191" s="2"/>
-      <c r="BY191" s="2"/>
-      <c r="BZ191" s="2"/>
-      <c r="CA191" s="2"/>
-      <c r="CB191" s="2"/>
-      <c r="CC191" s="2"/>
-      <c r="CD191" s="2"/>
-      <c r="CE191" s="2"/>
-    </row>
-    <row r="192" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -17687,19 +15549,8 @@
       <c r="BR192" s="2"/>
       <c r="BS192" s="2"/>
       <c r="BT192" s="2"/>
-      <c r="BU192" s="2"/>
-      <c r="BV192" s="2"/>
-      <c r="BW192" s="2"/>
-      <c r="BX192" s="2"/>
-      <c r="BY192" s="2"/>
-      <c r="BZ192" s="2"/>
-      <c r="CA192" s="2"/>
-      <c r="CB192" s="2"/>
-      <c r="CC192" s="2"/>
-      <c r="CD192" s="2"/>
-      <c r="CE192" s="2"/>
-    </row>
-    <row r="193" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -17772,19 +15623,8 @@
       <c r="BR193" s="2"/>
       <c r="BS193" s="2"/>
       <c r="BT193" s="2"/>
-      <c r="BU193" s="2"/>
-      <c r="BV193" s="2"/>
-      <c r="BW193" s="2"/>
-      <c r="BX193" s="2"/>
-      <c r="BY193" s="2"/>
-      <c r="BZ193" s="2"/>
-      <c r="CA193" s="2"/>
-      <c r="CB193" s="2"/>
-      <c r="CC193" s="2"/>
-      <c r="CD193" s="2"/>
-      <c r="CE193" s="2"/>
-    </row>
-    <row r="194" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -17857,19 +15697,8 @@
       <c r="BR194" s="2"/>
       <c r="BS194" s="2"/>
       <c r="BT194" s="2"/>
-      <c r="BU194" s="2"/>
-      <c r="BV194" s="2"/>
-      <c r="BW194" s="2"/>
-      <c r="BX194" s="2"/>
-      <c r="BY194" s="2"/>
-      <c r="BZ194" s="2"/>
-      <c r="CA194" s="2"/>
-      <c r="CB194" s="2"/>
-      <c r="CC194" s="2"/>
-      <c r="CD194" s="2"/>
-      <c r="CE194" s="2"/>
-    </row>
-    <row r="195" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -17942,19 +15771,8 @@
       <c r="BR195" s="2"/>
       <c r="BS195" s="2"/>
       <c r="BT195" s="2"/>
-      <c r="BU195" s="2"/>
-      <c r="BV195" s="2"/>
-      <c r="BW195" s="2"/>
-      <c r="BX195" s="2"/>
-      <c r="BY195" s="2"/>
-      <c r="BZ195" s="2"/>
-      <c r="CA195" s="2"/>
-      <c r="CB195" s="2"/>
-      <c r="CC195" s="2"/>
-      <c r="CD195" s="2"/>
-      <c r="CE195" s="2"/>
-    </row>
-    <row r="196" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -18027,19 +15845,8 @@
       <c r="BR196" s="2"/>
       <c r="BS196" s="2"/>
       <c r="BT196" s="2"/>
-      <c r="BU196" s="2"/>
-      <c r="BV196" s="2"/>
-      <c r="BW196" s="2"/>
-      <c r="BX196" s="2"/>
-      <c r="BY196" s="2"/>
-      <c r="BZ196" s="2"/>
-      <c r="CA196" s="2"/>
-      <c r="CB196" s="2"/>
-      <c r="CC196" s="2"/>
-      <c r="CD196" s="2"/>
-      <c r="CE196" s="2"/>
-    </row>
-    <row r="197" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -18112,19 +15919,8 @@
       <c r="BR197" s="2"/>
       <c r="BS197" s="2"/>
       <c r="BT197" s="2"/>
-      <c r="BU197" s="2"/>
-      <c r="BV197" s="2"/>
-      <c r="BW197" s="2"/>
-      <c r="BX197" s="2"/>
-      <c r="BY197" s="2"/>
-      <c r="BZ197" s="2"/>
-      <c r="CA197" s="2"/>
-      <c r="CB197" s="2"/>
-      <c r="CC197" s="2"/>
-      <c r="CD197" s="2"/>
-      <c r="CE197" s="2"/>
-    </row>
-    <row r="198" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -18197,19 +15993,8 @@
       <c r="BR198" s="2"/>
       <c r="BS198" s="2"/>
       <c r="BT198" s="2"/>
-      <c r="BU198" s="2"/>
-      <c r="BV198" s="2"/>
-      <c r="BW198" s="2"/>
-      <c r="BX198" s="2"/>
-      <c r="BY198" s="2"/>
-      <c r="BZ198" s="2"/>
-      <c r="CA198" s="2"/>
-      <c r="CB198" s="2"/>
-      <c r="CC198" s="2"/>
-      <c r="CD198" s="2"/>
-      <c r="CE198" s="2"/>
-    </row>
-    <row r="199" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -18282,19 +16067,8 @@
       <c r="BR199" s="2"/>
       <c r="BS199" s="2"/>
       <c r="BT199" s="2"/>
-      <c r="BU199" s="2"/>
-      <c r="BV199" s="2"/>
-      <c r="BW199" s="2"/>
-      <c r="BX199" s="2"/>
-      <c r="BY199" s="2"/>
-      <c r="BZ199" s="2"/>
-      <c r="CA199" s="2"/>
-      <c r="CB199" s="2"/>
-      <c r="CC199" s="2"/>
-      <c r="CD199" s="2"/>
-      <c r="CE199" s="2"/>
-    </row>
-    <row r="200" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -18367,19 +16141,8 @@
       <c r="BR200" s="2"/>
       <c r="BS200" s="2"/>
       <c r="BT200" s="2"/>
-      <c r="BU200" s="2"/>
-      <c r="BV200" s="2"/>
-      <c r="BW200" s="2"/>
-      <c r="BX200" s="2"/>
-      <c r="BY200" s="2"/>
-      <c r="BZ200" s="2"/>
-      <c r="CA200" s="2"/>
-      <c r="CB200" s="2"/>
-      <c r="CC200" s="2"/>
-      <c r="CD200" s="2"/>
-      <c r="CE200" s="2"/>
-    </row>
-    <row r="201" spans="1:83" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -18452,65 +16215,45 @@
       <c r="BR201" s="2"/>
       <c r="BS201" s="2"/>
       <c r="BT201" s="2"/>
-      <c r="BU201" s="2"/>
-      <c r="BV201" s="2"/>
-      <c r="BW201" s="2"/>
-      <c r="BX201" s="2"/>
-      <c r="BY201" s="2"/>
-      <c r="BZ201" s="2"/>
-      <c r="CA201" s="2"/>
-      <c r="CB201" s="2"/>
-      <c r="CC201" s="2"/>
-      <c r="CD201" s="2"/>
-      <c r="CE201" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="AA1:BB1"/>
-    <mergeCell ref="BC1:BG1"/>
-    <mergeCell ref="BH1:BM1"/>
-    <mergeCell ref="BN1:BV1"/>
-    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:BF1"/>
+    <mergeCell ref="BG1:BK1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201" xr:uid="{DDA78480-1D99-4F04-B172-C7FF93B270C4}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201" xr:uid="{5F56D6F7-ADE5-46EB-BD7A-15CD9C335F7F}">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G201" xr:uid="{07A7D6F6-D2E5-40C4-9EF1-941834E94778}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H201" xr:uid="{D4693DF4-7A5D-4A56-8194-16E4D3B51F60}">
       <formula1>"A品,B品,C品,D品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H201" xr:uid="{AABF1CA7-D4B5-4E6D-BA4F-1C322677D249}">
-      <formula1>"品采部,辅采部,OEM部,服纺部,鞋品部"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K201" xr:uid="{EC65B751-B351-4BF0-90C0-50420D4C4C32}">
-      <formula1>"管理,不管理"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L201" xr:uid="{FDBBB328-DE6A-4131-8C59-18F771168DD2}">
-      <formula1>"天,月,年"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N201" xr:uid="{80CA3046-3071-4FE3-8DB1-69F3828C3CE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L201" xr:uid="{856B4E33-3FDD-4DD4-BC0B-371754639F25}">
       <formula1>"配送,直送,全部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W201 T3:T201 R3:R201" xr:uid="{C05C06D7-B16E-4A91-8E2B-7799CD50C806}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O201 Q3:Q201 S3:S201" xr:uid="{EC81054A-3F14-459F-A4E0-3C332F7F3984}">
       <formula1>"否,是"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201" xr:uid="{6109EF84-C943-4F54-B465-F0340303FA8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P201" xr:uid="{3821A923-CCCF-4BFD-9AAC-BA259E592E4C}">
       <formula1>"大货仓位,小货仓位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V201" xr:uid="{FF1D1B6E-E871-4B99-A0CF-98C499C39272}">
-      <formula1>"有库存销售,无库存销售"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC3:BC201" xr:uid="{9B719581-70BC-4BF0-B5CE-BF33D8D0B884}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG201" xr:uid="{ED4FC445-D8FD-402E-AB41-C780285FFF93}">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM3:BM201" xr:uid="{D43B3A5D-6899-43A5-AC9C-E06D66D361B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL201" xr:uid="{1367162B-AD7E-48FF-9457-F2A35781095F}">
       <formula1>"配送,直送"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BX3:BX1048576 BY3:BY1048576 BZ3:BZ1048576 CA3:CA1048576 BW3:BW1048576" xr:uid="{9BB53F67-6828-48D0-99F3-E37567D4CB27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL3:BP71" xr:uid="{317B4AB6-2387-46EC-B234-E7609F02CBAE}">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{5A12E4DE-68BA-4DFF-9B4D-B8FAFCFA8804}">
+      <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8E179-E0AC-4A11-8935-DA4D492DA5FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C31D40-5B63-4D77-8AB7-D68BE524A231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,10 +240,6 @@
   </si>
   <si>
     <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,6 +537,10 @@
     <t>分销交易倍数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>品类编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -813,22 +813,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,19 +843,22 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:BT201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1183,93 +1183,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="3" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22" t="s">
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="17" t="s">
-        <v>69</v>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="28" t="s">
+        <v>61</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="18" t="s">
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:72" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,217 +1277,217 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>14</v>
+      <c r="Y2" s="5" t="s">
+        <v>47</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>15</v>
+      <c r="Z2" s="9" t="s">
+        <v>50</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>16</v>
+      <c r="AA2" s="9" t="s">
+        <v>51</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>17</v>
+      <c r="AB2" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>18</v>
+      <c r="AC2" s="9" t="s">
+        <v>53</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="AD2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>21</v>
+      <c r="AL2" s="5" t="s">
+        <v>49</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="7" t="s">
+      <c r="AM2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="25" t="s">
-        <v>74</v>
+      <c r="AN2" s="9" t="s">
+        <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>13</v>
+      <c r="AO2" s="9" t="s">
+        <v>31</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>48</v>
+      <c r="AP2" s="15" t="s">
+        <v>32</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>51</v>
+      <c r="AQ2" s="15" t="s">
+        <v>33</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>52</v>
+      <c r="AR2" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>53</v>
+      <c r="AS2" s="15" t="s">
+        <v>35</v>
       </c>
-      <c r="AC2" s="9" t="s">
-        <v>54</v>
+      <c r="AT2" s="9" t="s">
+        <v>25</v>
       </c>
-      <c r="AD2" s="9" t="s">
-        <v>55</v>
+      <c r="AU2" s="9" t="s">
+        <v>26</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AV2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP2" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="BI2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL2" s="11" t="s">
+      <c r="BM2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BM2" s="11" t="s">
+      <c r="BN2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BN2" s="11" t="s">
+      <c r="BO2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BO2" s="11" t="s">
+      <c r="BP2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BP2" s="11" t="s">
+      <c r="BQ2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BQ2" s="10" t="s">
+      <c r="BR2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BR2" s="10" t="s">
+      <c r="BS2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BS2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BT2" s="27" t="s">
-        <v>73</v>
+      <c r="BT2" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
@@ -16218,13 +16218,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:BF1"/>
     <mergeCell ref="BG1:BK1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BQ1:BS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C31D40-5B63-4D77-8AB7-D68BE524A231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A0BC8A-C9BE-409A-99C7-1532A9661DD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,6 +828,12 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,10 +861,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,14 +1154,14 @@
   <dimension ref="A1:BT201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="31" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
@@ -1183,91 +1192,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="3" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="23" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="24" t="s">
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="26" t="s">
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="27" t="s">
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="28" t="s">
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
       <c r="BT1" s="12" t="s">
         <v>71</v>
       </c>
@@ -1279,7 +1288,7 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1493,7 +1502,7 @@
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1567,7 +1576,7 @@
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1641,7 +1650,7 @@
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1715,7 +1724,7 @@
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1789,7 +1798,7 @@
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1863,7 +1872,7 @@
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1937,7 +1946,7 @@
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2011,7 +2020,7 @@
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2085,7 +2094,7 @@
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2159,7 +2168,7 @@
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2233,7 +2242,7 @@
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2307,7 +2316,7 @@
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2381,7 +2390,7 @@
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2455,7 +2464,7 @@
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2529,7 +2538,7 @@
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2603,7 +2612,7 @@
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2677,7 +2686,7 @@
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2751,7 +2760,7 @@
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2825,7 +2834,7 @@
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2899,7 +2908,7 @@
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2973,7 +2982,7 @@
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3047,7 +3056,7 @@
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3121,7 +3130,7 @@
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3195,7 +3204,7 @@
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3269,7 +3278,7 @@
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3343,7 +3352,7 @@
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3417,7 +3426,7 @@
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3491,7 +3500,7 @@
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3565,7 +3574,7 @@
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3639,7 +3648,7 @@
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3713,7 +3722,7 @@
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3787,7 +3796,7 @@
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3861,7 +3870,7 @@
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3935,7 +3944,7 @@
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4009,7 +4018,7 @@
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4083,7 +4092,7 @@
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4157,7 +4166,7 @@
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4231,7 +4240,7 @@
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4305,7 +4314,7 @@
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4379,7 +4388,7 @@
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4453,7 +4462,7 @@
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4527,7 +4536,7 @@
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4601,7 +4610,7 @@
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4675,7 +4684,7 @@
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4749,7 +4758,7 @@
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4823,7 +4832,7 @@
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4897,7 +4906,7 @@
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -4971,7 +4980,7 @@
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5045,7 +5054,7 @@
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5119,7 +5128,7 @@
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5193,7 +5202,7 @@
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5267,7 +5276,7 @@
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5341,7 +5350,7 @@
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5415,7 +5424,7 @@
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5489,7 +5498,7 @@
     <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -5563,7 +5572,7 @@
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5637,7 +5646,7 @@
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5711,7 +5720,7 @@
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5785,7 +5794,7 @@
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5859,7 +5868,7 @@
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5933,7 +5942,7 @@
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -6007,7 +6016,7 @@
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6081,7 +6090,7 @@
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6155,7 +6164,7 @@
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6229,7 +6238,7 @@
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -6303,7 +6312,7 @@
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6377,7 +6386,7 @@
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -6451,7 +6460,7 @@
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6525,7 +6534,7 @@
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6599,7 +6608,7 @@
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -6673,7 +6682,7 @@
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -6747,7 +6756,7 @@
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6821,7 +6830,7 @@
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -6895,7 +6904,7 @@
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -6969,7 +6978,7 @@
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7043,7 +7052,7 @@
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -7117,7 +7126,7 @@
     <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="30"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -7191,7 +7200,7 @@
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -7265,7 +7274,7 @@
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -7339,7 +7348,7 @@
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="30"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -7413,7 +7422,7 @@
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -7487,7 +7496,7 @@
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -7561,7 +7570,7 @@
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="30"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -7635,7 +7644,7 @@
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="30"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -7709,7 +7718,7 @@
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -7783,7 +7792,7 @@
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -7857,7 +7866,7 @@
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -7931,7 +7940,7 @@
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -8005,7 +8014,7 @@
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="30"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -8079,7 +8088,7 @@
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -8153,7 +8162,7 @@
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -8227,7 +8236,7 @@
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -8301,7 +8310,7 @@
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -8375,7 +8384,7 @@
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -8449,7 +8458,7 @@
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -8523,7 +8532,7 @@
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -8597,7 +8606,7 @@
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -8671,7 +8680,7 @@
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -8745,7 +8754,7 @@
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -8819,7 +8828,7 @@
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -8893,7 +8902,7 @@
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="30"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -8967,7 +8976,7 @@
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -9041,7 +9050,7 @@
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="30"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -9115,7 +9124,7 @@
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="30"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -9189,7 +9198,7 @@
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="30"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -9263,7 +9272,7 @@
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="30"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -9337,7 +9346,7 @@
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="C109" s="30"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -9411,7 +9420,7 @@
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="C110" s="30"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -9485,7 +9494,7 @@
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="30"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -9559,7 +9568,7 @@
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="C112" s="30"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -9633,7 +9642,7 @@
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="30"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -9707,7 +9716,7 @@
     <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="30"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -9781,7 +9790,7 @@
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="30"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -9855,7 +9864,7 @@
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="30"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -9929,7 +9938,7 @@
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="30"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -10003,7 +10012,7 @@
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="30"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -10077,7 +10086,7 @@
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="C119" s="30"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -10151,7 +10160,7 @@
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="C120" s="30"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -10225,7 +10234,7 @@
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="C121" s="30"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -10299,7 +10308,7 @@
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="C122" s="30"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -10373,7 +10382,7 @@
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="C123" s="30"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -10447,7 +10456,7 @@
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="C124" s="30"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -10521,7 +10530,7 @@
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="C125" s="30"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -10595,7 +10604,7 @@
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="C126" s="30"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -10669,7 +10678,7 @@
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="C127" s="30"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -10743,7 +10752,7 @@
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="C128" s="30"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -10817,7 +10826,7 @@
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="C129" s="30"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -10891,7 +10900,7 @@
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="C130" s="30"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -10965,7 +10974,7 @@
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="C131" s="30"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -11039,7 +11048,7 @@
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="C132" s="30"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -11113,7 +11122,7 @@
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="C133" s="30"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -11187,7 +11196,7 @@
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="C134" s="30"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -11261,7 +11270,7 @@
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="C135" s="30"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -11335,7 +11344,7 @@
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="30"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -11409,7 +11418,7 @@
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="C137" s="30"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -11483,7 +11492,7 @@
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="30"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -11557,7 +11566,7 @@
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="C139" s="30"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -11631,7 +11640,7 @@
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="30"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -11705,7 +11714,7 @@
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="C141" s="30"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -11779,7 +11788,7 @@
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="C142" s="30"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -11853,7 +11862,7 @@
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="C143" s="30"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -11927,7 +11936,7 @@
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="C144" s="30"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -12001,7 +12010,7 @@
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="C145" s="30"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -12075,7 +12084,7 @@
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="C146" s="30"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -12149,7 +12158,7 @@
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="C147" s="30"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -12223,7 +12232,7 @@
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="30"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -12297,7 +12306,7 @@
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="30"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -12371,7 +12380,7 @@
     <row r="150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="C150" s="30"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -12445,7 +12454,7 @@
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="C151" s="30"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -12519,7 +12528,7 @@
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="C152" s="30"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -12593,7 +12602,7 @@
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="C153" s="30"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -12667,7 +12676,7 @@
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="C154" s="30"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -12741,7 +12750,7 @@
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="C155" s="30"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -12815,7 +12824,7 @@
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="C156" s="30"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -12889,7 +12898,7 @@
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="C157" s="30"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -12963,7 +12972,7 @@
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="C158" s="30"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -13037,7 +13046,7 @@
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="C159" s="30"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -13111,7 +13120,7 @@
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="C160" s="30"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -13185,7 +13194,7 @@
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="C161" s="30"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -13259,7 +13268,7 @@
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="C162" s="30"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -13333,7 +13342,7 @@
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="C163" s="30"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -13407,7 +13416,7 @@
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="C164" s="30"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -13481,7 +13490,7 @@
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="C165" s="30"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -13555,7 +13564,7 @@
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="C166" s="30"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -13629,7 +13638,7 @@
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="C167" s="30"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -13703,7 +13712,7 @@
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="C168" s="30"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -13777,7 +13786,7 @@
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="C169" s="30"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -13851,7 +13860,7 @@
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="C170" s="30"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -13925,7 +13934,7 @@
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="C171" s="30"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -13999,7 +14008,7 @@
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="C172" s="30"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -14073,7 +14082,7 @@
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="C173" s="30"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -14147,7 +14156,7 @@
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="C174" s="30"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -14221,7 +14230,7 @@
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="C175" s="30"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -14295,7 +14304,7 @@
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="C176" s="30"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -14369,7 +14378,7 @@
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="C177" s="30"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -14443,7 +14452,7 @@
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="C178" s="30"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -14517,7 +14526,7 @@
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="C179" s="30"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -14591,7 +14600,7 @@
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="C180" s="30"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -14665,7 +14674,7 @@
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="C181" s="30"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -14739,7 +14748,7 @@
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="C182" s="30"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -14813,7 +14822,7 @@
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="C183" s="30"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -14887,7 +14896,7 @@
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="C184" s="30"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -14961,7 +14970,7 @@
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="C185" s="30"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -15035,7 +15044,7 @@
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="C186" s="30"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -15109,7 +15118,7 @@
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="C187" s="30"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -15183,7 +15192,7 @@
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="C188" s="30"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -15257,7 +15266,7 @@
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="C189" s="30"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -15331,7 +15340,7 @@
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="C190" s="30"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -15405,7 +15414,7 @@
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="C191" s="30"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -15479,7 +15488,7 @@
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="C192" s="30"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -15553,7 +15562,7 @@
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="C193" s="30"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -15627,7 +15636,7 @@
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="C194" s="30"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -15701,7 +15710,7 @@
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="C195" s="30"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -15775,7 +15784,7 @@
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="C196" s="30"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -15849,7 +15858,7 @@
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="C197" s="30"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -15923,7 +15932,7 @@
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="C198" s="30"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -15997,7 +16006,7 @@
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="C199" s="30"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -16071,7 +16080,7 @@
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="C200" s="30"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -16145,7 +16154,7 @@
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="C201" s="30"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A0BC8A-C9BE-409A-99C7-1532A9661DD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07174DBB-6E89-496C-98E6-90765E9E5641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LeslieNicole</author>
+    <author>张廷豪</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{BABE85B1-1146-4F0D-B473-1FDC9FDEE9A6}">
@@ -55,6 +56,21 @@
             <family val="2"/>
           </rPr>
           <t>单选下拉框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{50E850E8-D589-4AB9-857F-95DF2F118ED7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请添加第四级品类的编码</t>
         </r>
       </text>
     </comment>
@@ -546,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +636,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -828,6 +852,15 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,15 +892,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,14 +1178,14 @@
   <dimension ref="A1:BT201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="20" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
@@ -1192,91 +1216,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="3" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25" t="s">
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="26" t="s">
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="28" t="s">
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="18" t="s">
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="19" t="s">
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="BR1" s="19"/>
-      <c r="BS1" s="19"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
       <c r="BT1" s="12" t="s">
         <v>71</v>
       </c>
@@ -1288,7 +1312,7 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1502,7 +1526,7 @@
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="30"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1576,7 +1600,7 @@
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="30"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1650,7 +1674,7 @@
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="30"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1724,7 +1748,7 @@
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="30"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1798,7 +1822,7 @@
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="30"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1872,7 +1896,7 @@
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="30"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1946,7 +1970,7 @@
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="30"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2020,7 +2044,7 @@
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="30"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2094,7 +2118,7 @@
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="30"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2168,7 +2192,7 @@
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2242,7 +2266,7 @@
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2316,7 +2340,7 @@
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="30"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2390,7 +2414,7 @@
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="30"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2464,7 +2488,7 @@
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2538,7 +2562,7 @@
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="30"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2612,7 +2636,7 @@
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2686,7 +2710,7 @@
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="30"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2760,7 +2784,7 @@
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2834,7 +2858,7 @@
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2908,7 +2932,7 @@
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2982,7 +3006,7 @@
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3056,7 +3080,7 @@
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3130,7 +3154,7 @@
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3204,7 +3228,7 @@
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="30"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3278,7 +3302,7 @@
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="30"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3352,7 +3376,7 @@
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="30"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3426,7 +3450,7 @@
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="30"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3500,7 +3524,7 @@
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="30"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3574,7 +3598,7 @@
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="30"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3648,7 +3672,7 @@
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="30"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3722,7 +3746,7 @@
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3796,7 +3820,7 @@
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="30"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3870,7 +3894,7 @@
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="30"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3944,7 +3968,7 @@
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="30"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4018,7 +4042,7 @@
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="30"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4092,7 +4116,7 @@
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4166,7 +4190,7 @@
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="30"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4240,7 +4264,7 @@
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="30"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4314,7 +4338,7 @@
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="30"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4388,7 +4412,7 @@
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="30"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4462,7 +4486,7 @@
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="30"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4536,7 +4560,7 @@
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="30"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4610,7 +4634,7 @@
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="30"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4684,7 +4708,7 @@
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="30"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4758,7 +4782,7 @@
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4832,7 +4856,7 @@
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4906,7 +4930,7 @@
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="30"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -4980,7 +5004,7 @@
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="30"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5054,7 +5078,7 @@
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="30"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5128,7 +5152,7 @@
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="30"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5202,7 +5226,7 @@
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="30"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5276,7 +5300,7 @@
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="30"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5350,7 +5374,7 @@
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="30"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5424,7 +5448,7 @@
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="30"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5498,7 +5522,7 @@
     <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="30"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -5572,7 +5596,7 @@
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="30"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5646,7 +5670,7 @@
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="30"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5720,7 +5744,7 @@
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="30"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5794,7 +5818,7 @@
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="30"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5868,7 +5892,7 @@
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="30"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5942,7 +5966,7 @@
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="30"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -6016,7 +6040,7 @@
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="30"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6090,7 +6114,7 @@
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="30"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6164,7 +6188,7 @@
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="30"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6238,7 +6262,7 @@
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="30"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -6312,7 +6336,7 @@
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="30"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6386,7 +6410,7 @@
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="30"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -6460,7 +6484,7 @@
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="30"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6534,7 +6558,7 @@
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="30"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6608,7 +6632,7 @@
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="30"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -6682,7 +6706,7 @@
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="30"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -6756,7 +6780,7 @@
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="30"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6830,7 +6854,7 @@
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="30"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -6904,7 +6928,7 @@
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="30"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -6978,7 +7002,7 @@
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="30"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7052,7 +7076,7 @@
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="30"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -7126,7 +7150,7 @@
     <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="30"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -7200,7 +7224,7 @@
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="30"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -7274,7 +7298,7 @@
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="30"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -7348,7 +7372,7 @@
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="30"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -7422,7 +7446,7 @@
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="30"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -7496,7 +7520,7 @@
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="30"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -7570,7 +7594,7 @@
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="30"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -7644,7 +7668,7 @@
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="30"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -7718,7 +7742,7 @@
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="30"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -7792,7 +7816,7 @@
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="30"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -7866,7 +7890,7 @@
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="30"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -7940,7 +7964,7 @@
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="30"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -8014,7 +8038,7 @@
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="30"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -8088,7 +8112,7 @@
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="30"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -8162,7 +8186,7 @@
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="30"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -8236,7 +8260,7 @@
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="30"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -8310,7 +8334,7 @@
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="30"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -8384,7 +8408,7 @@
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="30"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -8458,7 +8482,7 @@
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="30"/>
+      <c r="C97" s="19"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -8532,7 +8556,7 @@
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="30"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -8606,7 +8630,7 @@
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="30"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -8680,7 +8704,7 @@
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="30"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -8754,7 +8778,7 @@
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="30"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -8828,7 +8852,7 @@
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="30"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -8902,7 +8926,7 @@
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="30"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -8976,7 +9000,7 @@
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="30"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -9050,7 +9074,7 @@
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="30"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -9124,7 +9148,7 @@
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="30"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -9198,7 +9222,7 @@
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="30"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -9272,7 +9296,7 @@
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="30"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -9346,7 +9370,7 @@
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="30"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -9420,7 +9444,7 @@
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="30"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -9494,7 +9518,7 @@
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="30"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -9568,7 +9592,7 @@
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="30"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -9642,7 +9666,7 @@
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="30"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -9716,7 +9740,7 @@
     <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="30"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -9790,7 +9814,7 @@
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="30"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -9864,7 +9888,7 @@
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="30"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -9938,7 +9962,7 @@
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="30"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -10012,7 +10036,7 @@
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="30"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -10086,7 +10110,7 @@
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="30"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -10160,7 +10184,7 @@
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="30"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -10234,7 +10258,7 @@
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="30"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -10308,7 +10332,7 @@
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="30"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -10382,7 +10406,7 @@
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="30"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -10456,7 +10480,7 @@
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="30"/>
+      <c r="C124" s="19"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -10530,7 +10554,7 @@
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="30"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -10604,7 +10628,7 @@
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="30"/>
+      <c r="C126" s="19"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -10678,7 +10702,7 @@
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="30"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -10752,7 +10776,7 @@
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="30"/>
+      <c r="C128" s="19"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -10826,7 +10850,7 @@
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="30"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -10900,7 +10924,7 @@
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="30"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -10974,7 +10998,7 @@
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="30"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -11048,7 +11072,7 @@
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="30"/>
+      <c r="C132" s="19"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -11122,7 +11146,7 @@
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="30"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -11196,7 +11220,7 @@
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="30"/>
+      <c r="C134" s="19"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -11270,7 +11294,7 @@
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="30"/>
+      <c r="C135" s="19"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -11344,7 +11368,7 @@
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="30"/>
+      <c r="C136" s="19"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -11418,7 +11442,7 @@
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="30"/>
+      <c r="C137" s="19"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -11492,7 +11516,7 @@
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="30"/>
+      <c r="C138" s="19"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -11566,7 +11590,7 @@
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="30"/>
+      <c r="C139" s="19"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -11640,7 +11664,7 @@
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="30"/>
+      <c r="C140" s="19"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -11714,7 +11738,7 @@
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="30"/>
+      <c r="C141" s="19"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -11788,7 +11812,7 @@
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="30"/>
+      <c r="C142" s="19"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -11862,7 +11886,7 @@
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="30"/>
+      <c r="C143" s="19"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -11936,7 +11960,7 @@
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="30"/>
+      <c r="C144" s="19"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -12010,7 +12034,7 @@
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="30"/>
+      <c r="C145" s="19"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -12084,7 +12108,7 @@
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="30"/>
+      <c r="C146" s="19"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -12158,7 +12182,7 @@
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="30"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -12232,7 +12256,7 @@
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="30"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -12306,7 +12330,7 @@
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="30"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -12380,7 +12404,7 @@
     <row r="150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="30"/>
+      <c r="C150" s="19"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -12454,7 +12478,7 @@
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="30"/>
+      <c r="C151" s="19"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -12528,7 +12552,7 @@
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="30"/>
+      <c r="C152" s="19"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -12602,7 +12626,7 @@
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="30"/>
+      <c r="C153" s="19"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -12676,7 +12700,7 @@
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="30"/>
+      <c r="C154" s="19"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -12750,7 +12774,7 @@
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="30"/>
+      <c r="C155" s="19"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -12824,7 +12848,7 @@
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="30"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -12898,7 +12922,7 @@
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="30"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -12972,7 +12996,7 @@
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="30"/>
+      <c r="C158" s="19"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -13046,7 +13070,7 @@
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="30"/>
+      <c r="C159" s="19"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -13120,7 +13144,7 @@
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="30"/>
+      <c r="C160" s="19"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -13194,7 +13218,7 @@
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="30"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -13268,7 +13292,7 @@
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="30"/>
+      <c r="C162" s="19"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -13342,7 +13366,7 @@
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="30"/>
+      <c r="C163" s="19"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -13416,7 +13440,7 @@
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="30"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -13490,7 +13514,7 @@
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="30"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -13564,7 +13588,7 @@
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="30"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -13638,7 +13662,7 @@
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="30"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -13712,7 +13736,7 @@
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="30"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -13786,7 +13810,7 @@
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="30"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -13860,7 +13884,7 @@
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="30"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -13934,7 +13958,7 @@
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="30"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -14008,7 +14032,7 @@
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="30"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -14082,7 +14106,7 @@
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="30"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -14156,7 +14180,7 @@
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="30"/>
+      <c r="C174" s="19"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -14230,7 +14254,7 @@
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="30"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -14304,7 +14328,7 @@
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="30"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -14378,7 +14402,7 @@
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="30"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -14452,7 +14476,7 @@
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="30"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -14526,7 +14550,7 @@
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="30"/>
+      <c r="C179" s="19"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -14600,7 +14624,7 @@
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="30"/>
+      <c r="C180" s="19"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -14674,7 +14698,7 @@
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="30"/>
+      <c r="C181" s="19"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -14748,7 +14772,7 @@
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="30"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -14822,7 +14846,7 @@
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="30"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -14896,7 +14920,7 @@
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="30"/>
+      <c r="C184" s="19"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -14970,7 +14994,7 @@
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="30"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -15044,7 +15068,7 @@
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="30"/>
+      <c r="C186" s="19"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -15118,7 +15142,7 @@
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="30"/>
+      <c r="C187" s="19"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -15192,7 +15216,7 @@
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="30"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -15266,7 +15290,7 @@
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="30"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -15340,7 +15364,7 @@
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="30"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -15414,7 +15438,7 @@
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="30"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -15488,7 +15512,7 @@
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="30"/>
+      <c r="C192" s="19"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -15562,7 +15586,7 @@
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="30"/>
+      <c r="C193" s="19"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -15636,7 +15660,7 @@
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="30"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -15710,7 +15734,7 @@
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="30"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -15784,7 +15808,7 @@
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="30"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -15858,7 +15882,7 @@
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="30"/>
+      <c r="C197" s="19"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -15932,7 +15956,7 @@
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="30"/>
+      <c r="C198" s="19"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -16006,7 +16030,7 @@
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="30"/>
+      <c r="C199" s="19"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -16080,7 +16104,7 @@
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="30"/>
+      <c r="C200" s="19"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -16154,7 +16178,7 @@
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="30"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07174DBB-6E89-496C-98E6-90765E9E5641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1D6F8-A769-4D1A-802D-A01C0E45FC59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,6 +208,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{AD8C0870-8069-41A9-8A61-54D708DC6D78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不用加%默认就有</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{0C823AD5-AAAF-42E2-92B4-A7E2AD2786CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不用加%默认就有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{A258DCBB-BC4F-4255-AFD4-E4BB11A29031}">
       <text>
         <r>
@@ -233,6 +274,92 @@
             <family val="2"/>
           </rPr>
           <t>单选下拉框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH2" authorId="1" shapeId="0" xr:uid="{3AC0D1BD-B2B8-4F47-AC5E-E1FCD88BB79C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不用加</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>默认就有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI2" authorId="1" shapeId="0" xr:uid="{79ECF240-733D-4362-8741-027A8B5C5113}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不用加%默认就有</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK2" authorId="1" shapeId="0" xr:uid="{0D7EC1B9-F489-467E-81DD-4872993F3187}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不用加%默认就有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -562,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +767,28 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1177,8 +1326,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BT201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1D6F8-A769-4D1A-802D-A01C0E45FC59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B97644-1983-4015-B4E8-A103CF44594E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,12 +165,87 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写示例：
+爱亲科技</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">填写示例：
-爱亲,萌贝树,小红马
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">爱亲母婴
 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>萌贝树</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">小红马
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>值与值之间用</t>
         </r>
         <r>
           <rPr>
@@ -179,7 +254,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>值与值之间用 英文逗号隔开</t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英文逗号隔开</t>
         </r>
       </text>
     </comment>
@@ -1326,8 +1411,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BT201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B97644-1983-4015-B4E8-A103CF44594E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941D512-EC91-48A4-BE25-A335335D7C59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LeslieNicole</author>
-    <author>张廷豪</author>
+    <author>HUAWEI</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{BABE85B1-1146-4F0D-B473-1FDC9FDEE9A6}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{42C073B9-BFFB-4AA0-9929-0BF30EEF4E9F}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{A3034EDA-FC88-4C9A-832B-F3F3F833EA50}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B20D8246-04CD-440E-8BDE-0F70E708E01A}">
       <text>
         <r>
           <rPr>
@@ -59,22 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{50E850E8-D589-4AB9-857F-95DF2F118ED7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>请添加第四级品类的编码</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{3A167B18-A8AD-4D98-A24B-C2F934438007}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{0578027A-58C9-492F-81ED-B4F8DBDAC5C6}">
       <text>
         <r>
           <rPr>
@@ -88,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{3FEAC8DA-CFED-4BBE-8F6B-C39C2F3642EC}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{B818A269-68D4-4796-929C-44F120246A06}">
       <text>
         <r>
           <rPr>
@@ -102,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{9D38030B-56AE-41CF-B02E-A0A1901B44E8}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{28A8DD0F-76C9-4029-B9FF-959F62943F5F}">
       <text>
         <r>
           <rPr>
@@ -116,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{A19295F2-689A-4867-8D55-24694E238140}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{4B075FAD-68B0-4C0B-8ED0-7032F5116F88}">
       <text>
         <r>
           <rPr>
@@ -130,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{8197A78B-B481-42E6-8B9A-369254206315}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{87321929-3237-4CA5-AFC8-8D166C89C8C0}">
       <text>
         <r>
           <rPr>
@@ -144,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{A2BD3F2F-FD3B-422F-A0E4-E81C7B4A6D85}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{016100CF-6578-4B41-A37F-6DF13361F5A6}">
       <text>
         <r>
           <rPr>
@@ -158,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{8AC5E59C-EC52-4B39-9696-4F82F4EE0047}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{FCC6500C-3C5D-4BA3-A822-4C50E935C13D}">
       <text>
         <r>
           <rPr>
@@ -191,8 +176,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">爱亲母婴
-</t>
+          <t>爱亲母婴</t>
         </r>
         <r>
           <rPr>
@@ -268,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{4B7A4C69-734E-442E-814D-3C951B06D1AB}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{8F833E5C-B75B-4790-9B54-EC265F3D0732}">
       <text>
         <r>
           <rPr>
@@ -293,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{AD8C0870-8069-41A9-8A61-54D708DC6D78}">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{E17E4F4E-B7BA-48CB-8561-5C639BF4F04D}">
       <text>
         <r>
           <rPr>
@@ -304,22 +288,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>不用加%默认就有</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{0C823AD5-AAAF-42E2-92B4-A7E2AD2786CE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不用加%默认就有</t>
+          <t>只填数字</t>
         </r>
         <r>
           <rPr>
@@ -334,7 +303,324 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{A258DCBB-BC4F-4255-AFD4-E4BB11A29031}">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{26DE04C3-217D-426A-94E9-2135C0CC7401}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{1BC46CAA-1425-407C-9F41-8288771E1187}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单选下拉框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{ED2AD988-5C6F-4E15-BB2A-33EED6BCF4F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>库存及销售的规格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{0B8F38E6-1D3F-43D7-8FB6-567C06DAEBAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>库存及销售的单位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{555C71C1-9B20-45D3-BF72-CC264DEE590B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{4B363EFA-1109-43FF-887E-24273BFF502A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{53EFD9AB-D675-4EFB-AB98-EBB113690268}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{992B64BE-E3F0-4A17-BFAD-885BB0338DF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{B3B2A0B4-046F-4E27-B8A4-D90D675B2A42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{FE4BD43F-4EC0-4124-95D8-276DC5455C0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{F6B8FEDB-EF69-4E55-AC24-EA70ABF8025B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{3C53C92D-4AAB-4F02-A166-5CC73FDFF16D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY2" authorId="1" shapeId="0" xr:uid="{749DF030-962B-4D55-B31E-EB1C5D2D0F9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ2" authorId="1" shapeId="0" xr:uid="{D8D0EDA4-4DE3-42E2-A205-435D7FB303C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA2" authorId="1" shapeId="0" xr:uid="{317101C7-0234-4266-813D-8FBE4CA69DB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基商品含量、箱规</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC2" authorId="1" shapeId="0" xr:uid="{9C81E2CD-E4F9-4D02-AB02-3EDB5D343289}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>拆零系数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{ECB0DA3A-43C3-4FF8-BE0D-5AFCF54EEB32}">
       <text>
         <r>
           <rPr>
@@ -348,81 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{9F2AE4AA-4995-4F7A-BC97-48479D0562A9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BH2" authorId="1" shapeId="0" xr:uid="{3AC0D1BD-B2B8-4F47-AC5E-E1FCD88BB79C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不用加</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>%</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>默认就有</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BI2" authorId="1" shapeId="0" xr:uid="{79ECF240-733D-4362-8741-027A8B5C5113}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不用加%默认就有</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BK2" authorId="1" shapeId="0" xr:uid="{0D7EC1B9-F489-467E-81DD-4872993F3187}">
+    <comment ref="BH2" authorId="1" shapeId="0" xr:uid="{106742DE-ADEB-4237-AFB9-7700D51FD94D}">
       <text>
         <r>
           <rPr>
@@ -433,7 +645,85 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>不用加%默认就有</t>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI2" authorId="1" shapeId="0" xr:uid="{522F0B02-D708-490A-8E93-9EF8DBD420D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ2" authorId="1" shapeId="0" xr:uid="{0191F89D-7E49-46C3-B142-2B471315238E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK2" authorId="1" shapeId="0" xr:uid="{97571343-D245-453B-92E8-3013E3AEB992}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
         </r>
         <r>
           <rPr>
@@ -579,46 +869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存毛重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购毛重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结算方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,10 +953,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厂方商品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保修地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,9 +1005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购单位含量</t>
-  </si>
-  <si>
     <t>分销交易倍数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -769,12 +1012,60 @@
     <t>品类编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>库存长(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存宽(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存高(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存毛重(KG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存净重(KG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购长(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购宽(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购高(MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购毛重(KG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购净重(KG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单位含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,21 +1150,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1033,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,9 +1344,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,13 +1359,10 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,132 +1681,146 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BT201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.21875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="16.109375" style="1" customWidth="1"/>
-    <col min="14" max="17" width="18" style="1" customWidth="1"/>
-    <col min="18" max="21" width="19.77734375" style="1" customWidth="1"/>
-    <col min="22" max="23" width="23.109375" style="1" customWidth="1"/>
-    <col min="24" max="25" width="18" style="1" customWidth="1"/>
-    <col min="26" max="33" width="14" style="1" customWidth="1"/>
-    <col min="34" max="37" width="15.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="22.77734375" style="1" customWidth="1"/>
-    <col min="39" max="52" width="13.77734375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="17.109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="13.77734375" style="1" customWidth="1"/>
-    <col min="55" max="55" width="16.77734375" style="1" customWidth="1"/>
-    <col min="56" max="56" width="16.109375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="15.21875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="13.77734375" style="1" customWidth="1"/>
-    <col min="59" max="63" width="18" style="1" customWidth="1"/>
-    <col min="64" max="68" width="12.44140625" style="1" customWidth="1"/>
-    <col min="69" max="69" width="20.88671875" style="1" customWidth="1"/>
-    <col min="70" max="71" width="15.44140625" style="1" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="62" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="3" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>65</v>
+      <c r="A1" s="21" t="s">
+        <v>54</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="s">
-        <v>69</v>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="24" t="s">
+        <v>58</v>
       </c>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="28" t="s">
-        <v>68</v>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="26" t="s">
+        <v>57</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="29" t="s">
-        <v>66</v>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="27" t="s">
+        <v>55</v>
       </c>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="31" t="s">
-        <v>67</v>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="29" t="s">
+        <v>56</v>
       </c>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="21" t="s">
-        <v>70</v>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="19" t="s">
+        <v>59</v>
       </c>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="22" t="s">
-        <v>61</v>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="20" t="s">
+        <v>51</v>
       </c>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="12" t="s">
-        <v>71</v>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:72" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1546,13 +1830,13 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>78</v>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1564,10 +1848,10 @@
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -1606,53 +1890,53 @@
       <c r="V2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>73</v>
+      <c r="W2" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="AJ2" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AM2" s="8" t="s">
         <v>23</v>
@@ -1661,19 +1945,19 @@
         <v>24</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
-      <c r="AP2" s="15" t="s">
-        <v>32</v>
+      <c r="AP2" s="14" t="s">
+        <v>68</v>
       </c>
-      <c r="AQ2" s="15" t="s">
-        <v>33</v>
+      <c r="AQ2" s="14" t="s">
+        <v>69</v>
       </c>
-      <c r="AR2" s="15" t="s">
-        <v>34</v>
+      <c r="AR2" s="14" t="s">
+        <v>70</v>
       </c>
-      <c r="AS2" s="15" t="s">
-        <v>35</v>
+      <c r="AS2" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>25</v>
@@ -1682,28 +1966,28 @@
         <v>26</v>
       </c>
       <c r="AV2" s="10" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="AX2" s="10" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AY2" s="10" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BB2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="BD2" s="10" t="s">
         <v>30</v>
@@ -1711,56 +1995,56 @@
       <c r="BE2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="BG2" s="11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="BH2" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="BI2" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
-      <c r="BJ2" s="16" t="s">
-        <v>44</v>
+      <c r="BJ2" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="BK2" s="17" t="s">
-        <v>45</v>
+      <c r="BK2" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="BL2" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="BM2" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="BN2" s="11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="BO2" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="BP2" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
-      <c r="BQ2" s="10" t="s">
-        <v>61</v>
+      <c r="BQ2" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="BR2" s="10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="BS2" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
-      <c r="BT2" s="16" t="s">
-        <v>72</v>
+      <c r="BT2" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="19"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1834,7 +2118,7 @@
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1908,7 +2192,7 @@
     <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="19"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1982,7 +2266,7 @@
     <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="19"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2056,7 +2340,7 @@
     <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2130,7 +2414,7 @@
     <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2204,7 +2488,7 @@
     <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2278,7 +2562,7 @@
     <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2352,7 +2636,7 @@
     <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2426,7 +2710,7 @@
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2500,7 +2784,7 @@
     <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2574,7 +2858,7 @@
     <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2648,7 +2932,7 @@
     <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2722,7 +3006,7 @@
     <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2796,7 +3080,7 @@
     <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2870,7 +3154,7 @@
     <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2944,7 +3228,7 @@
     <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3018,7 +3302,7 @@
     <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3092,7 +3376,7 @@
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3166,7 +3450,7 @@
     <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3240,7 +3524,7 @@
     <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3314,7 +3598,7 @@
     <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3388,7 +3672,7 @@
     <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="19"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3462,7 +3746,7 @@
     <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="19"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3536,7 +3820,7 @@
     <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="19"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3610,7 +3894,7 @@
     <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="19"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3684,7 +3968,7 @@
     <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="19"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3758,7 +4042,7 @@
     <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3832,7 +4116,7 @@
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="19"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3906,7 +4190,7 @@
     <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="19"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3980,7 +4264,7 @@
     <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="19"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4054,7 +4338,7 @@
     <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="19"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4128,7 +4412,7 @@
     <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="19"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4202,7 +4486,7 @@
     <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="19"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4276,7 +4560,7 @@
     <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="19"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4350,7 +4634,7 @@
     <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="19"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4424,7 +4708,7 @@
     <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="19"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4498,7 +4782,7 @@
     <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="19"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4572,7 +4856,7 @@
     <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="19"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4646,7 +4930,7 @@
     <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="19"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4720,7 +5004,7 @@
     <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="19"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4794,7 +5078,7 @@
     <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="19"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4868,7 +5152,7 @@
     <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="19"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4942,7 +5226,7 @@
     <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -5016,7 +5300,7 @@
     <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -5090,7 +5374,7 @@
     <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="19"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5164,7 +5448,7 @@
     <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="19"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5238,7 +5522,7 @@
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="19"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5312,7 +5596,7 @@
     <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="19"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5386,7 +5670,7 @@
     <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="19"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5460,7 +5744,7 @@
     <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="19"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5534,7 +5818,7 @@
     <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="19"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5608,7 +5892,7 @@
     <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="19"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5682,7 +5966,7 @@
     <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="19"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5756,7 +6040,7 @@
     <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="19"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -5830,7 +6114,7 @@
     <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5904,7 +6188,7 @@
     <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="19"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5978,7 +6262,7 @@
     <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="19"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -6052,7 +6336,7 @@
     <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="19"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -6126,7 +6410,7 @@
     <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="19"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -6200,7 +6484,7 @@
     <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="19"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -6274,7 +6558,7 @@
     <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="19"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6348,7 +6632,7 @@
     <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="19"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6422,7 +6706,7 @@
     <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="19"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6496,7 +6780,7 @@
     <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="19"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -6570,7 +6854,7 @@
     <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="19"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6644,7 +6928,7 @@
     <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="19"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -6718,7 +7002,7 @@
     <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="19"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6792,7 +7076,7 @@
     <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="19"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6866,7 +7150,7 @@
     <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="19"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -6940,7 +7224,7 @@
     <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="19"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -7014,7 +7298,7 @@
     <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="19"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -7088,7 +7372,7 @@
     <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="19"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -7162,7 +7446,7 @@
     <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="19"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -7236,7 +7520,7 @@
     <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="19"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7310,7 +7594,7 @@
     <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="19"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -7384,7 +7668,7 @@
     <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="19"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -7458,7 +7742,7 @@
     <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="19"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -7532,7 +7816,7 @@
     <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="19"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -7606,7 +7890,7 @@
     <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="19"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -7680,7 +7964,7 @@
     <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="19"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -7754,7 +8038,7 @@
     <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="19"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -7828,7 +8112,7 @@
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="19"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -7902,7 +8186,7 @@
     <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -7976,7 +8260,7 @@
     <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="19"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -8050,7 +8334,7 @@
     <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="19"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -8124,7 +8408,7 @@
     <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="19"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -8198,7 +8482,7 @@
     <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="19"/>
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -8272,7 +8556,7 @@
     <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="19"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -8346,7 +8630,7 @@
     <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="19"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -8420,7 +8704,7 @@
     <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="19"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -8494,7 +8778,7 @@
     <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="19"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -8568,7 +8852,7 @@
     <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="19"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -8642,7 +8926,7 @@
     <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="19"/>
+      <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -8716,7 +9000,7 @@
     <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="19"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -8790,7 +9074,7 @@
     <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="19"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -8864,7 +9148,7 @@
     <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -8938,7 +9222,7 @@
     <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -9012,7 +9296,7 @@
     <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -9086,7 +9370,7 @@
     <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -9160,7 +9444,7 @@
     <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="19"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -9234,7 +9518,7 @@
     <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -9308,7 +9592,7 @@
     <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="19"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -9382,7 +9666,7 @@
     <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="19"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -9456,7 +9740,7 @@
     <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -9530,7 +9814,7 @@
     <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="19"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -9604,7 +9888,7 @@
     <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="19"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -9678,7 +9962,7 @@
     <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="19"/>
+      <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -9752,7 +10036,7 @@
     <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="19"/>
+      <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -9826,7 +10110,7 @@
     <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="19"/>
+      <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -9900,7 +10184,7 @@
     <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="19"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -9974,7 +10258,7 @@
     <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="19"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -10048,7 +10332,7 @@
     <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="19"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -10122,7 +10406,7 @@
     <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="19"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -10196,7 +10480,7 @@
     <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="19"/>
+      <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -10270,7 +10554,7 @@
     <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="19"/>
+      <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -10344,7 +10628,7 @@
     <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="19"/>
+      <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -10418,7 +10702,7 @@
     <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="19"/>
+      <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -10492,7 +10776,7 @@
     <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="19"/>
+      <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -10566,7 +10850,7 @@
     <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="19"/>
+      <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -10640,7 +10924,7 @@
     <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="19"/>
+      <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -10714,7 +10998,7 @@
     <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="19"/>
+      <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -10788,7 +11072,7 @@
     <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="19"/>
+      <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -10862,7 +11146,7 @@
     <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="19"/>
+      <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -10936,7 +11220,7 @@
     <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="19"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -11010,7 +11294,7 @@
     <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="19"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -11084,7 +11368,7 @@
     <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="19"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -11158,7 +11442,7 @@
     <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="19"/>
+      <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -11232,7 +11516,7 @@
     <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="19"/>
+      <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -11306,7 +11590,7 @@
     <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="19"/>
+      <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -11380,7 +11664,7 @@
     <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="19"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -11454,7 +11738,7 @@
     <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="19"/>
+      <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -11528,7 +11812,7 @@
     <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="19"/>
+      <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -11602,7 +11886,7 @@
     <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="19"/>
+      <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -11676,7 +11960,7 @@
     <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="19"/>
+      <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -11750,7 +12034,7 @@
     <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="19"/>
+      <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -11824,7 +12108,7 @@
     <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="19"/>
+      <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -11898,7 +12182,7 @@
     <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="19"/>
+      <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -11972,7 +12256,7 @@
     <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="19"/>
+      <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -12046,7 +12330,7 @@
     <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="19"/>
+      <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -12120,7 +12404,7 @@
     <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="19"/>
+      <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -12194,7 +12478,7 @@
     <row r="144" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="19"/>
+      <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -12268,7 +12552,7 @@
     <row r="145" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="19"/>
+      <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -12342,7 +12626,7 @@
     <row r="146" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="19"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -12416,7 +12700,7 @@
     <row r="147" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="19"/>
+      <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -12490,7 +12774,7 @@
     <row r="148" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="19"/>
+      <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -12564,7 +12848,7 @@
     <row r="149" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="19"/>
+      <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -12638,7 +12922,7 @@
     <row r="150" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="19"/>
+      <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -12712,7 +12996,7 @@
     <row r="151" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="19"/>
+      <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -12786,7 +13070,7 @@
     <row r="152" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="19"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -12860,7 +13144,7 @@
     <row r="153" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="19"/>
+      <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -12934,7 +13218,7 @@
     <row r="154" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="19"/>
+      <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -13008,7 +13292,7 @@
     <row r="155" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="19"/>
+      <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -13082,7 +13366,7 @@
     <row r="156" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="19"/>
+      <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -13156,7 +13440,7 @@
     <row r="157" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="19"/>
+      <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -13230,7 +13514,7 @@
     <row r="158" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="19"/>
+      <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -13304,7 +13588,7 @@
     <row r="159" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="19"/>
+      <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -13378,7 +13662,7 @@
     <row r="160" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="19"/>
+      <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -13452,7 +13736,7 @@
     <row r="161" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="19"/>
+      <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -13526,7 +13810,7 @@
     <row r="162" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="19"/>
+      <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -13600,7 +13884,7 @@
     <row r="163" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="19"/>
+      <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -13674,7 +13958,7 @@
     <row r="164" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
-      <c r="C164" s="19"/>
+      <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -13748,7 +14032,7 @@
     <row r="165" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
-      <c r="C165" s="19"/>
+      <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -13822,7 +14106,7 @@
     <row r="166" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
-      <c r="C166" s="19"/>
+      <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -13896,7 +14180,7 @@
     <row r="167" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
-      <c r="C167" s="19"/>
+      <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -13970,7 +14254,7 @@
     <row r="168" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
-      <c r="C168" s="19"/>
+      <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -14044,7 +14328,7 @@
     <row r="169" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
-      <c r="C169" s="19"/>
+      <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -14118,7 +14402,7 @@
     <row r="170" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="19"/>
+      <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -14192,7 +14476,7 @@
     <row r="171" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="19"/>
+      <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -14266,7 +14550,7 @@
     <row r="172" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="19"/>
+      <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -14340,7 +14624,7 @@
     <row r="173" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="19"/>
+      <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -14414,7 +14698,7 @@
     <row r="174" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="19"/>
+      <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -14488,7 +14772,7 @@
     <row r="175" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="19"/>
+      <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -14562,7 +14846,7 @@
     <row r="176" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="19"/>
+      <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -14636,7 +14920,7 @@
     <row r="177" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="19"/>
+      <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -14710,7 +14994,7 @@
     <row r="178" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="19"/>
+      <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -14784,7 +15068,7 @@
     <row r="179" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
-      <c r="C179" s="19"/>
+      <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -14858,7 +15142,7 @@
     <row r="180" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
-      <c r="C180" s="19"/>
+      <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -14932,7 +15216,7 @@
     <row r="181" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
-      <c r="C181" s="19"/>
+      <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -15006,7 +15290,7 @@
     <row r="182" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
-      <c r="C182" s="19"/>
+      <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -15080,7 +15364,7 @@
     <row r="183" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
-      <c r="C183" s="19"/>
+      <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -15154,7 +15438,7 @@
     <row r="184" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
-      <c r="C184" s="19"/>
+      <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -15228,7 +15512,7 @@
     <row r="185" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
-      <c r="C185" s="19"/>
+      <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -15302,7 +15586,7 @@
     <row r="186" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
-      <c r="C186" s="19"/>
+      <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -15376,7 +15660,7 @@
     <row r="187" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
-      <c r="C187" s="19"/>
+      <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -15450,7 +15734,7 @@
     <row r="188" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
-      <c r="C188" s="19"/>
+      <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -15524,7 +15808,7 @@
     <row r="189" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
-      <c r="C189" s="19"/>
+      <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -15598,7 +15882,7 @@
     <row r="190" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="19"/>
+      <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -15672,7 +15956,7 @@
     <row r="191" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
-      <c r="C191" s="19"/>
+      <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -15746,7 +16030,7 @@
     <row r="192" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="19"/>
+      <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -15820,7 +16104,7 @@
     <row r="193" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="19"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -15894,7 +16178,7 @@
     <row r="194" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="19"/>
+      <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -15968,7 +16252,7 @@
     <row r="195" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
-      <c r="C195" s="19"/>
+      <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -16042,7 +16326,7 @@
     <row r="196" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
-      <c r="C196" s="19"/>
+      <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -16116,7 +16400,7 @@
     <row r="197" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
-      <c r="C197" s="19"/>
+      <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -16190,7 +16474,7 @@
     <row r="198" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
-      <c r="C198" s="19"/>
+      <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -16264,7 +16548,7 @@
     <row r="199" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
-      <c r="C199" s="19"/>
+      <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -16338,7 +16622,7 @@
     <row r="200" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
-      <c r="C200" s="19"/>
+      <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -16412,7 +16696,7 @@
     <row r="201" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="19"/>
+      <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -16495,31 +16779,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201" xr:uid="{5F56D6F7-ADE5-46EB-BD7A-15CD9C335F7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201" xr:uid="{5CA92D72-759C-4806-BA7B-A02DD2A061A5}">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H201" xr:uid="{D4693DF4-7A5D-4A56-8194-16E4D3B51F60}">
-      <formula1>"A品,B品,C品,D品"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L201" xr:uid="{856B4E33-3FDD-4DD4-BC0B-371754639F25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L201" xr:uid="{24540F49-1A61-4910-8B87-B52CE6B05CDD}">
       <formula1>"配送,直送,全部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O201 Q3:Q201 S3:S201" xr:uid="{EC81054A-3F14-459F-A4E0-3C332F7F3984}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q201 S3:S201 O3:O201" xr:uid="{6E255189-6A5F-41CA-A228-538FE1A612C9}">
       <formula1>"否,是"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P201" xr:uid="{3821A923-CCCF-4BFD-9AAC-BA259E592E4C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P201" xr:uid="{A417546B-21B8-48ED-8200-B86B47349E58}">
       <formula1>"大货仓位,小货仓位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG201" xr:uid="{ED4FC445-D8FD-402E-AB41-C780285FFF93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG3:BG201" xr:uid="{8BE22048-A074-4F32-B99B-FEA38F8B0544}">
       <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL201" xr:uid="{1367162B-AD7E-48FF-9457-F2A35781095F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL201" xr:uid="{F81BE704-5CFF-42B5-9387-251ACA0B543A}">
       <formula1>"配送,直送"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL3:BP71" xr:uid="{317B4AB6-2387-46EC-B234-E7609F02CBAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL3:BP201" xr:uid="{5FCF50FB-5A86-45BB-A6AC-B8BD0190CBC3}">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{5A12E4DE-68BA-4DFF-9B4D-B8FAFCFA8804}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H201" xr:uid="{1BD1E742-D2AC-42F0-B0AA-AE5A3AB71542}">
+      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{C6E1A630-2D1E-44EA-AB18-1E6A4F1F9DB5}">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Desktop\新模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941D512-EC91-48A4-BE25-A335335D7C59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17F5F76-82E6-4587-8F89-9C3A752541B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增" sheetId="1" r:id="rId1"/>
@@ -1681,59 +1681,59 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BT201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="43" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="62" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="62" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="8.77734375" style="1"/>
+    <col min="73" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="3" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="3" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>54</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="4" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="4" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2115,7 +2115,7 @@
       <c r="BS3" s="2"/>
       <c r="BT3" s="2"/>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2189,7 +2189,7 @@
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2263,7 +2263,7 @@
       <c r="BS5" s="2"/>
       <c r="BT5" s="2"/>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2337,7 +2337,7 @@
       <c r="BS6" s="2"/>
       <c r="BT6" s="2"/>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2411,7 +2411,7 @@
       <c r="BS7" s="2"/>
       <c r="BT7" s="2"/>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2485,7 +2485,7 @@
       <c r="BS8" s="2"/>
       <c r="BT8" s="2"/>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2559,7 +2559,7 @@
       <c r="BS9" s="2"/>
       <c r="BT9" s="2"/>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2633,7 +2633,7 @@
       <c r="BS10" s="2"/>
       <c r="BT10" s="2"/>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2707,7 +2707,7 @@
       <c r="BS11" s="2"/>
       <c r="BT11" s="2"/>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2781,7 +2781,7 @@
       <c r="BS12" s="2"/>
       <c r="BT12" s="2"/>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2855,7 +2855,7 @@
       <c r="BS13" s="2"/>
       <c r="BT13" s="2"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2929,7 +2929,7 @@
       <c r="BS14" s="2"/>
       <c r="BT14" s="2"/>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3003,7 +3003,7 @@
       <c r="BS15" s="2"/>
       <c r="BT15" s="2"/>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3077,7 +3077,7 @@
       <c r="BS16" s="2"/>
       <c r="BT16" s="2"/>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3151,7 +3151,7 @@
       <c r="BS17" s="2"/>
       <c r="BT17" s="2"/>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3225,7 +3225,7 @@
       <c r="BS18" s="2"/>
       <c r="BT18" s="2"/>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3299,7 +3299,7 @@
       <c r="BS19" s="2"/>
       <c r="BT19" s="2"/>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3373,7 +3373,7 @@
       <c r="BS20" s="2"/>
       <c r="BT20" s="2"/>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3447,7 +3447,7 @@
       <c r="BS21" s="2"/>
       <c r="BT21" s="2"/>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3521,7 +3521,7 @@
       <c r="BS22" s="2"/>
       <c r="BT22" s="2"/>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3595,7 +3595,7 @@
       <c r="BS23" s="2"/>
       <c r="BT23" s="2"/>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3669,7 +3669,7 @@
       <c r="BS24" s="2"/>
       <c r="BT24" s="2"/>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3743,7 +3743,7 @@
       <c r="BS25" s="2"/>
       <c r="BT25" s="2"/>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3817,7 +3817,7 @@
       <c r="BS26" s="2"/>
       <c r="BT26" s="2"/>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3891,7 +3891,7 @@
       <c r="BS27" s="2"/>
       <c r="BT27" s="2"/>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3965,7 +3965,7 @@
       <c r="BS28" s="2"/>
       <c r="BT28" s="2"/>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4039,7 +4039,7 @@
       <c r="BS29" s="2"/>
       <c r="BT29" s="2"/>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4113,7 +4113,7 @@
       <c r="BS30" s="2"/>
       <c r="BT30" s="2"/>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4187,7 +4187,7 @@
       <c r="BS31" s="2"/>
       <c r="BT31" s="2"/>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4261,7 +4261,7 @@
       <c r="BS32" s="2"/>
       <c r="BT32" s="2"/>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4335,7 +4335,7 @@
       <c r="BS33" s="2"/>
       <c r="BT33" s="2"/>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4409,7 +4409,7 @@
       <c r="BS34" s="2"/>
       <c r="BT34" s="2"/>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4483,7 +4483,7 @@
       <c r="BS35" s="2"/>
       <c r="BT35" s="2"/>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4557,7 +4557,7 @@
       <c r="BS36" s="2"/>
       <c r="BT36" s="2"/>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4631,7 +4631,7 @@
       <c r="BS37" s="2"/>
       <c r="BT37" s="2"/>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4705,7 +4705,7 @@
       <c r="BS38" s="2"/>
       <c r="BT38" s="2"/>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4779,7 +4779,7 @@
       <c r="BS39" s="2"/>
       <c r="BT39" s="2"/>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4853,7 +4853,7 @@
       <c r="BS40" s="2"/>
       <c r="BT40" s="2"/>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4927,7 +4927,7 @@
       <c r="BS41" s="2"/>
       <c r="BT41" s="2"/>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5001,7 +5001,7 @@
       <c r="BS42" s="2"/>
       <c r="BT42" s="2"/>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5075,7 +5075,7 @@
       <c r="BS43" s="2"/>
       <c r="BT43" s="2"/>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5149,7 +5149,7 @@
       <c r="BS44" s="2"/>
       <c r="BT44" s="2"/>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5223,7 +5223,7 @@
       <c r="BS45" s="2"/>
       <c r="BT45" s="2"/>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5297,7 +5297,7 @@
       <c r="BS46" s="2"/>
       <c r="BT46" s="2"/>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5371,7 +5371,7 @@
       <c r="BS47" s="2"/>
       <c r="BT47" s="2"/>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5445,7 +5445,7 @@
       <c r="BS48" s="2"/>
       <c r="BT48" s="2"/>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5519,7 +5519,7 @@
       <c r="BS49" s="2"/>
       <c r="BT49" s="2"/>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5593,7 +5593,7 @@
       <c r="BS50" s="2"/>
       <c r="BT50" s="2"/>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5667,7 +5667,7 @@
       <c r="BS51" s="2"/>
       <c r="BT51" s="2"/>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5741,7 +5741,7 @@
       <c r="BS52" s="2"/>
       <c r="BT52" s="2"/>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5815,7 +5815,7 @@
       <c r="BS53" s="2"/>
       <c r="BT53" s="2"/>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5889,7 +5889,7 @@
       <c r="BS54" s="2"/>
       <c r="BT54" s="2"/>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5963,7 +5963,7 @@
       <c r="BS55" s="2"/>
       <c r="BT55" s="2"/>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6037,7 +6037,7 @@
       <c r="BS56" s="2"/>
       <c r="BT56" s="2"/>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6111,7 +6111,7 @@
       <c r="BS57" s="2"/>
       <c r="BT57" s="2"/>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6185,7 +6185,7 @@
       <c r="BS58" s="2"/>
       <c r="BT58" s="2"/>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6259,7 +6259,7 @@
       <c r="BS59" s="2"/>
       <c r="BT59" s="2"/>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6333,7 +6333,7 @@
       <c r="BS60" s="2"/>
       <c r="BT60" s="2"/>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6407,7 +6407,7 @@
       <c r="BS61" s="2"/>
       <c r="BT61" s="2"/>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6481,7 +6481,7 @@
       <c r="BS62" s="2"/>
       <c r="BT62" s="2"/>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6555,7 +6555,7 @@
       <c r="BS63" s="2"/>
       <c r="BT63" s="2"/>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6629,7 +6629,7 @@
       <c r="BS64" s="2"/>
       <c r="BT64" s="2"/>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6703,7 +6703,7 @@
       <c r="BS65" s="2"/>
       <c r="BT65" s="2"/>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6777,7 +6777,7 @@
       <c r="BS66" s="2"/>
       <c r="BT66" s="2"/>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6851,7 +6851,7 @@
       <c r="BS67" s="2"/>
       <c r="BT67" s="2"/>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6925,7 +6925,7 @@
       <c r="BS68" s="2"/>
       <c r="BT68" s="2"/>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6999,7 +6999,7 @@
       <c r="BS69" s="2"/>
       <c r="BT69" s="2"/>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -7073,7 +7073,7 @@
       <c r="BS70" s="2"/>
       <c r="BT70" s="2"/>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7147,7 +7147,7 @@
       <c r="BS71" s="2"/>
       <c r="BT71" s="2"/>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7221,7 +7221,7 @@
       <c r="BS72" s="2"/>
       <c r="BT72" s="2"/>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7295,7 +7295,7 @@
       <c r="BS73" s="2"/>
       <c r="BT73" s="2"/>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7369,7 +7369,7 @@
       <c r="BS74" s="2"/>
       <c r="BT74" s="2"/>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7443,7 +7443,7 @@
       <c r="BS75" s="2"/>
       <c r="BT75" s="2"/>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7517,7 +7517,7 @@
       <c r="BS76" s="2"/>
       <c r="BT76" s="2"/>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7591,7 +7591,7 @@
       <c r="BS77" s="2"/>
       <c r="BT77" s="2"/>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7665,7 +7665,7 @@
       <c r="BS78" s="2"/>
       <c r="BT78" s="2"/>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7739,7 +7739,7 @@
       <c r="BS79" s="2"/>
       <c r="BT79" s="2"/>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7813,7 +7813,7 @@
       <c r="BS80" s="2"/>
       <c r="BT80" s="2"/>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7887,7 +7887,7 @@
       <c r="BS81" s="2"/>
       <c r="BT81" s="2"/>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7961,7 +7961,7 @@
       <c r="BS82" s="2"/>
       <c r="BT82" s="2"/>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8035,7 +8035,7 @@
       <c r="BS83" s="2"/>
       <c r="BT83" s="2"/>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8109,7 +8109,7 @@
       <c r="BS84" s="2"/>
       <c r="BT84" s="2"/>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -8183,7 +8183,7 @@
       <c r="BS85" s="2"/>
       <c r="BT85" s="2"/>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8257,7 +8257,7 @@
       <c r="BS86" s="2"/>
       <c r="BT86" s="2"/>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8331,7 +8331,7 @@
       <c r="BS87" s="2"/>
       <c r="BT87" s="2"/>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8405,7 +8405,7 @@
       <c r="BS88" s="2"/>
       <c r="BT88" s="2"/>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8479,7 +8479,7 @@
       <c r="BS89" s="2"/>
       <c r="BT89" s="2"/>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -8553,7 +8553,7 @@
       <c r="BS90" s="2"/>
       <c r="BT90" s="2"/>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8627,7 +8627,7 @@
       <c r="BS91" s="2"/>
       <c r="BT91" s="2"/>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8701,7 +8701,7 @@
       <c r="BS92" s="2"/>
       <c r="BT92" s="2"/>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8775,7 +8775,7 @@
       <c r="BS93" s="2"/>
       <c r="BT93" s="2"/>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -8849,7 +8849,7 @@
       <c r="BS94" s="2"/>
       <c r="BT94" s="2"/>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8923,7 +8923,7 @@
       <c r="BS95" s="2"/>
       <c r="BT95" s="2"/>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8997,7 +8997,7 @@
       <c r="BS96" s="2"/>
       <c r="BT96" s="2"/>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -9071,7 +9071,7 @@
       <c r="BS97" s="2"/>
       <c r="BT97" s="2"/>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -9145,7 +9145,7 @@
       <c r="BS98" s="2"/>
       <c r="BT98" s="2"/>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -9219,7 +9219,7 @@
       <c r="BS99" s="2"/>
       <c r="BT99" s="2"/>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -9293,7 +9293,7 @@
       <c r="BS100" s="2"/>
       <c r="BT100" s="2"/>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -9367,7 +9367,7 @@
       <c r="BS101" s="2"/>
       <c r="BT101" s="2"/>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -9441,7 +9441,7 @@
       <c r="BS102" s="2"/>
       <c r="BT102" s="2"/>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -9515,7 +9515,7 @@
       <c r="BS103" s="2"/>
       <c r="BT103" s="2"/>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -9589,7 +9589,7 @@
       <c r="BS104" s="2"/>
       <c r="BT104" s="2"/>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -9663,7 +9663,7 @@
       <c r="BS105" s="2"/>
       <c r="BT105" s="2"/>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -9737,7 +9737,7 @@
       <c r="BS106" s="2"/>
       <c r="BT106" s="2"/>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -9811,7 +9811,7 @@
       <c r="BS107" s="2"/>
       <c r="BT107" s="2"/>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -9885,7 +9885,7 @@
       <c r="BS108" s="2"/>
       <c r="BT108" s="2"/>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9959,7 +9959,7 @@
       <c r="BS109" s="2"/>
       <c r="BT109" s="2"/>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10033,7 +10033,7 @@
       <c r="BS110" s="2"/>
       <c r="BT110" s="2"/>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10107,7 +10107,7 @@
       <c r="BS111" s="2"/>
       <c r="BT111" s="2"/>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10181,7 +10181,7 @@
       <c r="BS112" s="2"/>
       <c r="BT112" s="2"/>
     </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10255,7 +10255,7 @@
       <c r="BS113" s="2"/>
       <c r="BT113" s="2"/>
     </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -10329,7 +10329,7 @@
       <c r="BS114" s="2"/>
       <c r="BT114" s="2"/>
     </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -10403,7 +10403,7 @@
       <c r="BS115" s="2"/>
       <c r="BT115" s="2"/>
     </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -10477,7 +10477,7 @@
       <c r="BS116" s="2"/>
       <c r="BT116" s="2"/>
     </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -10551,7 +10551,7 @@
       <c r="BS117" s="2"/>
       <c r="BT117" s="2"/>
     </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -10625,7 +10625,7 @@
       <c r="BS118" s="2"/>
       <c r="BT118" s="2"/>
     </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -10699,7 +10699,7 @@
       <c r="BS119" s="2"/>
       <c r="BT119" s="2"/>
     </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10773,7 +10773,7 @@
       <c r="BS120" s="2"/>
       <c r="BT120" s="2"/>
     </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10847,7 +10847,7 @@
       <c r="BS121" s="2"/>
       <c r="BT121" s="2"/>
     </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10921,7 +10921,7 @@
       <c r="BS122" s="2"/>
       <c r="BT122" s="2"/>
     </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10995,7 +10995,7 @@
       <c r="BS123" s="2"/>
       <c r="BT123" s="2"/>
     </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11069,7 +11069,7 @@
       <c r="BS124" s="2"/>
       <c r="BT124" s="2"/>
     </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11143,7 +11143,7 @@
       <c r="BS125" s="2"/>
       <c r="BT125" s="2"/>
     </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11217,7 +11217,7 @@
       <c r="BS126" s="2"/>
       <c r="BT126" s="2"/>
     </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11291,7 +11291,7 @@
       <c r="BS127" s="2"/>
       <c r="BT127" s="2"/>
     </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11365,7 +11365,7 @@
       <c r="BS128" s="2"/>
       <c r="BT128" s="2"/>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11439,7 +11439,7 @@
       <c r="BS129" s="2"/>
       <c r="BT129" s="2"/>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11513,7 +11513,7 @@
       <c r="BS130" s="2"/>
       <c r="BT130" s="2"/>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11587,7 +11587,7 @@
       <c r="BS131" s="2"/>
       <c r="BT131" s="2"/>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -11661,7 +11661,7 @@
       <c r="BS132" s="2"/>
       <c r="BT132" s="2"/>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11735,7 +11735,7 @@
       <c r="BS133" s="2"/>
       <c r="BT133" s="2"/>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11809,7 +11809,7 @@
       <c r="BS134" s="2"/>
       <c r="BT134" s="2"/>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11883,7 +11883,7 @@
       <c r="BS135" s="2"/>
       <c r="BT135" s="2"/>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -11957,7 +11957,7 @@
       <c r="BS136" s="2"/>
       <c r="BT136" s="2"/>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -12031,7 +12031,7 @@
       <c r="BS137" s="2"/>
       <c r="BT137" s="2"/>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -12105,7 +12105,7 @@
       <c r="BS138" s="2"/>
       <c r="BT138" s="2"/>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -12179,7 +12179,7 @@
       <c r="BS139" s="2"/>
       <c r="BT139" s="2"/>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -12253,7 +12253,7 @@
       <c r="BS140" s="2"/>
       <c r="BT140" s="2"/>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -12327,7 +12327,7 @@
       <c r="BS141" s="2"/>
       <c r="BT141" s="2"/>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -12401,7 +12401,7 @@
       <c r="BS142" s="2"/>
       <c r="BT142" s="2"/>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -12475,7 +12475,7 @@
       <c r="BS143" s="2"/>
       <c r="BT143" s="2"/>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -12549,7 +12549,7 @@
       <c r="BS144" s="2"/>
       <c r="BT144" s="2"/>
     </row>
-    <row r="145" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -12623,7 +12623,7 @@
       <c r="BS145" s="2"/>
       <c r="BT145" s="2"/>
     </row>
-    <row r="146" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -12697,7 +12697,7 @@
       <c r="BS146" s="2"/>
       <c r="BT146" s="2"/>
     </row>
-    <row r="147" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -12771,7 +12771,7 @@
       <c r="BS147" s="2"/>
       <c r="BT147" s="2"/>
     </row>
-    <row r="148" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -12845,7 +12845,7 @@
       <c r="BS148" s="2"/>
       <c r="BT148" s="2"/>
     </row>
-    <row r="149" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -12919,7 +12919,7 @@
       <c r="BS149" s="2"/>
       <c r="BT149" s="2"/>
     </row>
-    <row r="150" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -12993,7 +12993,7 @@
       <c r="BS150" s="2"/>
       <c r="BT150" s="2"/>
     </row>
-    <row r="151" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -13067,7 +13067,7 @@
       <c r="BS151" s="2"/>
       <c r="BT151" s="2"/>
     </row>
-    <row r="152" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -13141,7 +13141,7 @@
       <c r="BS152" s="2"/>
       <c r="BT152" s="2"/>
     </row>
-    <row r="153" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -13215,7 +13215,7 @@
       <c r="BS153" s="2"/>
       <c r="BT153" s="2"/>
     </row>
-    <row r="154" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -13289,7 +13289,7 @@
       <c r="BS154" s="2"/>
       <c r="BT154" s="2"/>
     </row>
-    <row r="155" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -13363,7 +13363,7 @@
       <c r="BS155" s="2"/>
       <c r="BT155" s="2"/>
     </row>
-    <row r="156" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -13437,7 +13437,7 @@
       <c r="BS156" s="2"/>
       <c r="BT156" s="2"/>
     </row>
-    <row r="157" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -13511,7 +13511,7 @@
       <c r="BS157" s="2"/>
       <c r="BT157" s="2"/>
     </row>
-    <row r="158" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -13585,7 +13585,7 @@
       <c r="BS158" s="2"/>
       <c r="BT158" s="2"/>
     </row>
-    <row r="159" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -13659,7 +13659,7 @@
       <c r="BS159" s="2"/>
       <c r="BT159" s="2"/>
     </row>
-    <row r="160" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -13733,7 +13733,7 @@
       <c r="BS160" s="2"/>
       <c r="BT160" s="2"/>
     </row>
-    <row r="161" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -13807,7 +13807,7 @@
       <c r="BS161" s="2"/>
       <c r="BT161" s="2"/>
     </row>
-    <row r="162" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -13881,7 +13881,7 @@
       <c r="BS162" s="2"/>
       <c r="BT162" s="2"/>
     </row>
-    <row r="163" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -13955,7 +13955,7 @@
       <c r="BS163" s="2"/>
       <c r="BT163" s="2"/>
     </row>
-    <row r="164" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -14029,7 +14029,7 @@
       <c r="BS164" s="2"/>
       <c r="BT164" s="2"/>
     </row>
-    <row r="165" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -14103,7 +14103,7 @@
       <c r="BS165" s="2"/>
       <c r="BT165" s="2"/>
     </row>
-    <row r="166" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -14177,7 +14177,7 @@
       <c r="BS166" s="2"/>
       <c r="BT166" s="2"/>
     </row>
-    <row r="167" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -14251,7 +14251,7 @@
       <c r="BS167" s="2"/>
       <c r="BT167" s="2"/>
     </row>
-    <row r="168" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -14325,7 +14325,7 @@
       <c r="BS168" s="2"/>
       <c r="BT168" s="2"/>
     </row>
-    <row r="169" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -14399,7 +14399,7 @@
       <c r="BS169" s="2"/>
       <c r="BT169" s="2"/>
     </row>
-    <row r="170" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -14473,7 +14473,7 @@
       <c r="BS170" s="2"/>
       <c r="BT170" s="2"/>
     </row>
-    <row r="171" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -14547,7 +14547,7 @@
       <c r="BS171" s="2"/>
       <c r="BT171" s="2"/>
     </row>
-    <row r="172" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -14621,7 +14621,7 @@
       <c r="BS172" s="2"/>
       <c r="BT172" s="2"/>
     </row>
-    <row r="173" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -14695,7 +14695,7 @@
       <c r="BS173" s="2"/>
       <c r="BT173" s="2"/>
     </row>
-    <row r="174" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -14769,7 +14769,7 @@
       <c r="BS174" s="2"/>
       <c r="BT174" s="2"/>
     </row>
-    <row r="175" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -14843,7 +14843,7 @@
       <c r="BS175" s="2"/>
       <c r="BT175" s="2"/>
     </row>
-    <row r="176" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -14917,7 +14917,7 @@
       <c r="BS176" s="2"/>
       <c r="BT176" s="2"/>
     </row>
-    <row r="177" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -14991,7 +14991,7 @@
       <c r="BS177" s="2"/>
       <c r="BT177" s="2"/>
     </row>
-    <row r="178" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -15065,7 +15065,7 @@
       <c r="BS178" s="2"/>
       <c r="BT178" s="2"/>
     </row>
-    <row r="179" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -15139,7 +15139,7 @@
       <c r="BS179" s="2"/>
       <c r="BT179" s="2"/>
     </row>
-    <row r="180" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -15213,7 +15213,7 @@
       <c r="BS180" s="2"/>
       <c r="BT180" s="2"/>
     </row>
-    <row r="181" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -15287,7 +15287,7 @@
       <c r="BS181" s="2"/>
       <c r="BT181" s="2"/>
     </row>
-    <row r="182" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -15361,7 +15361,7 @@
       <c r="BS182" s="2"/>
       <c r="BT182" s="2"/>
     </row>
-    <row r="183" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -15435,7 +15435,7 @@
       <c r="BS183" s="2"/>
       <c r="BT183" s="2"/>
     </row>
-    <row r="184" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -15509,7 +15509,7 @@
       <c r="BS184" s="2"/>
       <c r="BT184" s="2"/>
     </row>
-    <row r="185" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -15583,7 +15583,7 @@
       <c r="BS185" s="2"/>
       <c r="BT185" s="2"/>
     </row>
-    <row r="186" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -15657,7 +15657,7 @@
       <c r="BS186" s="2"/>
       <c r="BT186" s="2"/>
     </row>
-    <row r="187" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -15731,7 +15731,7 @@
       <c r="BS187" s="2"/>
       <c r="BT187" s="2"/>
     </row>
-    <row r="188" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -15805,7 +15805,7 @@
       <c r="BS188" s="2"/>
       <c r="BT188" s="2"/>
     </row>
-    <row r="189" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -15879,7 +15879,7 @@
       <c r="BS189" s="2"/>
       <c r="BT189" s="2"/>
     </row>
-    <row r="190" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -15953,7 +15953,7 @@
       <c r="BS190" s="2"/>
       <c r="BT190" s="2"/>
     </row>
-    <row r="191" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -16027,7 +16027,7 @@
       <c r="BS191" s="2"/>
       <c r="BT191" s="2"/>
     </row>
-    <row r="192" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -16101,7 +16101,7 @@
       <c r="BS192" s="2"/>
       <c r="BT192" s="2"/>
     </row>
-    <row r="193" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -16175,7 +16175,7 @@
       <c r="BS193" s="2"/>
       <c r="BT193" s="2"/>
     </row>
-    <row r="194" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -16249,7 +16249,7 @@
       <c r="BS194" s="2"/>
       <c r="BT194" s="2"/>
     </row>
-    <row r="195" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -16323,7 +16323,7 @@
       <c r="BS195" s="2"/>
       <c r="BT195" s="2"/>
     </row>
-    <row r="196" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -16397,7 +16397,7 @@
       <c r="BS196" s="2"/>
       <c r="BT196" s="2"/>
     </row>
-    <row r="197" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -16471,7 +16471,7 @@
       <c r="BS197" s="2"/>
       <c r="BT197" s="2"/>
     </row>
-    <row r="198" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -16545,7 +16545,7 @@
       <c r="BS198" s="2"/>
       <c r="BT198" s="2"/>
     </row>
-    <row r="199" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -16619,7 +16619,7 @@
       <c r="BS199" s="2"/>
       <c r="BT199" s="2"/>
     </row>
-    <row r="200" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -16693,7 +16693,7 @@
       <c r="BS200" s="2"/>
       <c r="BT200" s="2"/>
     </row>
-    <row r="201" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -16800,11 +16800,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL3:BP201" xr:uid="{5FCF50FB-5A86-45BB-A6AC-B8BD0190CBC3}">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H201" xr:uid="{1BD1E742-D2AC-42F0-B0AA-AE5A3AB71542}">
-      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201" xr:uid="{C6E1A630-2D1E-44EA-AB18-1E6A4F1F9DB5}">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H201" xr:uid="{B5060706-1D08-48C9-824F-9FBC97124B58}">
+      <formula1>"18A,A品,B品,C品,其它"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LeslieNicole</author>
+    <author>lei</author>
     <author>HUAWEI</author>
   </authors>
   <commentList>
@@ -59,13 +60,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="Q2" authorId="1">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
-            <rFont val="Tahoma"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>单选下拉框</t>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0">
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0">
+    <comment ref="X2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单选下拉框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0">
+    <comment ref="AC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1">
+    <comment ref="AQ2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -249,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1">
+    <comment ref="AR2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -262,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0">
+    <comment ref="AT2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1">
+    <comment ref="AU2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -288,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1">
+    <comment ref="AV2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -310,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1">
+    <comment ref="AW2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -323,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1">
+    <comment ref="AX2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -336,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1">
+    <comment ref="AY2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -358,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="1">
+    <comment ref="AZ2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -380,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="1">
+    <comment ref="BA2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -402,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="1">
+    <comment ref="BD2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -424,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD2" authorId="1">
+    <comment ref="BE2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -437,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="1">
+    <comment ref="BF2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -450,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="1">
+    <comment ref="BG2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -463,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="1">
+    <comment ref="BH2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -485,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="1">
+    <comment ref="BI2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -507,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ2" authorId="1">
+    <comment ref="BK2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -520,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN2" authorId="0">
+    <comment ref="BO2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="1">
+    <comment ref="BP2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -555,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="1">
+    <comment ref="BQ2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -577,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ2" authorId="1">
+    <comment ref="BR2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -599,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR2" authorId="1">
+    <comment ref="BS2" authorId="2">
       <text>
         <r>
           <rPr>
@@ -626,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>基本信息</t>
   </si>
@@ -698,6 +711,9 @@
   </si>
   <si>
     <t>保质天数</t>
+  </si>
+  <si>
+    <t>供货渠道类别</t>
   </si>
   <si>
     <t>适用起始月龄</t>
@@ -782,9 +798,6 @@
   </si>
   <si>
     <t>供应商SKU编号</t>
-  </si>
-  <si>
-    <t>供货渠道类别</t>
   </si>
   <si>
     <t>库存规格</t>
@@ -892,11 +905,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,13 +933,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -943,7 +949,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,6 +993,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -965,8 +1015,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,36 +1047,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,7 +1062,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1037,22 +1074,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1071,21 +1092,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -1097,18 +1103,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1183,19 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,13 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,25 +1219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,73 +1243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1267,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,13 +1327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,6 +1448,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1494,30 +1488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,148 +1514,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1697,7 +1667,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,16 +1676,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,16 +1694,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1715,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,13 +1727,13 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,10 +2058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CA201"/>
+  <dimension ref="A1:CB201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -2107,43 +2077,44 @@
     <col min="13" max="13" width="9.75" style="3" customWidth="1"/>
     <col min="14" max="15" width="5.75" style="3" customWidth="1"/>
     <col min="16" max="16" width="9.75" style="3" customWidth="1"/>
-    <col min="17" max="18" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.75" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="21" max="22" width="9.75" style="3" customWidth="1"/>
-    <col min="23" max="26" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="27" max="30" width="9.75" style="3" customWidth="1"/>
-    <col min="31" max="33" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="34" max="35" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="36" max="36" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="37" max="38" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="39" max="39" width="5.75" style="3" customWidth="1"/>
-    <col min="40" max="41" width="7.75" style="3" customWidth="1"/>
-    <col min="42" max="42" width="9.75" style="3" customWidth="1"/>
-    <col min="43" max="43" width="5.75" style="3" customWidth="1"/>
-    <col min="44" max="44" width="15" style="3" customWidth="1"/>
-    <col min="45" max="45" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="46" max="47" width="9.75" style="3" customWidth="1"/>
-    <col min="48" max="50" width="13" style="3" customWidth="1"/>
-    <col min="51" max="52" width="14" style="3" customWidth="1"/>
-    <col min="53" max="54" width="9.75" style="3" customWidth="1"/>
-    <col min="55" max="57" width="13" style="3" customWidth="1"/>
-    <col min="58" max="59" width="14" style="3" customWidth="1"/>
-    <col min="60" max="60" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="61" max="61" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="62" max="63" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="64" max="64" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="65" max="69" width="9.75" style="3" customWidth="1"/>
-    <col min="70" max="70" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="71" max="75" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="76" max="76" width="9.75" style="3" customWidth="1"/>
-    <col min="77" max="77" width="18.25" style="3" customWidth="1"/>
-    <col min="78" max="78" width="9.75" style="3" customWidth="1"/>
-    <col min="79" max="79" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="80" max="16384" width="8.75" style="3"/>
+    <col min="17" max="17" width="18.6666666666667" style="3" customWidth="1"/>
+    <col min="18" max="19" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.75" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="22" max="23" width="9.75" style="3" customWidth="1"/>
+    <col min="24" max="27" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="28" max="31" width="9.75" style="3" customWidth="1"/>
+    <col min="32" max="34" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="35" max="36" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="37" max="37" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="38" max="39" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="40" max="40" width="5.75" style="3" customWidth="1"/>
+    <col min="41" max="42" width="7.75" style="3" customWidth="1"/>
+    <col min="43" max="43" width="9.75" style="3" customWidth="1"/>
+    <col min="44" max="44" width="5.75" style="3" customWidth="1"/>
+    <col min="45" max="45" width="15" style="3" customWidth="1"/>
+    <col min="46" max="46" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="47" max="48" width="9.75" style="3" customWidth="1"/>
+    <col min="49" max="51" width="13" style="3" customWidth="1"/>
+    <col min="52" max="53" width="14" style="3" customWidth="1"/>
+    <col min="54" max="55" width="9.75" style="3" customWidth="1"/>
+    <col min="56" max="58" width="13" style="3" customWidth="1"/>
+    <col min="59" max="60" width="14" style="3" customWidth="1"/>
+    <col min="61" max="61" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="62" max="62" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="63" max="64" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="65" max="65" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="66" max="70" width="9.75" style="3" customWidth="1"/>
+    <col min="71" max="71" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="72" max="76" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="77" max="77" width="9.75" style="3" customWidth="1"/>
+    <col min="78" max="78" width="18.25" style="3" customWidth="1"/>
+    <col min="79" max="79" width="9.75" style="3" customWidth="1"/>
+    <col min="80" max="80" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="81" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:79">
+    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:80">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2175,30 +2146,30 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="16" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="16"/>
       <c r="AQ1" s="16"/>
       <c r="AR1" s="16"/>
       <c r="AS1" s="16"/>
-      <c r="AT1" s="17" t="s">
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="18"/>
       <c r="AV1" s="18"/>
       <c r="AW1" s="18"/>
       <c r="AX1" s="18"/>
@@ -2217,30 +2188,31 @@
       <c r="BK1" s="18"/>
       <c r="BL1" s="18"/>
       <c r="BM1" s="18"/>
-      <c r="BN1" s="21" t="s">
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="BO1" s="21"/>
       <c r="BP1" s="21"/>
       <c r="BQ1" s="21"/>
       <c r="BR1" s="21"/>
-      <c r="BS1" s="22" t="s">
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BT1" s="22"/>
       <c r="BU1" s="22"/>
       <c r="BV1" s="22"/>
       <c r="BW1" s="22"/>
-      <c r="BX1" s="26" t="s">
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="BY1" s="26"/>
       <c r="BZ1" s="26"/>
-      <c r="CA1" s="21" t="s">
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:79">
+    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:80">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -2301,19 +2273,19 @@
       <c r="T2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="6" t="s">
@@ -2322,49 +2294,49 @@
       <c r="AA2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AQ2" s="8" t="s">
@@ -2373,113 +2345,116 @@
       <c r="AR2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AT2" s="19" t="s">
+      <c r="AT2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="15" t="s">
+      <c r="AV2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AW2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AX2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AY2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="15" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="BA2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BB2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BB2" s="15" t="s">
+      <c r="BC2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BD2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BE2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BF2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BG2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BH2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BI2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BK2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BL2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BM2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="BM2" s="23" t="s">
+      <c r="BN2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BO2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BP2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BR2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BS2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BT2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BU2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BV2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BW2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BX2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="BX2" s="15" t="s">
+      <c r="BY2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="20" t="s">
+      <c r="BZ2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="CA2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="CA2" s="24" t="s">
+      <c r="CB2" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:79">
+    <row r="3" s="3" customFormat="1" spans="1:80">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2559,8 +2534,9 @@
       <c r="BY3" s="9"/>
       <c r="BZ3" s="9"/>
       <c r="CA3" s="9"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:79">
+      <c r="CB3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:80">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2640,8 +2616,9 @@
       <c r="BY4" s="9"/>
       <c r="BZ4" s="9"/>
       <c r="CA4" s="9"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:79">
+      <c r="CB4" s="9"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:80">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2721,8 +2698,9 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
       <c r="CA5" s="9"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:79">
+      <c r="CB5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:80">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2802,8 +2780,9 @@
       <c r="BY6" s="9"/>
       <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:79">
+      <c r="CB6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:80">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2883,8 +2862,9 @@
       <c r="BY7" s="9"/>
       <c r="BZ7" s="9"/>
       <c r="CA7" s="9"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:79">
+      <c r="CB7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:80">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2964,8 +2944,9 @@
       <c r="BY8" s="9"/>
       <c r="BZ8" s="9"/>
       <c r="CA8" s="9"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:79">
+      <c r="CB8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:80">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3045,8 +3026,9 @@
       <c r="BY9" s="9"/>
       <c r="BZ9" s="9"/>
       <c r="CA9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:79">
+      <c r="CB9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:80">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3126,8 +3108,9 @@
       <c r="BY10" s="9"/>
       <c r="BZ10" s="9"/>
       <c r="CA10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:79">
+      <c r="CB10" s="9"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:80">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3207,8 +3190,9 @@
       <c r="BY11" s="9"/>
       <c r="BZ11" s="9"/>
       <c r="CA11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:79">
+      <c r="CB11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:80">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3288,8 +3272,9 @@
       <c r="BY12" s="9"/>
       <c r="BZ12" s="9"/>
       <c r="CA12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:79">
+      <c r="CB12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:80">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3369,8 +3354,9 @@
       <c r="BY13" s="9"/>
       <c r="BZ13" s="9"/>
       <c r="CA13" s="9"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:79">
+      <c r="CB13" s="9"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:80">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3450,8 +3436,9 @@
       <c r="BY14" s="9"/>
       <c r="BZ14" s="9"/>
       <c r="CA14" s="9"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:79">
+      <c r="CB14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:80">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3531,8 +3518,9 @@
       <c r="BY15" s="9"/>
       <c r="BZ15" s="9"/>
       <c r="CA15" s="9"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:79">
+      <c r="CB15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:80">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3612,8 +3600,9 @@
       <c r="BY16" s="9"/>
       <c r="BZ16" s="9"/>
       <c r="CA16" s="9"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:79">
+      <c r="CB16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:80">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3693,8 +3682,9 @@
       <c r="BY17" s="9"/>
       <c r="BZ17" s="9"/>
       <c r="CA17" s="9"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:79">
+      <c r="CB17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:80">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3774,8 +3764,9 @@
       <c r="BY18" s="9"/>
       <c r="BZ18" s="9"/>
       <c r="CA18" s="9"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:79">
+      <c r="CB18" s="9"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:80">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3855,8 +3846,9 @@
       <c r="BY19" s="9"/>
       <c r="BZ19" s="9"/>
       <c r="CA19" s="9"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:79">
+      <c r="CB19" s="9"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:80">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3936,8 +3928,9 @@
       <c r="BY20" s="9"/>
       <c r="BZ20" s="9"/>
       <c r="CA20" s="9"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:79">
+      <c r="CB20" s="9"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:80">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4017,8 +4010,9 @@
       <c r="BY21" s="9"/>
       <c r="BZ21" s="9"/>
       <c r="CA21" s="9"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:79">
+      <c r="CB21" s="9"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:80">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4098,8 +4092,9 @@
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:79">
+      <c r="CB22" s="9"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:80">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4179,8 +4174,9 @@
       <c r="BY23" s="9"/>
       <c r="BZ23" s="9"/>
       <c r="CA23" s="9"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:79">
+      <c r="CB23" s="9"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:80">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4260,8 +4256,9 @@
       <c r="BY24" s="9"/>
       <c r="BZ24" s="9"/>
       <c r="CA24" s="9"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:79">
+      <c r="CB24" s="9"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:80">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4341,8 +4338,9 @@
       <c r="BY25" s="9"/>
       <c r="BZ25" s="9"/>
       <c r="CA25" s="9"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:79">
+      <c r="CB25" s="9"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:80">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4422,8 +4420,9 @@
       <c r="BY26" s="9"/>
       <c r="BZ26" s="9"/>
       <c r="CA26" s="9"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:79">
+      <c r="CB26" s="9"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:80">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4503,8 +4502,9 @@
       <c r="BY27" s="9"/>
       <c r="BZ27" s="9"/>
       <c r="CA27" s="9"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:79">
+      <c r="CB27" s="9"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:80">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4584,8 +4584,9 @@
       <c r="BY28" s="9"/>
       <c r="BZ28" s="9"/>
       <c r="CA28" s="9"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:79">
+      <c r="CB28" s="9"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:80">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4665,8 +4666,9 @@
       <c r="BY29" s="9"/>
       <c r="BZ29" s="9"/>
       <c r="CA29" s="9"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:79">
+      <c r="CB29" s="9"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:80">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4746,8 +4748,9 @@
       <c r="BY30" s="9"/>
       <c r="BZ30" s="9"/>
       <c r="CA30" s="9"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:79">
+      <c r="CB30" s="9"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:80">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -4827,8 +4830,9 @@
       <c r="BY31" s="9"/>
       <c r="BZ31" s="9"/>
       <c r="CA31" s="9"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:79">
+      <c r="CB31" s="9"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:80">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4908,8 +4912,9 @@
       <c r="BY32" s="9"/>
       <c r="BZ32" s="9"/>
       <c r="CA32" s="9"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:79">
+      <c r="CB32" s="9"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:80">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -4989,8 +4994,9 @@
       <c r="BY33" s="9"/>
       <c r="BZ33" s="9"/>
       <c r="CA33" s="9"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:79">
+      <c r="CB33" s="9"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:80">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5070,8 +5076,9 @@
       <c r="BY34" s="9"/>
       <c r="BZ34" s="9"/>
       <c r="CA34" s="9"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:79">
+      <c r="CB34" s="9"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:80">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -5151,8 +5158,9 @@
       <c r="BY35" s="9"/>
       <c r="BZ35" s="9"/>
       <c r="CA35" s="9"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:79">
+      <c r="CB35" s="9"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:80">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5232,8 +5240,9 @@
       <c r="BY36" s="9"/>
       <c r="BZ36" s="9"/>
       <c r="CA36" s="9"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:79">
+      <c r="CB36" s="9"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:80">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -5313,8 +5322,9 @@
       <c r="BY37" s="9"/>
       <c r="BZ37" s="9"/>
       <c r="CA37" s="9"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:79">
+      <c r="CB37" s="9"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:80">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -5394,8 +5404,9 @@
       <c r="BY38" s="9"/>
       <c r="BZ38" s="9"/>
       <c r="CA38" s="9"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:79">
+      <c r="CB38" s="9"/>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:80">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -5475,8 +5486,9 @@
       <c r="BY39" s="9"/>
       <c r="BZ39" s="9"/>
       <c r="CA39" s="9"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:79">
+      <c r="CB39" s="9"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:80">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -5556,8 +5568,9 @@
       <c r="BY40" s="9"/>
       <c r="BZ40" s="9"/>
       <c r="CA40" s="9"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:79">
+      <c r="CB40" s="9"/>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:80">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -5637,8 +5650,9 @@
       <c r="BY41" s="9"/>
       <c r="BZ41" s="9"/>
       <c r="CA41" s="9"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:79">
+      <c r="CB41" s="9"/>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:80">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -5718,8 +5732,9 @@
       <c r="BY42" s="9"/>
       <c r="BZ42" s="9"/>
       <c r="CA42" s="9"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:79">
+      <c r="CB42" s="9"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:80">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -5799,8 +5814,9 @@
       <c r="BY43" s="9"/>
       <c r="BZ43" s="9"/>
       <c r="CA43" s="9"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:79">
+      <c r="CB43" s="9"/>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:80">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5880,8 +5896,9 @@
       <c r="BY44" s="9"/>
       <c r="BZ44" s="9"/>
       <c r="CA44" s="9"/>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:79">
+      <c r="CB44" s="9"/>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:80">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -5961,8 +5978,9 @@
       <c r="BY45" s="9"/>
       <c r="BZ45" s="9"/>
       <c r="CA45" s="9"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:79">
+      <c r="CB45" s="9"/>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:80">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -6042,8 +6060,9 @@
       <c r="BY46" s="9"/>
       <c r="BZ46" s="9"/>
       <c r="CA46" s="9"/>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:79">
+      <c r="CB46" s="9"/>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:80">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -6123,8 +6142,9 @@
       <c r="BY47" s="9"/>
       <c r="BZ47" s="9"/>
       <c r="CA47" s="9"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:79">
+      <c r="CB47" s="9"/>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:80">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -6204,8 +6224,9 @@
       <c r="BY48" s="9"/>
       <c r="BZ48" s="9"/>
       <c r="CA48" s="9"/>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:79">
+      <c r="CB48" s="9"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:80">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -6285,8 +6306,9 @@
       <c r="BY49" s="9"/>
       <c r="BZ49" s="9"/>
       <c r="CA49" s="9"/>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:79">
+      <c r="CB49" s="9"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:80">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -6366,8 +6388,9 @@
       <c r="BY50" s="9"/>
       <c r="BZ50" s="9"/>
       <c r="CA50" s="9"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:79">
+      <c r="CB50" s="9"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:80">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -6447,8 +6470,9 @@
       <c r="BY51" s="9"/>
       <c r="BZ51" s="9"/>
       <c r="CA51" s="9"/>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:79">
+      <c r="CB51" s="9"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:80">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -6528,8 +6552,9 @@
       <c r="BY52" s="9"/>
       <c r="BZ52" s="9"/>
       <c r="CA52" s="9"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:79">
+      <c r="CB52" s="9"/>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:80">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -6609,8 +6634,9 @@
       <c r="BY53" s="9"/>
       <c r="BZ53" s="9"/>
       <c r="CA53" s="9"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:79">
+      <c r="CB53" s="9"/>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:80">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -6690,8 +6716,9 @@
       <c r="BY54" s="9"/>
       <c r="BZ54" s="9"/>
       <c r="CA54" s="9"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:79">
+      <c r="CB54" s="9"/>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:80">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -6771,8 +6798,9 @@
       <c r="BY55" s="9"/>
       <c r="BZ55" s="9"/>
       <c r="CA55" s="9"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:79">
+      <c r="CB55" s="9"/>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:80">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -6852,8 +6880,9 @@
       <c r="BY56" s="9"/>
       <c r="BZ56" s="9"/>
       <c r="CA56" s="9"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:79">
+      <c r="CB56" s="9"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:80">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -6933,8 +6962,9 @@
       <c r="BY57" s="9"/>
       <c r="BZ57" s="9"/>
       <c r="CA57" s="9"/>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:79">
+      <c r="CB57" s="9"/>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:80">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -7014,8 +7044,9 @@
       <c r="BY58" s="9"/>
       <c r="BZ58" s="9"/>
       <c r="CA58" s="9"/>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:79">
+      <c r="CB58" s="9"/>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:80">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -7095,8 +7126,9 @@
       <c r="BY59" s="9"/>
       <c r="BZ59" s="9"/>
       <c r="CA59" s="9"/>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:79">
+      <c r="CB59" s="9"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:80">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -7176,8 +7208,9 @@
       <c r="BY60" s="9"/>
       <c r="BZ60" s="9"/>
       <c r="CA60" s="9"/>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:79">
+      <c r="CB60" s="9"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:80">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -7257,8 +7290,9 @@
       <c r="BY61" s="9"/>
       <c r="BZ61" s="9"/>
       <c r="CA61" s="9"/>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:79">
+      <c r="CB61" s="9"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:80">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -7338,8 +7372,9 @@
       <c r="BY62" s="9"/>
       <c r="BZ62" s="9"/>
       <c r="CA62" s="9"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:79">
+      <c r="CB62" s="9"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:80">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -7419,8 +7454,9 @@
       <c r="BY63" s="9"/>
       <c r="BZ63" s="9"/>
       <c r="CA63" s="9"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:79">
+      <c r="CB63" s="9"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:80">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -7500,8 +7536,9 @@
       <c r="BY64" s="9"/>
       <c r="BZ64" s="9"/>
       <c r="CA64" s="9"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:79">
+      <c r="CB64" s="9"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:80">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -7581,8 +7618,9 @@
       <c r="BY65" s="9"/>
       <c r="BZ65" s="9"/>
       <c r="CA65" s="9"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:79">
+      <c r="CB65" s="9"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:80">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -7662,8 +7700,9 @@
       <c r="BY66" s="9"/>
       <c r="BZ66" s="9"/>
       <c r="CA66" s="9"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:79">
+      <c r="CB66" s="9"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:80">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -7743,8 +7782,9 @@
       <c r="BY67" s="9"/>
       <c r="BZ67" s="9"/>
       <c r="CA67" s="9"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:79">
+      <c r="CB67" s="9"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:80">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -7824,8 +7864,9 @@
       <c r="BY68" s="9"/>
       <c r="BZ68" s="9"/>
       <c r="CA68" s="9"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:79">
+      <c r="CB68" s="9"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:80">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -7905,8 +7946,9 @@
       <c r="BY69" s="9"/>
       <c r="BZ69" s="9"/>
       <c r="CA69" s="9"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:79">
+      <c r="CB69" s="9"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:80">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -7986,8 +8028,9 @@
       <c r="BY70" s="9"/>
       <c r="BZ70" s="9"/>
       <c r="CA70" s="9"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:79">
+      <c r="CB70" s="9"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:80">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -8067,8 +8110,9 @@
       <c r="BY71" s="9"/>
       <c r="BZ71" s="9"/>
       <c r="CA71" s="9"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:79">
+      <c r="CB71" s="9"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:80">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -8148,8 +8192,9 @@
       <c r="BY72" s="9"/>
       <c r="BZ72" s="9"/>
       <c r="CA72" s="9"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:79">
+      <c r="CB72" s="9"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:80">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -8229,8 +8274,9 @@
       <c r="BY73" s="9"/>
       <c r="BZ73" s="9"/>
       <c r="CA73" s="9"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:79">
+      <c r="CB73" s="9"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:80">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -8310,8 +8356,9 @@
       <c r="BY74" s="9"/>
       <c r="BZ74" s="9"/>
       <c r="CA74" s="9"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:79">
+      <c r="CB74" s="9"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:80">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -8391,8 +8438,9 @@
       <c r="BY75" s="9"/>
       <c r="BZ75" s="9"/>
       <c r="CA75" s="9"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:79">
+      <c r="CB75" s="9"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:80">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -8472,8 +8520,9 @@
       <c r="BY76" s="9"/>
       <c r="BZ76" s="9"/>
       <c r="CA76" s="9"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:79">
+      <c r="CB76" s="9"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:80">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -8553,8 +8602,9 @@
       <c r="BY77" s="9"/>
       <c r="BZ77" s="9"/>
       <c r="CA77" s="9"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="1:79">
+      <c r="CB77" s="9"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:80">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -8634,8 +8684,9 @@
       <c r="BY78" s="9"/>
       <c r="BZ78" s="9"/>
       <c r="CA78" s="9"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="1:79">
+      <c r="CB78" s="9"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:80">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -8715,8 +8766,9 @@
       <c r="BY79" s="9"/>
       <c r="BZ79" s="9"/>
       <c r="CA79" s="9"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:79">
+      <c r="CB79" s="9"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:80">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -8796,8 +8848,9 @@
       <c r="BY80" s="9"/>
       <c r="BZ80" s="9"/>
       <c r="CA80" s="9"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:79">
+      <c r="CB80" s="9"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:80">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -8877,8 +8930,9 @@
       <c r="BY81" s="9"/>
       <c r="BZ81" s="9"/>
       <c r="CA81" s="9"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:79">
+      <c r="CB81" s="9"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:80">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -8958,8 +9012,9 @@
       <c r="BY82" s="9"/>
       <c r="BZ82" s="9"/>
       <c r="CA82" s="9"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:79">
+      <c r="CB82" s="9"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:80">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -9039,8 +9094,9 @@
       <c r="BY83" s="9"/>
       <c r="BZ83" s="9"/>
       <c r="CA83" s="9"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:79">
+      <c r="CB83" s="9"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:80">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -9120,8 +9176,9 @@
       <c r="BY84" s="9"/>
       <c r="BZ84" s="9"/>
       <c r="CA84" s="9"/>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:79">
+      <c r="CB84" s="9"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:80">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -9201,8 +9258,9 @@
       <c r="BY85" s="9"/>
       <c r="BZ85" s="9"/>
       <c r="CA85" s="9"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="1:79">
+      <c r="CB85" s="9"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:80">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -9282,8 +9340,9 @@
       <c r="BY86" s="9"/>
       <c r="BZ86" s="9"/>
       <c r="CA86" s="9"/>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:79">
+      <c r="CB86" s="9"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:80">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -9363,8 +9422,9 @@
       <c r="BY87" s="9"/>
       <c r="BZ87" s="9"/>
       <c r="CA87" s="9"/>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="1:79">
+      <c r="CB87" s="9"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:80">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -9444,8 +9504,9 @@
       <c r="BY88" s="9"/>
       <c r="BZ88" s="9"/>
       <c r="CA88" s="9"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:79">
+      <c r="CB88" s="9"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:80">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -9525,8 +9586,9 @@
       <c r="BY89" s="9"/>
       <c r="BZ89" s="9"/>
       <c r="CA89" s="9"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="1:79">
+      <c r="CB89" s="9"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:80">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -9606,8 +9668,9 @@
       <c r="BY90" s="9"/>
       <c r="BZ90" s="9"/>
       <c r="CA90" s="9"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:79">
+      <c r="CB90" s="9"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:80">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -9687,8 +9750,9 @@
       <c r="BY91" s="9"/>
       <c r="BZ91" s="9"/>
       <c r="CA91" s="9"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:79">
+      <c r="CB91" s="9"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:80">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -9768,8 +9832,9 @@
       <c r="BY92" s="9"/>
       <c r="BZ92" s="9"/>
       <c r="CA92" s="9"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:79">
+      <c r="CB92" s="9"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:80">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -9849,8 +9914,9 @@
       <c r="BY93" s="9"/>
       <c r="BZ93" s="9"/>
       <c r="CA93" s="9"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="1:79">
+      <c r="CB93" s="9"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:80">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -9930,8 +9996,9 @@
       <c r="BY94" s="9"/>
       <c r="BZ94" s="9"/>
       <c r="CA94" s="9"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="1:79">
+      <c r="CB94" s="9"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:80">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -10011,8 +10078,9 @@
       <c r="BY95" s="9"/>
       <c r="BZ95" s="9"/>
       <c r="CA95" s="9"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:79">
+      <c r="CB95" s="9"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:80">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -10092,8 +10160,9 @@
       <c r="BY96" s="9"/>
       <c r="BZ96" s="9"/>
       <c r="CA96" s="9"/>
-    </row>
-    <row r="97" s="3" customFormat="1" spans="1:79">
+      <c r="CB96" s="9"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:80">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -10173,8 +10242,9 @@
       <c r="BY97" s="9"/>
       <c r="BZ97" s="9"/>
       <c r="CA97" s="9"/>
-    </row>
-    <row r="98" s="3" customFormat="1" spans="1:79">
+      <c r="CB97" s="9"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:80">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -10254,8 +10324,9 @@
       <c r="BY98" s="9"/>
       <c r="BZ98" s="9"/>
       <c r="CA98" s="9"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="1:79">
+      <c r="CB98" s="9"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:80">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -10335,8 +10406,9 @@
       <c r="BY99" s="9"/>
       <c r="BZ99" s="9"/>
       <c r="CA99" s="9"/>
-    </row>
-    <row r="100" s="3" customFormat="1" spans="1:79">
+      <c r="CB99" s="9"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:80">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -10416,8 +10488,9 @@
       <c r="BY100" s="9"/>
       <c r="BZ100" s="9"/>
       <c r="CA100" s="9"/>
-    </row>
-    <row r="101" s="3" customFormat="1" spans="1:79">
+      <c r="CB100" s="9"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:80">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -10497,8 +10570,9 @@
       <c r="BY101" s="9"/>
       <c r="BZ101" s="9"/>
       <c r="CA101" s="9"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="1:79">
+      <c r="CB101" s="9"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:80">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -10578,8 +10652,9 @@
       <c r="BY102" s="9"/>
       <c r="BZ102" s="9"/>
       <c r="CA102" s="9"/>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="1:79">
+      <c r="CB102" s="9"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:80">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -10659,8 +10734,9 @@
       <c r="BY103" s="9"/>
       <c r="BZ103" s="9"/>
       <c r="CA103" s="9"/>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="1:79">
+      <c r="CB103" s="9"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:80">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -10740,8 +10816,9 @@
       <c r="BY104" s="9"/>
       <c r="BZ104" s="9"/>
       <c r="CA104" s="9"/>
-    </row>
-    <row r="105" s="3" customFormat="1" spans="1:79">
+      <c r="CB104" s="9"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:80">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -10821,8 +10898,9 @@
       <c r="BY105" s="9"/>
       <c r="BZ105" s="9"/>
       <c r="CA105" s="9"/>
-    </row>
-    <row r="106" s="3" customFormat="1" spans="1:79">
+      <c r="CB105" s="9"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:80">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -10902,8 +10980,9 @@
       <c r="BY106" s="9"/>
       <c r="BZ106" s="9"/>
       <c r="CA106" s="9"/>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="1:79">
+      <c r="CB106" s="9"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:80">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -10983,8 +11062,9 @@
       <c r="BY107" s="9"/>
       <c r="BZ107" s="9"/>
       <c r="CA107" s="9"/>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="1:79">
+      <c r="CB107" s="9"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:80">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -11064,8 +11144,9 @@
       <c r="BY108" s="9"/>
       <c r="BZ108" s="9"/>
       <c r="CA108" s="9"/>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:79">
+      <c r="CB108" s="9"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:80">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -11145,8 +11226,9 @@
       <c r="BY109" s="9"/>
       <c r="BZ109" s="9"/>
       <c r="CA109" s="9"/>
-    </row>
-    <row r="110" s="3" customFormat="1" spans="1:79">
+      <c r="CB109" s="9"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:80">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -11226,8 +11308,9 @@
       <c r="BY110" s="9"/>
       <c r="BZ110" s="9"/>
       <c r="CA110" s="9"/>
-    </row>
-    <row r="111" s="3" customFormat="1" spans="1:79">
+      <c r="CB110" s="9"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:80">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -11307,8 +11390,9 @@
       <c r="BY111" s="9"/>
       <c r="BZ111" s="9"/>
       <c r="CA111" s="9"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="1:79">
+      <c r="CB111" s="9"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:80">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -11388,8 +11472,9 @@
       <c r="BY112" s="9"/>
       <c r="BZ112" s="9"/>
       <c r="CA112" s="9"/>
-    </row>
-    <row r="113" s="3" customFormat="1" spans="1:79">
+      <c r="CB112" s="9"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:80">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -11469,8 +11554,9 @@
       <c r="BY113" s="9"/>
       <c r="BZ113" s="9"/>
       <c r="CA113" s="9"/>
-    </row>
-    <row r="114" s="3" customFormat="1" spans="1:79">
+      <c r="CB113" s="9"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:80">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -11550,8 +11636,9 @@
       <c r="BY114" s="9"/>
       <c r="BZ114" s="9"/>
       <c r="CA114" s="9"/>
-    </row>
-    <row r="115" s="3" customFormat="1" spans="1:79">
+      <c r="CB114" s="9"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:80">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -11631,8 +11718,9 @@
       <c r="BY115" s="9"/>
       <c r="BZ115" s="9"/>
       <c r="CA115" s="9"/>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="1:79">
+      <c r="CB115" s="9"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:80">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -11712,8 +11800,9 @@
       <c r="BY116" s="9"/>
       <c r="BZ116" s="9"/>
       <c r="CA116" s="9"/>
-    </row>
-    <row r="117" s="3" customFormat="1" spans="1:79">
+      <c r="CB116" s="9"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:80">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -11793,8 +11882,9 @@
       <c r="BY117" s="9"/>
       <c r="BZ117" s="9"/>
       <c r="CA117" s="9"/>
-    </row>
-    <row r="118" s="3" customFormat="1" spans="1:79">
+      <c r="CB117" s="9"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:80">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -11874,8 +11964,9 @@
       <c r="BY118" s="9"/>
       <c r="BZ118" s="9"/>
       <c r="CA118" s="9"/>
-    </row>
-    <row r="119" s="3" customFormat="1" spans="1:79">
+      <c r="CB118" s="9"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:80">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -11955,8 +12046,9 @@
       <c r="BY119" s="9"/>
       <c r="BZ119" s="9"/>
       <c r="CA119" s="9"/>
-    </row>
-    <row r="120" s="3" customFormat="1" spans="1:79">
+      <c r="CB119" s="9"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:80">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -12036,8 +12128,9 @@
       <c r="BY120" s="9"/>
       <c r="BZ120" s="9"/>
       <c r="CA120" s="9"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="1:79">
+      <c r="CB120" s="9"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:80">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -12117,8 +12210,9 @@
       <c r="BY121" s="9"/>
       <c r="BZ121" s="9"/>
       <c r="CA121" s="9"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="1:79">
+      <c r="CB121" s="9"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:80">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -12198,8 +12292,9 @@
       <c r="BY122" s="9"/>
       <c r="BZ122" s="9"/>
       <c r="CA122" s="9"/>
-    </row>
-    <row r="123" s="3" customFormat="1" spans="1:79">
+      <c r="CB122" s="9"/>
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:80">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -12279,8 +12374,9 @@
       <c r="BY123" s="9"/>
       <c r="BZ123" s="9"/>
       <c r="CA123" s="9"/>
-    </row>
-    <row r="124" s="3" customFormat="1" spans="1:79">
+      <c r="CB123" s="9"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:80">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -12360,8 +12456,9 @@
       <c r="BY124" s="9"/>
       <c r="BZ124" s="9"/>
       <c r="CA124" s="9"/>
-    </row>
-    <row r="125" s="3" customFormat="1" spans="1:79">
+      <c r="CB124" s="9"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:80">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -12441,8 +12538,9 @@
       <c r="BY125" s="9"/>
       <c r="BZ125" s="9"/>
       <c r="CA125" s="9"/>
-    </row>
-    <row r="126" s="3" customFormat="1" spans="1:79">
+      <c r="CB125" s="9"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:80">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -12522,8 +12620,9 @@
       <c r="BY126" s="9"/>
       <c r="BZ126" s="9"/>
       <c r="CA126" s="9"/>
-    </row>
-    <row r="127" s="3" customFormat="1" spans="1:79">
+      <c r="CB126" s="9"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:80">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -12603,8 +12702,9 @@
       <c r="BY127" s="9"/>
       <c r="BZ127" s="9"/>
       <c r="CA127" s="9"/>
-    </row>
-    <row r="128" s="3" customFormat="1" spans="1:79">
+      <c r="CB127" s="9"/>
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:80">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -12684,8 +12784,9 @@
       <c r="BY128" s="9"/>
       <c r="BZ128" s="9"/>
       <c r="CA128" s="9"/>
-    </row>
-    <row r="129" s="3" customFormat="1" spans="1:79">
+      <c r="CB128" s="9"/>
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:80">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -12765,8 +12866,9 @@
       <c r="BY129" s="9"/>
       <c r="BZ129" s="9"/>
       <c r="CA129" s="9"/>
-    </row>
-    <row r="130" s="3" customFormat="1" spans="1:79">
+      <c r="CB129" s="9"/>
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:80">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -12846,8 +12948,9 @@
       <c r="BY130" s="9"/>
       <c r="BZ130" s="9"/>
       <c r="CA130" s="9"/>
-    </row>
-    <row r="131" s="3" customFormat="1" spans="1:79">
+      <c r="CB130" s="9"/>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:80">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -12927,8 +13030,9 @@
       <c r="BY131" s="9"/>
       <c r="BZ131" s="9"/>
       <c r="CA131" s="9"/>
-    </row>
-    <row r="132" s="3" customFormat="1" spans="1:79">
+      <c r="CB131" s="9"/>
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:80">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -13008,8 +13112,9 @@
       <c r="BY132" s="9"/>
       <c r="BZ132" s="9"/>
       <c r="CA132" s="9"/>
-    </row>
-    <row r="133" s="3" customFormat="1" spans="1:79">
+      <c r="CB132" s="9"/>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:80">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -13089,8 +13194,9 @@
       <c r="BY133" s="9"/>
       <c r="BZ133" s="9"/>
       <c r="CA133" s="9"/>
-    </row>
-    <row r="134" s="3" customFormat="1" spans="1:79">
+      <c r="CB133" s="9"/>
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:80">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -13170,8 +13276,9 @@
       <c r="BY134" s="9"/>
       <c r="BZ134" s="9"/>
       <c r="CA134" s="9"/>
-    </row>
-    <row r="135" s="3" customFormat="1" spans="1:79">
+      <c r="CB134" s="9"/>
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:80">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -13251,8 +13358,9 @@
       <c r="BY135" s="9"/>
       <c r="BZ135" s="9"/>
       <c r="CA135" s="9"/>
-    </row>
-    <row r="136" s="3" customFormat="1" spans="1:79">
+      <c r="CB135" s="9"/>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:80">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -13332,8 +13440,9 @@
       <c r="BY136" s="9"/>
       <c r="BZ136" s="9"/>
       <c r="CA136" s="9"/>
-    </row>
-    <row r="137" s="3" customFormat="1" spans="1:79">
+      <c r="CB136" s="9"/>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:80">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -13413,8 +13522,9 @@
       <c r="BY137" s="9"/>
       <c r="BZ137" s="9"/>
       <c r="CA137" s="9"/>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:79">
+      <c r="CB137" s="9"/>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:80">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -13494,8 +13604,9 @@
       <c r="BY138" s="9"/>
       <c r="BZ138" s="9"/>
       <c r="CA138" s="9"/>
-    </row>
-    <row r="139" s="3" customFormat="1" spans="1:79">
+      <c r="CB138" s="9"/>
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:80">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -13575,8 +13686,9 @@
       <c r="BY139" s="9"/>
       <c r="BZ139" s="9"/>
       <c r="CA139" s="9"/>
-    </row>
-    <row r="140" s="3" customFormat="1" spans="1:79">
+      <c r="CB139" s="9"/>
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:80">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -13656,8 +13768,9 @@
       <c r="BY140" s="9"/>
       <c r="BZ140" s="9"/>
       <c r="CA140" s="9"/>
-    </row>
-    <row r="141" s="3" customFormat="1" spans="1:79">
+      <c r="CB140" s="9"/>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:80">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -13737,8 +13850,9 @@
       <c r="BY141" s="9"/>
       <c r="BZ141" s="9"/>
       <c r="CA141" s="9"/>
-    </row>
-    <row r="142" s="3" customFormat="1" spans="1:79">
+      <c r="CB141" s="9"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:80">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -13818,8 +13932,9 @@
       <c r="BY142" s="9"/>
       <c r="BZ142" s="9"/>
       <c r="CA142" s="9"/>
-    </row>
-    <row r="143" s="3" customFormat="1" spans="1:79">
+      <c r="CB142" s="9"/>
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:80">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -13899,8 +14014,9 @@
       <c r="BY143" s="9"/>
       <c r="BZ143" s="9"/>
       <c r="CA143" s="9"/>
-    </row>
-    <row r="144" s="3" customFormat="1" spans="1:79">
+      <c r="CB143" s="9"/>
+    </row>
+    <row r="144" s="3" customFormat="1" spans="1:80">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -13980,8 +14096,9 @@
       <c r="BY144" s="9"/>
       <c r="BZ144" s="9"/>
       <c r="CA144" s="9"/>
-    </row>
-    <row r="145" s="3" customFormat="1" spans="1:79">
+      <c r="CB144" s="9"/>
+    </row>
+    <row r="145" s="3" customFormat="1" spans="1:80">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -14061,8 +14178,9 @@
       <c r="BY145" s="9"/>
       <c r="BZ145" s="9"/>
       <c r="CA145" s="9"/>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="1:79">
+      <c r="CB145" s="9"/>
+    </row>
+    <row r="146" s="3" customFormat="1" spans="1:80">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -14142,8 +14260,9 @@
       <c r="BY146" s="9"/>
       <c r="BZ146" s="9"/>
       <c r="CA146" s="9"/>
-    </row>
-    <row r="147" s="3" customFormat="1" spans="1:79">
+      <c r="CB146" s="9"/>
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:80">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -14223,8 +14342,9 @@
       <c r="BY147" s="9"/>
       <c r="BZ147" s="9"/>
       <c r="CA147" s="9"/>
-    </row>
-    <row r="148" s="3" customFormat="1" spans="1:79">
+      <c r="CB147" s="9"/>
+    </row>
+    <row r="148" s="3" customFormat="1" spans="1:80">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -14304,8 +14424,9 @@
       <c r="BY148" s="9"/>
       <c r="BZ148" s="9"/>
       <c r="CA148" s="9"/>
-    </row>
-    <row r="149" s="3" customFormat="1" spans="1:79">
+      <c r="CB148" s="9"/>
+    </row>
+    <row r="149" s="3" customFormat="1" spans="1:80">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -14385,8 +14506,9 @@
       <c r="BY149" s="9"/>
       <c r="BZ149" s="9"/>
       <c r="CA149" s="9"/>
-    </row>
-    <row r="150" s="3" customFormat="1" spans="1:79">
+      <c r="CB149" s="9"/>
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:80">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -14466,8 +14588,9 @@
       <c r="BY150" s="9"/>
       <c r="BZ150" s="9"/>
       <c r="CA150" s="9"/>
-    </row>
-    <row r="151" s="3" customFormat="1" spans="1:79">
+      <c r="CB150" s="9"/>
+    </row>
+    <row r="151" s="3" customFormat="1" spans="1:80">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -14547,8 +14670,9 @@
       <c r="BY151" s="9"/>
       <c r="BZ151" s="9"/>
       <c r="CA151" s="9"/>
-    </row>
-    <row r="152" s="3" customFormat="1" spans="1:79">
+      <c r="CB151" s="9"/>
+    </row>
+    <row r="152" s="3" customFormat="1" spans="1:80">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -14628,8 +14752,9 @@
       <c r="BY152" s="9"/>
       <c r="BZ152" s="9"/>
       <c r="CA152" s="9"/>
-    </row>
-    <row r="153" s="3" customFormat="1" spans="1:79">
+      <c r="CB152" s="9"/>
+    </row>
+    <row r="153" s="3" customFormat="1" spans="1:80">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -14709,8 +14834,9 @@
       <c r="BY153" s="9"/>
       <c r="BZ153" s="9"/>
       <c r="CA153" s="9"/>
-    </row>
-    <row r="154" s="3" customFormat="1" spans="1:79">
+      <c r="CB153" s="9"/>
+    </row>
+    <row r="154" s="3" customFormat="1" spans="1:80">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -14790,8 +14916,9 @@
       <c r="BY154" s="9"/>
       <c r="BZ154" s="9"/>
       <c r="CA154" s="9"/>
-    </row>
-    <row r="155" s="3" customFormat="1" spans="1:79">
+      <c r="CB154" s="9"/>
+    </row>
+    <row r="155" s="3" customFormat="1" spans="1:80">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -14871,8 +14998,9 @@
       <c r="BY155" s="9"/>
       <c r="BZ155" s="9"/>
       <c r="CA155" s="9"/>
-    </row>
-    <row r="156" s="3" customFormat="1" spans="1:79">
+      <c r="CB155" s="9"/>
+    </row>
+    <row r="156" s="3" customFormat="1" spans="1:80">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -14952,8 +15080,9 @@
       <c r="BY156" s="9"/>
       <c r="BZ156" s="9"/>
       <c r="CA156" s="9"/>
-    </row>
-    <row r="157" s="3" customFormat="1" spans="1:79">
+      <c r="CB156" s="9"/>
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:80">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -15033,8 +15162,9 @@
       <c r="BY157" s="9"/>
       <c r="BZ157" s="9"/>
       <c r="CA157" s="9"/>
-    </row>
-    <row r="158" s="3" customFormat="1" spans="1:79">
+      <c r="CB157" s="9"/>
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:80">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -15114,8 +15244,9 @@
       <c r="BY158" s="9"/>
       <c r="BZ158" s="9"/>
       <c r="CA158" s="9"/>
-    </row>
-    <row r="159" s="3" customFormat="1" spans="1:79">
+      <c r="CB158" s="9"/>
+    </row>
+    <row r="159" s="3" customFormat="1" spans="1:80">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -15195,8 +15326,9 @@
       <c r="BY159" s="9"/>
       <c r="BZ159" s="9"/>
       <c r="CA159" s="9"/>
-    </row>
-    <row r="160" s="3" customFormat="1" spans="1:79">
+      <c r="CB159" s="9"/>
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:80">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -15276,8 +15408,9 @@
       <c r="BY160" s="9"/>
       <c r="BZ160" s="9"/>
       <c r="CA160" s="9"/>
-    </row>
-    <row r="161" s="3" customFormat="1" spans="1:79">
+      <c r="CB160" s="9"/>
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:80">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -15357,8 +15490,9 @@
       <c r="BY161" s="9"/>
       <c r="BZ161" s="9"/>
       <c r="CA161" s="9"/>
-    </row>
-    <row r="162" s="3" customFormat="1" spans="1:79">
+      <c r="CB161" s="9"/>
+    </row>
+    <row r="162" s="3" customFormat="1" spans="1:80">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -15438,8 +15572,9 @@
       <c r="BY162" s="9"/>
       <c r="BZ162" s="9"/>
       <c r="CA162" s="9"/>
-    </row>
-    <row r="163" s="3" customFormat="1" spans="1:79">
+      <c r="CB162" s="9"/>
+    </row>
+    <row r="163" s="3" customFormat="1" spans="1:80">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -15519,8 +15654,9 @@
       <c r="BY163" s="9"/>
       <c r="BZ163" s="9"/>
       <c r="CA163" s="9"/>
-    </row>
-    <row r="164" s="3" customFormat="1" spans="1:79">
+      <c r="CB163" s="9"/>
+    </row>
+    <row r="164" s="3" customFormat="1" spans="1:80">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -15600,8 +15736,9 @@
       <c r="BY164" s="9"/>
       <c r="BZ164" s="9"/>
       <c r="CA164" s="9"/>
-    </row>
-    <row r="165" s="3" customFormat="1" spans="1:79">
+      <c r="CB164" s="9"/>
+    </row>
+    <row r="165" s="3" customFormat="1" spans="1:80">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -15681,8 +15818,9 @@
       <c r="BY165" s="9"/>
       <c r="BZ165" s="9"/>
       <c r="CA165" s="9"/>
-    </row>
-    <row r="166" s="3" customFormat="1" spans="1:79">
+      <c r="CB165" s="9"/>
+    </row>
+    <row r="166" s="3" customFormat="1" spans="1:80">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -15762,8 +15900,9 @@
       <c r="BY166" s="9"/>
       <c r="BZ166" s="9"/>
       <c r="CA166" s="9"/>
-    </row>
-    <row r="167" s="3" customFormat="1" spans="1:79">
+      <c r="CB166" s="9"/>
+    </row>
+    <row r="167" s="3" customFormat="1" spans="1:80">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -15843,8 +15982,9 @@
       <c r="BY167" s="9"/>
       <c r="BZ167" s="9"/>
       <c r="CA167" s="9"/>
-    </row>
-    <row r="168" s="3" customFormat="1" spans="1:79">
+      <c r="CB167" s="9"/>
+    </row>
+    <row r="168" s="3" customFormat="1" spans="1:80">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -15924,8 +16064,9 @@
       <c r="BY168" s="9"/>
       <c r="BZ168" s="9"/>
       <c r="CA168" s="9"/>
-    </row>
-    <row r="169" s="3" customFormat="1" spans="1:79">
+      <c r="CB168" s="9"/>
+    </row>
+    <row r="169" s="3" customFormat="1" spans="1:80">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -16005,8 +16146,9 @@
       <c r="BY169" s="9"/>
       <c r="BZ169" s="9"/>
       <c r="CA169" s="9"/>
-    </row>
-    <row r="170" s="3" customFormat="1" spans="1:79">
+      <c r="CB169" s="9"/>
+    </row>
+    <row r="170" s="3" customFormat="1" spans="1:80">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -16086,8 +16228,9 @@
       <c r="BY170" s="9"/>
       <c r="BZ170" s="9"/>
       <c r="CA170" s="9"/>
-    </row>
-    <row r="171" s="3" customFormat="1" spans="1:79">
+      <c r="CB170" s="9"/>
+    </row>
+    <row r="171" s="3" customFormat="1" spans="1:80">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -16167,8 +16310,9 @@
       <c r="BY171" s="9"/>
       <c r="BZ171" s="9"/>
       <c r="CA171" s="9"/>
-    </row>
-    <row r="172" s="3" customFormat="1" spans="1:79">
+      <c r="CB171" s="9"/>
+    </row>
+    <row r="172" s="3" customFormat="1" spans="1:80">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -16248,8 +16392,9 @@
       <c r="BY172" s="9"/>
       <c r="BZ172" s="9"/>
       <c r="CA172" s="9"/>
-    </row>
-    <row r="173" s="3" customFormat="1" spans="1:79">
+      <c r="CB172" s="9"/>
+    </row>
+    <row r="173" s="3" customFormat="1" spans="1:80">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -16329,8 +16474,9 @@
       <c r="BY173" s="9"/>
       <c r="BZ173" s="9"/>
       <c r="CA173" s="9"/>
-    </row>
-    <row r="174" s="3" customFormat="1" spans="1:79">
+      <c r="CB173" s="9"/>
+    </row>
+    <row r="174" s="3" customFormat="1" spans="1:80">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -16410,8 +16556,9 @@
       <c r="BY174" s="9"/>
       <c r="BZ174" s="9"/>
       <c r="CA174" s="9"/>
-    </row>
-    <row r="175" s="3" customFormat="1" spans="1:79">
+      <c r="CB174" s="9"/>
+    </row>
+    <row r="175" s="3" customFormat="1" spans="1:80">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -16491,8 +16638,9 @@
       <c r="BY175" s="9"/>
       <c r="BZ175" s="9"/>
       <c r="CA175" s="9"/>
-    </row>
-    <row r="176" s="3" customFormat="1" spans="1:79">
+      <c r="CB175" s="9"/>
+    </row>
+    <row r="176" s="3" customFormat="1" spans="1:80">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -16572,8 +16720,9 @@
       <c r="BY176" s="9"/>
       <c r="BZ176" s="9"/>
       <c r="CA176" s="9"/>
-    </row>
-    <row r="177" s="3" customFormat="1" spans="1:79">
+      <c r="CB176" s="9"/>
+    </row>
+    <row r="177" s="3" customFormat="1" spans="1:80">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -16653,8 +16802,9 @@
       <c r="BY177" s="9"/>
       <c r="BZ177" s="9"/>
       <c r="CA177" s="9"/>
-    </row>
-    <row r="178" s="3" customFormat="1" spans="1:79">
+      <c r="CB177" s="9"/>
+    </row>
+    <row r="178" s="3" customFormat="1" spans="1:80">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -16734,8 +16884,9 @@
       <c r="BY178" s="9"/>
       <c r="BZ178" s="9"/>
       <c r="CA178" s="9"/>
-    </row>
-    <row r="179" s="3" customFormat="1" spans="1:79">
+      <c r="CB178" s="9"/>
+    </row>
+    <row r="179" s="3" customFormat="1" spans="1:80">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -16815,8 +16966,9 @@
       <c r="BY179" s="9"/>
       <c r="BZ179" s="9"/>
       <c r="CA179" s="9"/>
-    </row>
-    <row r="180" s="3" customFormat="1" spans="1:79">
+      <c r="CB179" s="9"/>
+    </row>
+    <row r="180" s="3" customFormat="1" spans="1:80">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -16896,8 +17048,9 @@
       <c r="BY180" s="9"/>
       <c r="BZ180" s="9"/>
       <c r="CA180" s="9"/>
-    </row>
-    <row r="181" s="3" customFormat="1" spans="1:79">
+      <c r="CB180" s="9"/>
+    </row>
+    <row r="181" s="3" customFormat="1" spans="1:80">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -16977,8 +17130,9 @@
       <c r="BY181" s="9"/>
       <c r="BZ181" s="9"/>
       <c r="CA181" s="9"/>
-    </row>
-    <row r="182" s="3" customFormat="1" spans="1:79">
+      <c r="CB181" s="9"/>
+    </row>
+    <row r="182" s="3" customFormat="1" spans="1:80">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -17058,8 +17212,9 @@
       <c r="BY182" s="9"/>
       <c r="BZ182" s="9"/>
       <c r="CA182" s="9"/>
-    </row>
-    <row r="183" s="3" customFormat="1" spans="1:79">
+      <c r="CB182" s="9"/>
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:80">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -17139,8 +17294,9 @@
       <c r="BY183" s="9"/>
       <c r="BZ183" s="9"/>
       <c r="CA183" s="9"/>
-    </row>
-    <row r="184" s="3" customFormat="1" spans="1:79">
+      <c r="CB183" s="9"/>
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:80">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -17220,8 +17376,9 @@
       <c r="BY184" s="9"/>
       <c r="BZ184" s="9"/>
       <c r="CA184" s="9"/>
-    </row>
-    <row r="185" s="3" customFormat="1" spans="1:79">
+      <c r="CB184" s="9"/>
+    </row>
+    <row r="185" s="3" customFormat="1" spans="1:80">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -17301,8 +17458,9 @@
       <c r="BY185" s="9"/>
       <c r="BZ185" s="9"/>
       <c r="CA185" s="9"/>
-    </row>
-    <row r="186" s="3" customFormat="1" spans="1:79">
+      <c r="CB185" s="9"/>
+    </row>
+    <row r="186" s="3" customFormat="1" spans="1:80">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -17382,8 +17540,9 @@
       <c r="BY186" s="9"/>
       <c r="BZ186" s="9"/>
       <c r="CA186" s="9"/>
-    </row>
-    <row r="187" s="3" customFormat="1" spans="1:79">
+      <c r="CB186" s="9"/>
+    </row>
+    <row r="187" s="3" customFormat="1" spans="1:80">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -17463,8 +17622,9 @@
       <c r="BY187" s="9"/>
       <c r="BZ187" s="9"/>
       <c r="CA187" s="9"/>
-    </row>
-    <row r="188" s="3" customFormat="1" spans="1:79">
+      <c r="CB187" s="9"/>
+    </row>
+    <row r="188" s="3" customFormat="1" spans="1:80">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -17544,8 +17704,9 @@
       <c r="BY188" s="9"/>
       <c r="BZ188" s="9"/>
       <c r="CA188" s="9"/>
-    </row>
-    <row r="189" s="3" customFormat="1" spans="1:79">
+      <c r="CB188" s="9"/>
+    </row>
+    <row r="189" s="3" customFormat="1" spans="1:80">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -17625,8 +17786,9 @@
       <c r="BY189" s="9"/>
       <c r="BZ189" s="9"/>
       <c r="CA189" s="9"/>
-    </row>
-    <row r="190" s="3" customFormat="1" spans="1:79">
+      <c r="CB189" s="9"/>
+    </row>
+    <row r="190" s="3" customFormat="1" spans="1:80">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -17706,8 +17868,9 @@
       <c r="BY190" s="9"/>
       <c r="BZ190" s="9"/>
       <c r="CA190" s="9"/>
-    </row>
-    <row r="191" s="3" customFormat="1" spans="1:79">
+      <c r="CB190" s="9"/>
+    </row>
+    <row r="191" s="3" customFormat="1" spans="1:80">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -17787,8 +17950,9 @@
       <c r="BY191" s="9"/>
       <c r="BZ191" s="9"/>
       <c r="CA191" s="9"/>
-    </row>
-    <row r="192" s="3" customFormat="1" spans="1:79">
+      <c r="CB191" s="9"/>
+    </row>
+    <row r="192" s="3" customFormat="1" spans="1:80">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -17868,8 +18032,9 @@
       <c r="BY192" s="9"/>
       <c r="BZ192" s="9"/>
       <c r="CA192" s="9"/>
-    </row>
-    <row r="193" s="3" customFormat="1" spans="1:79">
+      <c r="CB192" s="9"/>
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:80">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -17949,8 +18114,9 @@
       <c r="BY193" s="9"/>
       <c r="BZ193" s="9"/>
       <c r="CA193" s="9"/>
-    </row>
-    <row r="194" s="3" customFormat="1" spans="1:79">
+      <c r="CB193" s="9"/>
+    </row>
+    <row r="194" s="3" customFormat="1" spans="1:80">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -18030,8 +18196,9 @@
       <c r="BY194" s="9"/>
       <c r="BZ194" s="9"/>
       <c r="CA194" s="9"/>
-    </row>
-    <row r="195" s="3" customFormat="1" spans="1:79">
+      <c r="CB194" s="9"/>
+    </row>
+    <row r="195" s="3" customFormat="1" spans="1:80">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -18111,8 +18278,9 @@
       <c r="BY195" s="9"/>
       <c r="BZ195" s="9"/>
       <c r="CA195" s="9"/>
-    </row>
-    <row r="196" s="3" customFormat="1" spans="1:79">
+      <c r="CB195" s="9"/>
+    </row>
+    <row r="196" s="3" customFormat="1" spans="1:80">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -18192,8 +18360,9 @@
       <c r="BY196" s="9"/>
       <c r="BZ196" s="9"/>
       <c r="CA196" s="9"/>
-    </row>
-    <row r="197" s="3" customFormat="1" spans="1:79">
+      <c r="CB196" s="9"/>
+    </row>
+    <row r="197" s="3" customFormat="1" spans="1:80">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -18273,8 +18442,9 @@
       <c r="BY197" s="9"/>
       <c r="BZ197" s="9"/>
       <c r="CA197" s="9"/>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:79">
+      <c r="CB197" s="9"/>
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:80">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -18354,8 +18524,9 @@
       <c r="BY198" s="9"/>
       <c r="BZ198" s="9"/>
       <c r="CA198" s="9"/>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="1:79">
+      <c r="CB198" s="9"/>
+    </row>
+    <row r="199" s="3" customFormat="1" spans="1:80">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -18435,8 +18606,9 @@
       <c r="BY199" s="9"/>
       <c r="BZ199" s="9"/>
       <c r="CA199" s="9"/>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="1:79">
+      <c r="CB199" s="9"/>
+    </row>
+    <row r="200" s="3" customFormat="1" spans="1:80">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -18516,8 +18688,9 @@
       <c r="BY200" s="9"/>
       <c r="BZ200" s="9"/>
       <c r="CA200" s="9"/>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="1:79">
+      <c r="CB200" s="9"/>
+    </row>
+    <row r="201" s="3" customFormat="1" spans="1:80">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -18597,47 +18770,51 @@
       <c r="BY201" s="9"/>
       <c r="BZ201" s="9"/>
       <c r="CA201" s="9"/>
+      <c r="CB201" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="AE1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:BM1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:BN1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BT1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
   </mergeCells>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS201">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
+      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
+      <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT201">
       <formula1>"配送,直送"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT3:BX201">
+      <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201 U3:U201 X3:X201">
       <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
+      <formula1>"通货,普货,大货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201">
+      <formula1>"大货仓位,小货仓位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 Q3:Q1048576">
+      <formula1>"配送,直送,全部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN201">
-      <formula1>"经销,代销,联营"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B201">
-      <formula1>"品采,辅采,OEM,服纺,鞋品"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201">
-      <formula1>"大货仓位,小货仓位"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
-      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201">
-      <formula1>"通货,普货,大货"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201">
       <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BW201">
-      <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO201">
+      <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -17,7 +17,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LeslieNicole</author>
-    <author>lei</author>
     <author>HUAWEI</author>
   </authors>
   <commentList>
@@ -60,12 +59,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1">
+    <comment ref="R2" authorId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
           <t>单选下拉框</t>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0">
+    <comment ref="W2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,20 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB2" authorId="0">
+    <comment ref="AA2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0">
+    <comment ref="AB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="2">
+    <comment ref="AP2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -262,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="2">
+    <comment ref="AQ2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -275,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="0">
+    <comment ref="AS2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="2">
+    <comment ref="AT2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -301,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="2">
+    <comment ref="AU2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -323,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="2">
+    <comment ref="AV2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -336,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="2">
+    <comment ref="AW2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -349,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="2">
+    <comment ref="AX2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -371,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="2">
+    <comment ref="AY2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -393,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA2" authorId="2">
+    <comment ref="AZ2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -415,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD2" authorId="2">
+    <comment ref="BC2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -437,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="2">
+    <comment ref="BD2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -450,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="2">
+    <comment ref="BE2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -463,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="2">
+    <comment ref="BF2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -476,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="2">
+    <comment ref="BG2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -498,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI2" authorId="2">
+    <comment ref="BH2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -520,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK2" authorId="2">
+    <comment ref="BJ2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -533,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="0">
+    <comment ref="BN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="2">
+    <comment ref="BO2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -568,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ2" authorId="2">
+    <comment ref="BP2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -590,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR2" authorId="2">
+    <comment ref="BQ2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -612,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS2" authorId="2">
+    <comment ref="BR2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -639,7 +626,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>基本信息</t>
   </si>
@@ -711,9 +698,6 @@
   </si>
   <si>
     <t>保质天数</t>
-  </si>
-  <si>
-    <t>供货渠道类别</t>
   </si>
   <si>
     <t>适用起始月龄</t>
@@ -798,6 +782,9 @@
   </si>
   <si>
     <t>供应商SKU编号</t>
+  </si>
+  <si>
+    <t>供货渠道类别</t>
   </si>
   <si>
     <t>库存规格</t>
@@ -905,9 +892,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -948,6 +935,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -964,14 +997,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,60 +1066,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,53 +1079,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1109,8 +1095,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1189,66 +1176,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1267,7 +1194,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1278,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,37 +1302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,41 +1401,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,9 +1427,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,36 +1498,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1529,133 +1516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1694,6 +1681,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,9 +1691,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2058,10 +2045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CB201"/>
+  <dimension ref="A1:CA201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -2077,44 +2064,43 @@
     <col min="13" max="13" width="9.75" style="3" customWidth="1"/>
     <col min="14" max="15" width="5.75" style="3" customWidth="1"/>
     <col min="16" max="16" width="9.75" style="3" customWidth="1"/>
-    <col min="17" max="17" width="18.6666666666667" style="3" customWidth="1"/>
-    <col min="18" max="19" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.75" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="22" max="23" width="9.75" style="3" customWidth="1"/>
-    <col min="24" max="27" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="28" max="31" width="9.75" style="3" customWidth="1"/>
-    <col min="32" max="34" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="35" max="36" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="37" max="37" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="38" max="39" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="40" max="40" width="5.75" style="3" customWidth="1"/>
-    <col min="41" max="42" width="7.75" style="3" customWidth="1"/>
-    <col min="43" max="43" width="9.75" style="3" customWidth="1"/>
-    <col min="44" max="44" width="5.75" style="3" customWidth="1"/>
-    <col min="45" max="45" width="15" style="3" customWidth="1"/>
-    <col min="46" max="46" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="47" max="48" width="9.75" style="3" customWidth="1"/>
-    <col min="49" max="51" width="13" style="3" customWidth="1"/>
-    <col min="52" max="53" width="14" style="3" customWidth="1"/>
-    <col min="54" max="55" width="9.75" style="3" customWidth="1"/>
-    <col min="56" max="58" width="13" style="3" customWidth="1"/>
-    <col min="59" max="60" width="14" style="3" customWidth="1"/>
-    <col min="61" max="61" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="62" max="62" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="63" max="64" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="65" max="65" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="66" max="70" width="9.75" style="3" customWidth="1"/>
-    <col min="71" max="71" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="72" max="76" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="77" max="77" width="9.75" style="3" customWidth="1"/>
-    <col min="78" max="78" width="18.25" style="3" customWidth="1"/>
-    <col min="79" max="79" width="9.75" style="3" customWidth="1"/>
-    <col min="80" max="80" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="81" max="16384" width="8.75" style="3"/>
+    <col min="17" max="18" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="21" max="22" width="9.75" style="3" customWidth="1"/>
+    <col min="23" max="26" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="27" max="30" width="9.75" style="3" customWidth="1"/>
+    <col min="31" max="33" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="34" max="35" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="36" max="36" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="37" max="38" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="39" max="39" width="5.75" style="3" customWidth="1"/>
+    <col min="40" max="41" width="7.75" style="3" customWidth="1"/>
+    <col min="42" max="42" width="9.75" style="3" customWidth="1"/>
+    <col min="43" max="43" width="5.75" style="3" customWidth="1"/>
+    <col min="44" max="44" width="15" style="3" customWidth="1"/>
+    <col min="45" max="45" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="46" max="47" width="9.75" style="3" customWidth="1"/>
+    <col min="48" max="50" width="13" style="3" customWidth="1"/>
+    <col min="51" max="52" width="14" style="3" customWidth="1"/>
+    <col min="53" max="54" width="9.75" style="3" customWidth="1"/>
+    <col min="55" max="57" width="13" style="3" customWidth="1"/>
+    <col min="58" max="59" width="14" style="3" customWidth="1"/>
+    <col min="60" max="60" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="61" max="61" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="62" max="63" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="64" max="64" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="65" max="69" width="9.75" style="3" customWidth="1"/>
+    <col min="70" max="70" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="71" max="75" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="76" max="76" width="9.75" style="3" customWidth="1"/>
+    <col min="77" max="77" width="18.25" style="3" customWidth="1"/>
+    <col min="78" max="78" width="9.75" style="3" customWidth="1"/>
+    <col min="79" max="79" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="80" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:80">
+    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:79">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2146,30 +2132,30 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="16" t="s">
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="AP1" s="16"/>
       <c r="AQ1" s="16"/>
       <c r="AR1" s="16"/>
       <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AT1" s="17" t="s">
         <v>3</v>
       </c>
+      <c r="AU1" s="18"/>
       <c r="AV1" s="18"/>
       <c r="AW1" s="18"/>
       <c r="AX1" s="18"/>
@@ -2188,31 +2174,30 @@
       <c r="BK1" s="18"/>
       <c r="BL1" s="18"/>
       <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="21" t="s">
+      <c r="BN1" s="21" t="s">
         <v>4</v>
       </c>
+      <c r="BO1" s="21"/>
       <c r="BP1" s="21"/>
       <c r="BQ1" s="21"/>
       <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="22" t="s">
+      <c r="BS1" s="22" t="s">
         <v>5</v>
       </c>
+      <c r="BT1" s="22"/>
       <c r="BU1" s="22"/>
       <c r="BV1" s="22"/>
       <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="26" t="s">
+      <c r="BX1" s="26" t="s">
         <v>6</v>
       </c>
+      <c r="BY1" s="26"/>
       <c r="BZ1" s="26"/>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="21" t="s">
+      <c r="CA1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:80">
+    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:79">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -2273,19 +2258,19 @@
       <c r="T2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Z2" s="6" t="s">
@@ -2294,49 +2279,49 @@
       <c r="AA2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AL2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AM2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AN2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AO2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="8" t="s">
         <v>49</v>
       </c>
       <c r="AQ2" s="8" t="s">
@@ -2345,116 +2330,113 @@
       <c r="AR2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AT2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU2" s="19" t="s">
+      <c r="AT2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AV2" s="14" t="s">
+      <c r="AU2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AV2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AW2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AX2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="AY2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="AZ2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BA2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BB2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BC2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BD2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BE2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BF2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BG2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="BI2" s="14" t="s">
+      <c r="BH2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BJ2" s="14" t="s">
+      <c r="BI2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="14" t="s">
+      <c r="BJ2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="20" t="s">
+      <c r="BK2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="BM2" s="14" t="s">
+      <c r="BL2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="BN2" s="23" t="s">
+      <c r="BM2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BN2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BO2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BP2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="BS2" s="25" t="s">
+      <c r="BR2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BS2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BT2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BU2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BV2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BW2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="BY2" s="14" t="s">
+      <c r="BX2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="BY2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="CA2" s="20" t="s">
+      <c r="BZ2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="CB2" s="24" t="s">
+      <c r="CA2" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:80">
+    <row r="3" s="3" customFormat="1" spans="1:79">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2534,9 +2516,8 @@
       <c r="BY3" s="9"/>
       <c r="BZ3" s="9"/>
       <c r="CA3" s="9"/>
-      <c r="CB3" s="9"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:79">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2616,9 +2597,8 @@
       <c r="BY4" s="9"/>
       <c r="BZ4" s="9"/>
       <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:79">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2698,9 +2678,8 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
       <c r="CA5" s="9"/>
-      <c r="CB5" s="9"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:79">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2780,9 +2759,8 @@
       <c r="BY6" s="9"/>
       <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:79">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2862,9 +2840,8 @@
       <c r="BY7" s="9"/>
       <c r="BZ7" s="9"/>
       <c r="CA7" s="9"/>
-      <c r="CB7" s="9"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:79">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2944,9 +2921,8 @@
       <c r="BY8" s="9"/>
       <c r="BZ8" s="9"/>
       <c r="CA8" s="9"/>
-      <c r="CB8" s="9"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:79">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3026,9 +3002,8 @@
       <c r="BY9" s="9"/>
       <c r="BZ9" s="9"/>
       <c r="CA9" s="9"/>
-      <c r="CB9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:79">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3108,9 +3083,8 @@
       <c r="BY10" s="9"/>
       <c r="BZ10" s="9"/>
       <c r="CA10" s="9"/>
-      <c r="CB10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:79">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3190,9 +3164,8 @@
       <c r="BY11" s="9"/>
       <c r="BZ11" s="9"/>
       <c r="CA11" s="9"/>
-      <c r="CB11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:79">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3272,9 +3245,8 @@
       <c r="BY12" s="9"/>
       <c r="BZ12" s="9"/>
       <c r="CA12" s="9"/>
-      <c r="CB12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:79">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3354,9 +3326,8 @@
       <c r="BY13" s="9"/>
       <c r="BZ13" s="9"/>
       <c r="CA13" s="9"/>
-      <c r="CB13" s="9"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:79">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3436,9 +3407,8 @@
       <c r="BY14" s="9"/>
       <c r="BZ14" s="9"/>
       <c r="CA14" s="9"/>
-      <c r="CB14" s="9"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:79">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3518,9 +3488,8 @@
       <c r="BY15" s="9"/>
       <c r="BZ15" s="9"/>
       <c r="CA15" s="9"/>
-      <c r="CB15" s="9"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:79">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3600,9 +3569,8 @@
       <c r="BY16" s="9"/>
       <c r="BZ16" s="9"/>
       <c r="CA16" s="9"/>
-      <c r="CB16" s="9"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:79">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3682,9 +3650,8 @@
       <c r="BY17" s="9"/>
       <c r="BZ17" s="9"/>
       <c r="CA17" s="9"/>
-      <c r="CB17" s="9"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:79">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3764,9 +3731,8 @@
       <c r="BY18" s="9"/>
       <c r="BZ18" s="9"/>
       <c r="CA18" s="9"/>
-      <c r="CB18" s="9"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:79">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3846,9 +3812,8 @@
       <c r="BY19" s="9"/>
       <c r="BZ19" s="9"/>
       <c r="CA19" s="9"/>
-      <c r="CB19" s="9"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:79">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3928,9 +3893,8 @@
       <c r="BY20" s="9"/>
       <c r="BZ20" s="9"/>
       <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:79">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4010,9 +3974,8 @@
       <c r="BY21" s="9"/>
       <c r="BZ21" s="9"/>
       <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:79">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4092,9 +4055,8 @@
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:79">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4174,9 +4136,8 @@
       <c r="BY23" s="9"/>
       <c r="BZ23" s="9"/>
       <c r="CA23" s="9"/>
-      <c r="CB23" s="9"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:79">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4256,9 +4217,8 @@
       <c r="BY24" s="9"/>
       <c r="BZ24" s="9"/>
       <c r="CA24" s="9"/>
-      <c r="CB24" s="9"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:79">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4338,9 +4298,8 @@
       <c r="BY25" s="9"/>
       <c r="BZ25" s="9"/>
       <c r="CA25" s="9"/>
-      <c r="CB25" s="9"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:79">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4420,9 +4379,8 @@
       <c r="BY26" s="9"/>
       <c r="BZ26" s="9"/>
       <c r="CA26" s="9"/>
-      <c r="CB26" s="9"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:79">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4502,9 +4460,8 @@
       <c r="BY27" s="9"/>
       <c r="BZ27" s="9"/>
       <c r="CA27" s="9"/>
-      <c r="CB27" s="9"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:79">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4584,9 +4541,8 @@
       <c r="BY28" s="9"/>
       <c r="BZ28" s="9"/>
       <c r="CA28" s="9"/>
-      <c r="CB28" s="9"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:79">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4666,9 +4622,8 @@
       <c r="BY29" s="9"/>
       <c r="BZ29" s="9"/>
       <c r="CA29" s="9"/>
-      <c r="CB29" s="9"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:79">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4748,9 +4703,8 @@
       <c r="BY30" s="9"/>
       <c r="BZ30" s="9"/>
       <c r="CA30" s="9"/>
-      <c r="CB30" s="9"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:79">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -4830,9 +4784,8 @@
       <c r="BY31" s="9"/>
       <c r="BZ31" s="9"/>
       <c r="CA31" s="9"/>
-      <c r="CB31" s="9"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:79">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4912,9 +4865,8 @@
       <c r="BY32" s="9"/>
       <c r="BZ32" s="9"/>
       <c r="CA32" s="9"/>
-      <c r="CB32" s="9"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:79">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -4994,9 +4946,8 @@
       <c r="BY33" s="9"/>
       <c r="BZ33" s="9"/>
       <c r="CA33" s="9"/>
-      <c r="CB33" s="9"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:79">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5076,9 +5027,8 @@
       <c r="BY34" s="9"/>
       <c r="BZ34" s="9"/>
       <c r="CA34" s="9"/>
-      <c r="CB34" s="9"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:79">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -5158,9 +5108,8 @@
       <c r="BY35" s="9"/>
       <c r="BZ35" s="9"/>
       <c r="CA35" s="9"/>
-      <c r="CB35" s="9"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:79">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5240,9 +5189,8 @@
       <c r="BY36" s="9"/>
       <c r="BZ36" s="9"/>
       <c r="CA36" s="9"/>
-      <c r="CB36" s="9"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:79">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -5322,9 +5270,8 @@
       <c r="BY37" s="9"/>
       <c r="BZ37" s="9"/>
       <c r="CA37" s="9"/>
-      <c r="CB37" s="9"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:79">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -5404,9 +5351,8 @@
       <c r="BY38" s="9"/>
       <c r="BZ38" s="9"/>
       <c r="CA38" s="9"/>
-      <c r="CB38" s="9"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:79">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -5486,9 +5432,8 @@
       <c r="BY39" s="9"/>
       <c r="BZ39" s="9"/>
       <c r="CA39" s="9"/>
-      <c r="CB39" s="9"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:79">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -5568,9 +5513,8 @@
       <c r="BY40" s="9"/>
       <c r="BZ40" s="9"/>
       <c r="CA40" s="9"/>
-      <c r="CB40" s="9"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:79">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -5650,9 +5594,8 @@
       <c r="BY41" s="9"/>
       <c r="BZ41" s="9"/>
       <c r="CA41" s="9"/>
-      <c r="CB41" s="9"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:79">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -5732,9 +5675,8 @@
       <c r="BY42" s="9"/>
       <c r="BZ42" s="9"/>
       <c r="CA42" s="9"/>
-      <c r="CB42" s="9"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:79">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -5814,9 +5756,8 @@
       <c r="BY43" s="9"/>
       <c r="BZ43" s="9"/>
       <c r="CA43" s="9"/>
-      <c r="CB43" s="9"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:79">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5896,9 +5837,8 @@
       <c r="BY44" s="9"/>
       <c r="BZ44" s="9"/>
       <c r="CA44" s="9"/>
-      <c r="CB44" s="9"/>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:79">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -5978,9 +5918,8 @@
       <c r="BY45" s="9"/>
       <c r="BZ45" s="9"/>
       <c r="CA45" s="9"/>
-      <c r="CB45" s="9"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:79">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -6060,9 +5999,8 @@
       <c r="BY46" s="9"/>
       <c r="BZ46" s="9"/>
       <c r="CA46" s="9"/>
-      <c r="CB46" s="9"/>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:79">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -6142,9 +6080,8 @@
       <c r="BY47" s="9"/>
       <c r="BZ47" s="9"/>
       <c r="CA47" s="9"/>
-      <c r="CB47" s="9"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:79">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -6224,9 +6161,8 @@
       <c r="BY48" s="9"/>
       <c r="BZ48" s="9"/>
       <c r="CA48" s="9"/>
-      <c r="CB48" s="9"/>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:79">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -6306,9 +6242,8 @@
       <c r="BY49" s="9"/>
       <c r="BZ49" s="9"/>
       <c r="CA49" s="9"/>
-      <c r="CB49" s="9"/>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:79">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -6388,9 +6323,8 @@
       <c r="BY50" s="9"/>
       <c r="BZ50" s="9"/>
       <c r="CA50" s="9"/>
-      <c r="CB50" s="9"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:79">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -6470,9 +6404,8 @@
       <c r="BY51" s="9"/>
       <c r="BZ51" s="9"/>
       <c r="CA51" s="9"/>
-      <c r="CB51" s="9"/>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:79">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -6552,9 +6485,8 @@
       <c r="BY52" s="9"/>
       <c r="BZ52" s="9"/>
       <c r="CA52" s="9"/>
-      <c r="CB52" s="9"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:79">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -6634,9 +6566,8 @@
       <c r="BY53" s="9"/>
       <c r="BZ53" s="9"/>
       <c r="CA53" s="9"/>
-      <c r="CB53" s="9"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:79">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -6716,9 +6647,8 @@
       <c r="BY54" s="9"/>
       <c r="BZ54" s="9"/>
       <c r="CA54" s="9"/>
-      <c r="CB54" s="9"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:79">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -6798,9 +6728,8 @@
       <c r="BY55" s="9"/>
       <c r="BZ55" s="9"/>
       <c r="CA55" s="9"/>
-      <c r="CB55" s="9"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:79">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -6880,9 +6809,8 @@
       <c r="BY56" s="9"/>
       <c r="BZ56" s="9"/>
       <c r="CA56" s="9"/>
-      <c r="CB56" s="9"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:79">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -6962,9 +6890,8 @@
       <c r="BY57" s="9"/>
       <c r="BZ57" s="9"/>
       <c r="CA57" s="9"/>
-      <c r="CB57" s="9"/>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:79">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -7044,9 +6971,8 @@
       <c r="BY58" s="9"/>
       <c r="BZ58" s="9"/>
       <c r="CA58" s="9"/>
-      <c r="CB58" s="9"/>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:79">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -7126,9 +7052,8 @@
       <c r="BY59" s="9"/>
       <c r="BZ59" s="9"/>
       <c r="CA59" s="9"/>
-      <c r="CB59" s="9"/>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:79">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -7208,9 +7133,8 @@
       <c r="BY60" s="9"/>
       <c r="BZ60" s="9"/>
       <c r="CA60" s="9"/>
-      <c r="CB60" s="9"/>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:79">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -7290,9 +7214,8 @@
       <c r="BY61" s="9"/>
       <c r="BZ61" s="9"/>
       <c r="CA61" s="9"/>
-      <c r="CB61" s="9"/>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:79">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -7372,9 +7295,8 @@
       <c r="BY62" s="9"/>
       <c r="BZ62" s="9"/>
       <c r="CA62" s="9"/>
-      <c r="CB62" s="9"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:79">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -7454,9 +7376,8 @@
       <c r="BY63" s="9"/>
       <c r="BZ63" s="9"/>
       <c r="CA63" s="9"/>
-      <c r="CB63" s="9"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:79">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -7536,9 +7457,8 @@
       <c r="BY64" s="9"/>
       <c r="BZ64" s="9"/>
       <c r="CA64" s="9"/>
-      <c r="CB64" s="9"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:79">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -7618,9 +7538,8 @@
       <c r="BY65" s="9"/>
       <c r="BZ65" s="9"/>
       <c r="CA65" s="9"/>
-      <c r="CB65" s="9"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:79">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -7700,9 +7619,8 @@
       <c r="BY66" s="9"/>
       <c r="BZ66" s="9"/>
       <c r="CA66" s="9"/>
-      <c r="CB66" s="9"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:79">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -7782,9 +7700,8 @@
       <c r="BY67" s="9"/>
       <c r="BZ67" s="9"/>
       <c r="CA67" s="9"/>
-      <c r="CB67" s="9"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:79">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -7864,9 +7781,8 @@
       <c r="BY68" s="9"/>
       <c r="BZ68" s="9"/>
       <c r="CA68" s="9"/>
-      <c r="CB68" s="9"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:79">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -7946,9 +7862,8 @@
       <c r="BY69" s="9"/>
       <c r="BZ69" s="9"/>
       <c r="CA69" s="9"/>
-      <c r="CB69" s="9"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:79">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -8028,9 +7943,8 @@
       <c r="BY70" s="9"/>
       <c r="BZ70" s="9"/>
       <c r="CA70" s="9"/>
-      <c r="CB70" s="9"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:79">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -8110,9 +8024,8 @@
       <c r="BY71" s="9"/>
       <c r="BZ71" s="9"/>
       <c r="CA71" s="9"/>
-      <c r="CB71" s="9"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:79">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -8192,9 +8105,8 @@
       <c r="BY72" s="9"/>
       <c r="BZ72" s="9"/>
       <c r="CA72" s="9"/>
-      <c r="CB72" s="9"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:79">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -8274,9 +8186,8 @@
       <c r="BY73" s="9"/>
       <c r="BZ73" s="9"/>
       <c r="CA73" s="9"/>
-      <c r="CB73" s="9"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:79">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -8356,9 +8267,8 @@
       <c r="BY74" s="9"/>
       <c r="BZ74" s="9"/>
       <c r="CA74" s="9"/>
-      <c r="CB74" s="9"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:79">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -8438,9 +8348,8 @@
       <c r="BY75" s="9"/>
       <c r="BZ75" s="9"/>
       <c r="CA75" s="9"/>
-      <c r="CB75" s="9"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:79">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -8520,9 +8429,8 @@
       <c r="BY76" s="9"/>
       <c r="BZ76" s="9"/>
       <c r="CA76" s="9"/>
-      <c r="CB76" s="9"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:79">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -8602,9 +8510,8 @@
       <c r="BY77" s="9"/>
       <c r="BZ77" s="9"/>
       <c r="CA77" s="9"/>
-      <c r="CB77" s="9"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:79">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -8684,9 +8591,8 @@
       <c r="BY78" s="9"/>
       <c r="BZ78" s="9"/>
       <c r="CA78" s="9"/>
-      <c r="CB78" s="9"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:79">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -8766,9 +8672,8 @@
       <c r="BY79" s="9"/>
       <c r="BZ79" s="9"/>
       <c r="CA79" s="9"/>
-      <c r="CB79" s="9"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:79">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -8848,9 +8753,8 @@
       <c r="BY80" s="9"/>
       <c r="BZ80" s="9"/>
       <c r="CA80" s="9"/>
-      <c r="CB80" s="9"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:79">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -8930,9 +8834,8 @@
       <c r="BY81" s="9"/>
       <c r="BZ81" s="9"/>
       <c r="CA81" s="9"/>
-      <c r="CB81" s="9"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:79">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -9012,9 +8915,8 @@
       <c r="BY82" s="9"/>
       <c r="BZ82" s="9"/>
       <c r="CA82" s="9"/>
-      <c r="CB82" s="9"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:79">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -9094,9 +8996,8 @@
       <c r="BY83" s="9"/>
       <c r="BZ83" s="9"/>
       <c r="CA83" s="9"/>
-      <c r="CB83" s="9"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:79">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -9176,9 +9077,8 @@
       <c r="BY84" s="9"/>
       <c r="BZ84" s="9"/>
       <c r="CA84" s="9"/>
-      <c r="CB84" s="9"/>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:79">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -9258,9 +9158,8 @@
       <c r="BY85" s="9"/>
       <c r="BZ85" s="9"/>
       <c r="CA85" s="9"/>
-      <c r="CB85" s="9"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:79">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -9340,9 +9239,8 @@
       <c r="BY86" s="9"/>
       <c r="BZ86" s="9"/>
       <c r="CA86" s="9"/>
-      <c r="CB86" s="9"/>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:79">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -9422,9 +9320,8 @@
       <c r="BY87" s="9"/>
       <c r="BZ87" s="9"/>
       <c r="CA87" s="9"/>
-      <c r="CB87" s="9"/>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:79">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -9504,9 +9401,8 @@
       <c r="BY88" s="9"/>
       <c r="BZ88" s="9"/>
       <c r="CA88" s="9"/>
-      <c r="CB88" s="9"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:79">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -9586,9 +9482,8 @@
       <c r="BY89" s="9"/>
       <c r="BZ89" s="9"/>
       <c r="CA89" s="9"/>
-      <c r="CB89" s="9"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:79">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -9668,9 +9563,8 @@
       <c r="BY90" s="9"/>
       <c r="BZ90" s="9"/>
       <c r="CA90" s="9"/>
-      <c r="CB90" s="9"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:79">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -9750,9 +9644,8 @@
       <c r="BY91" s="9"/>
       <c r="BZ91" s="9"/>
       <c r="CA91" s="9"/>
-      <c r="CB91" s="9"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:79">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -9832,9 +9725,8 @@
       <c r="BY92" s="9"/>
       <c r="BZ92" s="9"/>
       <c r="CA92" s="9"/>
-      <c r="CB92" s="9"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:79">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -9914,9 +9806,8 @@
       <c r="BY93" s="9"/>
       <c r="BZ93" s="9"/>
       <c r="CA93" s="9"/>
-      <c r="CB93" s="9"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:79">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -9996,9 +9887,8 @@
       <c r="BY94" s="9"/>
       <c r="BZ94" s="9"/>
       <c r="CA94" s="9"/>
-      <c r="CB94" s="9"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:79">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -10078,9 +9968,8 @@
       <c r="BY95" s="9"/>
       <c r="BZ95" s="9"/>
       <c r="CA95" s="9"/>
-      <c r="CB95" s="9"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:79">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -10160,9 +10049,8 @@
       <c r="BY96" s="9"/>
       <c r="BZ96" s="9"/>
       <c r="CA96" s="9"/>
-      <c r="CB96" s="9"/>
-    </row>
-    <row r="97" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:79">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -10242,9 +10130,8 @@
       <c r="BY97" s="9"/>
       <c r="BZ97" s="9"/>
       <c r="CA97" s="9"/>
-      <c r="CB97" s="9"/>
-    </row>
-    <row r="98" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:79">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -10324,9 +10211,8 @@
       <c r="BY98" s="9"/>
       <c r="BZ98" s="9"/>
       <c r="CA98" s="9"/>
-      <c r="CB98" s="9"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:79">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -10406,9 +10292,8 @@
       <c r="BY99" s="9"/>
       <c r="BZ99" s="9"/>
       <c r="CA99" s="9"/>
-      <c r="CB99" s="9"/>
-    </row>
-    <row r="100" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:79">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -10488,9 +10373,8 @@
       <c r="BY100" s="9"/>
       <c r="BZ100" s="9"/>
       <c r="CA100" s="9"/>
-      <c r="CB100" s="9"/>
-    </row>
-    <row r="101" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:79">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -10570,9 +10454,8 @@
       <c r="BY101" s="9"/>
       <c r="BZ101" s="9"/>
       <c r="CA101" s="9"/>
-      <c r="CB101" s="9"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:79">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -10652,9 +10535,8 @@
       <c r="BY102" s="9"/>
       <c r="BZ102" s="9"/>
       <c r="CA102" s="9"/>
-      <c r="CB102" s="9"/>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:79">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -10734,9 +10616,8 @@
       <c r="BY103" s="9"/>
       <c r="BZ103" s="9"/>
       <c r="CA103" s="9"/>
-      <c r="CB103" s="9"/>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:79">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -10816,9 +10697,8 @@
       <c r="BY104" s="9"/>
       <c r="BZ104" s="9"/>
       <c r="CA104" s="9"/>
-      <c r="CB104" s="9"/>
-    </row>
-    <row r="105" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:79">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -10898,9 +10778,8 @@
       <c r="BY105" s="9"/>
       <c r="BZ105" s="9"/>
       <c r="CA105" s="9"/>
-      <c r="CB105" s="9"/>
-    </row>
-    <row r="106" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:79">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -10980,9 +10859,8 @@
       <c r="BY106" s="9"/>
       <c r="BZ106" s="9"/>
       <c r="CA106" s="9"/>
-      <c r="CB106" s="9"/>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:79">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -11062,9 +10940,8 @@
       <c r="BY107" s="9"/>
       <c r="BZ107" s="9"/>
       <c r="CA107" s="9"/>
-      <c r="CB107" s="9"/>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:79">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -11144,9 +11021,8 @@
       <c r="BY108" s="9"/>
       <c r="BZ108" s="9"/>
       <c r="CA108" s="9"/>
-      <c r="CB108" s="9"/>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:79">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -11226,9 +11102,8 @@
       <c r="BY109" s="9"/>
       <c r="BZ109" s="9"/>
       <c r="CA109" s="9"/>
-      <c r="CB109" s="9"/>
-    </row>
-    <row r="110" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:79">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -11308,9 +11183,8 @@
       <c r="BY110" s="9"/>
       <c r="BZ110" s="9"/>
       <c r="CA110" s="9"/>
-      <c r="CB110" s="9"/>
-    </row>
-    <row r="111" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:79">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -11390,9 +11264,8 @@
       <c r="BY111" s="9"/>
       <c r="BZ111" s="9"/>
       <c r="CA111" s="9"/>
-      <c r="CB111" s="9"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:79">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -11472,9 +11345,8 @@
       <c r="BY112" s="9"/>
       <c r="BZ112" s="9"/>
       <c r="CA112" s="9"/>
-      <c r="CB112" s="9"/>
-    </row>
-    <row r="113" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:79">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -11554,9 +11426,8 @@
       <c r="BY113" s="9"/>
       <c r="BZ113" s="9"/>
       <c r="CA113" s="9"/>
-      <c r="CB113" s="9"/>
-    </row>
-    <row r="114" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:79">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -11636,9 +11507,8 @@
       <c r="BY114" s="9"/>
       <c r="BZ114" s="9"/>
       <c r="CA114" s="9"/>
-      <c r="CB114" s="9"/>
-    </row>
-    <row r="115" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:79">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -11718,9 +11588,8 @@
       <c r="BY115" s="9"/>
       <c r="BZ115" s="9"/>
       <c r="CA115" s="9"/>
-      <c r="CB115" s="9"/>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:79">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -11800,9 +11669,8 @@
       <c r="BY116" s="9"/>
       <c r="BZ116" s="9"/>
       <c r="CA116" s="9"/>
-      <c r="CB116" s="9"/>
-    </row>
-    <row r="117" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:79">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -11882,9 +11750,8 @@
       <c r="BY117" s="9"/>
       <c r="BZ117" s="9"/>
       <c r="CA117" s="9"/>
-      <c r="CB117" s="9"/>
-    </row>
-    <row r="118" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:79">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -11964,9 +11831,8 @@
       <c r="BY118" s="9"/>
       <c r="BZ118" s="9"/>
       <c r="CA118" s="9"/>
-      <c r="CB118" s="9"/>
-    </row>
-    <row r="119" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:79">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -12046,9 +11912,8 @@
       <c r="BY119" s="9"/>
       <c r="BZ119" s="9"/>
       <c r="CA119" s="9"/>
-      <c r="CB119" s="9"/>
-    </row>
-    <row r="120" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:79">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -12128,9 +11993,8 @@
       <c r="BY120" s="9"/>
       <c r="BZ120" s="9"/>
       <c r="CA120" s="9"/>
-      <c r="CB120" s="9"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:79">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -12210,9 +12074,8 @@
       <c r="BY121" s="9"/>
       <c r="BZ121" s="9"/>
       <c r="CA121" s="9"/>
-      <c r="CB121" s="9"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:79">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -12292,9 +12155,8 @@
       <c r="BY122" s="9"/>
       <c r="BZ122" s="9"/>
       <c r="CA122" s="9"/>
-      <c r="CB122" s="9"/>
-    </row>
-    <row r="123" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:79">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -12374,9 +12236,8 @@
       <c r="BY123" s="9"/>
       <c r="BZ123" s="9"/>
       <c r="CA123" s="9"/>
-      <c r="CB123" s="9"/>
-    </row>
-    <row r="124" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:79">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -12456,9 +12317,8 @@
       <c r="BY124" s="9"/>
       <c r="BZ124" s="9"/>
       <c r="CA124" s="9"/>
-      <c r="CB124" s="9"/>
-    </row>
-    <row r="125" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:79">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -12538,9 +12398,8 @@
       <c r="BY125" s="9"/>
       <c r="BZ125" s="9"/>
       <c r="CA125" s="9"/>
-      <c r="CB125" s="9"/>
-    </row>
-    <row r="126" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:79">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -12620,9 +12479,8 @@
       <c r="BY126" s="9"/>
       <c r="BZ126" s="9"/>
       <c r="CA126" s="9"/>
-      <c r="CB126" s="9"/>
-    </row>
-    <row r="127" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:79">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -12702,9 +12560,8 @@
       <c r="BY127" s="9"/>
       <c r="BZ127" s="9"/>
       <c r="CA127" s="9"/>
-      <c r="CB127" s="9"/>
-    </row>
-    <row r="128" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:79">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -12784,9 +12641,8 @@
       <c r="BY128" s="9"/>
       <c r="BZ128" s="9"/>
       <c r="CA128" s="9"/>
-      <c r="CB128" s="9"/>
-    </row>
-    <row r="129" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:79">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -12866,9 +12722,8 @@
       <c r="BY129" s="9"/>
       <c r="BZ129" s="9"/>
       <c r="CA129" s="9"/>
-      <c r="CB129" s="9"/>
-    </row>
-    <row r="130" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:79">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -12948,9 +12803,8 @@
       <c r="BY130" s="9"/>
       <c r="BZ130" s="9"/>
       <c r="CA130" s="9"/>
-      <c r="CB130" s="9"/>
-    </row>
-    <row r="131" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:79">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -13030,9 +12884,8 @@
       <c r="BY131" s="9"/>
       <c r="BZ131" s="9"/>
       <c r="CA131" s="9"/>
-      <c r="CB131" s="9"/>
-    </row>
-    <row r="132" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:79">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -13112,9 +12965,8 @@
       <c r="BY132" s="9"/>
       <c r="BZ132" s="9"/>
       <c r="CA132" s="9"/>
-      <c r="CB132" s="9"/>
-    </row>
-    <row r="133" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:79">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -13194,9 +13046,8 @@
       <c r="BY133" s="9"/>
       <c r="BZ133" s="9"/>
       <c r="CA133" s="9"/>
-      <c r="CB133" s="9"/>
-    </row>
-    <row r="134" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:79">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -13276,9 +13127,8 @@
       <c r="BY134" s="9"/>
       <c r="BZ134" s="9"/>
       <c r="CA134" s="9"/>
-      <c r="CB134" s="9"/>
-    </row>
-    <row r="135" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:79">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -13358,9 +13208,8 @@
       <c r="BY135" s="9"/>
       <c r="BZ135" s="9"/>
       <c r="CA135" s="9"/>
-      <c r="CB135" s="9"/>
-    </row>
-    <row r="136" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:79">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -13440,9 +13289,8 @@
       <c r="BY136" s="9"/>
       <c r="BZ136" s="9"/>
       <c r="CA136" s="9"/>
-      <c r="CB136" s="9"/>
-    </row>
-    <row r="137" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:79">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -13522,9 +13370,8 @@
       <c r="BY137" s="9"/>
       <c r="BZ137" s="9"/>
       <c r="CA137" s="9"/>
-      <c r="CB137" s="9"/>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:79">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -13604,9 +13451,8 @@
       <c r="BY138" s="9"/>
       <c r="BZ138" s="9"/>
       <c r="CA138" s="9"/>
-      <c r="CB138" s="9"/>
-    </row>
-    <row r="139" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:79">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -13686,9 +13532,8 @@
       <c r="BY139" s="9"/>
       <c r="BZ139" s="9"/>
       <c r="CA139" s="9"/>
-      <c r="CB139" s="9"/>
-    </row>
-    <row r="140" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:79">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -13768,9 +13613,8 @@
       <c r="BY140" s="9"/>
       <c r="BZ140" s="9"/>
       <c r="CA140" s="9"/>
-      <c r="CB140" s="9"/>
-    </row>
-    <row r="141" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:79">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -13850,9 +13694,8 @@
       <c r="BY141" s="9"/>
       <c r="BZ141" s="9"/>
       <c r="CA141" s="9"/>
-      <c r="CB141" s="9"/>
-    </row>
-    <row r="142" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:79">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -13932,9 +13775,8 @@
       <c r="BY142" s="9"/>
       <c r="BZ142" s="9"/>
       <c r="CA142" s="9"/>
-      <c r="CB142" s="9"/>
-    </row>
-    <row r="143" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:79">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -14014,9 +13856,8 @@
       <c r="BY143" s="9"/>
       <c r="BZ143" s="9"/>
       <c r="CA143" s="9"/>
-      <c r="CB143" s="9"/>
-    </row>
-    <row r="144" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="144" s="3" customFormat="1" spans="1:79">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -14096,9 +13937,8 @@
       <c r="BY144" s="9"/>
       <c r="BZ144" s="9"/>
       <c r="CA144" s="9"/>
-      <c r="CB144" s="9"/>
-    </row>
-    <row r="145" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="145" s="3" customFormat="1" spans="1:79">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -14178,9 +14018,8 @@
       <c r="BY145" s="9"/>
       <c r="BZ145" s="9"/>
       <c r="CA145" s="9"/>
-      <c r="CB145" s="9"/>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="146" s="3" customFormat="1" spans="1:79">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -14260,9 +14099,8 @@
       <c r="BY146" s="9"/>
       <c r="BZ146" s="9"/>
       <c r="CA146" s="9"/>
-      <c r="CB146" s="9"/>
-    </row>
-    <row r="147" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:79">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -14342,9 +14180,8 @@
       <c r="BY147" s="9"/>
       <c r="BZ147" s="9"/>
       <c r="CA147" s="9"/>
-      <c r="CB147" s="9"/>
-    </row>
-    <row r="148" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="148" s="3" customFormat="1" spans="1:79">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -14424,9 +14261,8 @@
       <c r="BY148" s="9"/>
       <c r="BZ148" s="9"/>
       <c r="CA148" s="9"/>
-      <c r="CB148" s="9"/>
-    </row>
-    <row r="149" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="149" s="3" customFormat="1" spans="1:79">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -14506,9 +14342,8 @@
       <c r="BY149" s="9"/>
       <c r="BZ149" s="9"/>
       <c r="CA149" s="9"/>
-      <c r="CB149" s="9"/>
-    </row>
-    <row r="150" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:79">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -14588,9 +14423,8 @@
       <c r="BY150" s="9"/>
       <c r="BZ150" s="9"/>
       <c r="CA150" s="9"/>
-      <c r="CB150" s="9"/>
-    </row>
-    <row r="151" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="151" s="3" customFormat="1" spans="1:79">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -14670,9 +14504,8 @@
       <c r="BY151" s="9"/>
       <c r="BZ151" s="9"/>
       <c r="CA151" s="9"/>
-      <c r="CB151" s="9"/>
-    </row>
-    <row r="152" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="152" s="3" customFormat="1" spans="1:79">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -14752,9 +14585,8 @@
       <c r="BY152" s="9"/>
       <c r="BZ152" s="9"/>
       <c r="CA152" s="9"/>
-      <c r="CB152" s="9"/>
-    </row>
-    <row r="153" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="153" s="3" customFormat="1" spans="1:79">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -14834,9 +14666,8 @@
       <c r="BY153" s="9"/>
       <c r="BZ153" s="9"/>
       <c r="CA153" s="9"/>
-      <c r="CB153" s="9"/>
-    </row>
-    <row r="154" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="154" s="3" customFormat="1" spans="1:79">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -14916,9 +14747,8 @@
       <c r="BY154" s="9"/>
       <c r="BZ154" s="9"/>
       <c r="CA154" s="9"/>
-      <c r="CB154" s="9"/>
-    </row>
-    <row r="155" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="155" s="3" customFormat="1" spans="1:79">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -14998,9 +14828,8 @@
       <c r="BY155" s="9"/>
       <c r="BZ155" s="9"/>
       <c r="CA155" s="9"/>
-      <c r="CB155" s="9"/>
-    </row>
-    <row r="156" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="156" s="3" customFormat="1" spans="1:79">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -15080,9 +14909,8 @@
       <c r="BY156" s="9"/>
       <c r="BZ156" s="9"/>
       <c r="CA156" s="9"/>
-      <c r="CB156" s="9"/>
-    </row>
-    <row r="157" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:79">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -15162,9 +14990,8 @@
       <c r="BY157" s="9"/>
       <c r="BZ157" s="9"/>
       <c r="CA157" s="9"/>
-      <c r="CB157" s="9"/>
-    </row>
-    <row r="158" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:79">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -15244,9 +15071,8 @@
       <c r="BY158" s="9"/>
       <c r="BZ158" s="9"/>
       <c r="CA158" s="9"/>
-      <c r="CB158" s="9"/>
-    </row>
-    <row r="159" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="159" s="3" customFormat="1" spans="1:79">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -15326,9 +15152,8 @@
       <c r="BY159" s="9"/>
       <c r="BZ159" s="9"/>
       <c r="CA159" s="9"/>
-      <c r="CB159" s="9"/>
-    </row>
-    <row r="160" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:79">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -15408,9 +15233,8 @@
       <c r="BY160" s="9"/>
       <c r="BZ160" s="9"/>
       <c r="CA160" s="9"/>
-      <c r="CB160" s="9"/>
-    </row>
-    <row r="161" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:79">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -15490,9 +15314,8 @@
       <c r="BY161" s="9"/>
       <c r="BZ161" s="9"/>
       <c r="CA161" s="9"/>
-      <c r="CB161" s="9"/>
-    </row>
-    <row r="162" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="162" s="3" customFormat="1" spans="1:79">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -15572,9 +15395,8 @@
       <c r="BY162" s="9"/>
       <c r="BZ162" s="9"/>
       <c r="CA162" s="9"/>
-      <c r="CB162" s="9"/>
-    </row>
-    <row r="163" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="163" s="3" customFormat="1" spans="1:79">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -15654,9 +15476,8 @@
       <c r="BY163" s="9"/>
       <c r="BZ163" s="9"/>
       <c r="CA163" s="9"/>
-      <c r="CB163" s="9"/>
-    </row>
-    <row r="164" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="164" s="3" customFormat="1" spans="1:79">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -15736,9 +15557,8 @@
       <c r="BY164" s="9"/>
       <c r="BZ164" s="9"/>
       <c r="CA164" s="9"/>
-      <c r="CB164" s="9"/>
-    </row>
-    <row r="165" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="165" s="3" customFormat="1" spans="1:79">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -15818,9 +15638,8 @@
       <c r="BY165" s="9"/>
       <c r="BZ165" s="9"/>
       <c r="CA165" s="9"/>
-      <c r="CB165" s="9"/>
-    </row>
-    <row r="166" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="166" s="3" customFormat="1" spans="1:79">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -15900,9 +15719,8 @@
       <c r="BY166" s="9"/>
       <c r="BZ166" s="9"/>
       <c r="CA166" s="9"/>
-      <c r="CB166" s="9"/>
-    </row>
-    <row r="167" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="167" s="3" customFormat="1" spans="1:79">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -15982,9 +15800,8 @@
       <c r="BY167" s="9"/>
       <c r="BZ167" s="9"/>
       <c r="CA167" s="9"/>
-      <c r="CB167" s="9"/>
-    </row>
-    <row r="168" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="168" s="3" customFormat="1" spans="1:79">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -16064,9 +15881,8 @@
       <c r="BY168" s="9"/>
       <c r="BZ168" s="9"/>
       <c r="CA168" s="9"/>
-      <c r="CB168" s="9"/>
-    </row>
-    <row r="169" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="169" s="3" customFormat="1" spans="1:79">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -16146,9 +15962,8 @@
       <c r="BY169" s="9"/>
       <c r="BZ169" s="9"/>
       <c r="CA169" s="9"/>
-      <c r="CB169" s="9"/>
-    </row>
-    <row r="170" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="170" s="3" customFormat="1" spans="1:79">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -16228,9 +16043,8 @@
       <c r="BY170" s="9"/>
       <c r="BZ170" s="9"/>
       <c r="CA170" s="9"/>
-      <c r="CB170" s="9"/>
-    </row>
-    <row r="171" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="171" s="3" customFormat="1" spans="1:79">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -16310,9 +16124,8 @@
       <c r="BY171" s="9"/>
       <c r="BZ171" s="9"/>
       <c r="CA171" s="9"/>
-      <c r="CB171" s="9"/>
-    </row>
-    <row r="172" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="172" s="3" customFormat="1" spans="1:79">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -16392,9 +16205,8 @@
       <c r="BY172" s="9"/>
       <c r="BZ172" s="9"/>
       <c r="CA172" s="9"/>
-      <c r="CB172" s="9"/>
-    </row>
-    <row r="173" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="173" s="3" customFormat="1" spans="1:79">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -16474,9 +16286,8 @@
       <c r="BY173" s="9"/>
       <c r="BZ173" s="9"/>
       <c r="CA173" s="9"/>
-      <c r="CB173" s="9"/>
-    </row>
-    <row r="174" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="174" s="3" customFormat="1" spans="1:79">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -16556,9 +16367,8 @@
       <c r="BY174" s="9"/>
       <c r="BZ174" s="9"/>
       <c r="CA174" s="9"/>
-      <c r="CB174" s="9"/>
-    </row>
-    <row r="175" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="175" s="3" customFormat="1" spans="1:79">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -16638,9 +16448,8 @@
       <c r="BY175" s="9"/>
       <c r="BZ175" s="9"/>
       <c r="CA175" s="9"/>
-      <c r="CB175" s="9"/>
-    </row>
-    <row r="176" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="176" s="3" customFormat="1" spans="1:79">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -16720,9 +16529,8 @@
       <c r="BY176" s="9"/>
       <c r="BZ176" s="9"/>
       <c r="CA176" s="9"/>
-      <c r="CB176" s="9"/>
-    </row>
-    <row r="177" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="177" s="3" customFormat="1" spans="1:79">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -16802,9 +16610,8 @@
       <c r="BY177" s="9"/>
       <c r="BZ177" s="9"/>
       <c r="CA177" s="9"/>
-      <c r="CB177" s="9"/>
-    </row>
-    <row r="178" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="178" s="3" customFormat="1" spans="1:79">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -16884,9 +16691,8 @@
       <c r="BY178" s="9"/>
       <c r="BZ178" s="9"/>
       <c r="CA178" s="9"/>
-      <c r="CB178" s="9"/>
-    </row>
-    <row r="179" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="179" s="3" customFormat="1" spans="1:79">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -16966,9 +16772,8 @@
       <c r="BY179" s="9"/>
       <c r="BZ179" s="9"/>
       <c r="CA179" s="9"/>
-      <c r="CB179" s="9"/>
-    </row>
-    <row r="180" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="180" s="3" customFormat="1" spans="1:79">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -17048,9 +16853,8 @@
       <c r="BY180" s="9"/>
       <c r="BZ180" s="9"/>
       <c r="CA180" s="9"/>
-      <c r="CB180" s="9"/>
-    </row>
-    <row r="181" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="181" s="3" customFormat="1" spans="1:79">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -17130,9 +16934,8 @@
       <c r="BY181" s="9"/>
       <c r="BZ181" s="9"/>
       <c r="CA181" s="9"/>
-      <c r="CB181" s="9"/>
-    </row>
-    <row r="182" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="182" s="3" customFormat="1" spans="1:79">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -17212,9 +17015,8 @@
       <c r="BY182" s="9"/>
       <c r="BZ182" s="9"/>
       <c r="CA182" s="9"/>
-      <c r="CB182" s="9"/>
-    </row>
-    <row r="183" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:79">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -17294,9 +17096,8 @@
       <c r="BY183" s="9"/>
       <c r="BZ183" s="9"/>
       <c r="CA183" s="9"/>
-      <c r="CB183" s="9"/>
-    </row>
-    <row r="184" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:79">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -17376,9 +17177,8 @@
       <c r="BY184" s="9"/>
       <c r="BZ184" s="9"/>
       <c r="CA184" s="9"/>
-      <c r="CB184" s="9"/>
-    </row>
-    <row r="185" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="185" s="3" customFormat="1" spans="1:79">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -17458,9 +17258,8 @@
       <c r="BY185" s="9"/>
       <c r="BZ185" s="9"/>
       <c r="CA185" s="9"/>
-      <c r="CB185" s="9"/>
-    </row>
-    <row r="186" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="186" s="3" customFormat="1" spans="1:79">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -17540,9 +17339,8 @@
       <c r="BY186" s="9"/>
       <c r="BZ186" s="9"/>
       <c r="CA186" s="9"/>
-      <c r="CB186" s="9"/>
-    </row>
-    <row r="187" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="187" s="3" customFormat="1" spans="1:79">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -17622,9 +17420,8 @@
       <c r="BY187" s="9"/>
       <c r="BZ187" s="9"/>
       <c r="CA187" s="9"/>
-      <c r="CB187" s="9"/>
-    </row>
-    <row r="188" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="188" s="3" customFormat="1" spans="1:79">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -17704,9 +17501,8 @@
       <c r="BY188" s="9"/>
       <c r="BZ188" s="9"/>
       <c r="CA188" s="9"/>
-      <c r="CB188" s="9"/>
-    </row>
-    <row r="189" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="189" s="3" customFormat="1" spans="1:79">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -17786,9 +17582,8 @@
       <c r="BY189" s="9"/>
       <c r="BZ189" s="9"/>
       <c r="CA189" s="9"/>
-      <c r="CB189" s="9"/>
-    </row>
-    <row r="190" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="190" s="3" customFormat="1" spans="1:79">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -17868,9 +17663,8 @@
       <c r="BY190" s="9"/>
       <c r="BZ190" s="9"/>
       <c r="CA190" s="9"/>
-      <c r="CB190" s="9"/>
-    </row>
-    <row r="191" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="191" s="3" customFormat="1" spans="1:79">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -17950,9 +17744,8 @@
       <c r="BY191" s="9"/>
       <c r="BZ191" s="9"/>
       <c r="CA191" s="9"/>
-      <c r="CB191" s="9"/>
-    </row>
-    <row r="192" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="192" s="3" customFormat="1" spans="1:79">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -18032,9 +17825,8 @@
       <c r="BY192" s="9"/>
       <c r="BZ192" s="9"/>
       <c r="CA192" s="9"/>
-      <c r="CB192" s="9"/>
-    </row>
-    <row r="193" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:79">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -18114,9 +17906,8 @@
       <c r="BY193" s="9"/>
       <c r="BZ193" s="9"/>
       <c r="CA193" s="9"/>
-      <c r="CB193" s="9"/>
-    </row>
-    <row r="194" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="194" s="3" customFormat="1" spans="1:79">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -18196,9 +17987,8 @@
       <c r="BY194" s="9"/>
       <c r="BZ194" s="9"/>
       <c r="CA194" s="9"/>
-      <c r="CB194" s="9"/>
-    </row>
-    <row r="195" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="195" s="3" customFormat="1" spans="1:79">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -18278,9 +18068,8 @@
       <c r="BY195" s="9"/>
       <c r="BZ195" s="9"/>
       <c r="CA195" s="9"/>
-      <c r="CB195" s="9"/>
-    </row>
-    <row r="196" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="196" s="3" customFormat="1" spans="1:79">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -18360,9 +18149,8 @@
       <c r="BY196" s="9"/>
       <c r="BZ196" s="9"/>
       <c r="CA196" s="9"/>
-      <c r="CB196" s="9"/>
-    </row>
-    <row r="197" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="197" s="3" customFormat="1" spans="1:79">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -18442,9 +18230,8 @@
       <c r="BY197" s="9"/>
       <c r="BZ197" s="9"/>
       <c r="CA197" s="9"/>
-      <c r="CB197" s="9"/>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:79">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -18524,9 +18311,8 @@
       <c r="BY198" s="9"/>
       <c r="BZ198" s="9"/>
       <c r="CA198" s="9"/>
-      <c r="CB198" s="9"/>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="199" s="3" customFormat="1" spans="1:79">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -18606,9 +18392,8 @@
       <c r="BY199" s="9"/>
       <c r="BZ199" s="9"/>
       <c r="CA199" s="9"/>
-      <c r="CB199" s="9"/>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="200" s="3" customFormat="1" spans="1:79">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -18688,9 +18473,8 @@
       <c r="BY200" s="9"/>
       <c r="BZ200" s="9"/>
       <c r="CA200" s="9"/>
-      <c r="CB200" s="9"/>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="1:80">
+    </row>
+    <row r="201" s="3" customFormat="1" spans="1:79">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -18770,51 +18554,47 @@
       <c r="BY201" s="9"/>
       <c r="BZ201" s="9"/>
       <c r="CA201" s="9"/>
-      <c r="CB201" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:BN1"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BT1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="AE1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:BM1"/>
+    <mergeCell ref="BN1:BR1"/>
+    <mergeCell ref="BS1:BW1"/>
+    <mergeCell ref="BX1:BZ1"/>
   </mergeCells>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
-      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
-    </dataValidation>
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT201">
-      <formula1>"配送,直送"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT3:BX201">
-      <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201 U3:U201 X3:X201">
-      <formula1>"否,是"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
-      <formula1>"通货,普货,大货"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T201">
-      <formula1>"大货仓位,小货仓位"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 Q3:Q1048576">
-      <formula1>"配送,直送,全部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
+      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201">
+      <formula1>"大货仓位,小货仓位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201">
+      <formula1>"通货,普货,大货"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS201">
+      <formula1>"配送,直送"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
       <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN201">
       <formula1>"经销,代销,联营"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BW201">
+      <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -892,9 +892,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -935,30 +935,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -980,9 +956,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,14 +981,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,9 +1003,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1025,14 +1025,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1048,37 +1079,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -1092,12 +1098,6 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1176,7 +1176,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,25 +1236,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,19 +1284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,67 +1296,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,15 +1401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1421,6 +1412,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1451,39 +1475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1498,16 +1489,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,16 +1516,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1534,115 +1534,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1705,6 +1705,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,9 +1715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,8 +2047,8 @@
   <sheetPr/>
   <dimension ref="A1:CA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -2174,26 +2174,26 @@
       <c r="BK1" s="18"/>
       <c r="BL1" s="18"/>
       <c r="BM1" s="18"/>
-      <c r="BN1" s="21" t="s">
+      <c r="BN1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="22" t="s">
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
       <c r="BX1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="BY1" s="26"/>
       <c r="BZ1" s="26"/>
-      <c r="CA1" s="21" t="s">
+      <c r="CA1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2339,13 +2339,13 @@
       <c r="AU2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AV2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AW2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AX2" s="20" t="s">
         <v>57</v>
       </c>
       <c r="AY2" s="15" t="s">
@@ -2360,19 +2360,19 @@
       <c r="BB2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="21" t="s">
         <v>66</v>
       </c>
       <c r="BH2" s="15" t="s">
@@ -2384,13 +2384,13 @@
       <c r="BJ2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="21" t="s">
         <v>70</v>
       </c>
       <c r="BL2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="BM2" s="23" t="s">
+      <c r="BM2" s="20" t="s">
         <v>72</v>
       </c>
       <c r="BN2" s="24" t="s">
@@ -2426,10 +2426,10 @@
       <c r="BX2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="20" t="s">
+      <c r="BY2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="BZ2" s="21" t="s">
         <v>84</v>
       </c>
       <c r="CA2" s="24" t="s">
@@ -18569,29 +18569,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201">
-      <formula1>"商品,赠品"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
+      <formula1>"否,是"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
       <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201">
+      <formula1>"商品,赠品"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS201">
+      <formula1>"配送,直送"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201">
       <formula1>"大货仓位,小货仓位"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
-      <formula1>"否,是"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201">
       <formula1>"通货,普货,大货"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS201">
-      <formula1>"配送,直送"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN201">
+      <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
       <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN201">
-      <formula1>"经销,代销,联营"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BW201">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="1">
+    <comment ref="BA2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -434,6 +434,15 @@
             <charset val="134"/>
           </rPr>
           <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -474,6 +483,32 @@
           </rPr>
           <t>只填数字</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="BH2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -485,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="1">
+    <comment ref="BJ2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -507,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ2" authorId="1">
+    <comment ref="BL2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -520,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN2" authorId="0">
+    <comment ref="BP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -530,50 +565,6 @@
             <charset val="134"/>
           </rPr>
           <t>单选下拉框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BO2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BP2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>只填数字</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
         </r>
       </text>
     </comment>
@@ -621,12 +612,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="BS2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>只填数字</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>基本信息</t>
   </si>
@@ -802,6 +837,9 @@
     <t>库存高(MM)</t>
   </si>
   <si>
+    <t>库存体积(MM)</t>
+  </si>
+  <si>
     <t>库存毛重(KG)</t>
   </si>
   <si>
@@ -821,6 +859,9 @@
   </si>
   <si>
     <t>采购高(MM)</t>
+  </si>
+  <si>
+    <t>采购体积(MM)</t>
   </si>
   <si>
     <t>采购毛重(KG)</t>
@@ -891,10 +932,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -936,7 +977,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,6 +992,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,7 +1028,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,7 +1051,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,28 +1062,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1025,16 +1081,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,34 +1112,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1158,13 +1199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,13 +1217,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,31 +1277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,67 +1307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,19 +1337,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,21 +1442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1434,21 +1460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1456,6 +1467,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,6 +1501,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1490,11 +1525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,10 +1545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,133 +1557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,13 +1755,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,10 +2086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CA201"/>
+  <dimension ref="A1:CC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BH7" sqref="BH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -2082,25 +2123,27 @@
     <col min="45" max="45" width="14.0833333333333" style="3" customWidth="1"/>
     <col min="46" max="47" width="9.75" style="3" customWidth="1"/>
     <col min="48" max="50" width="13" style="3" customWidth="1"/>
-    <col min="51" max="52" width="14" style="3" customWidth="1"/>
-    <col min="53" max="54" width="9.75" style="3" customWidth="1"/>
-    <col min="55" max="57" width="13" style="3" customWidth="1"/>
-    <col min="58" max="59" width="14" style="3" customWidth="1"/>
-    <col min="60" max="60" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="61" max="61" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="62" max="63" width="14.0833333333333" style="3" customWidth="1"/>
-    <col min="64" max="64" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="65" max="69" width="9.75" style="3" customWidth="1"/>
-    <col min="70" max="70" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="71" max="75" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="76" max="76" width="9.75" style="3" customWidth="1"/>
-    <col min="77" max="77" width="18.25" style="3" customWidth="1"/>
+    <col min="51" max="51" width="18.1111111111111" style="3" customWidth="1"/>
+    <col min="52" max="53" width="14" style="3" customWidth="1"/>
+    <col min="54" max="55" width="9.75" style="3" customWidth="1"/>
+    <col min="56" max="58" width="13" style="3" customWidth="1"/>
+    <col min="59" max="59" width="15.8888888888889" style="3" customWidth="1"/>
+    <col min="60" max="61" width="14" style="3" customWidth="1"/>
+    <col min="62" max="62" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="63" max="63" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="64" max="65" width="14.0833333333333" style="3" customWidth="1"/>
+    <col min="66" max="66" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="67" max="71" width="9.75" style="3" customWidth="1"/>
+    <col min="72" max="72" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="73" max="77" width="11.8333333333333" style="3" customWidth="1"/>
     <col min="78" max="78" width="9.75" style="3" customWidth="1"/>
-    <col min="79" max="79" width="16.3333333333333" style="3" customWidth="1"/>
-    <col min="80" max="16384" width="8.75" style="3"/>
+    <col min="79" max="79" width="18.25" style="3" customWidth="1"/>
+    <col min="80" max="80" width="9.75" style="3" customWidth="1"/>
+    <col min="81" max="81" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="82" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:79">
+    <row r="1" s="1" customFormat="1" ht="24.5" customHeight="1" spans="1:81">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2174,30 +2217,32 @@
       <c r="BK1" s="18"/>
       <c r="BL1" s="18"/>
       <c r="BM1" s="18"/>
-      <c r="BN1" s="22" t="s">
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
       <c r="BQ1" s="22"/>
       <c r="BR1" s="22"/>
-      <c r="BS1" s="23" t="s">
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="26" t="s">
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26"/>
-      <c r="CA1" s="22" t="s">
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:79">
+    <row r="2" s="2" customFormat="1" ht="28" customHeight="1" spans="1:81">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -2348,7 +2393,7 @@
       <c r="AX2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="15" t="s">
+      <c r="AY2" s="20" t="s">
         <v>58</v>
       </c>
       <c r="AZ2" s="15" t="s">
@@ -2360,7 +2405,7 @@
       <c r="BB2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="21" t="s">
+      <c r="BC2" s="15" t="s">
         <v>62</v>
       </c>
       <c r="BD2" s="21" t="s">
@@ -2375,37 +2420,37 @@
       <c r="BG2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BH2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BI2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="BJ2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="21" t="s">
+      <c r="BK2" s="15" t="s">
         <v>70</v>
       </c>
       <c r="BL2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="BM2" s="20" t="s">
+      <c r="BM2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BN2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BO2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BP2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="23" t="s">
         <v>77</v>
       </c>
       <c r="BS2" s="24" t="s">
@@ -2414,29 +2459,35 @@
       <c r="BT2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BU2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BV2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BW2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="BX2" s="15" t="s">
+      <c r="BX2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ2" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA2" s="24" t="s">
+      <c r="CA2" s="21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:79">
+      <c r="CB2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC2" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:81">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2516,8 +2567,10 @@
       <c r="BY3" s="9"/>
       <c r="BZ3" s="9"/>
       <c r="CA3" s="9"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:79">
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:81">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2597,8 +2650,10 @@
       <c r="BY4" s="9"/>
       <c r="BZ4" s="9"/>
       <c r="CA4" s="9"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:79">
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:81">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2678,8 +2733,10 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
       <c r="CA5" s="9"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:79">
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:81">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2759,8 +2816,10 @@
       <c r="BY6" s="9"/>
       <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:79">
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:81">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2840,8 +2899,10 @@
       <c r="BY7" s="9"/>
       <c r="BZ7" s="9"/>
       <c r="CA7" s="9"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:79">
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:81">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2921,8 +2982,10 @@
       <c r="BY8" s="9"/>
       <c r="BZ8" s="9"/>
       <c r="CA8" s="9"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:79">
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:81">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3002,8 +3065,10 @@
       <c r="BY9" s="9"/>
       <c r="BZ9" s="9"/>
       <c r="CA9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:79">
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:81">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3083,8 +3148,10 @@
       <c r="BY10" s="9"/>
       <c r="BZ10" s="9"/>
       <c r="CA10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:79">
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:81">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3164,8 +3231,10 @@
       <c r="BY11" s="9"/>
       <c r="BZ11" s="9"/>
       <c r="CA11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:79">
+      <c r="CB11" s="9"/>
+      <c r="CC11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:81">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3245,8 +3314,10 @@
       <c r="BY12" s="9"/>
       <c r="BZ12" s="9"/>
       <c r="CA12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:79">
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:81">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3326,8 +3397,10 @@
       <c r="BY13" s="9"/>
       <c r="BZ13" s="9"/>
       <c r="CA13" s="9"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:79">
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:81">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3407,8 +3480,10 @@
       <c r="BY14" s="9"/>
       <c r="BZ14" s="9"/>
       <c r="CA14" s="9"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:79">
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:81">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3488,8 +3563,10 @@
       <c r="BY15" s="9"/>
       <c r="BZ15" s="9"/>
       <c r="CA15" s="9"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:79">
+      <c r="CB15" s="9"/>
+      <c r="CC15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:81">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3569,8 +3646,10 @@
       <c r="BY16" s="9"/>
       <c r="BZ16" s="9"/>
       <c r="CA16" s="9"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:79">
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:81">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3650,8 +3729,10 @@
       <c r="BY17" s="9"/>
       <c r="BZ17" s="9"/>
       <c r="CA17" s="9"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:79">
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:81">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3731,8 +3812,10 @@
       <c r="BY18" s="9"/>
       <c r="BZ18" s="9"/>
       <c r="CA18" s="9"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:79">
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:81">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3812,8 +3895,10 @@
       <c r="BY19" s="9"/>
       <c r="BZ19" s="9"/>
       <c r="CA19" s="9"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:79">
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:81">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3893,8 +3978,10 @@
       <c r="BY20" s="9"/>
       <c r="BZ20" s="9"/>
       <c r="CA20" s="9"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:79">
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:81">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3974,8 +4061,10 @@
       <c r="BY21" s="9"/>
       <c r="BZ21" s="9"/>
       <c r="CA21" s="9"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:79">
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:81">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4055,8 +4144,10 @@
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:79">
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:81">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4136,8 +4227,10 @@
       <c r="BY23" s="9"/>
       <c r="BZ23" s="9"/>
       <c r="CA23" s="9"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:79">
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:81">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4217,8 +4310,10 @@
       <c r="BY24" s="9"/>
       <c r="BZ24" s="9"/>
       <c r="CA24" s="9"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:79">
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:81">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4298,8 +4393,10 @@
       <c r="BY25" s="9"/>
       <c r="BZ25" s="9"/>
       <c r="CA25" s="9"/>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:79">
+      <c r="CB25" s="9"/>
+      <c r="CC25" s="9"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:81">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4379,8 +4476,10 @@
       <c r="BY26" s="9"/>
       <c r="BZ26" s="9"/>
       <c r="CA26" s="9"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:79">
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:81">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4460,8 +4559,10 @@
       <c r="BY27" s="9"/>
       <c r="BZ27" s="9"/>
       <c r="CA27" s="9"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:79">
+      <c r="CB27" s="9"/>
+      <c r="CC27" s="9"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:81">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4541,8 +4642,10 @@
       <c r="BY28" s="9"/>
       <c r="BZ28" s="9"/>
       <c r="CA28" s="9"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:79">
+      <c r="CB28" s="9"/>
+      <c r="CC28" s="9"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:81">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4622,8 +4725,10 @@
       <c r="BY29" s="9"/>
       <c r="BZ29" s="9"/>
       <c r="CA29" s="9"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:79">
+      <c r="CB29" s="9"/>
+      <c r="CC29" s="9"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:81">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4703,8 +4808,10 @@
       <c r="BY30" s="9"/>
       <c r="BZ30" s="9"/>
       <c r="CA30" s="9"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:79">
+      <c r="CB30" s="9"/>
+      <c r="CC30" s="9"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:81">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -4784,8 +4891,10 @@
       <c r="BY31" s="9"/>
       <c r="BZ31" s="9"/>
       <c r="CA31" s="9"/>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:79">
+      <c r="CB31" s="9"/>
+      <c r="CC31" s="9"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:81">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4865,8 +4974,10 @@
       <c r="BY32" s="9"/>
       <c r="BZ32" s="9"/>
       <c r="CA32" s="9"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:79">
+      <c r="CB32" s="9"/>
+      <c r="CC32" s="9"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:81">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -4946,8 +5057,10 @@
       <c r="BY33" s="9"/>
       <c r="BZ33" s="9"/>
       <c r="CA33" s="9"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:79">
+      <c r="CB33" s="9"/>
+      <c r="CC33" s="9"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:81">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5027,8 +5140,10 @@
       <c r="BY34" s="9"/>
       <c r="BZ34" s="9"/>
       <c r="CA34" s="9"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:79">
+      <c r="CB34" s="9"/>
+      <c r="CC34" s="9"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:81">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -5108,8 +5223,10 @@
       <c r="BY35" s="9"/>
       <c r="BZ35" s="9"/>
       <c r="CA35" s="9"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:79">
+      <c r="CB35" s="9"/>
+      <c r="CC35" s="9"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:81">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5189,8 +5306,10 @@
       <c r="BY36" s="9"/>
       <c r="BZ36" s="9"/>
       <c r="CA36" s="9"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:79">
+      <c r="CB36" s="9"/>
+      <c r="CC36" s="9"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:81">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -5270,8 +5389,10 @@
       <c r="BY37" s="9"/>
       <c r="BZ37" s="9"/>
       <c r="CA37" s="9"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:79">
+      <c r="CB37" s="9"/>
+      <c r="CC37" s="9"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:81">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -5351,8 +5472,10 @@
       <c r="BY38" s="9"/>
       <c r="BZ38" s="9"/>
       <c r="CA38" s="9"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:79">
+      <c r="CB38" s="9"/>
+      <c r="CC38" s="9"/>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:81">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -5432,8 +5555,10 @@
       <c r="BY39" s="9"/>
       <c r="BZ39" s="9"/>
       <c r="CA39" s="9"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:79">
+      <c r="CB39" s="9"/>
+      <c r="CC39" s="9"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:81">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -5513,8 +5638,10 @@
       <c r="BY40" s="9"/>
       <c r="BZ40" s="9"/>
       <c r="CA40" s="9"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:79">
+      <c r="CB40" s="9"/>
+      <c r="CC40" s="9"/>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:81">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -5594,8 +5721,10 @@
       <c r="BY41" s="9"/>
       <c r="BZ41" s="9"/>
       <c r="CA41" s="9"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:79">
+      <c r="CB41" s="9"/>
+      <c r="CC41" s="9"/>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:81">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -5675,8 +5804,10 @@
       <c r="BY42" s="9"/>
       <c r="BZ42" s="9"/>
       <c r="CA42" s="9"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:79">
+      <c r="CB42" s="9"/>
+      <c r="CC42" s="9"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:81">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -5756,8 +5887,10 @@
       <c r="BY43" s="9"/>
       <c r="BZ43" s="9"/>
       <c r="CA43" s="9"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:79">
+      <c r="CB43" s="9"/>
+      <c r="CC43" s="9"/>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:81">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5837,8 +5970,10 @@
       <c r="BY44" s="9"/>
       <c r="BZ44" s="9"/>
       <c r="CA44" s="9"/>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:79">
+      <c r="CB44" s="9"/>
+      <c r="CC44" s="9"/>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:81">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -5918,8 +6053,10 @@
       <c r="BY45" s="9"/>
       <c r="BZ45" s="9"/>
       <c r="CA45" s="9"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:79">
+      <c r="CB45" s="9"/>
+      <c r="CC45" s="9"/>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:81">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -5999,8 +6136,10 @@
       <c r="BY46" s="9"/>
       <c r="BZ46" s="9"/>
       <c r="CA46" s="9"/>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:79">
+      <c r="CB46" s="9"/>
+      <c r="CC46" s="9"/>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:81">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -6080,8 +6219,10 @@
       <c r="BY47" s="9"/>
       <c r="BZ47" s="9"/>
       <c r="CA47" s="9"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:79">
+      <c r="CB47" s="9"/>
+      <c r="CC47" s="9"/>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:81">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -6161,8 +6302,10 @@
       <c r="BY48" s="9"/>
       <c r="BZ48" s="9"/>
       <c r="CA48" s="9"/>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:79">
+      <c r="CB48" s="9"/>
+      <c r="CC48" s="9"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:81">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -6242,8 +6385,10 @@
       <c r="BY49" s="9"/>
       <c r="BZ49" s="9"/>
       <c r="CA49" s="9"/>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:79">
+      <c r="CB49" s="9"/>
+      <c r="CC49" s="9"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:81">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -6323,8 +6468,10 @@
       <c r="BY50" s="9"/>
       <c r="BZ50" s="9"/>
       <c r="CA50" s="9"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:79">
+      <c r="CB50" s="9"/>
+      <c r="CC50" s="9"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:81">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -6404,8 +6551,10 @@
       <c r="BY51" s="9"/>
       <c r="BZ51" s="9"/>
       <c r="CA51" s="9"/>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:79">
+      <c r="CB51" s="9"/>
+      <c r="CC51" s="9"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:81">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -6485,8 +6634,10 @@
       <c r="BY52" s="9"/>
       <c r="BZ52" s="9"/>
       <c r="CA52" s="9"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:79">
+      <c r="CB52" s="9"/>
+      <c r="CC52" s="9"/>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:81">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -6566,8 +6717,10 @@
       <c r="BY53" s="9"/>
       <c r="BZ53" s="9"/>
       <c r="CA53" s="9"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:79">
+      <c r="CB53" s="9"/>
+      <c r="CC53" s="9"/>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:81">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -6647,8 +6800,10 @@
       <c r="BY54" s="9"/>
       <c r="BZ54" s="9"/>
       <c r="CA54" s="9"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:79">
+      <c r="CB54" s="9"/>
+      <c r="CC54" s="9"/>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:81">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -6728,8 +6883,10 @@
       <c r="BY55" s="9"/>
       <c r="BZ55" s="9"/>
       <c r="CA55" s="9"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:79">
+      <c r="CB55" s="9"/>
+      <c r="CC55" s="9"/>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:81">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -6809,8 +6966,10 @@
       <c r="BY56" s="9"/>
       <c r="BZ56" s="9"/>
       <c r="CA56" s="9"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:79">
+      <c r="CB56" s="9"/>
+      <c r="CC56" s="9"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:81">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -6890,8 +7049,10 @@
       <c r="BY57" s="9"/>
       <c r="BZ57" s="9"/>
       <c r="CA57" s="9"/>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:79">
+      <c r="CB57" s="9"/>
+      <c r="CC57" s="9"/>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:81">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -6971,8 +7132,10 @@
       <c r="BY58" s="9"/>
       <c r="BZ58" s="9"/>
       <c r="CA58" s="9"/>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:79">
+      <c r="CB58" s="9"/>
+      <c r="CC58" s="9"/>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:81">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -7052,8 +7215,10 @@
       <c r="BY59" s="9"/>
       <c r="BZ59" s="9"/>
       <c r="CA59" s="9"/>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:79">
+      <c r="CB59" s="9"/>
+      <c r="CC59" s="9"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:81">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -7133,8 +7298,10 @@
       <c r="BY60" s="9"/>
       <c r="BZ60" s="9"/>
       <c r="CA60" s="9"/>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:79">
+      <c r="CB60" s="9"/>
+      <c r="CC60" s="9"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:81">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -7214,8 +7381,10 @@
       <c r="BY61" s="9"/>
       <c r="BZ61" s="9"/>
       <c r="CA61" s="9"/>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:79">
+      <c r="CB61" s="9"/>
+      <c r="CC61" s="9"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:81">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -7295,8 +7464,10 @@
       <c r="BY62" s="9"/>
       <c r="BZ62" s="9"/>
       <c r="CA62" s="9"/>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:79">
+      <c r="CB62" s="9"/>
+      <c r="CC62" s="9"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:81">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -7376,8 +7547,10 @@
       <c r="BY63" s="9"/>
       <c r="BZ63" s="9"/>
       <c r="CA63" s="9"/>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:79">
+      <c r="CB63" s="9"/>
+      <c r="CC63" s="9"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:81">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -7457,8 +7630,10 @@
       <c r="BY64" s="9"/>
       <c r="BZ64" s="9"/>
       <c r="CA64" s="9"/>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:79">
+      <c r="CB64" s="9"/>
+      <c r="CC64" s="9"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:81">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -7538,8 +7713,10 @@
       <c r="BY65" s="9"/>
       <c r="BZ65" s="9"/>
       <c r="CA65" s="9"/>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:79">
+      <c r="CB65" s="9"/>
+      <c r="CC65" s="9"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:81">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -7619,8 +7796,10 @@
       <c r="BY66" s="9"/>
       <c r="BZ66" s="9"/>
       <c r="CA66" s="9"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:79">
+      <c r="CB66" s="9"/>
+      <c r="CC66" s="9"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:81">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -7700,8 +7879,10 @@
       <c r="BY67" s="9"/>
       <c r="BZ67" s="9"/>
       <c r="CA67" s="9"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:79">
+      <c r="CB67" s="9"/>
+      <c r="CC67" s="9"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:81">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -7781,8 +7962,10 @@
       <c r="BY68" s="9"/>
       <c r="BZ68" s="9"/>
       <c r="CA68" s="9"/>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:79">
+      <c r="CB68" s="9"/>
+      <c r="CC68" s="9"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:81">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -7862,8 +8045,10 @@
       <c r="BY69" s="9"/>
       <c r="BZ69" s="9"/>
       <c r="CA69" s="9"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:79">
+      <c r="CB69" s="9"/>
+      <c r="CC69" s="9"/>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:81">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -7943,8 +8128,10 @@
       <c r="BY70" s="9"/>
       <c r="BZ70" s="9"/>
       <c r="CA70" s="9"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:79">
+      <c r="CB70" s="9"/>
+      <c r="CC70" s="9"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:81">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -8024,8 +8211,10 @@
       <c r="BY71" s="9"/>
       <c r="BZ71" s="9"/>
       <c r="CA71" s="9"/>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:79">
+      <c r="CB71" s="9"/>
+      <c r="CC71" s="9"/>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:81">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -8105,8 +8294,10 @@
       <c r="BY72" s="9"/>
       <c r="BZ72" s="9"/>
       <c r="CA72" s="9"/>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:79">
+      <c r="CB72" s="9"/>
+      <c r="CC72" s="9"/>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:81">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -8186,8 +8377,10 @@
       <c r="BY73" s="9"/>
       <c r="BZ73" s="9"/>
       <c r="CA73" s="9"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:79">
+      <c r="CB73" s="9"/>
+      <c r="CC73" s="9"/>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:81">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -8267,8 +8460,10 @@
       <c r="BY74" s="9"/>
       <c r="BZ74" s="9"/>
       <c r="CA74" s="9"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:79">
+      <c r="CB74" s="9"/>
+      <c r="CC74" s="9"/>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:81">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -8348,8 +8543,10 @@
       <c r="BY75" s="9"/>
       <c r="BZ75" s="9"/>
       <c r="CA75" s="9"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:79">
+      <c r="CB75" s="9"/>
+      <c r="CC75" s="9"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:81">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -8429,8 +8626,10 @@
       <c r="BY76" s="9"/>
       <c r="BZ76" s="9"/>
       <c r="CA76" s="9"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:79">
+      <c r="CB76" s="9"/>
+      <c r="CC76" s="9"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:81">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -8510,8 +8709,10 @@
       <c r="BY77" s="9"/>
       <c r="BZ77" s="9"/>
       <c r="CA77" s="9"/>
-    </row>
-    <row r="78" s="3" customFormat="1" spans="1:79">
+      <c r="CB77" s="9"/>
+      <c r="CC77" s="9"/>
+    </row>
+    <row r="78" s="3" customFormat="1" spans="1:81">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -8591,8 +8792,10 @@
       <c r="BY78" s="9"/>
       <c r="BZ78" s="9"/>
       <c r="CA78" s="9"/>
-    </row>
-    <row r="79" s="3" customFormat="1" spans="1:79">
+      <c r="CB78" s="9"/>
+      <c r="CC78" s="9"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:81">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -8672,8 +8875,10 @@
       <c r="BY79" s="9"/>
       <c r="BZ79" s="9"/>
       <c r="CA79" s="9"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:79">
+      <c r="CB79" s="9"/>
+      <c r="CC79" s="9"/>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:81">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -8753,8 +8958,10 @@
       <c r="BY80" s="9"/>
       <c r="BZ80" s="9"/>
       <c r="CA80" s="9"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:79">
+      <c r="CB80" s="9"/>
+      <c r="CC80" s="9"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:81">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -8834,8 +9041,10 @@
       <c r="BY81" s="9"/>
       <c r="BZ81" s="9"/>
       <c r="CA81" s="9"/>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:79">
+      <c r="CB81" s="9"/>
+      <c r="CC81" s="9"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:81">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -8915,8 +9124,10 @@
       <c r="BY82" s="9"/>
       <c r="BZ82" s="9"/>
       <c r="CA82" s="9"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:79">
+      <c r="CB82" s="9"/>
+      <c r="CC82" s="9"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:81">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -8996,8 +9207,10 @@
       <c r="BY83" s="9"/>
       <c r="BZ83" s="9"/>
       <c r="CA83" s="9"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:79">
+      <c r="CB83" s="9"/>
+      <c r="CC83" s="9"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:81">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -9077,8 +9290,10 @@
       <c r="BY84" s="9"/>
       <c r="BZ84" s="9"/>
       <c r="CA84" s="9"/>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:79">
+      <c r="CB84" s="9"/>
+      <c r="CC84" s="9"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:81">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -9158,8 +9373,10 @@
       <c r="BY85" s="9"/>
       <c r="BZ85" s="9"/>
       <c r="CA85" s="9"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="1:79">
+      <c r="CB85" s="9"/>
+      <c r="CC85" s="9"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:81">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -9239,8 +9456,10 @@
       <c r="BY86" s="9"/>
       <c r="BZ86" s="9"/>
       <c r="CA86" s="9"/>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:79">
+      <c r="CB86" s="9"/>
+      <c r="CC86" s="9"/>
+    </row>
+    <row r="87" s="3" customFormat="1" spans="1:81">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -9320,8 +9539,10 @@
       <c r="BY87" s="9"/>
       <c r="BZ87" s="9"/>
       <c r="CA87" s="9"/>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="1:79">
+      <c r="CB87" s="9"/>
+      <c r="CC87" s="9"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:81">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -9401,8 +9622,10 @@
       <c r="BY88" s="9"/>
       <c r="BZ88" s="9"/>
       <c r="CA88" s="9"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:79">
+      <c r="CB88" s="9"/>
+      <c r="CC88" s="9"/>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:81">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -9482,8 +9705,10 @@
       <c r="BY89" s="9"/>
       <c r="BZ89" s="9"/>
       <c r="CA89" s="9"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="1:79">
+      <c r="CB89" s="9"/>
+      <c r="CC89" s="9"/>
+    </row>
+    <row r="90" s="3" customFormat="1" spans="1:81">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -9563,8 +9788,10 @@
       <c r="BY90" s="9"/>
       <c r="BZ90" s="9"/>
       <c r="CA90" s="9"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:79">
+      <c r="CB90" s="9"/>
+      <c r="CC90" s="9"/>
+    </row>
+    <row r="91" s="3" customFormat="1" spans="1:81">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -9644,8 +9871,10 @@
       <c r="BY91" s="9"/>
       <c r="BZ91" s="9"/>
       <c r="CA91" s="9"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:79">
+      <c r="CB91" s="9"/>
+      <c r="CC91" s="9"/>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:81">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -9725,8 +9954,10 @@
       <c r="BY92" s="9"/>
       <c r="BZ92" s="9"/>
       <c r="CA92" s="9"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:79">
+      <c r="CB92" s="9"/>
+      <c r="CC92" s="9"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:81">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -9806,8 +10037,10 @@
       <c r="BY93" s="9"/>
       <c r="BZ93" s="9"/>
       <c r="CA93" s="9"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="1:79">
+      <c r="CB93" s="9"/>
+      <c r="CC93" s="9"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:81">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -9887,8 +10120,10 @@
       <c r="BY94" s="9"/>
       <c r="BZ94" s="9"/>
       <c r="CA94" s="9"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="1:79">
+      <c r="CB94" s="9"/>
+      <c r="CC94" s="9"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:81">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -9968,8 +10203,10 @@
       <c r="BY95" s="9"/>
       <c r="BZ95" s="9"/>
       <c r="CA95" s="9"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:79">
+      <c r="CB95" s="9"/>
+      <c r="CC95" s="9"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:81">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -10049,8 +10286,10 @@
       <c r="BY96" s="9"/>
       <c r="BZ96" s="9"/>
       <c r="CA96" s="9"/>
-    </row>
-    <row r="97" s="3" customFormat="1" spans="1:79">
+      <c r="CB96" s="9"/>
+      <c r="CC96" s="9"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:81">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -10130,8 +10369,10 @@
       <c r="BY97" s="9"/>
       <c r="BZ97" s="9"/>
       <c r="CA97" s="9"/>
-    </row>
-    <row r="98" s="3" customFormat="1" spans="1:79">
+      <c r="CB97" s="9"/>
+      <c r="CC97" s="9"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:81">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -10211,8 +10452,10 @@
       <c r="BY98" s="9"/>
       <c r="BZ98" s="9"/>
       <c r="CA98" s="9"/>
-    </row>
-    <row r="99" s="3" customFormat="1" spans="1:79">
+      <c r="CB98" s="9"/>
+      <c r="CC98" s="9"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:81">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -10292,8 +10535,10 @@
       <c r="BY99" s="9"/>
       <c r="BZ99" s="9"/>
       <c r="CA99" s="9"/>
-    </row>
-    <row r="100" s="3" customFormat="1" spans="1:79">
+      <c r="CB99" s="9"/>
+      <c r="CC99" s="9"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:81">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -10373,8 +10618,10 @@
       <c r="BY100" s="9"/>
       <c r="BZ100" s="9"/>
       <c r="CA100" s="9"/>
-    </row>
-    <row r="101" s="3" customFormat="1" spans="1:79">
+      <c r="CB100" s="9"/>
+      <c r="CC100" s="9"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:81">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -10454,8 +10701,10 @@
       <c r="BY101" s="9"/>
       <c r="BZ101" s="9"/>
       <c r="CA101" s="9"/>
-    </row>
-    <row r="102" s="3" customFormat="1" spans="1:79">
+      <c r="CB101" s="9"/>
+      <c r="CC101" s="9"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:81">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -10535,8 +10784,10 @@
       <c r="BY102" s="9"/>
       <c r="BZ102" s="9"/>
       <c r="CA102" s="9"/>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="1:79">
+      <c r="CB102" s="9"/>
+      <c r="CC102" s="9"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:81">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -10616,8 +10867,10 @@
       <c r="BY103" s="9"/>
       <c r="BZ103" s="9"/>
       <c r="CA103" s="9"/>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="1:79">
+      <c r="CB103" s="9"/>
+      <c r="CC103" s="9"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:81">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -10697,8 +10950,10 @@
       <c r="BY104" s="9"/>
       <c r="BZ104" s="9"/>
       <c r="CA104" s="9"/>
-    </row>
-    <row r="105" s="3" customFormat="1" spans="1:79">
+      <c r="CB104" s="9"/>
+      <c r="CC104" s="9"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:81">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -10778,8 +11033,10 @@
       <c r="BY105" s="9"/>
       <c r="BZ105" s="9"/>
       <c r="CA105" s="9"/>
-    </row>
-    <row r="106" s="3" customFormat="1" spans="1:79">
+      <c r="CB105" s="9"/>
+      <c r="CC105" s="9"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:81">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -10859,8 +11116,10 @@
       <c r="BY106" s="9"/>
       <c r="BZ106" s="9"/>
       <c r="CA106" s="9"/>
-    </row>
-    <row r="107" s="3" customFormat="1" spans="1:79">
+      <c r="CB106" s="9"/>
+      <c r="CC106" s="9"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:81">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -10940,8 +11199,10 @@
       <c r="BY107" s="9"/>
       <c r="BZ107" s="9"/>
       <c r="CA107" s="9"/>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="1:79">
+      <c r="CB107" s="9"/>
+      <c r="CC107" s="9"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:81">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -11021,8 +11282,10 @@
       <c r="BY108" s="9"/>
       <c r="BZ108" s="9"/>
       <c r="CA108" s="9"/>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:79">
+      <c r="CB108" s="9"/>
+      <c r="CC108" s="9"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:81">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -11102,8 +11365,10 @@
       <c r="BY109" s="9"/>
       <c r="BZ109" s="9"/>
       <c r="CA109" s="9"/>
-    </row>
-    <row r="110" s="3" customFormat="1" spans="1:79">
+      <c r="CB109" s="9"/>
+      <c r="CC109" s="9"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:81">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -11183,8 +11448,10 @@
       <c r="BY110" s="9"/>
       <c r="BZ110" s="9"/>
       <c r="CA110" s="9"/>
-    </row>
-    <row r="111" s="3" customFormat="1" spans="1:79">
+      <c r="CB110" s="9"/>
+      <c r="CC110" s="9"/>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="1:81">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -11264,8 +11531,10 @@
       <c r="BY111" s="9"/>
       <c r="BZ111" s="9"/>
       <c r="CA111" s="9"/>
-    </row>
-    <row r="112" s="3" customFormat="1" spans="1:79">
+      <c r="CB111" s="9"/>
+      <c r="CC111" s="9"/>
+    </row>
+    <row r="112" s="3" customFormat="1" spans="1:81">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -11345,8 +11614,10 @@
       <c r="BY112" s="9"/>
       <c r="BZ112" s="9"/>
       <c r="CA112" s="9"/>
-    </row>
-    <row r="113" s="3" customFormat="1" spans="1:79">
+      <c r="CB112" s="9"/>
+      <c r="CC112" s="9"/>
+    </row>
+    <row r="113" s="3" customFormat="1" spans="1:81">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -11426,8 +11697,10 @@
       <c r="BY113" s="9"/>
       <c r="BZ113" s="9"/>
       <c r="CA113" s="9"/>
-    </row>
-    <row r="114" s="3" customFormat="1" spans="1:79">
+      <c r="CB113" s="9"/>
+      <c r="CC113" s="9"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:81">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -11507,8 +11780,10 @@
       <c r="BY114" s="9"/>
       <c r="BZ114" s="9"/>
       <c r="CA114" s="9"/>
-    </row>
-    <row r="115" s="3" customFormat="1" spans="1:79">
+      <c r="CB114" s="9"/>
+      <c r="CC114" s="9"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:81">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -11588,8 +11863,10 @@
       <c r="BY115" s="9"/>
       <c r="BZ115" s="9"/>
       <c r="CA115" s="9"/>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="1:79">
+      <c r="CB115" s="9"/>
+      <c r="CC115" s="9"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:81">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -11669,8 +11946,10 @@
       <c r="BY116" s="9"/>
       <c r="BZ116" s="9"/>
       <c r="CA116" s="9"/>
-    </row>
-    <row r="117" s="3" customFormat="1" spans="1:79">
+      <c r="CB116" s="9"/>
+      <c r="CC116" s="9"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:81">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -11750,8 +12029,10 @@
       <c r="BY117" s="9"/>
       <c r="BZ117" s="9"/>
       <c r="CA117" s="9"/>
-    </row>
-    <row r="118" s="3" customFormat="1" spans="1:79">
+      <c r="CB117" s="9"/>
+      <c r="CC117" s="9"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:81">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -11831,8 +12112,10 @@
       <c r="BY118" s="9"/>
       <c r="BZ118" s="9"/>
       <c r="CA118" s="9"/>
-    </row>
-    <row r="119" s="3" customFormat="1" spans="1:79">
+      <c r="CB118" s="9"/>
+      <c r="CC118" s="9"/>
+    </row>
+    <row r="119" s="3" customFormat="1" spans="1:81">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -11912,8 +12195,10 @@
       <c r="BY119" s="9"/>
       <c r="BZ119" s="9"/>
       <c r="CA119" s="9"/>
-    </row>
-    <row r="120" s="3" customFormat="1" spans="1:79">
+      <c r="CB119" s="9"/>
+      <c r="CC119" s="9"/>
+    </row>
+    <row r="120" s="3" customFormat="1" spans="1:81">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -11993,8 +12278,10 @@
       <c r="BY120" s="9"/>
       <c r="BZ120" s="9"/>
       <c r="CA120" s="9"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="1:79">
+      <c r="CB120" s="9"/>
+      <c r="CC120" s="9"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:81">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -12074,8 +12361,10 @@
       <c r="BY121" s="9"/>
       <c r="BZ121" s="9"/>
       <c r="CA121" s="9"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="1:79">
+      <c r="CB121" s="9"/>
+      <c r="CC121" s="9"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:81">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -12155,8 +12444,10 @@
       <c r="BY122" s="9"/>
       <c r="BZ122" s="9"/>
       <c r="CA122" s="9"/>
-    </row>
-    <row r="123" s="3" customFormat="1" spans="1:79">
+      <c r="CB122" s="9"/>
+      <c r="CC122" s="9"/>
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:81">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -12236,8 +12527,10 @@
       <c r="BY123" s="9"/>
       <c r="BZ123" s="9"/>
       <c r="CA123" s="9"/>
-    </row>
-    <row r="124" s="3" customFormat="1" spans="1:79">
+      <c r="CB123" s="9"/>
+      <c r="CC123" s="9"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:81">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -12317,8 +12610,10 @@
       <c r="BY124" s="9"/>
       <c r="BZ124" s="9"/>
       <c r="CA124" s="9"/>
-    </row>
-    <row r="125" s="3" customFormat="1" spans="1:79">
+      <c r="CB124" s="9"/>
+      <c r="CC124" s="9"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:81">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -12398,8 +12693,10 @@
       <c r="BY125" s="9"/>
       <c r="BZ125" s="9"/>
       <c r="CA125" s="9"/>
-    </row>
-    <row r="126" s="3" customFormat="1" spans="1:79">
+      <c r="CB125" s="9"/>
+      <c r="CC125" s="9"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:81">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -12479,8 +12776,10 @@
       <c r="BY126" s="9"/>
       <c r="BZ126" s="9"/>
       <c r="CA126" s="9"/>
-    </row>
-    <row r="127" s="3" customFormat="1" spans="1:79">
+      <c r="CB126" s="9"/>
+      <c r="CC126" s="9"/>
+    </row>
+    <row r="127" s="3" customFormat="1" spans="1:81">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -12560,8 +12859,10 @@
       <c r="BY127" s="9"/>
       <c r="BZ127" s="9"/>
       <c r="CA127" s="9"/>
-    </row>
-    <row r="128" s="3" customFormat="1" spans="1:79">
+      <c r="CB127" s="9"/>
+      <c r="CC127" s="9"/>
+    </row>
+    <row r="128" s="3" customFormat="1" spans="1:81">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -12641,8 +12942,10 @@
       <c r="BY128" s="9"/>
       <c r="BZ128" s="9"/>
       <c r="CA128" s="9"/>
-    </row>
-    <row r="129" s="3" customFormat="1" spans="1:79">
+      <c r="CB128" s="9"/>
+      <c r="CC128" s="9"/>
+    </row>
+    <row r="129" s="3" customFormat="1" spans="1:81">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -12722,8 +13025,10 @@
       <c r="BY129" s="9"/>
       <c r="BZ129" s="9"/>
       <c r="CA129" s="9"/>
-    </row>
-    <row r="130" s="3" customFormat="1" spans="1:79">
+      <c r="CB129" s="9"/>
+      <c r="CC129" s="9"/>
+    </row>
+    <row r="130" s="3" customFormat="1" spans="1:81">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -12803,8 +13108,10 @@
       <c r="BY130" s="9"/>
       <c r="BZ130" s="9"/>
       <c r="CA130" s="9"/>
-    </row>
-    <row r="131" s="3" customFormat="1" spans="1:79">
+      <c r="CB130" s="9"/>
+      <c r="CC130" s="9"/>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="1:81">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -12884,8 +13191,10 @@
       <c r="BY131" s="9"/>
       <c r="BZ131" s="9"/>
       <c r="CA131" s="9"/>
-    </row>
-    <row r="132" s="3" customFormat="1" spans="1:79">
+      <c r="CB131" s="9"/>
+      <c r="CC131" s="9"/>
+    </row>
+    <row r="132" s="3" customFormat="1" spans="1:81">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -12965,8 +13274,10 @@
       <c r="BY132" s="9"/>
       <c r="BZ132" s="9"/>
       <c r="CA132" s="9"/>
-    </row>
-    <row r="133" s="3" customFormat="1" spans="1:79">
+      <c r="CB132" s="9"/>
+      <c r="CC132" s="9"/>
+    </row>
+    <row r="133" s="3" customFormat="1" spans="1:81">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -13046,8 +13357,10 @@
       <c r="BY133" s="9"/>
       <c r="BZ133" s="9"/>
       <c r="CA133" s="9"/>
-    </row>
-    <row r="134" s="3" customFormat="1" spans="1:79">
+      <c r="CB133" s="9"/>
+      <c r="CC133" s="9"/>
+    </row>
+    <row r="134" s="3" customFormat="1" spans="1:81">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -13127,8 +13440,10 @@
       <c r="BY134" s="9"/>
       <c r="BZ134" s="9"/>
       <c r="CA134" s="9"/>
-    </row>
-    <row r="135" s="3" customFormat="1" spans="1:79">
+      <c r="CB134" s="9"/>
+      <c r="CC134" s="9"/>
+    </row>
+    <row r="135" s="3" customFormat="1" spans="1:81">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -13208,8 +13523,10 @@
       <c r="BY135" s="9"/>
       <c r="BZ135" s="9"/>
       <c r="CA135" s="9"/>
-    </row>
-    <row r="136" s="3" customFormat="1" spans="1:79">
+      <c r="CB135" s="9"/>
+      <c r="CC135" s="9"/>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="1:81">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -13289,8 +13606,10 @@
       <c r="BY136" s="9"/>
       <c r="BZ136" s="9"/>
       <c r="CA136" s="9"/>
-    </row>
-    <row r="137" s="3" customFormat="1" spans="1:79">
+      <c r="CB136" s="9"/>
+      <c r="CC136" s="9"/>
+    </row>
+    <row r="137" s="3" customFormat="1" spans="1:81">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -13370,8 +13689,10 @@
       <c r="BY137" s="9"/>
       <c r="BZ137" s="9"/>
       <c r="CA137" s="9"/>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:79">
+      <c r="CB137" s="9"/>
+      <c r="CC137" s="9"/>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:81">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -13451,8 +13772,10 @@
       <c r="BY138" s="9"/>
       <c r="BZ138" s="9"/>
       <c r="CA138" s="9"/>
-    </row>
-    <row r="139" s="3" customFormat="1" spans="1:79">
+      <c r="CB138" s="9"/>
+      <c r="CC138" s="9"/>
+    </row>
+    <row r="139" s="3" customFormat="1" spans="1:81">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -13532,8 +13855,10 @@
       <c r="BY139" s="9"/>
       <c r="BZ139" s="9"/>
       <c r="CA139" s="9"/>
-    </row>
-    <row r="140" s="3" customFormat="1" spans="1:79">
+      <c r="CB139" s="9"/>
+      <c r="CC139" s="9"/>
+    </row>
+    <row r="140" s="3" customFormat="1" spans="1:81">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -13613,8 +13938,10 @@
       <c r="BY140" s="9"/>
       <c r="BZ140" s="9"/>
       <c r="CA140" s="9"/>
-    </row>
-    <row r="141" s="3" customFormat="1" spans="1:79">
+      <c r="CB140" s="9"/>
+      <c r="CC140" s="9"/>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="1:81">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -13694,8 +14021,10 @@
       <c r="BY141" s="9"/>
       <c r="BZ141" s="9"/>
       <c r="CA141" s="9"/>
-    </row>
-    <row r="142" s="3" customFormat="1" spans="1:79">
+      <c r="CB141" s="9"/>
+      <c r="CC141" s="9"/>
+    </row>
+    <row r="142" s="3" customFormat="1" spans="1:81">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -13775,8 +14104,10 @@
       <c r="BY142" s="9"/>
       <c r="BZ142" s="9"/>
       <c r="CA142" s="9"/>
-    </row>
-    <row r="143" s="3" customFormat="1" spans="1:79">
+      <c r="CB142" s="9"/>
+      <c r="CC142" s="9"/>
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:81">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -13856,8 +14187,10 @@
       <c r="BY143" s="9"/>
       <c r="BZ143" s="9"/>
       <c r="CA143" s="9"/>
-    </row>
-    <row r="144" s="3" customFormat="1" spans="1:79">
+      <c r="CB143" s="9"/>
+      <c r="CC143" s="9"/>
+    </row>
+    <row r="144" s="3" customFormat="1" spans="1:81">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -13937,8 +14270,10 @@
       <c r="BY144" s="9"/>
       <c r="BZ144" s="9"/>
       <c r="CA144" s="9"/>
-    </row>
-    <row r="145" s="3" customFormat="1" spans="1:79">
+      <c r="CB144" s="9"/>
+      <c r="CC144" s="9"/>
+    </row>
+    <row r="145" s="3" customFormat="1" spans="1:81">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -14018,8 +14353,10 @@
       <c r="BY145" s="9"/>
       <c r="BZ145" s="9"/>
       <c r="CA145" s="9"/>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="1:79">
+      <c r="CB145" s="9"/>
+      <c r="CC145" s="9"/>
+    </row>
+    <row r="146" s="3" customFormat="1" spans="1:81">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -14099,8 +14436,10 @@
       <c r="BY146" s="9"/>
       <c r="BZ146" s="9"/>
       <c r="CA146" s="9"/>
-    </row>
-    <row r="147" s="3" customFormat="1" spans="1:79">
+      <c r="CB146" s="9"/>
+      <c r="CC146" s="9"/>
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:81">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -14180,8 +14519,10 @@
       <c r="BY147" s="9"/>
       <c r="BZ147" s="9"/>
       <c r="CA147" s="9"/>
-    </row>
-    <row r="148" s="3" customFormat="1" spans="1:79">
+      <c r="CB147" s="9"/>
+      <c r="CC147" s="9"/>
+    </row>
+    <row r="148" s="3" customFormat="1" spans="1:81">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -14261,8 +14602,10 @@
       <c r="BY148" s="9"/>
       <c r="BZ148" s="9"/>
       <c r="CA148" s="9"/>
-    </row>
-    <row r="149" s="3" customFormat="1" spans="1:79">
+      <c r="CB148" s="9"/>
+      <c r="CC148" s="9"/>
+    </row>
+    <row r="149" s="3" customFormat="1" spans="1:81">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -14342,8 +14685,10 @@
       <c r="BY149" s="9"/>
       <c r="BZ149" s="9"/>
       <c r="CA149" s="9"/>
-    </row>
-    <row r="150" s="3" customFormat="1" spans="1:79">
+      <c r="CB149" s="9"/>
+      <c r="CC149" s="9"/>
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:81">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -14423,8 +14768,10 @@
       <c r="BY150" s="9"/>
       <c r="BZ150" s="9"/>
       <c r="CA150" s="9"/>
-    </row>
-    <row r="151" s="3" customFormat="1" spans="1:79">
+      <c r="CB150" s="9"/>
+      <c r="CC150" s="9"/>
+    </row>
+    <row r="151" s="3" customFormat="1" spans="1:81">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -14504,8 +14851,10 @@
       <c r="BY151" s="9"/>
       <c r="BZ151" s="9"/>
       <c r="CA151" s="9"/>
-    </row>
-    <row r="152" s="3" customFormat="1" spans="1:79">
+      <c r="CB151" s="9"/>
+      <c r="CC151" s="9"/>
+    </row>
+    <row r="152" s="3" customFormat="1" spans="1:81">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -14585,8 +14934,10 @@
       <c r="BY152" s="9"/>
       <c r="BZ152" s="9"/>
       <c r="CA152" s="9"/>
-    </row>
-    <row r="153" s="3" customFormat="1" spans="1:79">
+      <c r="CB152" s="9"/>
+      <c r="CC152" s="9"/>
+    </row>
+    <row r="153" s="3" customFormat="1" spans="1:81">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -14666,8 +15017,10 @@
       <c r="BY153" s="9"/>
       <c r="BZ153" s="9"/>
       <c r="CA153" s="9"/>
-    </row>
-    <row r="154" s="3" customFormat="1" spans="1:79">
+      <c r="CB153" s="9"/>
+      <c r="CC153" s="9"/>
+    </row>
+    <row r="154" s="3" customFormat="1" spans="1:81">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -14747,8 +15100,10 @@
       <c r="BY154" s="9"/>
       <c r="BZ154" s="9"/>
       <c r="CA154" s="9"/>
-    </row>
-    <row r="155" s="3" customFormat="1" spans="1:79">
+      <c r="CB154" s="9"/>
+      <c r="CC154" s="9"/>
+    </row>
+    <row r="155" s="3" customFormat="1" spans="1:81">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -14828,8 +15183,10 @@
       <c r="BY155" s="9"/>
       <c r="BZ155" s="9"/>
       <c r="CA155" s="9"/>
-    </row>
-    <row r="156" s="3" customFormat="1" spans="1:79">
+      <c r="CB155" s="9"/>
+      <c r="CC155" s="9"/>
+    </row>
+    <row r="156" s="3" customFormat="1" spans="1:81">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -14909,8 +15266,10 @@
       <c r="BY156" s="9"/>
       <c r="BZ156" s="9"/>
       <c r="CA156" s="9"/>
-    </row>
-    <row r="157" s="3" customFormat="1" spans="1:79">
+      <c r="CB156" s="9"/>
+      <c r="CC156" s="9"/>
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:81">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -14990,8 +15349,10 @@
       <c r="BY157" s="9"/>
       <c r="BZ157" s="9"/>
       <c r="CA157" s="9"/>
-    </row>
-    <row r="158" s="3" customFormat="1" spans="1:79">
+      <c r="CB157" s="9"/>
+      <c r="CC157" s="9"/>
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:81">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -15071,8 +15432,10 @@
       <c r="BY158" s="9"/>
       <c r="BZ158" s="9"/>
       <c r="CA158" s="9"/>
-    </row>
-    <row r="159" s="3" customFormat="1" spans="1:79">
+      <c r="CB158" s="9"/>
+      <c r="CC158" s="9"/>
+    </row>
+    <row r="159" s="3" customFormat="1" spans="1:81">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -15152,8 +15515,10 @@
       <c r="BY159" s="9"/>
       <c r="BZ159" s="9"/>
       <c r="CA159" s="9"/>
-    </row>
-    <row r="160" s="3" customFormat="1" spans="1:79">
+      <c r="CB159" s="9"/>
+      <c r="CC159" s="9"/>
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:81">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -15233,8 +15598,10 @@
       <c r="BY160" s="9"/>
       <c r="BZ160" s="9"/>
       <c r="CA160" s="9"/>
-    </row>
-    <row r="161" s="3" customFormat="1" spans="1:79">
+      <c r="CB160" s="9"/>
+      <c r="CC160" s="9"/>
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:81">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -15314,8 +15681,10 @@
       <c r="BY161" s="9"/>
       <c r="BZ161" s="9"/>
       <c r="CA161" s="9"/>
-    </row>
-    <row r="162" s="3" customFormat="1" spans="1:79">
+      <c r="CB161" s="9"/>
+      <c r="CC161" s="9"/>
+    </row>
+    <row r="162" s="3" customFormat="1" spans="1:81">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -15395,8 +15764,10 @@
       <c r="BY162" s="9"/>
       <c r="BZ162" s="9"/>
       <c r="CA162" s="9"/>
-    </row>
-    <row r="163" s="3" customFormat="1" spans="1:79">
+      <c r="CB162" s="9"/>
+      <c r="CC162" s="9"/>
+    </row>
+    <row r="163" s="3" customFormat="1" spans="1:81">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -15476,8 +15847,10 @@
       <c r="BY163" s="9"/>
       <c r="BZ163" s="9"/>
       <c r="CA163" s="9"/>
-    </row>
-    <row r="164" s="3" customFormat="1" spans="1:79">
+      <c r="CB163" s="9"/>
+      <c r="CC163" s="9"/>
+    </row>
+    <row r="164" s="3" customFormat="1" spans="1:81">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -15557,8 +15930,10 @@
       <c r="BY164" s="9"/>
       <c r="BZ164" s="9"/>
       <c r="CA164" s="9"/>
-    </row>
-    <row r="165" s="3" customFormat="1" spans="1:79">
+      <c r="CB164" s="9"/>
+      <c r="CC164" s="9"/>
+    </row>
+    <row r="165" s="3" customFormat="1" spans="1:81">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -15638,8 +16013,10 @@
       <c r="BY165" s="9"/>
       <c r="BZ165" s="9"/>
       <c r="CA165" s="9"/>
-    </row>
-    <row r="166" s="3" customFormat="1" spans="1:79">
+      <c r="CB165" s="9"/>
+      <c r="CC165" s="9"/>
+    </row>
+    <row r="166" s="3" customFormat="1" spans="1:81">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -15719,8 +16096,10 @@
       <c r="BY166" s="9"/>
       <c r="BZ166" s="9"/>
       <c r="CA166" s="9"/>
-    </row>
-    <row r="167" s="3" customFormat="1" spans="1:79">
+      <c r="CB166" s="9"/>
+      <c r="CC166" s="9"/>
+    </row>
+    <row r="167" s="3" customFormat="1" spans="1:81">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -15800,8 +16179,10 @@
       <c r="BY167" s="9"/>
       <c r="BZ167" s="9"/>
       <c r="CA167" s="9"/>
-    </row>
-    <row r="168" s="3" customFormat="1" spans="1:79">
+      <c r="CB167" s="9"/>
+      <c r="CC167" s="9"/>
+    </row>
+    <row r="168" s="3" customFormat="1" spans="1:81">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -15881,8 +16262,10 @@
       <c r="BY168" s="9"/>
       <c r="BZ168" s="9"/>
       <c r="CA168" s="9"/>
-    </row>
-    <row r="169" s="3" customFormat="1" spans="1:79">
+      <c r="CB168" s="9"/>
+      <c r="CC168" s="9"/>
+    </row>
+    <row r="169" s="3" customFormat="1" spans="1:81">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -15962,8 +16345,10 @@
       <c r="BY169" s="9"/>
       <c r="BZ169" s="9"/>
       <c r="CA169" s="9"/>
-    </row>
-    <row r="170" s="3" customFormat="1" spans="1:79">
+      <c r="CB169" s="9"/>
+      <c r="CC169" s="9"/>
+    </row>
+    <row r="170" s="3" customFormat="1" spans="1:81">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -16043,8 +16428,10 @@
       <c r="BY170" s="9"/>
       <c r="BZ170" s="9"/>
       <c r="CA170" s="9"/>
-    </row>
-    <row r="171" s="3" customFormat="1" spans="1:79">
+      <c r="CB170" s="9"/>
+      <c r="CC170" s="9"/>
+    </row>
+    <row r="171" s="3" customFormat="1" spans="1:81">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -16124,8 +16511,10 @@
       <c r="BY171" s="9"/>
       <c r="BZ171" s="9"/>
       <c r="CA171" s="9"/>
-    </row>
-    <row r="172" s="3" customFormat="1" spans="1:79">
+      <c r="CB171" s="9"/>
+      <c r="CC171" s="9"/>
+    </row>
+    <row r="172" s="3" customFormat="1" spans="1:81">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -16205,8 +16594,10 @@
       <c r="BY172" s="9"/>
       <c r="BZ172" s="9"/>
       <c r="CA172" s="9"/>
-    </row>
-    <row r="173" s="3" customFormat="1" spans="1:79">
+      <c r="CB172" s="9"/>
+      <c r="CC172" s="9"/>
+    </row>
+    <row r="173" s="3" customFormat="1" spans="1:81">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -16286,8 +16677,10 @@
       <c r="BY173" s="9"/>
       <c r="BZ173" s="9"/>
       <c r="CA173" s="9"/>
-    </row>
-    <row r="174" s="3" customFormat="1" spans="1:79">
+      <c r="CB173" s="9"/>
+      <c r="CC173" s="9"/>
+    </row>
+    <row r="174" s="3" customFormat="1" spans="1:81">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -16367,8 +16760,10 @@
       <c r="BY174" s="9"/>
       <c r="BZ174" s="9"/>
       <c r="CA174" s="9"/>
-    </row>
-    <row r="175" s="3" customFormat="1" spans="1:79">
+      <c r="CB174" s="9"/>
+      <c r="CC174" s="9"/>
+    </row>
+    <row r="175" s="3" customFormat="1" spans="1:81">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -16448,8 +16843,10 @@
       <c r="BY175" s="9"/>
       <c r="BZ175" s="9"/>
       <c r="CA175" s="9"/>
-    </row>
-    <row r="176" s="3" customFormat="1" spans="1:79">
+      <c r="CB175" s="9"/>
+      <c r="CC175" s="9"/>
+    </row>
+    <row r="176" s="3" customFormat="1" spans="1:81">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -16529,8 +16926,10 @@
       <c r="BY176" s="9"/>
       <c r="BZ176" s="9"/>
       <c r="CA176" s="9"/>
-    </row>
-    <row r="177" s="3" customFormat="1" spans="1:79">
+      <c r="CB176" s="9"/>
+      <c r="CC176" s="9"/>
+    </row>
+    <row r="177" s="3" customFormat="1" spans="1:81">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -16610,8 +17009,10 @@
       <c r="BY177" s="9"/>
       <c r="BZ177" s="9"/>
       <c r="CA177" s="9"/>
-    </row>
-    <row r="178" s="3" customFormat="1" spans="1:79">
+      <c r="CB177" s="9"/>
+      <c r="CC177" s="9"/>
+    </row>
+    <row r="178" s="3" customFormat="1" spans="1:81">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -16691,8 +17092,10 @@
       <c r="BY178" s="9"/>
       <c r="BZ178" s="9"/>
       <c r="CA178" s="9"/>
-    </row>
-    <row r="179" s="3" customFormat="1" spans="1:79">
+      <c r="CB178" s="9"/>
+      <c r="CC178" s="9"/>
+    </row>
+    <row r="179" s="3" customFormat="1" spans="1:81">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -16772,8 +17175,10 @@
       <c r="BY179" s="9"/>
       <c r="BZ179" s="9"/>
       <c r="CA179" s="9"/>
-    </row>
-    <row r="180" s="3" customFormat="1" spans="1:79">
+      <c r="CB179" s="9"/>
+      <c r="CC179" s="9"/>
+    </row>
+    <row r="180" s="3" customFormat="1" spans="1:81">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -16853,8 +17258,10 @@
       <c r="BY180" s="9"/>
       <c r="BZ180" s="9"/>
       <c r="CA180" s="9"/>
-    </row>
-    <row r="181" s="3" customFormat="1" spans="1:79">
+      <c r="CB180" s="9"/>
+      <c r="CC180" s="9"/>
+    </row>
+    <row r="181" s="3" customFormat="1" spans="1:81">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -16934,8 +17341,10 @@
       <c r="BY181" s="9"/>
       <c r="BZ181" s="9"/>
       <c r="CA181" s="9"/>
-    </row>
-    <row r="182" s="3" customFormat="1" spans="1:79">
+      <c r="CB181" s="9"/>
+      <c r="CC181" s="9"/>
+    </row>
+    <row r="182" s="3" customFormat="1" spans="1:81">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -17015,8 +17424,10 @@
       <c r="BY182" s="9"/>
       <c r="BZ182" s="9"/>
       <c r="CA182" s="9"/>
-    </row>
-    <row r="183" s="3" customFormat="1" spans="1:79">
+      <c r="CB182" s="9"/>
+      <c r="CC182" s="9"/>
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:81">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -17096,8 +17507,10 @@
       <c r="BY183" s="9"/>
       <c r="BZ183" s="9"/>
       <c r="CA183" s="9"/>
-    </row>
-    <row r="184" s="3" customFormat="1" spans="1:79">
+      <c r="CB183" s="9"/>
+      <c r="CC183" s="9"/>
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:81">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -17177,8 +17590,10 @@
       <c r="BY184" s="9"/>
       <c r="BZ184" s="9"/>
       <c r="CA184" s="9"/>
-    </row>
-    <row r="185" s="3" customFormat="1" spans="1:79">
+      <c r="CB184" s="9"/>
+      <c r="CC184" s="9"/>
+    </row>
+    <row r="185" s="3" customFormat="1" spans="1:81">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -17258,8 +17673,10 @@
       <c r="BY185" s="9"/>
       <c r="BZ185" s="9"/>
       <c r="CA185" s="9"/>
-    </row>
-    <row r="186" s="3" customFormat="1" spans="1:79">
+      <c r="CB185" s="9"/>
+      <c r="CC185" s="9"/>
+    </row>
+    <row r="186" s="3" customFormat="1" spans="1:81">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -17339,8 +17756,10 @@
       <c r="BY186" s="9"/>
       <c r="BZ186" s="9"/>
       <c r="CA186" s="9"/>
-    </row>
-    <row r="187" s="3" customFormat="1" spans="1:79">
+      <c r="CB186" s="9"/>
+      <c r="CC186" s="9"/>
+    </row>
+    <row r="187" s="3" customFormat="1" spans="1:81">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -17420,8 +17839,10 @@
       <c r="BY187" s="9"/>
       <c r="BZ187" s="9"/>
       <c r="CA187" s="9"/>
-    </row>
-    <row r="188" s="3" customFormat="1" spans="1:79">
+      <c r="CB187" s="9"/>
+      <c r="CC187" s="9"/>
+    </row>
+    <row r="188" s="3" customFormat="1" spans="1:81">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -17501,8 +17922,10 @@
       <c r="BY188" s="9"/>
       <c r="BZ188" s="9"/>
       <c r="CA188" s="9"/>
-    </row>
-    <row r="189" s="3" customFormat="1" spans="1:79">
+      <c r="CB188" s="9"/>
+      <c r="CC188" s="9"/>
+    </row>
+    <row r="189" s="3" customFormat="1" spans="1:81">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -17582,8 +18005,10 @@
       <c r="BY189" s="9"/>
       <c r="BZ189" s="9"/>
       <c r="CA189" s="9"/>
-    </row>
-    <row r="190" s="3" customFormat="1" spans="1:79">
+      <c r="CB189" s="9"/>
+      <c r="CC189" s="9"/>
+    </row>
+    <row r="190" s="3" customFormat="1" spans="1:81">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -17663,8 +18088,10 @@
       <c r="BY190" s="9"/>
       <c r="BZ190" s="9"/>
       <c r="CA190" s="9"/>
-    </row>
-    <row r="191" s="3" customFormat="1" spans="1:79">
+      <c r="CB190" s="9"/>
+      <c r="CC190" s="9"/>
+    </row>
+    <row r="191" s="3" customFormat="1" spans="1:81">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -17744,8 +18171,10 @@
       <c r="BY191" s="9"/>
       <c r="BZ191" s="9"/>
       <c r="CA191" s="9"/>
-    </row>
-    <row r="192" s="3" customFormat="1" spans="1:79">
+      <c r="CB191" s="9"/>
+      <c r="CC191" s="9"/>
+    </row>
+    <row r="192" s="3" customFormat="1" spans="1:81">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -17825,8 +18254,10 @@
       <c r="BY192" s="9"/>
       <c r="BZ192" s="9"/>
       <c r="CA192" s="9"/>
-    </row>
-    <row r="193" s="3" customFormat="1" spans="1:79">
+      <c r="CB192" s="9"/>
+      <c r="CC192" s="9"/>
+    </row>
+    <row r="193" s="3" customFormat="1" spans="1:81">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -17906,8 +18337,10 @@
       <c r="BY193" s="9"/>
       <c r="BZ193" s="9"/>
       <c r="CA193" s="9"/>
-    </row>
-    <row r="194" s="3" customFormat="1" spans="1:79">
+      <c r="CB193" s="9"/>
+      <c r="CC193" s="9"/>
+    </row>
+    <row r="194" s="3" customFormat="1" spans="1:81">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -17987,8 +18420,10 @@
       <c r="BY194" s="9"/>
       <c r="BZ194" s="9"/>
       <c r="CA194" s="9"/>
-    </row>
-    <row r="195" s="3" customFormat="1" spans="1:79">
+      <c r="CB194" s="9"/>
+      <c r="CC194" s="9"/>
+    </row>
+    <row r="195" s="3" customFormat="1" spans="1:81">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -18068,8 +18503,10 @@
       <c r="BY195" s="9"/>
       <c r="BZ195" s="9"/>
       <c r="CA195" s="9"/>
-    </row>
-    <row r="196" s="3" customFormat="1" spans="1:79">
+      <c r="CB195" s="9"/>
+      <c r="CC195" s="9"/>
+    </row>
+    <row r="196" s="3" customFormat="1" spans="1:81">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -18149,8 +18586,10 @@
       <c r="BY196" s="9"/>
       <c r="BZ196" s="9"/>
       <c r="CA196" s="9"/>
-    </row>
-    <row r="197" s="3" customFormat="1" spans="1:79">
+      <c r="CB196" s="9"/>
+      <c r="CC196" s="9"/>
+    </row>
+    <row r="197" s="3" customFormat="1" spans="1:81">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -18230,8 +18669,10 @@
       <c r="BY197" s="9"/>
       <c r="BZ197" s="9"/>
       <c r="CA197" s="9"/>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:79">
+      <c r="CB197" s="9"/>
+      <c r="CC197" s="9"/>
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:81">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -18311,8 +18752,10 @@
       <c r="BY198" s="9"/>
       <c r="BZ198" s="9"/>
       <c r="CA198" s="9"/>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="1:79">
+      <c r="CB198" s="9"/>
+      <c r="CC198" s="9"/>
+    </row>
+    <row r="199" s="3" customFormat="1" spans="1:81">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -18392,8 +18835,10 @@
       <c r="BY199" s="9"/>
       <c r="BZ199" s="9"/>
       <c r="CA199" s="9"/>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="1:79">
+      <c r="CB199" s="9"/>
+      <c r="CC199" s="9"/>
+    </row>
+    <row r="200" s="3" customFormat="1" spans="1:81">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -18473,8 +18918,10 @@
       <c r="BY200" s="9"/>
       <c r="BZ200" s="9"/>
       <c r="CA200" s="9"/>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="1:79">
+      <c r="CB200" s="9"/>
+      <c r="CC200" s="9"/>
+    </row>
+    <row r="201" s="3" customFormat="1" spans="1:81">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -18554,46 +19001,48 @@
       <c r="BY201" s="9"/>
       <c r="BZ201" s="9"/>
       <c r="CA201" s="9"/>
+      <c r="CB201" s="9"/>
+      <c r="CC201" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AN1"/>
     <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:BM1"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BS1:BW1"/>
-    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="AT1:BO1"/>
+    <mergeCell ref="BP1:BT1"/>
+    <mergeCell ref="BU1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
-      <formula1>"否,是"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201">
+      <formula1>"商品,赠品"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
+      <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
       <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201">
-      <formula1>"商品,赠品"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201">
+      <formula1>"大货仓位,小货仓位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP3:BP201">
+      <formula1>"经销,代销,联营"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201">
+      <formula1>"通货,普货,大货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS201">
       <formula1>"配送,直送"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201">
-      <formula1>"大货仓位,小货仓位"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201">
-      <formula1>"通货,普货,大货"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN201">
-      <formula1>"经销,代销,联营"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
-      <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS3:BW201">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU3:BY201">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -837,7 +837,37 @@
     <t>库存高(MM)</t>
   </si>
   <si>
-    <t>库存体积(MM)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库存体积(MM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>库存毛重(KG)</t>
@@ -861,7 +891,40 @@
     <t>采购高(MM)</t>
   </si>
   <si>
-    <t>采购体积(MM)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采购体积(MM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>采购毛重(KG)</t>
@@ -932,12 +995,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,13 +1039,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -997,11 +1092,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1013,29 +1115,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,7 +1147,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,46 +1162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,11 +1176,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,12 +1211,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1217,19 +1297,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,67 +1345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,13 +1363,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,31 +1435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,20 +1522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,17 +1548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,8 +1575,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,31 +1619,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1557,133 +1637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2088,8 +2168,8 @@
   <sheetPr/>
   <dimension ref="A1:CC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BH7" sqref="BH7"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -2399,7 +2479,7 @@
       <c r="AZ2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BA2" s="20" t="s">
         <v>60</v>
       </c>
       <c r="BB2" s="15" t="s">
@@ -2420,7 +2500,7 @@
       <c r="BG2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BH2" s="15" t="s">
         <v>67</v>
       </c>
       <c r="BI2" s="21" t="s">
@@ -19015,35 +19095,35 @@
     <mergeCell ref="BZ1:CB1"/>
   </mergeCells>
   <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU3:BY201">
+      <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
+      <formula1>"否,是"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
+      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201">
+      <formula1>"通货,普货,大货"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201">
       <formula1>"商品,赠品"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP3:BP201">
+      <formula1>"经销,代销,联营"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z201">
       <formula1>"一级通货,二级通货,三级通货,非通货"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201">
-      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R201 T3:T201 W3:W201">
-      <formula1>"否,是"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S201">
       <formula1>"大货仓位,小货仓位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP3:BP201">
-      <formula1>"经销,代销,联营"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201">
-      <formula1>"通货,普货,大货"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS201">
       <formula1>"配送,直送"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU3:BY201">
-      <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25073AEA-0CB8-4EBC-BDA4-284002E38EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B75CC88-D4E3-45E9-815D-9823D5A2E2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,6 +1080,15 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1237,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,6 +1296,12 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,10 +1329,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1597,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AU19" activeCellId="1" sqref="BG19 AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1653,100 +1665,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="22" t="s">
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="23" t="s">
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="25" t="s">
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="26" t="s">
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="27" t="s">
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
       <c r="CC1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1941,7 @@
       <c r="BG2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BH2" s="28" t="s">
         <v>67</v>
       </c>
       <c r="BI2" s="13" t="s">
@@ -18557,7 +18569,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B75CC88-D4E3-45E9-815D-9823D5A2E2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BDF53-14F9-4180-9FAE-7C04DFE26AC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,6 +1087,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1246,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,6 +1304,9 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,7 +1340,16 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AU19" activeCellId="1" sqref="BG19 AU19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1623,7 +1643,7 @@
     <col min="9" max="9" width="11.3984375" style="3" customWidth="1"/>
     <col min="10" max="11" width="9.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="5.73046875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.73046875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.73046875" style="31" customWidth="1"/>
     <col min="14" max="15" width="5.73046875" style="3" customWidth="1"/>
     <col min="16" max="16" width="9.73046875" style="3" customWidth="1"/>
     <col min="17" max="18" width="14.06640625" style="3" customWidth="1"/>
@@ -1665,100 +1685,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="24" t="s">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="25" t="s">
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="27" t="s">
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="17" t="s">
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="18" t="s">
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
       <c r="CC1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1800,7 +1820,7 @@
       <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -1941,7 +1961,7 @@
       <c r="BG2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="28" t="s">
+      <c r="BH2" s="17" t="s">
         <v>67</v>
       </c>
       <c r="BI2" s="13" t="s">
@@ -2021,7 +2041,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -2104,7 +2124,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -2187,7 +2207,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -2270,7 +2290,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -2353,7 +2373,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -2436,7 +2456,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="30"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -2519,7 +2539,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -2602,7 +2622,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="30"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -2685,7 +2705,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -2768,7 +2788,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -2851,7 +2871,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -2934,7 +2954,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -3017,7 +3037,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="30"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -3100,7 +3120,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -3183,7 +3203,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -3266,7 +3286,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3349,7 +3369,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="30"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -3432,7 +3452,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3515,7 +3535,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="30"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -3598,7 +3618,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="30"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -3681,7 +3701,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -3764,7 +3784,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="30"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -3847,7 +3867,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="30"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -3930,7 +3950,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="30"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -4013,7 +4033,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="30"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -4096,7 +4116,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="30"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -4179,7 +4199,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="30"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -4262,7 +4282,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="30"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -4345,7 +4365,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="M31" s="30"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -4428,7 +4448,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="M32" s="30"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -4511,7 +4531,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="30"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -4594,7 +4614,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="30"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -4677,7 +4697,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="30"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -4760,7 +4780,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="30"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -4843,7 +4863,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="30"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -4926,7 +4946,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="30"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -5009,7 +5029,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="30"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -5092,7 +5112,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="30"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -5175,7 +5195,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="30"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -5258,7 +5278,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="30"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -5341,7 +5361,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="30"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -5424,7 +5444,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="30"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -5507,7 +5527,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="30"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -5590,7 +5610,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="30"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -5673,7 +5693,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="30"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -5756,7 +5776,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="30"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -5839,7 +5859,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="30"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
@@ -5922,7 +5942,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="30"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -6005,7 +6025,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="30"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
@@ -6088,7 +6108,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="30"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
@@ -6171,7 +6191,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="30"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
@@ -6254,7 +6274,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="30"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -6337,7 +6357,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
+      <c r="M55" s="30"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
@@ -6420,7 +6440,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
+      <c r="M56" s="30"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
@@ -6503,7 +6523,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="M57" s="30"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
@@ -6586,7 +6606,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
+      <c r="M58" s="30"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -6669,7 +6689,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
+      <c r="M59" s="30"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
@@ -6752,7 +6772,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
+      <c r="M60" s="30"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
@@ -6835,7 +6855,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
+      <c r="M61" s="30"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
@@ -6918,7 +6938,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
+      <c r="M62" s="30"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
@@ -7001,7 +7021,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
+      <c r="M63" s="30"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
@@ -7084,7 +7104,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
+      <c r="M64" s="30"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
@@ -7167,7 +7187,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
+      <c r="M65" s="30"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
@@ -7250,7 +7270,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="M66" s="30"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
@@ -7333,7 +7353,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
+      <c r="M67" s="30"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
@@ -7416,7 +7436,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
+      <c r="M68" s="30"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
@@ -7499,7 +7519,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
+      <c r="M69" s="30"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
@@ -7582,7 +7602,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
+      <c r="M70" s="30"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
@@ -7665,7 +7685,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
+      <c r="M71" s="30"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
@@ -7748,7 +7768,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
+      <c r="M72" s="30"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
@@ -7831,7 +7851,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
+      <c r="M73" s="30"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
@@ -7914,7 +7934,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
+      <c r="M74" s="30"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
@@ -7997,7 +8017,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
+      <c r="M75" s="30"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
@@ -8080,7 +8100,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
+      <c r="M76" s="30"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
@@ -8163,7 +8183,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
+      <c r="M77" s="30"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
@@ -8246,7 +8266,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
+      <c r="M78" s="30"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
@@ -8329,7 +8349,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
+      <c r="M79" s="30"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
@@ -8412,7 +8432,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
+      <c r="M80" s="30"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
@@ -8495,7 +8515,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
+      <c r="M81" s="30"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
@@ -8578,7 +8598,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
+      <c r="M82" s="30"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -8661,7 +8681,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
+      <c r="M83" s="30"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
@@ -8744,7 +8764,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
+      <c r="M84" s="30"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
@@ -8827,7 +8847,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
+      <c r="M85" s="30"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
@@ -8910,7 +8930,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
+      <c r="M86" s="30"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
@@ -8993,7 +9013,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
+      <c r="M87" s="30"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
@@ -9076,7 +9096,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
+      <c r="M88" s="30"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
@@ -9159,7 +9179,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
+      <c r="M89" s="30"/>
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
@@ -9242,7 +9262,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
+      <c r="M90" s="30"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
@@ -9325,7 +9345,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
+      <c r="M91" s="30"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
@@ -9408,7 +9428,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
+      <c r="M92" s="30"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
@@ -9491,7 +9511,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
+      <c r="M93" s="30"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
@@ -9574,7 +9594,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
+      <c r="M94" s="30"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
@@ -9657,7 +9677,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
+      <c r="M95" s="30"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
@@ -9740,7 +9760,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
+      <c r="M96" s="30"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
@@ -9823,7 +9843,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
+      <c r="M97" s="30"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
@@ -9906,7 +9926,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
+      <c r="M98" s="30"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
@@ -9989,7 +10009,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
+      <c r="M99" s="30"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
@@ -10072,7 +10092,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
+      <c r="M100" s="30"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
@@ -10155,7 +10175,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
+      <c r="M101" s="30"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
       <c r="P101" s="7"/>
@@ -10238,7 +10258,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
+      <c r="M102" s="30"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
@@ -10321,7 +10341,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
+      <c r="M103" s="30"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
       <c r="P103" s="7"/>
@@ -10404,7 +10424,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
+      <c r="M104" s="30"/>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
       <c r="P104" s="7"/>
@@ -10487,7 +10507,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
+      <c r="M105" s="30"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
       <c r="P105" s="7"/>
@@ -10570,7 +10590,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
+      <c r="M106" s="30"/>
       <c r="N106" s="7"/>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
@@ -10653,7 +10673,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
+      <c r="M107" s="30"/>
       <c r="N107" s="7"/>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
@@ -10736,7 +10756,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
+      <c r="M108" s="30"/>
       <c r="N108" s="7"/>
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
@@ -10819,7 +10839,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
+      <c r="M109" s="30"/>
       <c r="N109" s="7"/>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
@@ -10902,7 +10922,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
+      <c r="M110" s="30"/>
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
@@ -10985,7 +11005,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
+      <c r="M111" s="30"/>
       <c r="N111" s="7"/>
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
@@ -11068,7 +11088,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
+      <c r="M112" s="30"/>
       <c r="N112" s="7"/>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
@@ -11151,7 +11171,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
+      <c r="M113" s="30"/>
       <c r="N113" s="7"/>
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
@@ -11234,7 +11254,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
+      <c r="M114" s="30"/>
       <c r="N114" s="7"/>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
@@ -11317,7 +11337,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
+      <c r="M115" s="30"/>
       <c r="N115" s="7"/>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
@@ -11400,7 +11420,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
+      <c r="M116" s="30"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
@@ -11483,7 +11503,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
+      <c r="M117" s="30"/>
       <c r="N117" s="7"/>
       <c r="O117" s="7"/>
       <c r="P117" s="7"/>
@@ -11566,7 +11586,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
+      <c r="M118" s="30"/>
       <c r="N118" s="7"/>
       <c r="O118" s="7"/>
       <c r="P118" s="7"/>
@@ -11649,7 +11669,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
+      <c r="M119" s="30"/>
       <c r="N119" s="7"/>
       <c r="O119" s="7"/>
       <c r="P119" s="7"/>
@@ -11732,7 +11752,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
+      <c r="M120" s="30"/>
       <c r="N120" s="7"/>
       <c r="O120" s="7"/>
       <c r="P120" s="7"/>
@@ -11815,7 +11835,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
+      <c r="M121" s="30"/>
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
@@ -11898,7 +11918,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
+      <c r="M122" s="30"/>
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
       <c r="P122" s="7"/>
@@ -11981,7 +12001,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
+      <c r="M123" s="30"/>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
       <c r="P123" s="7"/>
@@ -12064,7 +12084,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
+      <c r="M124" s="30"/>
       <c r="N124" s="7"/>
       <c r="O124" s="7"/>
       <c r="P124" s="7"/>
@@ -12147,7 +12167,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
+      <c r="M125" s="30"/>
       <c r="N125" s="7"/>
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
@@ -12230,7 +12250,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
+      <c r="M126" s="30"/>
       <c r="N126" s="7"/>
       <c r="O126" s="7"/>
       <c r="P126" s="7"/>
@@ -12313,7 +12333,7 @@
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
+      <c r="M127" s="30"/>
       <c r="N127" s="7"/>
       <c r="O127" s="7"/>
       <c r="P127" s="7"/>
@@ -12396,7 +12416,7 @@
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
+      <c r="M128" s="30"/>
       <c r="N128" s="7"/>
       <c r="O128" s="7"/>
       <c r="P128" s="7"/>
@@ -12479,7 +12499,7 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
+      <c r="M129" s="30"/>
       <c r="N129" s="7"/>
       <c r="O129" s="7"/>
       <c r="P129" s="7"/>
@@ -12562,7 +12582,7 @@
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
+      <c r="M130" s="30"/>
       <c r="N130" s="7"/>
       <c r="O130" s="7"/>
       <c r="P130" s="7"/>
@@ -12645,7 +12665,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
+      <c r="M131" s="30"/>
       <c r="N131" s="7"/>
       <c r="O131" s="7"/>
       <c r="P131" s="7"/>
@@ -12728,7 +12748,7 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
+      <c r="M132" s="30"/>
       <c r="N132" s="7"/>
       <c r="O132" s="7"/>
       <c r="P132" s="7"/>
@@ -12811,7 +12831,7 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
+      <c r="M133" s="30"/>
       <c r="N133" s="7"/>
       <c r="O133" s="7"/>
       <c r="P133" s="7"/>
@@ -12894,7 +12914,7 @@
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
+      <c r="M134" s="30"/>
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
       <c r="P134" s="7"/>
@@ -12977,7 +12997,7 @@
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
+      <c r="M135" s="30"/>
       <c r="N135" s="7"/>
       <c r="O135" s="7"/>
       <c r="P135" s="7"/>
@@ -13060,7 +13080,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
+      <c r="M136" s="30"/>
       <c r="N136" s="7"/>
       <c r="O136" s="7"/>
       <c r="P136" s="7"/>
@@ -13143,7 +13163,7 @@
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
+      <c r="M137" s="30"/>
       <c r="N137" s="7"/>
       <c r="O137" s="7"/>
       <c r="P137" s="7"/>
@@ -13226,7 +13246,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
+      <c r="M138" s="30"/>
       <c r="N138" s="7"/>
       <c r="O138" s="7"/>
       <c r="P138" s="7"/>
@@ -13309,7 +13329,7 @@
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
+      <c r="M139" s="30"/>
       <c r="N139" s="7"/>
       <c r="O139" s="7"/>
       <c r="P139" s="7"/>
@@ -13392,7 +13412,7 @@
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
+      <c r="M140" s="30"/>
       <c r="N140" s="7"/>
       <c r="O140" s="7"/>
       <c r="P140" s="7"/>
@@ -13475,7 +13495,7 @@
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
+      <c r="M141" s="30"/>
       <c r="N141" s="7"/>
       <c r="O141" s="7"/>
       <c r="P141" s="7"/>
@@ -13558,7 +13578,7 @@
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
+      <c r="M142" s="30"/>
       <c r="N142" s="7"/>
       <c r="O142" s="7"/>
       <c r="P142" s="7"/>
@@ -13641,7 +13661,7 @@
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
+      <c r="M143" s="30"/>
       <c r="N143" s="7"/>
       <c r="O143" s="7"/>
       <c r="P143" s="7"/>
@@ -13724,7 +13744,7 @@
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
+      <c r="M144" s="30"/>
       <c r="N144" s="7"/>
       <c r="O144" s="7"/>
       <c r="P144" s="7"/>
@@ -13807,7 +13827,7 @@
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
+      <c r="M145" s="30"/>
       <c r="N145" s="7"/>
       <c r="O145" s="7"/>
       <c r="P145" s="7"/>
@@ -13890,7 +13910,7 @@
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
+      <c r="M146" s="30"/>
       <c r="N146" s="7"/>
       <c r="O146" s="7"/>
       <c r="P146" s="7"/>
@@ -13973,7 +13993,7 @@
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
+      <c r="M147" s="30"/>
       <c r="N147" s="7"/>
       <c r="O147" s="7"/>
       <c r="P147" s="7"/>
@@ -14056,7 +14076,7 @@
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
-      <c r="M148" s="7"/>
+      <c r="M148" s="30"/>
       <c r="N148" s="7"/>
       <c r="O148" s="7"/>
       <c r="P148" s="7"/>
@@ -14139,7 +14159,7 @@
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
-      <c r="M149" s="7"/>
+      <c r="M149" s="30"/>
       <c r="N149" s="7"/>
       <c r="O149" s="7"/>
       <c r="P149" s="7"/>
@@ -14222,7 +14242,7 @@
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
-      <c r="M150" s="7"/>
+      <c r="M150" s="30"/>
       <c r="N150" s="7"/>
       <c r="O150" s="7"/>
       <c r="P150" s="7"/>
@@ -14305,7 +14325,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
-      <c r="M151" s="7"/>
+      <c r="M151" s="30"/>
       <c r="N151" s="7"/>
       <c r="O151" s="7"/>
       <c r="P151" s="7"/>
@@ -14388,7 +14408,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
-      <c r="M152" s="7"/>
+      <c r="M152" s="30"/>
       <c r="N152" s="7"/>
       <c r="O152" s="7"/>
       <c r="P152" s="7"/>
@@ -14471,7 +14491,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
+      <c r="M153" s="30"/>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
       <c r="P153" s="7"/>
@@ -14554,7 +14574,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
+      <c r="M154" s="30"/>
       <c r="N154" s="7"/>
       <c r="O154" s="7"/>
       <c r="P154" s="7"/>
@@ -14637,7 +14657,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
-      <c r="M155" s="7"/>
+      <c r="M155" s="30"/>
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
       <c r="P155" s="7"/>
@@ -14720,7 +14740,7 @@
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
-      <c r="M156" s="7"/>
+      <c r="M156" s="30"/>
       <c r="N156" s="7"/>
       <c r="O156" s="7"/>
       <c r="P156" s="7"/>
@@ -14803,7 +14823,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
-      <c r="M157" s="7"/>
+      <c r="M157" s="30"/>
       <c r="N157" s="7"/>
       <c r="O157" s="7"/>
       <c r="P157" s="7"/>
@@ -14886,7 +14906,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
-      <c r="M158" s="7"/>
+      <c r="M158" s="30"/>
       <c r="N158" s="7"/>
       <c r="O158" s="7"/>
       <c r="P158" s="7"/>
@@ -14969,7 +14989,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
-      <c r="M159" s="7"/>
+      <c r="M159" s="30"/>
       <c r="N159" s="7"/>
       <c r="O159" s="7"/>
       <c r="P159" s="7"/>
@@ -15052,7 +15072,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
-      <c r="M160" s="7"/>
+      <c r="M160" s="30"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
@@ -15135,7 +15155,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
-      <c r="M161" s="7"/>
+      <c r="M161" s="30"/>
       <c r="N161" s="7"/>
       <c r="O161" s="7"/>
       <c r="P161" s="7"/>
@@ -15218,7 +15238,7 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
-      <c r="M162" s="7"/>
+      <c r="M162" s="30"/>
       <c r="N162" s="7"/>
       <c r="O162" s="7"/>
       <c r="P162" s="7"/>
@@ -15301,7 +15321,7 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
-      <c r="M163" s="7"/>
+      <c r="M163" s="30"/>
       <c r="N163" s="7"/>
       <c r="O163" s="7"/>
       <c r="P163" s="7"/>
@@ -15384,7 +15404,7 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
-      <c r="M164" s="7"/>
+      <c r="M164" s="30"/>
       <c r="N164" s="7"/>
       <c r="O164" s="7"/>
       <c r="P164" s="7"/>
@@ -15467,7 +15487,7 @@
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
-      <c r="M165" s="7"/>
+      <c r="M165" s="30"/>
       <c r="N165" s="7"/>
       <c r="O165" s="7"/>
       <c r="P165" s="7"/>
@@ -15550,7 +15570,7 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
-      <c r="M166" s="7"/>
+      <c r="M166" s="30"/>
       <c r="N166" s="7"/>
       <c r="O166" s="7"/>
       <c r="P166" s="7"/>
@@ -15633,7 +15653,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
-      <c r="M167" s="7"/>
+      <c r="M167" s="30"/>
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
       <c r="P167" s="7"/>
@@ -15716,7 +15736,7 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
-      <c r="M168" s="7"/>
+      <c r="M168" s="30"/>
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
       <c r="P168" s="7"/>
@@ -15799,7 +15819,7 @@
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
-      <c r="M169" s="7"/>
+      <c r="M169" s="30"/>
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
       <c r="P169" s="7"/>
@@ -15882,7 +15902,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
+      <c r="M170" s="30"/>
       <c r="N170" s="7"/>
       <c r="O170" s="7"/>
       <c r="P170" s="7"/>
@@ -15965,7 +15985,7 @@
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
+      <c r="M171" s="30"/>
       <c r="N171" s="7"/>
       <c r="O171" s="7"/>
       <c r="P171" s="7"/>
@@ -16048,7 +16068,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
-      <c r="M172" s="7"/>
+      <c r="M172" s="30"/>
       <c r="N172" s="7"/>
       <c r="O172" s="7"/>
       <c r="P172" s="7"/>
@@ -16131,7 +16151,7 @@
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
+      <c r="M173" s="30"/>
       <c r="N173" s="7"/>
       <c r="O173" s="7"/>
       <c r="P173" s="7"/>
@@ -16214,7 +16234,7 @@
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
+      <c r="M174" s="30"/>
       <c r="N174" s="7"/>
       <c r="O174" s="7"/>
       <c r="P174" s="7"/>
@@ -16297,7 +16317,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
+      <c r="M175" s="30"/>
       <c r="N175" s="7"/>
       <c r="O175" s="7"/>
       <c r="P175" s="7"/>
@@ -16380,7 +16400,7 @@
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
+      <c r="M176" s="30"/>
       <c r="N176" s="7"/>
       <c r="O176" s="7"/>
       <c r="P176" s="7"/>
@@ -16463,7 +16483,7 @@
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
-      <c r="M177" s="7"/>
+      <c r="M177" s="30"/>
       <c r="N177" s="7"/>
       <c r="O177" s="7"/>
       <c r="P177" s="7"/>
@@ -16546,7 +16566,7 @@
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
-      <c r="M178" s="7"/>
+      <c r="M178" s="30"/>
       <c r="N178" s="7"/>
       <c r="O178" s="7"/>
       <c r="P178" s="7"/>
@@ -16629,7 +16649,7 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
-      <c r="M179" s="7"/>
+      <c r="M179" s="30"/>
       <c r="N179" s="7"/>
       <c r="O179" s="7"/>
       <c r="P179" s="7"/>
@@ -16712,7 +16732,7 @@
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
-      <c r="M180" s="7"/>
+      <c r="M180" s="30"/>
       <c r="N180" s="7"/>
       <c r="O180" s="7"/>
       <c r="P180" s="7"/>
@@ -16795,7 +16815,7 @@
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
-      <c r="M181" s="7"/>
+      <c r="M181" s="30"/>
       <c r="N181" s="7"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
@@ -16878,7 +16898,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
-      <c r="M182" s="7"/>
+      <c r="M182" s="30"/>
       <c r="N182" s="7"/>
       <c r="O182" s="7"/>
       <c r="P182" s="7"/>
@@ -16961,7 +16981,7 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
-      <c r="M183" s="7"/>
+      <c r="M183" s="30"/>
       <c r="N183" s="7"/>
       <c r="O183" s="7"/>
       <c r="P183" s="7"/>
@@ -17044,7 +17064,7 @@
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
+      <c r="M184" s="30"/>
       <c r="N184" s="7"/>
       <c r="O184" s="7"/>
       <c r="P184" s="7"/>
@@ -17127,7 +17147,7 @@
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
+      <c r="M185" s="30"/>
       <c r="N185" s="7"/>
       <c r="O185" s="7"/>
       <c r="P185" s="7"/>
@@ -17210,7 +17230,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
+      <c r="M186" s="30"/>
       <c r="N186" s="7"/>
       <c r="O186" s="7"/>
       <c r="P186" s="7"/>
@@ -17293,7 +17313,7 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
+      <c r="M187" s="30"/>
       <c r="N187" s="7"/>
       <c r="O187" s="7"/>
       <c r="P187" s="7"/>
@@ -17376,7 +17396,7 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
+      <c r="M188" s="30"/>
       <c r="N188" s="7"/>
       <c r="O188" s="7"/>
       <c r="P188" s="7"/>
@@ -17459,7 +17479,7 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
+      <c r="M189" s="30"/>
       <c r="N189" s="7"/>
       <c r="O189" s="7"/>
       <c r="P189" s="7"/>
@@ -17542,7 +17562,7 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
+      <c r="M190" s="30"/>
       <c r="N190" s="7"/>
       <c r="O190" s="7"/>
       <c r="P190" s="7"/>
@@ -17625,7 +17645,7 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="7"/>
+      <c r="M191" s="30"/>
       <c r="N191" s="7"/>
       <c r="O191" s="7"/>
       <c r="P191" s="7"/>
@@ -17708,7 +17728,7 @@
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
-      <c r="M192" s="7"/>
+      <c r="M192" s="30"/>
       <c r="N192" s="7"/>
       <c r="O192" s="7"/>
       <c r="P192" s="7"/>
@@ -17791,7 +17811,7 @@
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
-      <c r="M193" s="7"/>
+      <c r="M193" s="30"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7"/>
       <c r="P193" s="7"/>
@@ -17874,7 +17894,7 @@
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="7"/>
+      <c r="M194" s="30"/>
       <c r="N194" s="7"/>
       <c r="O194" s="7"/>
       <c r="P194" s="7"/>
@@ -17957,7 +17977,7 @@
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
-      <c r="M195" s="7"/>
+      <c r="M195" s="30"/>
       <c r="N195" s="7"/>
       <c r="O195" s="7"/>
       <c r="P195" s="7"/>
@@ -18040,7 +18060,7 @@
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
-      <c r="M196" s="7"/>
+      <c r="M196" s="30"/>
       <c r="N196" s="7"/>
       <c r="O196" s="7"/>
       <c r="P196" s="7"/>
@@ -18123,7 +18143,7 @@
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
-      <c r="M197" s="7"/>
+      <c r="M197" s="30"/>
       <c r="N197" s="7"/>
       <c r="O197" s="7"/>
       <c r="P197" s="7"/>
@@ -18206,7 +18226,7 @@
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
-      <c r="M198" s="7"/>
+      <c r="M198" s="30"/>
       <c r="N198" s="7"/>
       <c r="O198" s="7"/>
       <c r="P198" s="7"/>
@@ -18289,7 +18309,7 @@
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
-      <c r="M199" s="7"/>
+      <c r="M199" s="30"/>
       <c r="N199" s="7"/>
       <c r="O199" s="7"/>
       <c r="P199" s="7"/>
@@ -18372,7 +18392,7 @@
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
-      <c r="M200" s="7"/>
+      <c r="M200" s="30"/>
       <c r="N200" s="7"/>
       <c r="O200" s="7"/>
       <c r="P200" s="7"/>
@@ -18455,7 +18475,7 @@
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
       <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
+      <c r="M201" s="30"/>
       <c r="N201" s="7"/>
       <c r="O201" s="7"/>
       <c r="P201" s="7"/>
@@ -18536,7 +18556,7 @@
     <mergeCell ref="BP1:BT1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU3:BY201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
     </dataValidation>
@@ -18545,9 +18565,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"品采部,辅采部,自有品牌部,服纺部,鞋品部"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M201" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"A+品,A品,B品,C品,D品,其它"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y201" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"通货,普货,大货"</formula1>

--- a/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/商品新增导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\aiqin\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BDF53-14F9-4180-9FAE-7C04DFE26AC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9C653A-60E9-4D82-96AE-A5D41BACC3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21766" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,39 +843,6 @@
     <t>库存高(MM)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>库存体积(MM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>库存毛重(KG)</t>
   </si>
   <si>
@@ -895,42 +862,6 @@
   </si>
   <si>
     <t>采购高(MM)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采购体积(MM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>采购毛重(KG)</t>
@@ -995,12 +926,72 @@
   <si>
     <t>图片文件夹编号</t>
   </si>
+  <si>
+    <r>
+      <t>库存体积(MM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>采购体积(MM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,23 +1025,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1095,6 +1069,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1254,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,7 +1288,19 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,16 +1336,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BQ8" sqref="BQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1643,7 +1630,7 @@
     <col min="9" max="9" width="11.3984375" style="3" customWidth="1"/>
     <col min="10" max="11" width="9.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="5.73046875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.73046875" style="31" customWidth="1"/>
+    <col min="13" max="13" width="9.73046875" style="20" customWidth="1"/>
     <col min="14" max="15" width="5.73046875" style="3" customWidth="1"/>
     <col min="16" max="16" width="9.73046875" style="3" customWidth="1"/>
     <col min="17" max="18" width="14.06640625" style="3" customWidth="1"/>
@@ -1674,7 +1661,9 @@
     <col min="63" max="63" width="11.796875" style="3" customWidth="1"/>
     <col min="64" max="65" width="14.06640625" style="3" customWidth="1"/>
     <col min="66" max="66" width="11.796875" style="3" customWidth="1"/>
-    <col min="67" max="71" width="9.73046875" style="3" customWidth="1"/>
+    <col min="67" max="68" width="9.73046875" style="3" customWidth="1"/>
+    <col min="69" max="70" width="9.73046875" style="20" customWidth="1"/>
+    <col min="71" max="71" width="9.73046875" style="3" customWidth="1"/>
     <col min="72" max="72" width="16.33203125" style="3" customWidth="1"/>
     <col min="73" max="77" width="11.796875" style="3" customWidth="1"/>
     <col min="78" max="78" width="9.73046875" style="3" customWidth="1"/>
@@ -1685,100 +1674,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" s="1" customFormat="1" ht="24.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="25" t="s">
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="26" t="s">
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="28" t="s">
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="18" t="s">
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="19" t="s">
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="19"/>
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
       <c r="CC1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1809,7 @@
       <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -1925,107 +1914,107 @@
       <c r="AU2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AV2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AW2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AX2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AY2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="BA2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BA2" s="12" t="s">
+      <c r="BB2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="BC2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="10" t="s">
+      <c r="BD2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BE2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BF2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BG2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BI2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BK2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="BL2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="10" t="s">
+      <c r="BM2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="BN2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BM2" s="13" t="s">
+      <c r="BO2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BN2" s="10" t="s">
+      <c r="BP2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BQ2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BR2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="BQ2" s="15" t="s">
+      <c r="BS2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BR2" s="15" t="s">
+      <c r="BT2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BU2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BV2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="BU2" s="15" t="s">
+      <c r="BW2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="BV2" s="15" t="s">
+      <c r="BX2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="BW2" s="15" t="s">
+      <c r="BY2" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="BX2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY2" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="BZ2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="CA2" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CB2" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="CC2" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.4">
@@ -2041,7 +2030,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="32"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -2097,8 +2086,8 @@
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
       <c r="BP3" s="7"/>
-      <c r="BQ3" s="7"/>
-      <c r="BR3" s="7"/>
+      <c r="BQ3" s="21"/>
+      <c r="BR3" s="19"/>
       <c r="BS3" s="7"/>
       <c r="BT3" s="7"/>
       <c r="BU3" s="7"/>
@@ -2124,7 +2113,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="30"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -2180,8 +2169,8 @@
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
       <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
       <c r="BS4" s="7"/>
       <c r="BT4" s="7"/>
       <c r="BU4" s="7"/>
@@ -2207,7 +2196,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="30"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -2263,8 +2252,8 @@
       <c r="BN5" s="7"/>
       <c r="BO5" s="7"/>
       <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
-      <c r="BR5" s="7"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
       <c r="BS5" s="7"/>
       <c r="BT5" s="7"/>
       <c r="BU5" s="7"/>
@@ -2290,7 +2279,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -2346,8 +2335,8 @@
       <c r="BN6" s="7"/>
       <c r="BO6" s="7"/>
       <c r="BP6" s="7"/>
-      <c r="BQ6" s="7"/>
-      <c r="BR6" s="7"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
       <c r="BS6" s="7"/>
       <c r="BT6" s="7"/>
       <c r="BU6" s="7"/>
@@ -2373,7 +2362,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="30"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -2429,8 +2418,8 @@
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
       <c r="BP7" s="7"/>
-      <c r="BQ7" s="7"/>
-      <c r="BR7" s="7"/>
+      <c r="BQ7" s="19"/>
+      <c r="BR7" s="19"/>
       <c r="BS7" s="7"/>
       <c r="BT7" s="7"/>
       <c r="BU7" s="7"/>
@@ -2456,7 +2445,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="30"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -2512,8 +2501,8 @@
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
       <c r="BP8" s="7"/>
-      <c r="BQ8" s="7"/>
-      <c r="BR8" s="7"/>
+      <c r="BQ8" s="19"/>
+      <c r="BR8" s="19"/>
       <c r="BS8" s="7"/>
       <c r="BT8" s="7"/>
       <c r="BU8" s="7"/>
@@ -2539,7 +2528,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="30"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -2595,8 +2584,8 @@
       <c r="BN9" s="7"/>
       <c r="BO9" s="7"/>
       <c r="BP9" s="7"/>
-      <c r="BQ9" s="7"/>
-      <c r="BR9" s="7"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19"/>
       <c r="BS9" s="7"/>
       <c r="BT9" s="7"/>
       <c r="BU9" s="7"/>
@@ -2622,7 +2611,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="30"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -2678,8 +2667,8 @@
       <c r="BN10" s="7"/>
       <c r="BO10" s="7"/>
       <c r="BP10" s="7"/>
-      <c r="BQ10" s="7"/>
-      <c r="BR10" s="7"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
       <c r="BS10" s="7"/>
       <c r="BT10" s="7"/>
       <c r="BU10" s="7"/>
@@ -2705,7 +2694,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="30"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -2761,8 +2750,8 @@
       <c r="BN11" s="7"/>
       <c r="BO11" s="7"/>
       <c r="BP11" s="7"/>
-      <c r="BQ11" s="7"/>
-      <c r="BR11" s="7"/>
+      <c r="BQ11" s="19"/>
+      <c r="BR11" s="19"/>
       <c r="BS11" s="7"/>
       <c r="BT11" s="7"/>
       <c r="BU11" s="7"/>
@@ -2788,7 +2777,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="30"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -2844,8 +2833,8 @@
       <c r="BN12" s="7"/>
       <c r="BO12" s="7"/>
       <c r="BP12" s="7"/>
-      <c r="BQ12" s="7"/>
-      <c r="BR12" s="7"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
       <c r="BS12" s="7"/>
       <c r="BT12" s="7"/>
       <c r="BU12" s="7"/>
@@ -2871,7 +2860,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="30"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -2927,8 +2916,8 @@
       <c r="BN13" s="7"/>
       <c r="BO13" s="7"/>
       <c r="BP13" s="7"/>
-      <c r="BQ13" s="7"/>
-      <c r="BR13" s="7"/>
+      <c r="BQ13" s="19"/>
+      <c r="BR13" s="19"/>
       <c r="BS13" s="7"/>
       <c r="BT13" s="7"/>
       <c r="BU13" s="7"/>
@@ -2954,7 +2943,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="30"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -3010,8 +2999,8 @@
       <c r="BN14" s="7"/>
       <c r="BO14" s="7"/>
       <c r="BP14" s="7"/>
-      <c r="BQ14" s="7"/>
-      <c r="BR14" s="7"/>
+      <c r="BQ14" s="19"/>
+      <c r="BR14" s="19"/>
       <c r="BS14" s="7"/>
       <c r="BT14" s="7"/>
       <c r="BU14" s="7"/>
@@ -3037,7 +3026,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="30"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -3093,8 +3082,8 @@
       <c r="BN15" s="7"/>
       <c r="BO15" s="7"/>
       <c r="BP15" s="7"/>
-      <c r="BQ15" s="7"/>
-      <c r="BR15" s="7"/>
+      <c r="BQ15" s="19"/>
+      <c r="BR15" s="19"/>
       <c r="BS15" s="7"/>
       <c r="BT15" s="7"/>
       <c r="BU15" s="7"/>
@@ -3120,7 +3109,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -3176,8 +3165,8 @@
       <c r="BN16" s="7"/>
       <c r="BO16" s="7"/>
       <c r="BP16" s="7"/>
-      <c r="BQ16" s="7"/>
-      <c r="BR16" s="7"/>
+      <c r="BQ16" s="19"/>
+      <c r="BR16" s="19"/>
       <c r="BS16" s="7"/>
       <c r="BT16" s="7"/>
       <c r="BU16" s="7"/>
@@ -3203,7 +3192,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="30"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -3259,8 +3248,8 @@
       <c r="BN17" s="7"/>
       <c r="BO17" s="7"/>
       <c r="BP17" s="7"/>
-      <c r="BQ17" s="7"/>
-      <c r="BR17" s="7"/>
+      <c r="BQ17" s="19"/>
+      <c r="BR17" s="19"/>
       <c r="BS17" s="7"/>
       <c r="BT17" s="7"/>
       <c r="BU17" s="7"/>
@@ -3286,7 +3275,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="30"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3342,8 +3331,8 @@
       <c r="BN18" s="7"/>
       <c r="BO18" s="7"/>
       <c r="BP18" s="7"/>
-      <c r="BQ18" s="7"/>
-      <c r="BR18" s="7"/>
+      <c r="BQ18" s="19"/>
+      <c r="BR18" s="19"/>
       <c r="BS18" s="7"/>
       <c r="BT18" s="7"/>
       <c r="BU18" s="7"/>
@@ -3369,7 +3358,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="30"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -3425,8 +3414,8 @@
       <c r="BN19" s="7"/>
       <c r="BO19" s="7"/>
       <c r="BP19" s="7"/>
-      <c r="BQ19" s="7"/>
-      <c r="BR19" s="7"/>
+      <c r="BQ19" s="19"/>
+      <c r="BR19" s="19"/>
       <c r="BS19" s="7"/>
       <c r="BT19" s="7"/>
       <c r="BU19" s="7"/>
@@ -3452,7 +3441,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="30"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3508,8 +3497,8 @@
       <c r="BN20" s="7"/>
       <c r="BO20" s="7"/>
       <c r="BP20" s="7"/>
-      <c r="BQ20" s="7"/>
-      <c r="BR20" s="7"/>
+      <c r="BQ20" s="19"/>
+      <c r="BR20" s="19"/>
       <c r="BS20" s="7"/>
       <c r="BT20" s="7"/>
       <c r="BU20" s="7"/>
@@ -3535,7 +3524,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="30"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -3591,8 +3580,8 @@
       <c r="BN21" s="7"/>
       <c r="BO21" s="7"/>
       <c r="BP21" s="7"/>
-      <c r="BQ21" s="7"/>
-      <c r="BR21" s="7"/>
+      <c r="BQ21" s="19"/>
+      <c r="BR21" s="19"/>
       <c r="BS21" s="7"/>
       <c r="BT21" s="7"/>
       <c r="BU21" s="7"/>
@@ -3618,7 +3607,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="30"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -3674,8 +3663,8 @@
       <c r="BN22" s="7"/>
       <c r="BO22" s="7"/>
       <c r="BP22" s="7"/>
-      <c r="BQ22" s="7"/>
-      <c r="BR22" s="7"/>
+      <c r="BQ22" s="19"/>
+      <c r="BR22" s="19"/>
       <c r="BS22" s="7"/>
       <c r="BT22" s="7"/>
       <c r="BU22" s="7"/>
@@ -3701,7 +3690,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="30"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -3757,8 +3746,8 @@
       <c r="BN23" s="7"/>
       <c r="BO23" s="7"/>
       <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="7"/>
+      <c r="BQ23" s="19"/>
+      <c r="BR23" s="19"/>
       <c r="BS23" s="7"/>
       <c r="BT23" s="7"/>
       <c r="BU23" s="7"/>
@@ -3784,7 +3773,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="30"/>
+      <c r="M24" s="19"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -3840,8 +3829,8 @@
       <c r="BN24" s="7"/>
       <c r="BO24" s="7"/>
       <c r="BP24" s="7"/>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="7"/>
+      <c r="BQ24" s="19"/>
+      <c r="BR24" s="19"/>
       <c r="BS24" s="7"/>
       <c r="BT24" s="7"/>
       <c r="BU24" s="7"/>
@@ -3867,7 +3856,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="30"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -3923,8 +3912,8 @@
       <c r="BN25" s="7"/>
       <c r="BO25" s="7"/>
       <c r="BP25" s="7"/>
-      <c r="BQ25" s="7"/>
-      <c r="BR25" s="7"/>
+      <c r="BQ25" s="19"/>
+      <c r="BR25" s="19"/>
       <c r="BS25" s="7"/>
       <c r="BT25" s="7"/>
       <c r="BU25" s="7"/>
@@ -3950,7 +3939,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="30"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -4006,8 +3995,8 @@
       <c r="BN26" s="7"/>
       <c r="BO26" s="7"/>
       <c r="BP26" s="7"/>
-      <c r="BQ26" s="7"/>
-      <c r="BR26" s="7"/>
+      <c r="BQ26" s="19"/>
+      <c r="BR26" s="19"/>
       <c r="BS26" s="7"/>
       <c r="BT26" s="7"/>
       <c r="BU26" s="7"/>
@@ -4033,7 +4022,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="30"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -4089,8 +4078,8 @@
       <c r="BN27" s="7"/>
       <c r="BO27" s="7"/>
       <c r="BP27" s="7"/>
-      <c r="BQ27" s="7"/>
-      <c r="BR27" s="7"/>
+      <c r="BQ27" s="19"/>
+      <c r="BR27" s="19"/>
       <c r="BS27" s="7"/>
       <c r="BT27" s="7"/>
       <c r="BU27" s="7"/>
@@ -4116,7 +4105,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="30"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -4172,8 +4161,8 @@
       <c r="BN28" s="7"/>
       <c r="BO28" s="7"/>
       <c r="BP28" s="7"/>
-      <c r="BQ28" s="7"/>
-      <c r="BR28" s="7"/>
+      <c r="BQ28" s="19"/>
+      <c r="BR28" s="19"/>
       <c r="BS28" s="7"/>
       <c r="BT28" s="7"/>
       <c r="BU28" s="7"/>
@@ -4199,7 +4188,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="30"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -4255,8 +4244,8 @@
       <c r="BN29" s="7"/>
       <c r="BO29" s="7"/>
       <c r="BP29" s="7"/>
-      <c r="BQ29" s="7"/>
-      <c r="BR29" s="7"/>
+      <c r="BQ29" s="19"/>
+      <c r="BR29" s="19"/>
       <c r="BS29" s="7"/>
       <c r="BT29" s="7"/>
       <c r="BU29" s="7"/>
@@ -4282,7 +4271,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="30"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -4338,8 +4327,8 @@
       <c r="BN30" s="7"/>
       <c r="BO30" s="7"/>
       <c r="BP30" s="7"/>
-      <c r="BQ30" s="7"/>
-      <c r="BR30" s="7"/>
+      <c r="BQ30" s="19"/>
+      <c r="BR30" s="19"/>
       <c r="BS30" s="7"/>
       <c r="BT30" s="7"/>
       <c r="BU30" s="7"/>
@@ -4365,7 +4354,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="30"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -4421,8 +4410,8 @@
       <c r="BN31" s="7"/>
       <c r="BO31" s="7"/>
       <c r="BP31" s="7"/>
-      <c r="BQ31" s="7"/>
-      <c r="BR31" s="7"/>
+      <c r="BQ31" s="19"/>
+      <c r="BR31" s="19"/>
       <c r="BS31" s="7"/>
       <c r="BT31" s="7"/>
       <c r="BU31" s="7"/>
@@ -4448,7 +4437,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="30"/>
+      <c r="M32" s="19"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -4504,8 +4493,8 @@
       <c r="BN32" s="7"/>
       <c r="BO32" s="7"/>
       <c r="BP32" s="7"/>
-      <c r="BQ32" s="7"/>
-      <c r="BR32" s="7"/>
+      <c r="BQ32" s="19"/>
+      <c r="BR32" s="19"/>
       <c r="BS32" s="7"/>
       <c r="BT32" s="7"/>
       <c r="BU32" s="7"/>
@@ -4531,7 +4520,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="30"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -4587,8 +4576,8 @@
       <c r="BN33" s="7"/>
       <c r="BO33" s="7"/>
       <c r="BP33" s="7"/>
-      <c r="BQ33" s="7"/>
-      <c r="BR33" s="7"/>
+      <c r="BQ33" s="19"/>
+      <c r="BR33" s="19"/>
       <c r="BS33" s="7"/>
       <c r="BT33" s="7"/>
       <c r="BU33" s="7"/>
@@ -4614,7 +4603,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="30"/>
+      <c r="M34" s="19"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -4670,8 +4659,8 @@
       <c r="BN34" s="7"/>
       <c r="BO34" s="7"/>
       <c r="BP34" s="7"/>
-      <c r="BQ34" s="7"/>
-      <c r="BR34" s="7"/>
+      <c r="BQ34" s="19"/>
+      <c r="BR34" s="19"/>
       <c r="BS34" s="7"/>
       <c r="BT34" s="7"/>
       <c r="BU34" s="7"/>
@@ -4697,7 +4686,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="30"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -4753,8 +4742,8 @@
       <c r="BN35" s="7"/>
       <c r="BO35" s="7"/>
       <c r="BP35" s="7"/>
-      <c r="BQ35" s="7"/>
-      <c r="BR35" s="7"/>
+      <c r="BQ35" s="19"/>
+      <c r="BR35" s="19"/>
       <c r="BS35" s="7"/>
       <c r="BT35" s="7"/>
       <c r="BU35" s="7"/>
@@ -4780,7 +4769,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="30"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -4836,8 +4825,8 @@
       <c r="BN36" s="7"/>
       <c r="BO36" s="7"/>
       <c r="BP36" s="7"/>
-      <c r="BQ36" s="7"/>
-      <c r="BR36" s="7"/>
+      <c r="BQ36" s="19"/>
+      <c r="BR36" s="19"/>
       <c r="BS36" s="7"/>
       <c r="BT36" s="7"/>
       <c r="BU36" s="7"/>
@@ -4863,7 +4852,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="30"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -4919,8 +4908,8 @@
       <c r="BN37" s="7"/>
       <c r="BO37" s="7"/>
       <c r="BP37" s="7"/>
-      <c r="BQ37" s="7"/>
-      <c r="BR37" s="7"/>
+      <c r="BQ37" s="19"/>
+      <c r="BR37" s="19"/>
       <c r="BS37" s="7"/>
       <c r="BT37" s="7"/>
       <c r="BU37" s="7"/>
@@ -4946,7 +4935,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="30"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -5002,8 +4991,8 @@
       <c r="BN38" s="7"/>
       <c r="BO38" s="7"/>
       <c r="BP38" s="7"/>
-      <c r="BQ38" s="7"/>
-      <c r="BR38" s="7"/>
+      <c r="BQ38" s="19"/>
+      <c r="BR38" s="19"/>
       <c r="BS38" s="7"/>
       <c r="BT38" s="7"/>
       <c r="BU38" s="7"/>
@@ -5029,7 +5018,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="30"/>
+      <c r="M39" s="19"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -5085,8 +5074,8 @@
       <c r="BN39" s="7"/>
       <c r="BO39" s="7"/>
       <c r="BP39" s="7"/>
-      <c r="BQ39" s="7"/>
-      <c r="BR39" s="7"/>
+      <c r="BQ39" s="19"/>
+      <c r="BR39" s="19"/>
       <c r="BS39" s="7"/>
       <c r="BT39" s="7"/>
       <c r="BU39" s="7"/>
@@ -5112,7 +5101,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="30"/>
+      <c r="M40" s="19"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -5168,8 +5157,8 @@
       <c r="BN40" s="7"/>
       <c r="BO40" s="7"/>
       <c r="BP40" s="7"/>
-      <c r="BQ40" s="7"/>
-      <c r="BR40" s="7"/>
+      <c r="BQ40" s="19"/>
+      <c r="BR40" s="19"/>
       <c r="BS40" s="7"/>
       <c r="BT40" s="7"/>
       <c r="BU40" s="7"/>
@@ -5195,7 +5184,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="30"/>
+      <c r="M41" s="19"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -5251,8 +5240,8 @@
       <c r="BN41" s="7"/>
       <c r="BO41" s="7"/>
       <c r="BP41" s="7"/>
-      <c r="BQ41" s="7"/>
-      <c r="BR41" s="7"/>
+      <c r="BQ41" s="19"/>
+      <c r="BR41" s="19"/>
       <c r="BS41" s="7"/>
       <c r="BT41" s="7"/>
       <c r="BU41" s="7"/>
@@ -5278,7 +5267,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="30"/>
+      <c r="M42" s="19"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -5334,8 +5323,8 @@
       <c r="BN42" s="7"/>
       <c r="BO42" s="7"/>
       <c r="BP42" s="7"/>
-      <c r="BQ42" s="7"/>
-      <c r="BR42" s="7"/>
+      <c r="BQ42" s="19"/>
+      <c r="BR42" s="19"/>
       <c r="BS42" s="7"/>
       <c r="BT42" s="7"/>
       <c r="BU42" s="7"/>
@@ -5361,7 +5350,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="30"/>
+      <c r="M43" s="19"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -5417,8 +5406,8 @@
       <c r="BN43" s="7"/>
       <c r="BO43" s="7"/>
       <c r="BP43" s="7"/>
-      <c r="BQ43" s="7"/>
-      <c r="BR43" s="7"/>
+      <c r="BQ43" s="19"/>
+      <c r="BR43" s="19"/>
       <c r="BS43" s="7"/>
       <c r="BT43" s="7"/>
       <c r="BU43" s="7"/>
@@ -5444,7 +5433,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="30"/>
+      <c r="M44" s="19"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -5500,8 +5489,8 @@
       <c r="BN44" s="7"/>
       <c r="BO44" s="7"/>
       <c r="BP44" s="7"/>
-      <c r="BQ44" s="7"/>
-      <c r="BR44" s="7"/>
+      <c r="BQ44" s="19"/>
+      <c r="BR44" s="19"/>
       <c r="BS44" s="7"/>
       <c r="BT44" s="7"/>
       <c r="BU44" s="7"/>
@@ -5527,7 +5516,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="30"/>
+      <c r="M45" s="19"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -5583,8 +5572,8 @@
       <c r="BN45" s="7"/>
       <c r="BO45" s="7"/>
       <c r="BP45" s="7"/>
-      <c r="BQ45" s="7"/>
-      <c r="BR45" s="7"/>
+      <c r="BQ45" s="19"/>
+      <c r="BR45" s="19"/>
       <c r="BS45" s="7"/>
       <c r="BT45" s="7"/>
       <c r="BU45" s="7"/>
@@ -5610,7 +5599,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="30"/>
+      <c r="M46" s="19"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -5666,8 +5655,8 @@
       <c r="BN46" s="7"/>
       <c r="BO46" s="7"/>
       <c r="BP46" s="7"/>
-      <c r="BQ46" s="7"/>
-      <c r="BR46" s="7"/>
+      <c r="BQ46" s="19"/>
+      <c r="BR46" s="19"/>
       <c r="BS46" s="7"/>
       <c r="BT46" s="7"/>
       <c r="BU46" s="7"/>
@@ -5693,7 +5682,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="30"/>
+      <c r="M47" s="19"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -5749,8 +5738,8 @@
       <c r="BN47" s="7"/>
       <c r="BO47" s="7"/>
       <c r="BP47" s="7"/>
-      <c r="BQ47" s="7"/>
-      <c r="BR47" s="7"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19"/>
       <c r="BS47" s="7"/>
       <c r="BT47" s="7"/>
       <c r="BU47" s="7"/>
@@ -5776,7 +5765,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="30"/>
+      <c r="M48" s="19"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -5832,8 +5821,8 @@
       <c r="BN48" s="7"/>
       <c r="BO48" s="7"/>
       <c r="BP48" s="7"/>
-      <c r="BQ48" s="7"/>
-      <c r="BR48" s="7"/>
+      <c r="BQ48" s="19"/>
+      <c r="BR48" s="19"/>
       <c r="BS48" s="7"/>
       <c r="BT48" s="7"/>
       <c r="BU48" s="7"/>
@@ -5859,7 +5848,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="30"/>
+      <c r="M49" s="19"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
@@ -5915,8 +5904,8 @@
       <c r="BN49" s="7"/>
       <c r="BO49" s="7"/>
       <c r="BP49" s="7"/>
-      <c r="BQ49" s="7"/>
-      <c r="BR49" s="7"/>
+      <c r="BQ49" s="19"/>
+      <c r="BR49" s="19"/>
       <c r="BS49" s="7"/>
       <c r="BT49" s="7"/>
       <c r="BU49" s="7"/>
@@ -5942,7 +5931,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="30"/>
+      <c r="M50" s="19"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -5998,8 +5987,8 @@
       <c r="BN50" s="7"/>
       <c r="BO50" s="7"/>
       <c r="BP50" s="7"/>
-      <c r="BQ50" s="7"/>
-      <c r="BR50" s="7"/>
+      <c r="BQ50" s="19"/>
+      <c r="BR50" s="19"/>
       <c r="BS50" s="7"/>
       <c r="BT50" s="7"/>
       <c r="BU50" s="7"/>
@@ -6025,7 +6014,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="30"/>
+      <c r="M51" s="19"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
@@ -6081,8 +6070,8 @@
       <c r="BN51" s="7"/>
       <c r="BO51" s="7"/>
       <c r="BP51" s="7"/>
-      <c r="BQ51" s="7"/>
-      <c r="BR51" s="7"/>
+      <c r="BQ51" s="19"/>
+      <c r="BR51" s="19"/>
       <c r="BS51" s="7"/>
       <c r="BT51" s="7"/>
       <c r="BU51" s="7"/>
@@ -6108,7 +6097,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="30"/>
+      <c r="M52" s="19"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
@@ -6164,8 +6153,8 @@
       <c r="BN52" s="7"/>
       <c r="BO52" s="7"/>
       <c r="BP52" s="7"/>
-      <c r="BQ52" s="7"/>
-      <c r="BR52" s="7"/>
+      <c r="BQ52" s="19"/>
+      <c r="BR52" s="19"/>
       <c r="BS52" s="7"/>
       <c r="BT52" s="7"/>
       <c r="BU52" s="7"/>
@@ -6191,7 +6180,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="30"/>
+      <c r="M53" s="19"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
@@ -6247,8 +6236,8 @@
       <c r="BN53" s="7"/>
       <c r="BO53" s="7"/>
       <c r="BP53" s="7"/>
-      <c r="BQ53" s="7"/>
-      <c r="BR53" s="7"/>
+      <c r="BQ53" s="19"/>
+      <c r="BR53" s="19"/>
       <c r="BS53" s="7"/>
       <c r="BT53" s="7"/>
       <c r="BU53" s="7"/>
@@ -6274,7 +6263,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="30"/>
+      <c r="M54" s="19"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -6330,8 +6319,8 @@
       <c r="BN54" s="7"/>
       <c r="BO54" s="7"/>
       <c r="BP54" s="7"/>
-      <c r="BQ54" s="7"/>
-      <c r="BR54" s="7"/>
+      <c r="BQ54" s="19"/>
+      <c r="BR54" s="19"/>
       <c r="BS54" s="7"/>
       <c r="BT54" s="7"/>
       <c r="BU54" s="7"/>
@@ -6357,7 +6346,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="30"/>
+      <c r="M55" s="19"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
@@ -6413,8 +6402,8 @@
       <c r="BN55" s="7"/>
       <c r="BO55" s="7"/>
       <c r="BP55" s="7"/>
-      <c r="BQ55" s="7"/>
-      <c r="BR55" s="7"/>
+      <c r="BQ55" s="19"/>
+      <c r="BR55" s="19"/>
       <c r="BS55" s="7"/>
       <c r="BT55" s="7"/>
       <c r="BU55" s="7"/>
@@ -6440,7 +6429,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="30"/>
+      <c r="M56" s="19"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
@@ -6496,8 +6485,8 @@
       <c r="BN56" s="7"/>
       <c r="BO56" s="7"/>
       <c r="BP56" s="7"/>
-      <c r="BQ56" s="7"/>
-      <c r="BR56" s="7"/>
+      <c r="BQ56" s="19"/>
+      <c r="BR56" s="19"/>
       <c r="BS56" s="7"/>
       <c r="BT56" s="7"/>
       <c r="BU56" s="7"/>
@@ -6523,7 +6512,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="30"/>
+      <c r="M57" s="19"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
@@ -6579,8 +6568,8 @@
       <c r="BN57" s="7"/>
       <c r="BO57" s="7"/>
       <c r="BP57" s="7"/>
-      <c r="BQ57" s="7"/>
-      <c r="BR57" s="7"/>
+      <c r="BQ57" s="19"/>
+      <c r="BR57" s="19"/>
       <c r="BS57" s="7"/>
       <c r="BT57" s="7"/>
       <c r="BU57" s="7"/>
@@ -6606,7 +6595,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="30"/>
+      <c r="M58" s="19"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -6662,8 +6651,8 @@
       <c r="BN58" s="7"/>
       <c r="BO58" s="7"/>
       <c r="BP58" s="7"/>
-      <c r="BQ58" s="7"/>
-      <c r="BR58" s="7"/>
+      <c r="BQ58" s="19"/>
+      <c r="BR58" s="19"/>
       <c r="BS58" s="7"/>
       <c r="BT58" s="7"/>
       <c r="BU58" s="7"/>
@@ -6689,7 +6678,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="30"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
@@ -6745,8 +6734,8 @@
       <c r="BN59" s="7"/>
       <c r="BO59" s="7"/>
       <c r="BP59" s="7"/>
-      <c r="BQ59" s="7"/>
-      <c r="BR59" s="7"/>
+      <c r="BQ59" s="19"/>
+      <c r="BR59" s="19"/>
       <c r="BS59" s="7"/>
       <c r="BT59" s="7"/>
       <c r="BU59" s="7"/>
@@ -6772,7 +6761,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="30"/>
+      <c r="M60" s="19"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
@@ -6828,8 +6817,8 @@
       <c r="BN60" s="7"/>
       <c r="BO60" s="7"/>
       <c r="BP60" s="7"/>
-      <c r="BQ60" s="7"/>
-      <c r="BR60" s="7"/>
+      <c r="BQ60" s="19"/>
+      <c r="BR60" s="19"/>
       <c r="BS60" s="7"/>
       <c r="BT60" s="7"/>
       <c r="BU60" s="7"/>
@@ -6855,7 +6844,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="30"/>
+      <c r="M61" s="19"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
@@ -6911,8 +6900,8 @@
       <c r="BN61" s="7"/>
       <c r="BO61" s="7"/>
       <c r="BP61" s="7"/>
-      <c r="BQ61" s="7"/>
-      <c r="BR61" s="7"/>
+      <c r="BQ61" s="19"/>
+      <c r="BR61" s="19"/>
       <c r="BS61" s="7"/>
       <c r="BT61" s="7"/>
       <c r="BU61" s="7"/>
@@ -6938,7 +6927,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
-      <c r="M62" s="30"/>
+      <c r="M62" s="19"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
@@ -6994,8 +6983,8 @@
       <c r="BN62" s="7"/>
       <c r="BO62" s="7"/>
       <c r="BP62" s="7"/>
-      <c r="BQ62" s="7"/>
-      <c r="BR62" s="7"/>
+      <c r="BQ62" s="19"/>
+      <c r="BR62" s="19"/>
       <c r="BS62" s="7"/>
       <c r="BT62" s="7"/>
       <c r="BU62" s="7"/>
@@ -7021,7 +7010,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="30"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
@@ -7077,8 +7066,8 @@
       <c r="BN63" s="7"/>
       <c r="BO63" s="7"/>
       <c r="BP63" s="7"/>
-      <c r="BQ63" s="7"/>
-      <c r="BR63" s="7"/>
+      <c r="BQ63" s="19"/>
+      <c r="BR63" s="19"/>
       <c r="BS63" s="7"/>
       <c r="BT63" s="7"/>
       <c r="BU63" s="7"/>
@@ -7104,7 +7093,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="30"/>
+      <c r="M64" s="19"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
@@ -7160,8 +7149,8 @@
       <c r="BN64" s="7"/>
       <c r="BO64" s="7"/>
       <c r="BP64" s="7"/>
-      <c r="BQ64" s="7"/>
-      <c r="BR64" s="7"/>
+      <c r="BQ64" s="19"/>
+      <c r="BR64" s="19"/>
       <c r="BS64" s="7"/>
       <c r="BT64" s="7"/>
       <c r="BU64" s="7"/>
@@ -7187,7 +7176,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="30"/>
+      <c r="M65" s="19"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
@@ -7243,8 +7232,8 @@
       <c r="BN65" s="7"/>
       <c r="BO65" s="7"/>
       <c r="BP65" s="7"/>
-      <c r="BQ65" s="7"/>
-      <c r="BR65" s="7"/>
+      <c r="BQ65" s="19"/>
+      <c r="BR65" s="19"/>
       <c r="BS65" s="7"/>
       <c r="BT65" s="7"/>
       <c r="BU65" s="7"/>
@@ -7270,7 +7259,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="30"/>
+      <c r="M66" s="19"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
@@ -7326,8 +7315,8 @@
       <c r="BN66" s="7"/>
       <c r="BO66" s="7"/>
       <c r="BP66" s="7"/>
-      <c r="BQ66" s="7"/>
-      <c r="BR66" s="7"/>
+      <c r="BQ66" s="19"/>
+      <c r="BR66" s="19"/>
       <c r="BS66" s="7"/>
       <c r="BT66" s="7"/>
       <c r="BU66" s="7"/>
@@ -7353,7 +7342,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="30"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
@@ -7409,8 +7398,8 @@
       <c r="BN67" s="7"/>
       <c r="BO67" s="7"/>
       <c r="BP67" s="7"/>
-      <c r="BQ67" s="7"/>
-      <c r="BR67" s="7"/>
+      <c r="BQ67" s="19"/>
+      <c r="BR67" s="19"/>
       <c r="BS67" s="7"/>
       <c r="BT67" s="7"/>
       <c r="BU67" s="7"/>
@@ -7436,7 +7425,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="30"/>
+      <c r="M68" s="19"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
@@ -7492,8 +7481,8 @@
       <c r="BN68" s="7"/>
       <c r="BO68" s="7"/>
       <c r="BP68" s="7"/>
-      <c r="BQ68" s="7"/>
-      <c r="BR68" s="7"/>
+      <c r="BQ68" s="19"/>
+      <c r="BR68" s="19"/>
       <c r="BS68" s="7"/>
       <c r="BT68" s="7"/>
       <c r="BU68" s="7"/>
@@ -7519,7 +7508,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="30"/>
+      <c r="M69" s="19"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
@@ -7575,8 +7564,8 @@
       <c r="BN69" s="7"/>
       <c r="BO69" s="7"/>
       <c r="BP69" s="7"/>
-      <c r="BQ69" s="7"/>
-      <c r="BR69" s="7"/>
+      <c r="BQ69" s="19"/>
+      <c r="BR69" s="19"/>
       <c r="BS69" s="7"/>
       <c r="BT69" s="7"/>
       <c r="BU69" s="7"/>
@@ -7602,7 +7591,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="30"/>
+      <c r="M70" s="19"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
@@ -7658,8 +7647,8 @@
       <c r="BN70" s="7"/>
       <c r="BO70" s="7"/>
       <c r="BP70" s="7"/>
-      <c r="BQ70" s="7"/>
-      <c r="BR70" s="7"/>
+      <c r="BQ70" s="19"/>
+      <c r="BR70" s="19"/>
       <c r="BS70" s="7"/>
       <c r="BT70" s="7"/>
       <c r="BU70" s="7"/>
@@ -7685,7 +7674,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="30"/>
+      <c r="M71" s="19"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
@@ -7741,8 +7730,8 @@
       <c r="BN71" s="7"/>
       <c r="BO71" s="7"/>
       <c r="BP71" s="7"/>
-      <c r="BQ71" s="7"/>
-      <c r="BR71" s="7"/>
+      <c r="BQ71" s="19"/>
+      <c r="BR71" s="19"/>
       <c r="BS71" s="7"/>
       <c r="BT71" s="7"/>
       <c r="BU71" s="7"/>
@@ -7768,7 +7757,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="30"/>
+      <c r="M72" s="19"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
@@ -7824,8 +7813,8 @@
       <c r="BN72" s="7"/>
       <c r="BO72" s="7"/>
       <c r="BP72" s="7"/>
-      <c r="BQ72" s="7"/>
-      <c r="BR72" s="7"/>
+      <c r="BQ72" s="19"/>
+      <c r="BR72" s="19"/>
       <c r="BS72" s="7"/>
       <c r="BT72" s="7"/>
       <c r="BU72" s="7"/>
@@ -7851,7 +7840,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="30"/>
+      <c r="M73" s="19"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
@@ -7907,8 +7896,8 @@
       <c r="BN73" s="7"/>
       <c r="BO73" s="7"/>
       <c r="BP73" s="7"/>
-      <c r="BQ73" s="7"/>
-      <c r="BR73" s="7"/>
+      <c r="BQ73" s="19"/>
+      <c r="BR73" s="19"/>
       <c r="BS73" s="7"/>
       <c r="BT73" s="7"/>
       <c r="BU73" s="7"/>
@@ -7934,7 +7923,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="30"/>
+      <c r="M74" s="19"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
@@ -7990,8 +7979,8 @@
       <c r="BN74" s="7"/>
       <c r="BO74" s="7"/>
       <c r="BP74" s="7"/>
-      <c r="BQ74" s="7"/>
-      <c r="BR74" s="7"/>
+      <c r="BQ74" s="19"/>
+      <c r="BR74" s="19"/>
       <c r="BS74" s="7"/>
       <c r="BT74" s="7"/>
       <c r="BU74" s="7"/>
@@ -8017,7 +8006,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="30"/>
+      <c r="M75" s="19"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
@@ -8073,8 +8062,8 @@
       <c r="BN75" s="7"/>
       <c r="BO75" s="7"/>
       <c r="BP75" s="7"/>
-      <c r="BQ75" s="7"/>
-      <c r="BR75" s="7"/>
+      <c r="BQ75" s="19"/>
+      <c r="BR75" s="19"/>
       <c r="BS75" s="7"/>
       <c r="BT75" s="7"/>
       <c r="BU75" s="7"/>
@@ -8100,7 +8089,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="30"/>
+      <c r="M76" s="19"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
@@ -8156,8 +8145,8 @@
       <c r="BN76" s="7"/>
       <c r="BO76" s="7"/>
       <c r="BP76" s="7"/>
-      <c r="BQ76" s="7"/>
-      <c r="BR76" s="7"/>
+      <c r="BQ76" s="19"/>
+      <c r="BR76" s="19"/>
       <c r="BS76" s="7"/>
       <c r="BT76" s="7"/>
       <c r="BU76" s="7"/>
@@ -8183,7 +8172,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="30"/>
+      <c r="M77" s="19"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
@@ -8239,8 +8228,8 @@
       <c r="BN77" s="7"/>
       <c r="BO77" s="7"/>
       <c r="BP77" s="7"/>
-      <c r="BQ77" s="7"/>
-      <c r="BR77" s="7"/>
+      <c r="BQ77" s="19"/>
+      <c r="BR77" s="19"/>
       <c r="BS77" s="7"/>
       <c r="BT77" s="7"/>
       <c r="BU77" s="7"/>
@@ -8266,7 +8255,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="30"/>
+      <c r="M78" s="19"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
@@ -8322,8 +8311,8 @@
       <c r="BN78" s="7"/>
       <c r="BO78" s="7"/>
       <c r="BP78" s="7"/>
-      <c r="BQ78" s="7"/>
-      <c r="BR78" s="7"/>
+      <c r="BQ78" s="19"/>
+      <c r="BR78" s="19"/>
       <c r="BS78" s="7"/>
       <c r="BT78" s="7"/>
       <c r="BU78" s="7"/>
@@ -8349,7 +8338,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="30"/>
+      <c r="M79" s="19"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
@@ -8405,8 +8394,8 @@
       <c r="BN79" s="7"/>
       <c r="BO79" s="7"/>
       <c r="BP79" s="7"/>
-      <c r="BQ79" s="7"/>
-      <c r="BR79" s="7"/>
+      <c r="BQ79" s="19"/>
+      <c r="BR79" s="19"/>
       <c r="BS79" s="7"/>
       <c r="BT79" s="7"/>
       <c r="BU79" s="7"/>
@@ -8432,7 +8421,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="30"/>
+      <c r="M80" s="19"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
@@ -8488,8 +8477,8 @@
       <c r="BN80" s="7"/>
       <c r="BO80" s="7"/>
       <c r="BP80" s="7"/>
-      <c r="BQ80" s="7"/>
-      <c r="BR80" s="7"/>
+      <c r="BQ80" s="19"/>
+      <c r="BR80" s="19"/>
       <c r="BS80" s="7"/>
       <c r="BT80" s="7"/>
       <c r="BU80" s="7"/>
@@ -8515,7 +8504,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="30"/>
+      <c r="M81" s="19"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
@@ -8571,8 +8560,8 @@
       <c r="BN81" s="7"/>
       <c r="BO81" s="7"/>
       <c r="BP81" s="7"/>
-      <c r="BQ81" s="7"/>
-      <c r="BR81" s="7"/>
+      <c r="BQ81" s="19"/>
+      <c r="BR81" s="19"/>
       <c r="BS81" s="7"/>
       <c r="BT81" s="7"/>
       <c r="BU81" s="7"/>
@@ -8598,7 +8587,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="30"/>
+      <c r="M82" s="19"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -8654,8 +8643,8 @@
       <c r="BN82" s="7"/>
       <c r="BO82" s="7"/>
       <c r="BP82" s="7"/>
-      <c r="BQ82" s="7"/>
-      <c r="BR82" s="7"/>
+      <c r="BQ82" s="19"/>
+      <c r="BR82" s="19"/>
       <c r="BS82" s="7"/>
       <c r="BT82" s="7"/>
       <c r="BU82" s="7"/>
@@ -8681,7 +8670,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
-      <c r="M83" s="30"/>
+      <c r="M83" s="19"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
@@ -8737,8 +8726,8 @@
       <c r="BN83" s="7"/>
       <c r="BO83" s="7"/>
       <c r="BP83" s="7"/>
-      <c r="BQ83" s="7"/>
-      <c r="BR83" s="7"/>
+      <c r="BQ83" s="19"/>
+      <c r="BR83" s="19"/>
       <c r="BS83" s="7"/>
       <c r="BT83" s="7"/>
       <c r="BU83" s="7"/>
@@ -8764,7 +8753,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
-      <c r="M84" s="30"/>
+      <c r="M84" s="19"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
@@ -8820,8 +8809,8 @@
       <c r="BN84" s="7"/>
       <c r="BO84" s="7"/>
       <c r="BP84" s="7"/>
-      <c r="BQ84" s="7"/>
-      <c r="BR84" s="7"/>
+      <c r="BQ84" s="19"/>
+      <c r="BR84" s="19"/>
       <c r="BS84" s="7"/>
       <c r="BT84" s="7"/>
       <c r="BU84" s="7"/>
@@ -8847,7 +8836,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="30"/>
+      <c r="M85" s="19"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
@@ -8903,8 +8892,8 @@
       <c r="BN85" s="7"/>
       <c r="BO85" s="7"/>
       <c r="BP85" s="7"/>
-      <c r="BQ85" s="7"/>
-      <c r="BR85" s="7"/>
+      <c r="BQ85" s="19"/>
+      <c r="BR85" s="19"/>
       <c r="BS85" s="7"/>
       <c r="BT85" s="7"/>
       <c r="BU85" s="7"/>
@@ -8930,7 +8919,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="30"/>
+      <c r="M86" s="19"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
@@ -8986,8 +8975,8 @@
       <c r="BN86" s="7"/>
       <c r="BO86" s="7"/>
       <c r="BP86" s="7"/>
-      <c r="BQ86" s="7"/>
-      <c r="BR86" s="7"/>
+      <c r="BQ86" s="19"/>
+      <c r="BR86" s="19"/>
       <c r="BS86" s="7"/>
       <c r="BT86" s="7"/>
       <c r="BU86" s="7"/>
@@ -9013,7 +9002,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
-      <c r="M87" s="30"/>
+      <c r="M87" s="19"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
@@ -9069,8 +9058,8 @@
       <c r="BN87" s="7"/>
       <c r="BO87" s="7"/>
       <c r="BP87" s="7"/>
-      <c r="BQ87" s="7"/>
-      <c r="BR87" s="7"/>
+      <c r="BQ87" s="19"/>
+      <c r="BR87" s="19"/>
       <c r="BS87" s="7"/>
       <c r="BT87" s="7"/>
       <c r="BU87" s="7"/>
@@ -9096,7 +9085,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
-      <c r="M88" s="30"/>
+      <c r="M88" s="19"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
@@ -9152,8 +9141,8 @@
       <c r="BN88" s="7"/>
       <c r="BO88" s="7"/>
       <c r="BP88" s="7"/>
-      <c r="BQ88" s="7"/>
-      <c r="BR88" s="7"/>
+      <c r="BQ88" s="19"/>
+      <c r="BR88" s="19"/>
       <c r="BS88" s="7"/>
       <c r="BT88" s="7"/>
       <c r="BU88" s="7"/>
@@ -9179,7 +9168,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="30"/>
+      <c r="M89" s="19"/>
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
@@ -9235,8 +9224,8 @@
       <c r="BN89" s="7"/>
       <c r="BO89" s="7"/>
       <c r="BP89" s="7"/>
-      <c r="BQ89" s="7"/>
-      <c r="BR89" s="7"/>
+      <c r="BQ89" s="19"/>
+      <c r="BR89" s="19"/>
       <c r="BS89" s="7"/>
       <c r="BT89" s="7"/>
       <c r="BU89" s="7"/>
@@ -9262,7 +9251,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
-      <c r="M90" s="30"/>
+      <c r="M90" s="19"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
@@ -9318,8 +9307,8 @@
       <c r="BN90" s="7"/>
       <c r="BO90" s="7"/>
       <c r="BP90" s="7"/>
-      <c r="BQ90" s="7"/>
-      <c r="BR90" s="7"/>
+      <c r="BQ90" s="19"/>
+      <c r="BR90" s="19"/>
       <c r="BS90" s="7"/>
       <c r="BT90" s="7"/>
       <c r="BU90" s="7"/>
@@ -9345,7 +9334,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
-      <c r="M91" s="30"/>
+      <c r="M91" s="19"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
@@ -9401,8 +9390,8 @@
       <c r="BN91" s="7"/>
       <c r="BO91" s="7"/>
       <c r="BP91" s="7"/>
-      <c r="BQ91" s="7"/>
-      <c r="BR91" s="7"/>
+      <c r="BQ91" s="19"/>
+      <c r="BR91" s="19"/>
       <c r="BS91" s="7"/>
       <c r="BT91" s="7"/>
       <c r="BU91" s="7"/>
@@ -9428,7 +9417,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
-      <c r="M92" s="30"/>
+      <c r="M92" s="19"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
@@ -9484,8 +9473,8 @@
       <c r="BN92" s="7"/>
       <c r="BO92" s="7"/>
       <c r="BP92" s="7"/>
-      <c r="BQ92" s="7"/>
-      <c r="BR92" s="7"/>
+      <c r="BQ92" s="19"/>
+      <c r="BR92" s="19"/>
       <c r="BS92" s="7"/>
       <c r="BT92" s="7"/>
       <c r="BU92" s="7"/>
@@ -9511,7 +9500,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
-      <c r="M93" s="30"/>
+      <c r="M93" s="19"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
@@ -9567,8 +9556,8 @@
       <c r="BN93" s="7"/>
       <c r="BO93" s="7"/>
       <c r="BP93" s="7"/>
-      <c r="BQ93" s="7"/>
-      <c r="BR93" s="7"/>
+      <c r="BQ93" s="19"/>
+      <c r="BR93" s="19"/>
       <c r="BS93" s="7"/>
       <c r="BT93" s="7"/>
       <c r="BU93" s="7"/>
@@ -9594,7 +9583,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
-      <c r="M94" s="30"/>
+      <c r="M94" s="19"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
@@ -9650,8 +9639,8 @@
       <c r="BN94" s="7"/>
       <c r="BO94" s="7"/>
       <c r="BP94" s="7"/>
-      <c r="BQ94" s="7"/>
-      <c r="BR94" s="7"/>
+      <c r="BQ94" s="19"/>
+      <c r="BR94" s="19"/>
       <c r="BS94" s="7"/>
       <c r="BT94" s="7"/>
       <c r="BU94" s="7"/>
@@ -9677,7 +9666,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="30"/>
+      <c r="M95" s="19"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
@@ -9733,8 +9722,8 @@
       <c r="BN95" s="7"/>
       <c r="BO95" s="7"/>
       <c r="BP95" s="7"/>
-      <c r="BQ95" s="7"/>
-      <c r="BR95" s="7"/>
+      <c r="BQ95" s="19"/>
+      <c r="BR95" s="19"/>
       <c r="BS95" s="7"/>
       <c r="BT95" s="7"/>
       <c r="BU95" s="7"/>
@@ -9760,7 +9749,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
-      <c r="M96" s="30"/>
+      <c r="M96" s="19"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
@@ -9816,8 +9805,8 @@
       <c r="BN96" s="7"/>
       <c r="BO96" s="7"/>
       <c r="BP96" s="7"/>
-      <c r="BQ96" s="7"/>
-      <c r="BR96" s="7"/>
+      <c r="BQ96" s="19"/>
+      <c r="BR96" s="19"/>
       <c r="BS96" s="7"/>
       <c r="BT96" s="7"/>
       <c r="BU96" s="7"/>
@@ -9843,7 +9832,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="30"/>
+      <c r="M97" s="19"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
@@ -9899,8 +9888,8 @@
       <c r="BN97" s="7"/>
       <c r="BO97" s="7"/>
       <c r="BP97" s="7"/>
-      <c r="BQ97" s="7"/>
-      <c r="BR97" s="7"/>
+      <c r="BQ97" s="19"/>
+      <c r="BR97" s="19"/>
       <c r="BS97" s="7"/>
       <c r="BT97" s="7"/>
       <c r="BU97" s="7"/>
@@ -9926,7 +9915,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
-      <c r="M98" s="30"/>
+      <c r="M98" s="19"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
@@ -9982,8 +9971,8 @@
       <c r="BN98" s="7"/>
       <c r="BO98" s="7"/>
       <c r="BP98" s="7"/>
-      <c r="BQ98" s="7"/>
-      <c r="BR98" s="7"/>
+      <c r="BQ98" s="19"/>
+      <c r="BR98" s="19"/>
       <c r="BS98" s="7"/>
       <c r="BT98" s="7"/>
       <c r="BU98" s="7"/>
@@ -10009,7 +9998,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="30"/>
+      <c r="M99" s="19"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
@@ -10065,8 +10054,8 @@
       <c r="BN99" s="7"/>
       <c r="BO99" s="7"/>
       <c r="BP99" s="7"/>
-      <c r="BQ99" s="7"/>
-      <c r="BR99" s="7"/>
+      <c r="BQ99" s="19"/>
+      <c r="BR99" s="19"/>
       <c r="BS99" s="7"/>
       <c r="BT99" s="7"/>
       <c r="BU99" s="7"/>
@@ -10092,7 +10081,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
-      <c r="M100" s="30"/>
+      <c r="M100" s="19"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
@@ -10148,8 +10137,8 @@
       <c r="BN100" s="7"/>
       <c r="BO100" s="7"/>
       <c r="BP100" s="7"/>
-      <c r="BQ100" s="7"/>
-      <c r="BR100" s="7"/>
+      <c r="BQ100" s="19"/>
+      <c r="BR100" s="19"/>
       <c r="BS100" s="7"/>
       <c r="BT100" s="7"/>
       <c r="BU100" s="7"/>
@@ -10175,7 +10164,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="30"/>
+      <c r="M101" s="19"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
       <c r="P101" s="7"/>
@@ -10231,8 +10220,8 @@
       <c r="BN101" s="7"/>
       <c r="BO101" s="7"/>
       <c r="BP101" s="7"/>
-      <c r="BQ101" s="7"/>
-      <c r="BR101" s="7"/>
+      <c r="BQ101" s="19"/>
+      <c r="BR101" s="19"/>
       <c r="BS101" s="7"/>
       <c r="BT101" s="7"/>
       <c r="BU101" s="7"/>
@@ -10258,7 +10247,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
-      <c r="M102" s="30"/>
+      <c r="M102" s="19"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
@@ -10314,8 +10303,8 @@
       <c r="BN102" s="7"/>
       <c r="BO102" s="7"/>
       <c r="BP102" s="7"/>
-      <c r="BQ102" s="7"/>
-      <c r="BR102" s="7"/>
+      <c r="BQ102" s="19"/>
+      <c r="BR102" s="19"/>
       <c r="BS102" s="7"/>
       <c r="BT102" s="7"/>
       <c r="BU102" s="7"/>
@@ -10341,7 +10330,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
-      <c r="M103" s="30"/>
+      <c r="M103" s="19"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
       <c r="P103" s="7"/>
@@ -10397,8 +10386,8 @@
       <c r="BN103" s="7"/>
       <c r="BO103" s="7"/>
       <c r="BP103" s="7"/>
-      <c r="BQ103" s="7"/>
-      <c r="BR103" s="7"/>
+      <c r="BQ103" s="19"/>
+      <c r="BR103" s="19"/>
       <c r="BS103" s="7"/>
       <c r="BT103" s="7"/>
       <c r="BU103" s="7"/>
@@ -10424,7 +10413,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
-      <c r="M104" s="30"/>
+      <c r="M104" s="19"/>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
       <c r="P104" s="7"/>
@@ -10480,8 +10469,8 @@
       <c r="BN104" s="7"/>
       <c r="BO104" s="7"/>
       <c r="BP104" s="7"/>
-      <c r="BQ104" s="7"/>
-      <c r="BR104" s="7"/>
+      <c r="BQ104" s="19"/>
+      <c r="BR104" s="19"/>
       <c r="BS104" s="7"/>
       <c r="BT104" s="7"/>
       <c r="BU104" s="7"/>
@@ -10507,7 +10496,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="30"/>
+      <c r="M105" s="19"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
       <c r="P105" s="7"/>
@@ -10563,8 +10552,8 @@
       <c r="BN105" s="7"/>
       <c r="BO105" s="7"/>
       <c r="BP105" s="7"/>
-      <c r="BQ105" s="7"/>
-      <c r="BR105" s="7"/>
+      <c r="BQ105" s="19"/>
+      <c r="BR105" s="19"/>
       <c r="BS105" s="7"/>
       <c r="BT105" s="7"/>
       <c r="BU105" s="7"/>
@@ -10590,7 +10579,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
-      <c r="M106" s="30"/>
+      <c r="M106" s="19"/>
       <c r="N106" s="7"/>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
@@ -10646,8 +10635,8 @@
       <c r="BN106" s="7"/>
       <c r="BO106" s="7"/>
       <c r="BP106" s="7"/>
-      <c r="BQ106" s="7"/>
-      <c r="BR106" s="7"/>
+      <c r="BQ106" s="19"/>
+      <c r="BR106" s="19"/>
       <c r="BS106" s="7"/>
       <c r="BT106" s="7"/>
       <c r="BU106" s="7"/>
@@ -10673,7 +10662,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
-      <c r="M107" s="30"/>
+      <c r="M107" s="19"/>
       <c r="N107" s="7"/>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
@@ -10729,8 +10718,8 @@
       <c r="BN107" s="7"/>
       <c r="BO107" s="7"/>
       <c r="BP107" s="7"/>
-      <c r="BQ107" s="7"/>
-      <c r="BR107" s="7"/>
+      <c r="BQ107" s="19"/>
+      <c r="BR107" s="19"/>
       <c r="BS107" s="7"/>
       <c r="BT107" s="7"/>
       <c r="BU107" s="7"/>
@@ -10756,7 +10745,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="30"/>
+      <c r="M108" s="19"/>
       <c r="N108" s="7"/>
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
@@ -10812,8 +10801,8 @@
       <c r="BN108" s="7"/>
       <c r="BO108" s="7"/>
       <c r="BP108" s="7"/>
-      <c r="BQ108" s="7"/>
-      <c r="BR108" s="7"/>
+      <c r="BQ108" s="19"/>
+      <c r="BR108" s="19"/>
       <c r="BS108" s="7"/>
       <c r="BT108" s="7"/>
       <c r="BU108" s="7"/>
@@ -10839,7 +10828,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
-      <c r="M109" s="30"/>
+      <c r="M109" s="19"/>
       <c r="N109" s="7"/>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
@@ -10895,8 +10884,8 @@
       <c r="BN109" s="7"/>
       <c r="BO109" s="7"/>
       <c r="BP109" s="7"/>
-      <c r="BQ109" s="7"/>
-      <c r="BR109" s="7"/>
+      <c r="BQ109" s="19"/>
+      <c r="BR109" s="19"/>
       <c r="BS109" s="7"/>
       <c r="BT109" s="7"/>
       <c r="BU109" s="7"/>
@@ -10922,7 +10911,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
-      <c r="M110" s="30"/>
+      <c r="M110" s="19"/>
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
@@ -10978,8 +10967,8 @@
       <c r="BN110" s="7"/>
       <c r="BO110" s="7"/>
       <c r="BP110" s="7"/>
-      <c r="BQ110" s="7"/>
-      <c r="BR110" s="7"/>
+      <c r="BQ110" s="19"/>
+      <c r="BR110" s="19"/>
       <c r="BS110" s="7"/>
       <c r="BT110" s="7"/>
       <c r="BU110" s="7"/>
@@ -11005,7 +10994,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
-      <c r="M111" s="30"/>
+      <c r="M111" s="19"/>
       <c r="N111" s="7"/>
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
@@ -11061,8 +11050,8 @@
       <c r="BN111" s="7"/>
       <c r="BO111" s="7"/>
       <c r="BP111" s="7"/>
-      <c r="BQ111" s="7"/>
-      <c r="BR111" s="7"/>
+      <c r="BQ111" s="19"/>
+      <c r="BR111" s="19"/>
       <c r="BS111" s="7"/>
       <c r="BT111" s="7"/>
       <c r="BU111" s="7"/>
@@ -11088,7 +11077,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
-      <c r="M112" s="30"/>
+      <c r="M112" s="19"/>
       <c r="N112" s="7"/>
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
@@ -11144,8 +11133,8 @@
       <c r="BN112" s="7"/>
       <c r="BO112" s="7"/>
       <c r="BP112" s="7"/>
-      <c r="BQ112" s="7"/>
-      <c r="BR112" s="7"/>
+      <c r="BQ112" s="19"/>
+      <c r="BR112" s="19"/>
       <c r="BS112" s="7"/>
       <c r="BT112" s="7"/>
       <c r="BU112" s="7"/>
@@ -11171,7 +11160,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
-      <c r="M113" s="30"/>
+      <c r="M113" s="19"/>
       <c r="N113" s="7"/>
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
@@ -11227,8 +11216,8 @@
       <c r="BN113" s="7"/>
       <c r="BO113" s="7"/>
       <c r="BP113" s="7"/>
-      <c r="BQ113" s="7"/>
-      <c r="BR113" s="7"/>
+      <c r="BQ113" s="19"/>
+      <c r="BR113" s="19"/>
       <c r="BS113" s="7"/>
       <c r="BT113" s="7"/>
       <c r="BU113" s="7"/>
@@ -11254,7 +11243,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
-      <c r="M114" s="30"/>
+      <c r="M114" s="19"/>
       <c r="N114" s="7"/>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
@@ -11310,8 +11299,8 @@
       <c r="BN114" s="7"/>
       <c r="BO114" s="7"/>
       <c r="BP114" s="7"/>
-      <c r="BQ114" s="7"/>
-      <c r="BR114" s="7"/>
+      <c r="BQ114" s="19"/>
+      <c r="BR114" s="19"/>
       <c r="BS114" s="7"/>
       <c r="BT114" s="7"/>
       <c r="BU114" s="7"/>
@@ -11337,7 +11326,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
-      <c r="M115" s="30"/>
+      <c r="M115" s="19"/>
       <c r="N115" s="7"/>
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
@@ -11393,8 +11382,8 @@
       <c r="BN115" s="7"/>
       <c r="BO115" s="7"/>
       <c r="BP115" s="7"/>
-      <c r="BQ115" s="7"/>
-      <c r="BR115" s="7"/>
+      <c r="BQ115" s="19"/>
+      <c r="BR115" s="19"/>
       <c r="BS115" s="7"/>
       <c r="BT115" s="7"/>
       <c r="BU115" s="7"/>
@@ -11420,7 +11409,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
-      <c r="M116" s="30"/>
+      <c r="M116" s="19"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
@@ -11476,8 +11465,8 @@
       <c r="BN116" s="7"/>
       <c r="BO116" s="7"/>
       <c r="BP116" s="7"/>
-      <c r="BQ116" s="7"/>
-      <c r="BR116" s="7"/>
+      <c r="BQ116" s="19"/>
+      <c r="BR116" s="19"/>
       <c r="BS116" s="7"/>
       <c r="BT116" s="7"/>
       <c r="BU116" s="7"/>
@@ -11503,7 +11492,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="30"/>
+      <c r="M117" s="19"/>
       <c r="N117" s="7"/>
       <c r="O117" s="7"/>
       <c r="P117" s="7"/>
@@ -11559,8 +11548,8 @@
       <c r="BN117" s="7"/>
       <c r="BO117" s="7"/>
       <c r="BP117" s="7"/>
-      <c r="BQ117" s="7"/>
-      <c r="BR117" s="7"/>
+      <c r="BQ117" s="19"/>
+      <c r="BR117" s="19"/>
       <c r="BS117" s="7"/>
       <c r="BT117" s="7"/>
       <c r="BU117" s="7"/>
@@ -11586,7 +11575,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
-      <c r="M118" s="30"/>
+      <c r="M118" s="19"/>
       <c r="N118" s="7"/>
       <c r="O118" s="7"/>
       <c r="P118" s="7"/>
@@ -11642,8 +11631,8 @@
       <c r="BN118" s="7"/>
       <c r="BO118" s="7"/>
       <c r="BP118" s="7"/>
-      <c r="BQ118" s="7"/>
-      <c r="BR118" s="7"/>
+      <c r="BQ118" s="19"/>
+      <c r="BR118" s="19"/>
       <c r="BS118" s="7"/>
       <c r="BT118" s="7"/>
       <c r="BU118" s="7"/>
@@ -11669,7 +11658,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
-      <c r="M119" s="30"/>
+      <c r="M119" s="19"/>
       <c r="N119" s="7"/>
       <c r="O119" s="7"/>
       <c r="P119" s="7"/>
@@ -11725,8 +11714,8 @@
       <c r="BN119" s="7"/>
       <c r="BO119" s="7"/>
       <c r="BP119" s="7"/>
-      <c r="BQ119" s="7"/>
-      <c r="BR119" s="7"/>
+      <c r="BQ119" s="19"/>
+      <c r="BR119" s="19"/>
       <c r="BS119" s="7"/>
       <c r="BT119" s="7"/>
       <c r="BU119" s="7"/>
@@ -11752,7 +11741,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
-      <c r="M120" s="30"/>
+      <c r="M120" s="19"/>
       <c r="N120" s="7"/>
       <c r="O120" s="7"/>
       <c r="P120" s="7"/>
@@ -11808,8 +11797,8 @@
       <c r="BN120" s="7"/>
       <c r="BO120" s="7"/>
       <c r="BP120" s="7"/>
-      <c r="BQ120" s="7"/>
-      <c r="BR120" s="7"/>
+      <c r="BQ120" s="19"/>
+      <c r="BR120" s="19"/>
       <c r="BS120" s="7"/>
       <c r="BT120" s="7"/>
       <c r="BU120" s="7"/>
@@ -11835,7 +11824,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="30"/>
+      <c r="M121" s="19"/>
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
@@ -11891,8 +11880,8 @@
       <c r="BN121" s="7"/>
       <c r="BO121" s="7"/>
       <c r="BP121" s="7"/>
-      <c r="BQ121" s="7"/>
-      <c r="BR121" s="7"/>
+      <c r="BQ121" s="19"/>
+      <c r="BR121" s="19"/>
       <c r="BS121" s="7"/>
       <c r="BT121" s="7"/>
       <c r="BU121" s="7"/>
@@ -11918,7 +11907,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
-      <c r="M122" s="30"/>
+      <c r="M122" s="19"/>
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
       <c r="P122" s="7"/>
@@ -11974,8 +11963,8 @@
       <c r="BN122" s="7"/>
       <c r="BO122" s="7"/>
       <c r="BP122" s="7"/>
-      <c r="BQ122" s="7"/>
-      <c r="BR122" s="7"/>
+      <c r="BQ122" s="19"/>
+      <c r="BR122" s="19"/>
       <c r="BS122" s="7"/>
       <c r="BT122" s="7"/>
       <c r="BU122" s="7"/>
@@ -12001,7 +11990,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
-      <c r="M123" s="30"/>
+      <c r="M123" s="19"/>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
       <c r="P123" s="7"/>
@@ -12057,8 +12046,8 @@
       <c r="BN123" s="7"/>
       <c r="BO123" s="7"/>
       <c r="BP123" s="7"/>
-      <c r="BQ123" s="7"/>
-      <c r="BR123" s="7"/>
+      <c r="BQ123" s="19"/>
+      <c r="BR123" s="19"/>
       <c r="BS123" s="7"/>
       <c r="BT123" s="7"/>
       <c r="BU123" s="7"/>
@@ -12084,7 +12073,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
-      <c r="M124" s="30"/>
+      <c r="M124" s="19"/>
       <c r="N124" s="7"/>
       <c r="O124" s="7"/>
       <c r="P124" s="7"/>
@@ -12140,8 +12129,8 @@
       <c r="BN124" s="7"/>
       <c r="BO124" s="7"/>
       <c r="BP124" s="7"/>
-      <c r="BQ124" s="7"/>
-      <c r="BR124" s="7"/>
+      <c r="BQ124" s="19"/>
+      <c r="BR124" s="19"/>
       <c r="BS124" s="7"/>
       <c r="BT124" s="7"/>
       <c r="BU124" s="7"/>
@@ -12167,7 +12156,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
-      <c r="M125" s="30"/>
+      <c r="M125" s="19"/>
       <c r="N125" s="7"/>
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
@@ -12223,8 +12212,8 @@
       <c r="BN125" s="7"/>
       <c r="BO125" s="7"/>
       <c r="BP125" s="7"/>
-      <c r="BQ125" s="7"/>
-      <c r="BR125" s="7"/>
+      <c r="BQ125" s="19"/>
+      <c r="BR125" s="19"/>
       <c r="BS125" s="7"/>
       <c r="BT125" s="7"/>
       <c r="BU125" s="7"/>
@@ -12250,7 +12239,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
-      <c r="M126" s="30"/>
+      <c r="M126" s="19"/>
       <c r="N126" s="7"/>
       <c r="O126" s="7"/>
       <c r="P126" s="7"/>
@@ -12306,8 +12295,8 @@
       <c r="BN126" s="7"/>
       <c r="BO126" s="7"/>
       <c r="BP126" s="7"/>
-      <c r="BQ126" s="7"/>
-      <c r="BR126" s="7"/>
+      <c r="BQ126" s="19"/>
+      <c r="BR126" s="19"/>
       <c r="BS126" s="7"/>
       <c r="BT126" s="7"/>
       <c r="BU126" s="7"/>
@@ -12333,7 +12322,7 @@
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="30"/>
+      <c r="M127" s="19"/>
       <c r="N127" s="7"/>
       <c r="O127" s="7"/>
       <c r="P127" s="7"/>
@@ -12389,8 +12378,8 @@
       <c r="BN127" s="7"/>
       <c r="BO127" s="7"/>
       <c r="BP127" s="7"/>
-      <c r="BQ127" s="7"/>
-      <c r="BR127" s="7"/>
+      <c r="BQ127" s="19"/>
+      <c r="BR127" s="19"/>
       <c r="BS127" s="7"/>
       <c r="BT127" s="7"/>
       <c r="BU127" s="7"/>
@@ -12416,7 +12405,7 @@
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
-      <c r="M128" s="30"/>
+      <c r="M128" s="19"/>
       <c r="N128" s="7"/>
       <c r="O128" s="7"/>
       <c r="P128" s="7"/>
@@ -12472,8 +12461,8 @@
       <c r="BN128" s="7"/>
       <c r="BO128" s="7"/>
       <c r="BP128" s="7"/>
-      <c r="BQ128" s="7"/>
-      <c r="BR128" s="7"/>
+      <c r="BQ128" s="19"/>
+      <c r="BR128" s="19"/>
       <c r="BS128" s="7"/>
       <c r="BT128" s="7"/>
       <c r="BU128" s="7"/>
@@ -12499,7 +12488,7 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="30"/>
+      <c r="M129" s="19"/>
       <c r="N129" s="7"/>
       <c r="O129" s="7"/>
       <c r="P129" s="7"/>
@@ -12555,8 +12544,8 @@
       <c r="BN129" s="7"/>
       <c r="BO129" s="7"/>
       <c r="BP129" s="7"/>
-      <c r="BQ129" s="7"/>
-      <c r="BR129" s="7"/>
+      <c r="BQ129" s="19"/>
+      <c r="BR129" s="19"/>
       <c r="BS129" s="7"/>
       <c r="BT129" s="7"/>
       <c r="BU129" s="7"/>
@@ -12582,7 +12571,7 @@
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
-      <c r="M130" s="30"/>
+      <c r="M130" s="19"/>
       <c r="N130" s="7"/>
       <c r="O130" s="7"/>
       <c r="P130" s="7"/>
@@ -12638,8 +12627,8 @@
       <c r="BN130" s="7"/>
       <c r="BO130" s="7"/>
       <c r="BP130" s="7"/>
-      <c r="BQ130" s="7"/>
-      <c r="BR130" s="7"/>
+      <c r="BQ130" s="19"/>
+      <c r="BR130" s="19"/>
       <c r="BS130" s="7"/>
       <c r="BT130" s="7"/>
       <c r="BU130" s="7"/>
@@ -12665,7 +12654,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="30"/>
+      <c r="M131" s="19"/>
       <c r="N131" s="7"/>
       <c r="O131" s="7"/>
       <c r="P131" s="7"/>
@@ -12721,8 +12710,8 @@
       <c r="BN131" s="7"/>
       <c r="BO131" s="7"/>
       <c r="BP131" s="7"/>
-      <c r="BQ131" s="7"/>
-      <c r="BR131" s="7"/>
+      <c r="BQ131" s="19"/>
+      <c r="BR131" s="19"/>
       <c r="BS131" s="7"/>
       <c r="BT131" s="7"/>
       <c r="BU131" s="7"/>
@@ -12748,7 +12737,7 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="30"/>
+      <c r="M132" s="19"/>
       <c r="N132" s="7"/>
       <c r="O132" s="7"/>
       <c r="P132" s="7"/>
@@ -12804,8 +12793,8 @@
       <c r="BN132" s="7"/>
       <c r="BO132" s="7"/>
       <c r="BP132" s="7"/>
-      <c r="BQ132" s="7"/>
-      <c r="BR132" s="7"/>
+      <c r="BQ132" s="19"/>
+      <c r="BR132" s="19"/>
       <c r="BS132" s="7"/>
       <c r="BT132" s="7"/>
       <c r="BU132" s="7"/>
@@ -12831,7 +12820,7 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="30"/>
+      <c r="M133" s="19"/>
       <c r="N133" s="7"/>
       <c r="O133" s="7"/>
       <c r="P133" s="7"/>
@@ -12887,8 +12876,8 @@
       <c r="BN133" s="7"/>
       <c r="BO133" s="7"/>
       <c r="BP133" s="7"/>
-      <c r="BQ133" s="7"/>
-      <c r="BR133" s="7"/>
+      <c r="BQ133" s="19"/>
+      <c r="BR133" s="19"/>
       <c r="BS133" s="7"/>
       <c r="BT133" s="7"/>
       <c r="BU133" s="7"/>
@@ -12914,7 +12903,7 @@
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
-      <c r="M134" s="30"/>
+      <c r="M134" s="19"/>
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
       <c r="P134" s="7"/>
@@ -12970,8 +12959,8 @@
       <c r="BN134" s="7"/>
       <c r="BO134" s="7"/>
       <c r="BP134" s="7"/>
-      <c r="BQ134" s="7"/>
-      <c r="BR134" s="7"/>
+      <c r="BQ134" s="19"/>
+      <c r="BR134" s="19"/>
       <c r="BS134" s="7"/>
       <c r="BT134" s="7"/>
       <c r="BU134" s="7"/>
@@ -12997,7 +12986,7 @@
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="30"/>
+      <c r="M135" s="19"/>
       <c r="N135" s="7"/>
       <c r="O135" s="7"/>
       <c r="P135" s="7"/>
@@ -13053,8 +13042,8 @@
       <c r="BN135" s="7"/>
       <c r="BO135" s="7"/>
       <c r="BP135" s="7"/>
-      <c r="BQ135" s="7"/>
-      <c r="BR135" s="7"/>
+      <c r="BQ135" s="19"/>
+      <c r="BR135" s="19"/>
       <c r="BS135" s="7"/>
       <c r="BT135" s="7"/>
       <c r="BU135" s="7"/>
@@ -13080,7 +13069,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="30"/>
+      <c r="M136" s="19"/>
       <c r="N136" s="7"/>
       <c r="O136" s="7"/>
       <c r="P136" s="7"/>
@@ -13136,8 +13125,8 @@
       <c r="BN136" s="7"/>
       <c r="BO136" s="7"/>
       <c r="BP136" s="7"/>
-      <c r="BQ136" s="7"/>
-      <c r="BR136" s="7"/>
+      <c r="BQ136" s="19"/>
+      <c r="BR136" s="19"/>
       <c r="BS136" s="7"/>
       <c r="BT136" s="7"/>
       <c r="BU136" s="7"/>
@@ -13163,7 +13152,7 @@
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
-      <c r="M137" s="30"/>
+      <c r="M137" s="19"/>
       <c r="N137" s="7"/>
       <c r="O137" s="7"/>
       <c r="P137" s="7"/>
@@ -13219,8 +13208,8 @@
       <c r="BN137" s="7"/>
       <c r="BO137" s="7"/>
       <c r="BP137" s="7"/>
-      <c r="BQ137" s="7"/>
-      <c r="BR137" s="7"/>
+      <c r="BQ137" s="19"/>
+      <c r="BR137" s="19"/>
       <c r="BS137" s="7"/>
       <c r="BT137" s="7"/>
       <c r="BU137" s="7"/>
@@ -13246,7 +13235,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="30"/>
+      <c r="M138" s="19"/>
       <c r="N138" s="7"/>
       <c r="O138" s="7"/>
       <c r="P138" s="7"/>
@@ -13302,8 +13291,8 @@
       <c r="BN138" s="7"/>
       <c r="BO138" s="7"/>
       <c r="BP138" s="7"/>
-      <c r="BQ138" s="7"/>
-      <c r="BR138" s="7"/>
+      <c r="BQ138" s="19"/>
+      <c r="BR138" s="19"/>
       <c r="BS138" s="7"/>
       <c r="BT138" s="7"/>
       <c r="BU138" s="7"/>
@@ -13329,7 +13318,7 @@
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
-      <c r="M139" s="30"/>
+      <c r="M139" s="19"/>
       <c r="N139" s="7"/>
       <c r="O139" s="7"/>
       <c r="P139" s="7"/>
@@ -13385,8 +13374,8 @@
       <c r="BN139" s="7"/>
       <c r="BO139" s="7"/>
       <c r="BP139" s="7"/>
-      <c r="BQ139" s="7"/>
-      <c r="BR139" s="7"/>
+      <c r="BQ139" s="19"/>
+      <c r="BR139" s="19"/>
       <c r="BS139" s="7"/>
       <c r="BT139" s="7"/>
       <c r="BU139" s="7"/>
@@ -13412,7 +13401,7 @@
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
-      <c r="M140" s="30"/>
+      <c r="M140" s="19"/>
       <c r="N140" s="7"/>
       <c r="O140" s="7"/>
       <c r="P140" s="7"/>
@@ -13468,8 +13457,8 @@
       <c r="BN140" s="7"/>
       <c r="BO140" s="7"/>
       <c r="BP140" s="7"/>
-      <c r="BQ140" s="7"/>
-      <c r="BR140" s="7"/>
+      <c r="BQ140" s="19"/>
+      <c r="BR140" s="19"/>
       <c r="BS140" s="7"/>
       <c r="BT140" s="7"/>
       <c r="BU140" s="7"/>
@@ -13495,7 +13484,7 @@
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
-      <c r="M141" s="30"/>
+      <c r="M141" s="19"/>
       <c r="N141" s="7"/>
       <c r="O141" s="7"/>
       <c r="P141" s="7"/>
@@ -13551,8 +13540,8 @@
       <c r="BN141" s="7"/>
       <c r="BO141" s="7"/>
       <c r="BP141" s="7"/>
-      <c r="BQ141" s="7"/>
-      <c r="BR141" s="7"/>
+      <c r="BQ141" s="19"/>
+      <c r="BR141" s="19"/>
       <c r="BS141" s="7"/>
       <c r="BT141" s="7"/>
       <c r="BU141" s="7"/>
@@ -13578,7 +13567,7 @@
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
-      <c r="M142" s="30"/>
+      <c r="M142" s="19"/>
       <c r="N142" s="7"/>
       <c r="O142" s="7"/>
       <c r="P142" s="7"/>
@@ -13634,8 +13623,8 @@
       <c r="BN142" s="7"/>
       <c r="BO142" s="7"/>
       <c r="BP142" s="7"/>
-      <c r="BQ142" s="7"/>
-      <c r="BR142" s="7"/>
+      <c r="BQ142" s="19"/>
+      <c r="BR142" s="19"/>
       <c r="BS142" s="7"/>
       <c r="BT142" s="7"/>
       <c r="BU142" s="7"/>
@@ -13661,7 +13650,7 @@
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
-      <c r="M143" s="30"/>
+      <c r="M143" s="19"/>
       <c r="N143" s="7"/>
       <c r="O143" s="7"/>
       <c r="P143" s="7"/>
@@ -13717,8 +13706,8 @@
       <c r="BN143" s="7"/>
       <c r="BO143" s="7"/>
       <c r="BP143" s="7"/>
-      <c r="BQ143" s="7"/>
-      <c r="BR143" s="7"/>
+      <c r="BQ143" s="19"/>
+      <c r="BR143" s="19"/>
       <c r="BS143" s="7"/>
       <c r="BT143" s="7"/>
       <c r="BU143" s="7"/>
@@ -13744,7 +13733,7 @@
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
-      <c r="M144" s="30"/>
+      <c r="M144" s="19"/>
       <c r="N144" s="7"/>
       <c r="O144" s="7"/>
       <c r="P144" s="7"/>
@@ -13800,8 +13789,8 @@
       <c r="BN144" s="7"/>
       <c r="BO144" s="7"/>
       <c r="BP144" s="7"/>
-      <c r="BQ144" s="7"/>
-      <c r="BR144" s="7"/>
+      <c r="BQ144" s="19"/>
+      <c r="BR144" s="19"/>
       <c r="BS144" s="7"/>
       <c r="BT144" s="7"/>
       <c r="BU144" s="7"/>
@@ -13827,7 +13816,7 @@
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
-      <c r="M145" s="30"/>
+      <c r="M145" s="19"/>
       <c r="N145" s="7"/>
       <c r="O145" s="7"/>
       <c r="P145" s="7"/>
@@ -13883,8 +13872,8 @@
       <c r="BN145" s="7"/>
       <c r="BO145" s="7"/>
       <c r="BP145" s="7"/>
-      <c r="BQ145" s="7"/>
-      <c r="BR145" s="7"/>
+      <c r="BQ145" s="19"/>
+      <c r="BR145" s="19"/>
       <c r="BS145" s="7"/>
       <c r="BT145" s="7"/>
       <c r="BU145" s="7"/>
@@ -13910,7 +13899,7 @@
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
-      <c r="M146" s="30"/>
+      <c r="M146" s="19"/>
       <c r="N146" s="7"/>
       <c r="O146" s="7"/>
       <c r="P146" s="7"/>
@@ -13966,8 +13955,8 @@
       <c r="BN146" s="7"/>
       <c r="BO146" s="7"/>
       <c r="BP146" s="7"/>
-      <c r="BQ146" s="7"/>
-      <c r="BR146" s="7"/>
+      <c r="BQ146" s="19"/>
+      <c r="BR146" s="19"/>
       <c r="BS146" s="7"/>
       <c r="BT146" s="7"/>
       <c r="BU146" s="7"/>
@@ -13993,7 +13982,7 @@
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
-      <c r="M147" s="30"/>
+      <c r="M147" s="19"/>
       <c r="N147" s="7"/>
       <c r="O147" s="7"/>
       <c r="P147" s="7"/>
@@ -14049,8 +14038,8 @@
       <c r="BN147" s="7"/>
       <c r="BO147" s="7"/>
       <c r="BP147" s="7"/>
-      <c r="BQ147" s="7"/>
-      <c r="BR147" s="7"/>
+      <c r="BQ147" s="19"/>
+      <c r="BR147" s="19"/>
       <c r="BS147" s="7"/>
       <c r="BT147" s="7"/>
       <c r="BU147" s="7"/>
@@ -14076,7 +14065,7 @@
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
-      <c r="M148" s="30"/>
+      <c r="M148" s="19"/>
       <c r="N148" s="7"/>
       <c r="O148" s="7"/>
       <c r="P148" s="7"/>
@@ -14132,8 +14121,8 @@
       <c r="BN148" s="7"/>
       <c r="BO148" s="7"/>
       <c r="BP148" s="7"/>
-      <c r="BQ148" s="7"/>
-      <c r="BR148" s="7"/>
+      <c r="BQ148" s="19"/>
+      <c r="BR148" s="19"/>
       <c r="BS148" s="7"/>
       <c r="BT148" s="7"/>
       <c r="BU148" s="7"/>
@@ -14159,7 +14148,7 @@
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
-      <c r="M149" s="30"/>
+      <c r="M149" s="19"/>
       <c r="N149" s="7"/>
       <c r="O149" s="7"/>
       <c r="P149" s="7"/>
@@ -14215,8 +14204,8 @@
       <c r="BN149" s="7"/>
       <c r="BO149" s="7"/>
       <c r="BP149" s="7"/>
-      <c r="BQ149" s="7"/>
-      <c r="BR149" s="7"/>
+      <c r="BQ149" s="19"/>
+      <c r="BR149" s="19"/>
       <c r="BS149" s="7"/>
       <c r="BT149" s="7"/>
       <c r="BU149" s="7"/>
@@ -14242,7 +14231,7 @@
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
-      <c r="M150" s="30"/>
+      <c r="M150" s="19"/>
       <c r="N150" s="7"/>
       <c r="O150" s="7"/>
       <c r="P150" s="7"/>
@@ -14298,8 +14287,8 @@
       <c r="BN150" s="7"/>
       <c r="BO150" s="7"/>
       <c r="BP150" s="7"/>
-      <c r="BQ150" s="7"/>
-      <c r="BR150" s="7"/>
+      <c r="BQ150" s="19"/>
+      <c r="BR150" s="19"/>
       <c r="BS150" s="7"/>
       <c r="BT150" s="7"/>
       <c r="BU150" s="7"/>
@@ -14325,7 +14314,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
-      <c r="M151" s="30"/>
+      <c r="M151" s="19"/>
       <c r="N151" s="7"/>
       <c r="O151" s="7"/>
       <c r="P151" s="7"/>
@@ -14381,8 +14370,8 @@
       <c r="BN151" s="7"/>
       <c r="BO151" s="7"/>
       <c r="BP151" s="7"/>
-      <c r="BQ151" s="7"/>
-      <c r="BR151" s="7"/>
+      <c r="BQ151" s="19"/>
+      <c r="BR151" s="19"/>
       <c r="BS151" s="7"/>
       <c r="BT151" s="7"/>
       <c r="BU151" s="7"/>
@@ -14408,7 +14397,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
-      <c r="M152" s="30"/>
+      <c r="M152" s="19"/>
       <c r="N152" s="7"/>
       <c r="O152" s="7"/>
       <c r="P152" s="7"/>
@@ -14464,8 +14453,8 @@
       <c r="BN152" s="7"/>
       <c r="BO152" s="7"/>
       <c r="BP152" s="7"/>
-      <c r="BQ152" s="7"/>
-      <c r="BR152" s="7"/>
+      <c r="BQ152" s="19"/>
+      <c r="BR152" s="19"/>
       <c r="BS152" s="7"/>
       <c r="BT152" s="7"/>
       <c r="BU152" s="7"/>
@@ -14491,7 +14480,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
-      <c r="M153" s="30"/>
+      <c r="M153" s="19"/>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
       <c r="P153" s="7"/>
@@ -14547,8 +14536,8 @@
       <c r="BN153" s="7"/>
       <c r="BO153" s="7"/>
       <c r="BP153" s="7"/>
-      <c r="BQ153" s="7"/>
-      <c r="BR153" s="7"/>
+      <c r="BQ153" s="19"/>
+      <c r="BR153" s="19"/>
       <c r="BS153" s="7"/>
       <c r="BT153" s="7"/>
       <c r="BU153" s="7"/>
@@ -14574,7 +14563,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
-      <c r="M154" s="30"/>
+      <c r="M154" s="19"/>
       <c r="N154" s="7"/>
       <c r="O154" s="7"/>
       <c r="P154" s="7"/>
@@ -14630,8 +14619,8 @@
       <c r="BN154" s="7"/>
       <c r="BO154" s="7"/>
       <c r="BP154" s="7"/>
-      <c r="BQ154" s="7"/>
-      <c r="BR154" s="7"/>
+      <c r="BQ154" s="19"/>
+      <c r="BR154" s="19"/>
       <c r="BS154" s="7"/>
       <c r="BT154" s="7"/>
       <c r="BU154" s="7"/>
@@ -14657,7 +14646,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
-      <c r="M155" s="30"/>
+      <c r="M155" s="19"/>
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
       <c r="P155" s="7"/>
@@ -14713,8 +14702,8 @@
       <c r="BN155" s="7"/>
       <c r="BO155" s="7"/>
       <c r="BP155" s="7"/>
-      <c r="BQ155" s="7"/>
-      <c r="BR155" s="7"/>
+      <c r="BQ155" s="19"/>
+      <c r="BR155" s="19"/>
       <c r="BS155" s="7"/>
       <c r="BT155" s="7"/>
       <c r="BU155" s="7"/>
@@ -14740,7 +14729,7 @@
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
-      <c r="M156" s="30"/>
+      <c r="M156" s="19"/>
       <c r="N156" s="7"/>
       <c r="O156" s="7"/>
       <c r="P156" s="7"/>
@@ -14796,8 +14785,8 @@
       <c r="BN156" s="7"/>
       <c r="BO156" s="7"/>
       <c r="BP156" s="7"/>
-      <c r="BQ156" s="7"/>
-      <c r="BR156" s="7"/>
+      <c r="BQ156" s="19"/>
+      <c r="BR156" s="19"/>
       <c r="BS156" s="7"/>
       <c r="BT156" s="7"/>
       <c r="BU156" s="7"/>
@@ -14823,7 +14812,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
-      <c r="M157" s="30"/>
+      <c r="M157" s="19"/>
       <c r="N157" s="7"/>
       <c r="O157" s="7"/>
       <c r="P157" s="7"/>
@@ -14879,8 +14868,8 @@
       <c r="BN157" s="7"/>
       <c r="BO157" s="7"/>
       <c r="BP157" s="7"/>
-      <c r="BQ157" s="7"/>
-      <c r="BR157" s="7"/>
+      <c r="BQ157" s="19"/>
+      <c r="BR157" s="19"/>
       <c r="BS157" s="7"/>
       <c r="BT157" s="7"/>
       <c r="BU157" s="7"/>
@@ -14906,7 +14895,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
-      <c r="M158" s="30"/>
+      <c r="M158" s="19"/>
       <c r="N158" s="7"/>
       <c r="O158" s="7"/>
       <c r="P158" s="7"/>
@@ -14962,8 +14951,8 @@
       <c r="BN158" s="7"/>
       <c r="BO158" s="7"/>
       <c r="BP158" s="7"/>
-      <c r="BQ158" s="7"/>
-      <c r="BR158" s="7"/>
+      <c r="BQ158" s="19"/>
+      <c r="BR158" s="19"/>
       <c r="BS158" s="7"/>
       <c r="BT158" s="7"/>
       <c r="BU158" s="7"/>
@@ -14989,7 +14978,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
-      <c r="M159" s="30"/>
+      <c r="M159" s="19"/>
       <c r="N159" s="7"/>
       <c r="O159" s="7"/>
       <c r="P159" s="7"/>
@@ -15045,8 +15034,8 @@
       <c r="BN159" s="7"/>
       <c r="BO159" s="7"/>
       <c r="BP159" s="7"/>
-      <c r="BQ159" s="7"/>
-      <c r="BR159" s="7"/>
+      <c r="BQ159" s="19"/>
+      <c r="BR159" s="19"/>
       <c r="BS159" s="7"/>
       <c r="BT159" s="7"/>
       <c r="BU159" s="7"/>
@@ -15072,7 +15061,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
-      <c r="M160" s="30"/>
+      <c r="M160" s="19"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
@@ -15128,8 +15117,8 @@
       <c r="BN160" s="7"/>
       <c r="BO160" s="7"/>
       <c r="BP160" s="7"/>
-      <c r="BQ160" s="7"/>
-      <c r="BR160" s="7"/>
+      <c r="BQ160" s="19"/>
+      <c r="BR160" s="19"/>
       <c r="BS160" s="7"/>
       <c r="BT160" s="7"/>
       <c r="BU160" s="7"/>
@@ -15155,7 +15144,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
-      <c r="M161" s="30"/>
+      <c r="M161" s="19"/>
       <c r="N161" s="7"/>
       <c r="O161" s="7"/>
       <c r="P161" s="7"/>
@@ -15211,8 +15200,8 @@
       <c r="BN161" s="7"/>
       <c r="BO161" s="7"/>
       <c r="BP161" s="7"/>
-      <c r="BQ161" s="7"/>
-      <c r="BR161" s="7"/>
+      <c r="BQ161" s="19"/>
+      <c r="BR161" s="19"/>
       <c r="BS161" s="7"/>
       <c r="BT161" s="7"/>
       <c r="BU161" s="7"/>
@@ -15238,7 +15227,7 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
-      <c r="M162" s="30"/>
+      <c r="M162" s="19"/>
       <c r="N162" s="7"/>
       <c r="O162" s="7"/>
       <c r="P162" s="7"/>
@@ -15294,8 +15283,8 @@
       <c r="BN162" s="7"/>
       <c r="BO162" s="7"/>
       <c r="BP162" s="7"/>
-      <c r="BQ162" s="7"/>
-      <c r="BR162" s="7"/>
+      <c r="BQ162" s="19"/>
+      <c r="BR162" s="19"/>
       <c r="BS162" s="7"/>
       <c r="BT162" s="7"/>
       <c r="BU162" s="7"/>
@@ -15321,7 +15310,7 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
-      <c r="M163" s="30"/>
+      <c r="M163" s="19"/>
       <c r="N163" s="7"/>
       <c r="O163" s="7"/>
       <c r="P163" s="7"/>
@@ -15377,8 +15366,8 @@
       <c r="BN163" s="7"/>
       <c r="BO163" s="7"/>
       <c r="BP163" s="7"/>
-      <c r="BQ163" s="7"/>
-      <c r="BR163" s="7"/>
+      <c r="BQ163" s="19"/>
+      <c r="BR163" s="19"/>
       <c r="BS163" s="7"/>
       <c r="BT163" s="7"/>
       <c r="BU163" s="7"/>
@@ -15404,7 +15393,7 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
-      <c r="M164" s="30"/>
+      <c r="M164" s="19"/>
       <c r="N164" s="7"/>
       <c r="O164" s="7"/>
       <c r="P164" s="7"/>
@@ -15460,8 +15449,8 @@
       <c r="BN164" s="7"/>
       <c r="BO164" s="7"/>
       <c r="BP164" s="7"/>
-      <c r="BQ164" s="7"/>
-      <c r="BR164" s="7"/>
+      <c r="BQ164" s="19"/>
+      <c r="BR164" s="19"/>
       <c r="BS164" s="7"/>
       <c r="BT164" s="7"/>
       <c r="BU164" s="7"/>
@@ -15487,7 +15476,7 @@
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
-      <c r="M165" s="30"/>
+      <c r="M165" s="19"/>
       <c r="N165" s="7"/>
       <c r="O165" s="7"/>
       <c r="P165" s="7"/>
@@ -15543,8 +15532,8 @@
       <c r="BN165" s="7"/>
       <c r="BO165" s="7"/>
       <c r="BP165" s="7"/>
-      <c r="BQ165" s="7"/>
-      <c r="BR165" s="7"/>
+      <c r="BQ165" s="19"/>
+      <c r="BR165" s="19"/>
       <c r="BS165" s="7"/>
       <c r="BT165" s="7"/>
       <c r="BU165" s="7"/>
@@ -15570,7 +15559,7 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
-      <c r="M166" s="30"/>
+      <c r="M166" s="19"/>
       <c r="N166" s="7"/>
       <c r="O166" s="7"/>
       <c r="P166" s="7"/>
@@ -15626,8 +15615,8 @@
       <c r="BN166" s="7"/>
       <c r="BO166" s="7"/>
       <c r="BP166" s="7"/>
-      <c r="BQ166" s="7"/>
-      <c r="BR166" s="7"/>
+      <c r="BQ166" s="19"/>
+      <c r="BR166" s="19"/>
       <c r="BS166" s="7"/>
       <c r="BT166" s="7"/>
       <c r="BU166" s="7"/>
@@ -15653,7 +15642,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
-      <c r="M167" s="30"/>
+      <c r="M167" s="19"/>
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
       <c r="P167" s="7"/>
@@ -15709,8 +15698,8 @@
       <c r="BN167" s="7"/>
       <c r="BO167" s="7"/>
       <c r="BP167" s="7"/>
-      <c r="BQ167" s="7"/>
-      <c r="BR167" s="7"/>
+      <c r="BQ167" s="19"/>
+      <c r="BR167" s="19"/>
       <c r="BS167" s="7"/>
       <c r="BT167" s="7"/>
       <c r="BU167" s="7"/>
@@ -15736,7 +15725,7 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
-      <c r="M168" s="30"/>
+      <c r="M168" s="19"/>
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
       <c r="P168" s="7"/>
@@ -15792,8 +15781,8 @@
       <c r="BN168" s="7"/>
       <c r="BO168" s="7"/>
       <c r="BP168" s="7"/>
-      <c r="BQ168" s="7"/>
-      <c r="BR168" s="7"/>
+      <c r="BQ168" s="19"/>
+      <c r="BR168" s="19"/>
       <c r="BS168" s="7"/>
       <c r="BT168" s="7"/>
       <c r="BU168" s="7"/>
@@ -15819,7 +15808,7 @@
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
-      <c r="M169" s="30"/>
+      <c r="M169" s="19"/>
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
       <c r="P169" s="7"/>
@@ -15875,8 +15864,8 @@
       <c r="BN169" s="7"/>
       <c r="BO169" s="7"/>
       <c r="BP169" s="7"/>
-      <c r="BQ169" s="7"/>
-      <c r="BR169" s="7"/>
+      <c r="BQ169" s="19"/>
+      <c r="BR169" s="19"/>
       <c r="BS169" s="7"/>
       <c r="BT169" s="7"/>
       <c r="BU169" s="7"/>
@@ -15902,7 +15891,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
-      <c r="M170" s="30"/>
+      <c r="M170" s="19"/>
       <c r="N170" s="7"/>
       <c r="O170" s="7"/>
       <c r="P170" s="7"/>
@@ -15958,8 +15947,8 @@
       <c r="BN170" s="7"/>
       <c r="BO170" s="7"/>
       <c r="BP170" s="7"/>
-      <c r="BQ170" s="7"/>
-      <c r="BR170" s="7"/>
+      <c r="BQ170" s="19"/>
+      <c r="BR170" s="19"/>
       <c r="BS170" s="7"/>
       <c r="BT170" s="7"/>
       <c r="BU170" s="7"/>
@@ -15985,7 +15974,7 @@
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
-      <c r="M171" s="30"/>
+      <c r="M171" s="19"/>
       <c r="N171" s="7"/>
       <c r="O171" s="7"/>
       <c r="P171" s="7"/>
@@ -16041,8 +16030,8 @@
       <c r="BN171" s="7"/>
       <c r="BO171" s="7"/>
       <c r="BP171" s="7"/>
-      <c r="BQ171" s="7"/>
-      <c r="BR171" s="7"/>
+      <c r="BQ171" s="19"/>
+      <c r="BR171" s="19"/>
       <c r="BS171" s="7"/>
       <c r="BT171" s="7"/>
       <c r="BU171" s="7"/>
@@ -16068,7 +16057,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
-      <c r="M172" s="30"/>
+      <c r="M172" s="19"/>
       <c r="N172" s="7"/>
       <c r="O172" s="7"/>
       <c r="P172" s="7"/>
@@ -16124,8 +16113,8 @@
       <c r="BN172" s="7"/>
       <c r="BO172" s="7"/>
       <c r="BP172" s="7"/>
-      <c r="BQ172" s="7"/>
-      <c r="BR172" s="7"/>
+      <c r="BQ172" s="19"/>
+      <c r="BR172" s="19"/>
       <c r="BS172" s="7"/>
       <c r="BT172" s="7"/>
       <c r="BU172" s="7"/>
@@ -16151,7 +16140,7 @@
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
-      <c r="M173" s="30"/>
+      <c r="M173" s="19"/>
       <c r="N173" s="7"/>
       <c r="O173" s="7"/>
       <c r="P173" s="7"/>
@@ -16207,8 +16196,8 @@
       <c r="BN173" s="7"/>
       <c r="BO173" s="7"/>
       <c r="BP173" s="7"/>
-      <c r="BQ173" s="7"/>
-      <c r="BR173" s="7"/>
+      <c r="BQ173" s="19"/>
+      <c r="BR173" s="19"/>
       <c r="BS173" s="7"/>
       <c r="BT173" s="7"/>
       <c r="BU173" s="7"/>
@@ -16234,7 +16223,7 @@
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
-      <c r="M174" s="30"/>
+      <c r="M174" s="19"/>
       <c r="N174" s="7"/>
       <c r="O174" s="7"/>
       <c r="P174" s="7"/>
@@ -16290,8 +16279,8 @@
       <c r="BN174" s="7"/>
       <c r="BO174" s="7"/>
       <c r="BP174" s="7"/>
-      <c r="BQ174" s="7"/>
-      <c r="BR174" s="7"/>
+      <c r="BQ174" s="19"/>
+      <c r="BR174" s="19"/>
       <c r="BS174" s="7"/>
       <c r="BT174" s="7"/>
       <c r="BU174" s="7"/>
@@ -16317,7 +16306,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
-      <c r="M175" s="30"/>
+      <c r="M175" s="19"/>
       <c r="N175" s="7"/>
       <c r="O175" s="7"/>
       <c r="P175" s="7"/>
@@ -16373,8 +16362,8 @@
       <c r="BN175" s="7"/>
       <c r="BO175" s="7"/>
       <c r="BP175" s="7"/>
-      <c r="BQ175" s="7"/>
-      <c r="BR175" s="7"/>
+      <c r="BQ175" s="19"/>
+      <c r="BR175" s="19"/>
       <c r="BS175" s="7"/>
       <c r="BT175" s="7"/>
       <c r="BU175" s="7"/>
@@ -16400,7 +16389,7 @@
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
-      <c r="M176" s="30"/>
+      <c r="M176" s="19"/>
       <c r="N176" s="7"/>
       <c r="O176" s="7"/>
       <c r="P176" s="7"/>
@@ -16456,8 +16445,8 @@
       <c r="BN176" s="7"/>
       <c r="BO176" s="7"/>
       <c r="BP176" s="7"/>
-      <c r="BQ176" s="7"/>
-      <c r="BR176" s="7"/>
+      <c r="BQ176" s="19"/>
+      <c r="BR176" s="19"/>
       <c r="BS176" s="7"/>
       <c r="BT176" s="7"/>
       <c r="BU176" s="7"/>
@@ -16483,7 +16472,7 @@
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
-      <c r="M177" s="30"/>
+      <c r="M177" s="19"/>
       <c r="N177" s="7"/>
       <c r="O177" s="7"/>
       <c r="P177" s="7"/>
@@ -16539,8 +16528,8 @@
       <c r="BN177" s="7"/>
       <c r="BO177" s="7"/>
       <c r="BP177" s="7"/>
-      <c r="BQ177" s="7"/>
-      <c r="BR177" s="7"/>
+      <c r="BQ177" s="19"/>
+      <c r="BR177" s="19"/>
       <c r="BS177" s="7"/>
       <c r="BT177" s="7"/>
       <c r="BU177" s="7"/>
@@ -16566,7 +16555,7 @@
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
-      <c r="M178" s="30"/>
+      <c r="M178" s="19"/>
       <c r="N178" s="7"/>
       <c r="O178" s="7"/>
       <c r="P178" s="7"/>
@@ -16622,8 +16611,8 @@
       <c r="BN178" s="7"/>
       <c r="BO178" s="7"/>
       <c r="BP178" s="7"/>
-      <c r="BQ178" s="7"/>
-      <c r="BR178" s="7"/>
+      <c r="BQ178" s="19"/>
+      <c r="BR178" s="19"/>
       <c r="BS178" s="7"/>
       <c r="BT178" s="7"/>
       <c r="BU178" s="7"/>
@@ -16649,7 +16638,7 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
-      <c r="M179" s="30"/>
+      <c r="M179" s="19"/>
       <c r="N179" s="7"/>
       <c r="O179" s="7"/>
       <c r="P179" s="7"/>
@@ -16705,8 +16694,8 @@
       <c r="BN179" s="7"/>
       <c r="BO179" s="7"/>
       <c r="BP179" s="7"/>
-      <c r="BQ179" s="7"/>
-      <c r="BR179" s="7"/>
+      <c r="BQ179" s="19"/>
+      <c r="BR179" s="19"/>
       <c r="BS179" s="7"/>
       <c r="BT179" s="7"/>
       <c r="BU179" s="7"/>
@@ -16732,7 +16721,7 @@
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
-      <c r="M180" s="30"/>
+      <c r="M180" s="19"/>
       <c r="N180" s="7"/>
       <c r="O180" s="7"/>
       <c r="P180" s="7"/>
@@ -16788,8 +16777,8 @@
       <c r="BN180" s="7"/>
       <c r="BO180" s="7"/>
       <c r="BP180" s="7"/>
-      <c r="BQ180" s="7"/>
-      <c r="BR180" s="7"/>
+      <c r="BQ180" s="19"/>
+      <c r="BR180" s="19"/>
       <c r="BS180" s="7"/>
       <c r="BT180" s="7"/>
       <c r="BU180" s="7"/>
@@ -16815,7 +16804,7 @@
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
-      <c r="M181" s="30"/>
+      <c r="M181" s="19"/>
       <c r="N181" s="7"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
@@ -16871,8 +16860,8 @@
       <c r="BN181" s="7"/>
       <c r="BO181" s="7"/>
       <c r="BP181" s="7"/>
-      <c r="BQ181" s="7"/>
-      <c r="BR181" s="7"/>
+      <c r="BQ181" s="19"/>
+      <c r="BR181" s="19"/>
       <c r="BS181" s="7"/>
       <c r="BT181" s="7"/>
       <c r="BU181" s="7"/>
@@ -16898,7 +16887,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
-      <c r="M182" s="30"/>
+      <c r="M182" s="19"/>
       <c r="N182" s="7"/>
       <c r="O182" s="7"/>
       <c r="P182" s="7"/>
@@ -16954,8 +16943,8 @@
       <c r="BN182" s="7"/>
       <c r="BO182" s="7"/>
       <c r="BP182" s="7"/>
-      <c r="BQ182" s="7"/>
-      <c r="BR182" s="7"/>
+      <c r="BQ182" s="19"/>
+      <c r="BR182" s="19"/>
       <c r="BS182" s="7"/>
       <c r="BT182" s="7"/>
       <c r="BU182" s="7"/>
@@ -16981,7 +16970,7 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
-      <c r="M183" s="30"/>
+      <c r="M183" s="19"/>
       <c r="N183" s="7"/>
       <c r="O183" s="7"/>
       <c r="P183" s="7"/>
@@ -17037,8 +17026,8 @@
       <c r="BN183" s="7"/>
       <c r="BO183" s="7"/>
       <c r="BP183" s="7"/>
-      <c r="BQ183" s="7"/>
-      <c r="BR183" s="7"/>
+      <c r="BQ183" s="19"/>
+      <c r="BR183" s="19"/>
       <c r="BS183" s="7"/>
       <c r="BT183" s="7"/>
       <c r="BU183" s="7"/>
@@ -17064,7 +17053,7 @@
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
-      <c r="M184" s="30"/>
+      <c r="M184" s="19"/>
       <c r="N184" s="7"/>
       <c r="O184" s="7"/>
       <c r="P184" s="7"/>
@@ -17120,8 +17109,8 @@
       <c r="BN184" s="7"/>
       <c r="BO184" s="7"/>
       <c r="BP184" s="7"/>
-      <c r="BQ184" s="7"/>
-      <c r="BR184" s="7"/>
+      <c r="BQ184" s="19"/>
+      <c r="BR184" s="19"/>
       <c r="BS184" s="7"/>
       <c r="BT184" s="7"/>
       <c r="BU184" s="7"/>
@@ -17147,7 +17136,7 @@
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
-      <c r="M185" s="30"/>
+      <c r="M185" s="19"/>
       <c r="N185" s="7"/>
       <c r="O185" s="7"/>
       <c r="P185" s="7"/>
@@ -17203,8 +17192,8 @@
       <c r="BN185" s="7"/>
       <c r="BO185" s="7"/>
       <c r="BP185" s="7"/>
-      <c r="BQ185" s="7"/>
-      <c r="BR185" s="7"/>
+      <c r="BQ185" s="19"/>
+      <c r="BR185" s="19"/>
       <c r="BS185" s="7"/>
       <c r="BT185" s="7"/>
       <c r="BU185" s="7"/>
@@ -17230,7 +17219,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
-      <c r="M186" s="30"/>
+      <c r="M186" s="19"/>
       <c r="N186" s="7"/>
       <c r="O186" s="7"/>
       <c r="P186" s="7"/>
@@ -17286,8 +17275,8 @@
       <c r="BN186" s="7"/>
       <c r="BO186" s="7"/>
       <c r="BP186" s="7"/>
-      <c r="BQ186" s="7"/>
-      <c r="BR186" s="7"/>
+      <c r="BQ186" s="19"/>
+      <c r="BR186" s="19"/>
       <c r="BS186" s="7"/>
       <c r="BT186" s="7"/>
       <c r="BU186" s="7"/>
@@ -17313,7 +17302,7 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
-      <c r="M187" s="30"/>
+      <c r="M187" s="19"/>
       <c r="N187" s="7"/>
       <c r="O187" s="7"/>
       <c r="P187" s="7"/>
@@ -17369,8 +17358,8 @@
       <c r="BN187" s="7"/>
       <c r="BO187" s="7"/>
       <c r="BP187" s="7"/>
-      <c r="BQ187" s="7"/>
-      <c r="BR187" s="7"/>
+      <c r="BQ187" s="19"/>
+      <c r="BR187" s="19"/>
       <c r="BS187" s="7"/>
       <c r="BT187" s="7"/>
       <c r="BU187" s="7"/>
@@ -17396,7 +17385,7 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="30"/>
+      <c r="M188" s="19"/>
       <c r="N188" s="7"/>
       <c r="O188" s="7"/>
       <c r="P188" s="7"/>
@@ -17452,8 +17441,8 @@
       <c r="BN188" s="7"/>
       <c r="BO188" s="7"/>
       <c r="BP188" s="7"/>
-      <c r="BQ188" s="7"/>
-      <c r="BR188" s="7"/>
+      <c r="BQ188" s="19"/>
+      <c r="BR188" s="19"/>
       <c r="BS188" s="7"/>
       <c r="BT188" s="7"/>
       <c r="BU188" s="7"/>
@@ -17479,7 +17468,7 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
-      <c r="M189" s="30"/>
+      <c r="M189" s="19"/>
       <c r="N189" s="7"/>
       <c r="O189" s="7"/>
       <c r="P189" s="7"/>
@@ -17535,8 +17524,8 @@
       <c r="BN189" s="7"/>
       <c r="BO189" s="7"/>
       <c r="BP189" s="7"/>
-      <c r="BQ189" s="7"/>
-      <c r="BR189" s="7"/>
+      <c r="BQ189" s="19"/>
+      <c r="BR189" s="19"/>
       <c r="BS189" s="7"/>
       <c r="BT189" s="7"/>
       <c r="BU189" s="7"/>
@@ -17562,7 +17551,7 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
-      <c r="M190" s="30"/>
+      <c r="M190" s="19"/>
       <c r="N190" s="7"/>
       <c r="O190" s="7"/>
       <c r="P190" s="7"/>
@@ -17618,8 +17607,8 @@
       <c r="BN190" s="7"/>
       <c r="BO190" s="7"/>
       <c r="BP190" s="7"/>
-      <c r="BQ190" s="7"/>
-      <c r="BR190" s="7"/>
+      <c r="BQ190" s="19"/>
+      <c r="BR190" s="19"/>
       <c r="BS190" s="7"/>
       <c r="BT190" s="7"/>
       <c r="BU190" s="7"/>
@@ -17645,7 +17634,7 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="30"/>
+      <c r="M191" s="19"/>
       <c r="N191" s="7"/>
       <c r="O191" s="7"/>
       <c r="P191" s="7"/>
@@ -17701,8 +17690,8 @@
       <c r="BN191" s="7"/>
       <c r="BO191" s="7"/>
       <c r="BP191" s="7"/>
-      <c r="BQ191" s="7"/>
-      <c r="BR191" s="7"/>
+      <c r="BQ191" s="19"/>
+      <c r="BR191" s="19"/>
       <c r="BS191" s="7"/>
       <c r="BT191" s="7"/>
       <c r="BU191" s="7"/>
@@ -17728,7 +17717,7 @@
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
-      <c r="M192" s="30"/>
+      <c r="M192" s="19"/>
       <c r="N192" s="7"/>
       <c r="O192" s="7"/>
       <c r="P192" s="7"/>
@@ -17784,8 +17773,8 @@
       <c r="BN192" s="7"/>
       <c r="BO192" s="7"/>
       <c r="BP192" s="7"/>
-      <c r="BQ192" s="7"/>
-      <c r="BR192" s="7"/>
+      <c r="BQ192" s="19"/>
+      <c r="BR192" s="19"/>
       <c r="BS192" s="7"/>
       <c r="BT192" s="7"/>
       <c r="BU192" s="7"/>
@@ -17811,7 +17800,7 @@
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
-      <c r="M193" s="30"/>
+      <c r="M193" s="19"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7"/>
       <c r="P193" s="7"/>
@@ -17867,8 +17856,8 @@
       <c r="BN193" s="7"/>
       <c r="BO193" s="7"/>
       <c r="BP193" s="7"/>
-      <c r="BQ193" s="7"/>
-      <c r="BR193" s="7"/>
+      <c r="BQ193" s="19"/>
+      <c r="BR193" s="19"/>
       <c r="BS193" s="7"/>
       <c r="BT193" s="7"/>
       <c r="BU193" s="7"/>
@@ -17894,7 +17883,7 @@
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="30"/>
+      <c r="M194" s="19"/>
       <c r="N194" s="7"/>
       <c r="O194" s="7"/>
       <c r="P194" s="7"/>
@@ -17950,8 +17939,8 @@
       <c r="BN194" s="7"/>
       <c r="BO194" s="7"/>
       <c r="BP194" s="7"/>
-      <c r="BQ194" s="7"/>
-      <c r="BR194" s="7"/>
+      <c r="BQ194" s="19"/>
+      <c r="BR194" s="19"/>
       <c r="BS194" s="7"/>
       <c r="BT194" s="7"/>
       <c r="BU194" s="7"/>
@@ -17977,7 +17966,7 @@
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
-      <c r="M195" s="30"/>
+      <c r="M195" s="19"/>
       <c r="N195" s="7"/>
       <c r="O195" s="7"/>
       <c r="P195" s="7"/>
@@ -18033,8 +18022,8 @@
       <c r="BN195" s="7"/>
       <c r="BO195" s="7"/>
       <c r="BP195" s="7"/>
-      <c r="BQ195" s="7"/>
-      <c r="BR195" s="7"/>
+      <c r="BQ195" s="19"/>
+      <c r="BR195" s="19"/>
       <c r="BS195" s="7"/>
       <c r="BT195" s="7"/>
       <c r="BU195" s="7"/>
@@ -18060,7 +18049,7 @@
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
-      <c r="M196" s="30"/>
+      <c r="M196" s="19"/>
       <c r="N196" s="7"/>
       <c r="O196" s="7"/>
       <c r="P196" s="7"/>
@@ -18116,8 +18105,8 @@
       <c r="BN196" s="7"/>
       <c r="BO196" s="7"/>
       <c r="BP196" s="7"/>
-      <c r="BQ196" s="7"/>
-      <c r="BR196" s="7"/>
+      <c r="BQ196" s="19"/>
+      <c r="BR196" s="19"/>
       <c r="BS196" s="7"/>
       <c r="BT196" s="7"/>
       <c r="BU196" s="7"/>
@@ -18143,7 +18132,7 @@
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
-      <c r="M197" s="30"/>
+      <c r="M197" s="19"/>
       <c r="N197" s="7"/>
       <c r="O197" s="7"/>
       <c r="P197" s="7"/>
@@ -18199,8 +18188,8 @@
       <c r="BN197" s="7"/>
       <c r="BO197" s="7"/>
       <c r="BP197" s="7"/>
-      <c r="BQ197" s="7"/>
-      <c r="BR197" s="7"/>
+      <c r="BQ197" s="19"/>
+      <c r="BR197" s="19"/>
       <c r="BS197" s="7"/>
       <c r="BT197" s="7"/>
       <c r="BU197" s="7"/>
@@ -18226,7 +18215,7 @@
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
-      <c r="M198" s="30"/>
+      <c r="M198" s="19"/>
       <c r="N198" s="7"/>
       <c r="O198" s="7"/>
       <c r="P198" s="7"/>
@@ -18282,8 +18271,8 @@
       <c r="BN198" s="7"/>
       <c r="BO198" s="7"/>
       <c r="BP198" s="7"/>
-      <c r="BQ198" s="7"/>
-      <c r="BR198" s="7"/>
+      <c r="BQ198" s="19"/>
+      <c r="BR198" s="19"/>
       <c r="BS198" s="7"/>
       <c r="BT198" s="7"/>
       <c r="BU198" s="7"/>
@@ -18309,7 +18298,7 @@
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
-      <c r="M199" s="30"/>
+      <c r="M199" s="19"/>
       <c r="N199" s="7"/>
       <c r="O199" s="7"/>
       <c r="P199" s="7"/>
@@ -18365,8 +18354,8 @@
       <c r="BN199" s="7"/>
       <c r="BO199" s="7"/>
       <c r="BP199" s="7"/>
-      <c r="BQ199" s="7"/>
-      <c r="BR199" s="7"/>
+      <c r="BQ199" s="19"/>
+      <c r="BR199" s="19"/>
       <c r="BS199" s="7"/>
       <c r="BT199" s="7"/>
       <c r="BU199" s="7"/>
@@ -18392,7 +18381,7 @@
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
-      <c r="M200" s="30"/>
+      <c r="M200" s="19"/>
       <c r="N200" s="7"/>
       <c r="O200" s="7"/>
       <c r="P200" s="7"/>
@@ -18448,8 +18437,8 @@
       <c r="BN200" s="7"/>
       <c r="BO200" s="7"/>
       <c r="BP200" s="7"/>
-      <c r="BQ200" s="7"/>
-      <c r="BR200" s="7"/>
+      <c r="BQ200" s="19"/>
+      <c r="BR200" s="19"/>
       <c r="BS200" s="7"/>
       <c r="BT200" s="7"/>
       <c r="BU200" s="7"/>
@@ -18475,7 +18464,7 @@
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
       <c r="L201" s="7"/>
-      <c r="M201" s="30"/>
+      <c r="M201" s="19"/>
       <c r="N201" s="7"/>
       <c r="O201" s="7"/>
       <c r="P201" s="7"/>
@@ -18531,8 +18520,8 @@
       <c r="BN201" s="7"/>
       <c r="BO201" s="7"/>
       <c r="BP201" s="7"/>
-      <c r="BQ201" s="7"/>
-      <c r="BR201" s="7"/>
+      <c r="BQ201" s="19"/>
+      <c r="BR201" s="19"/>
       <c r="BS201" s="7"/>
       <c r="BT201" s="7"/>
       <c r="BU201" s="7"/>
@@ -18555,7 +18544,7 @@
     <mergeCell ref="AT1:BO1"/>
     <mergeCell ref="BP1:BT1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU3:BY201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"在用,停止进货,停止配送,停止销售"</formula1>
